--- a/doc/benchmarks.xlsx
+++ b/doc/benchmarks.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="53">
   <si>
     <t>TickerText</t>
   </si>
@@ -172,6 +172,12 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>2.2 MoDaCo r20</t>
+  </si>
+  <si>
+    <t>Nexus One (2.2 MoDaCo r20)</t>
+  </si>
 </sst>
 </file>
 
@@ -247,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -292,35 +298,26 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -329,44 +326,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -374,8 +336,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -383,7 +349,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -397,17 +365,124 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -415,28 +490,42 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -446,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -494,10 +583,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -506,36 +607,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -543,17 +640,85 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="225">
+  <dxfs count="249">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -561,246 +726,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -922,16 +847,263 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3650,25 +3822,265 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -4387,60 +4799,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -4451,9 +4809,135 @@
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top/>
-        <bottom/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -4463,12 +4947,18 @@
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="medium">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -4476,6 +4966,20 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -4486,9 +4990,15 @@
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top/>
-        <bottom/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -4509,123 +5019,225 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="double">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="TableStyleMedium16 2" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="248"/>
+      <tableStyleElement type="headerRow" dxfId="247"/>
+      <tableStyleElement type="totalRow" dxfId="246"/>
+      <tableStyleElement type="firstColumn" dxfId="245"/>
+      <tableStyleElement type="lastColumn" dxfId="244"/>
+      <tableStyleElement type="firstRowStripe" dxfId="243"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="242"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Benchmark" displayName="Benchmark" ref="B2:K16" headerRowDxfId="224" headerRowBorderDxfId="223">
-  <autoFilter ref="B2:K16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Benchmark" displayName="Benchmark" ref="B2:K17" headerRowDxfId="241" headerRowBorderDxfId="240">
+  <autoFilter ref="B2:K17">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="9"/>
   </autoFilter>
-  <sortState ref="B3:K16">
-    <sortCondition descending="1" ref="K2:K16"/>
+  <sortState ref="B3:K17">
+    <sortCondition descending="1" ref="K2:K17"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Manufacturer" totalsRowLabel="Ergebnis" dataDxfId="222" totalsRowDxfId="221"/>
-    <tableColumn id="9" name="Model" dataDxfId="220" totalsRowDxfId="219"/>
-    <tableColumn id="8" name="Version" dataDxfId="218" totalsRowDxfId="217"/>
-    <tableColumn id="2" name="Sprite" totalsRowFunction="average" dataDxfId="216" totalsRowDxfId="215">
+    <tableColumn id="1" name="Manufacturer" totalsRowLabel="Ergebnis" dataDxfId="239" totalsRowDxfId="238"/>
+    <tableColumn id="9" name="Model" dataDxfId="237" totalsRowDxfId="236"/>
+    <tableColumn id="8" name="Version" dataDxfId="235" totalsRowDxfId="234"/>
+    <tableColumn id="2" name="Sprite" totalsRowFunction="average" dataDxfId="233" totalsRowDxfId="232">
       <calculatedColumnFormula>SUBTOTAL(101,HTC_Hero_1.5[Sprite])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Animation" totalsRowFunction="average" dataDxfId="214" totalsRowDxfId="213"/>
-    <tableColumn id="4" name="ShapeModifier" totalsRowFunction="average" dataDxfId="212" totalsRowDxfId="211"/>
-    <tableColumn id="5" name="TickerText" totalsRowFunction="average" dataDxfId="210" totalsRowDxfId="209"/>
-    <tableColumn id="6" name="ParticleSystem" totalsRowFunction="sum" dataDxfId="208" totalsRowDxfId="207"/>
-    <tableColumn id="7" name="Box2D-Physics" totalsRowFunction="sum" dataDxfId="206" totalsRowDxfId="205"/>
-    <tableColumn id="10" name="Average" totalsRowFunction="average" dataDxfId="204" totalsRowDxfId="203">
+    <tableColumn id="3" name="Animation" totalsRowFunction="average" dataDxfId="231" totalsRowDxfId="230"/>
+    <tableColumn id="4" name="ShapeModifier" totalsRowFunction="average" dataDxfId="229" totalsRowDxfId="228"/>
+    <tableColumn id="5" name="TickerText" totalsRowFunction="average" dataDxfId="227" totalsRowDxfId="226"/>
+    <tableColumn id="6" name="ParticleSystem" totalsRowFunction="sum" dataDxfId="225" totalsRowDxfId="224"/>
+    <tableColumn id="7" name="Box2D-Physics" totalsRowFunction="sum" dataDxfId="223" totalsRowDxfId="222"/>
+    <tableColumn id="10" name="Average" totalsRowFunction="average" dataDxfId="221" totalsRowDxfId="220">
       <calculatedColumnFormula>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="HTC_myTouch3G_1.6" displayName="HTC_myTouch3G_1.6" ref="A39:G39" headerRowCount="0" totalsRowShown="0" headerRowDxfId="84" dataDxfId="82" headerRowBorderDxfId="83" tableBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="HTC_Droid_Incredible_2.1" displayName="HTC_Droid_Incredible_2.1" ref="A45:G45" headerRowCount="0" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="80" dataDxfId="79"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="78" dataDxfId="77"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="76" dataDxfId="75"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="74" dataDxfId="73"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="72" dataDxfId="71"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="70" dataDxfId="69"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="68" dataDxfId="67"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="90" dataDxfId="89"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="88" dataDxfId="87"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="86" dataDxfId="85"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="84" dataDxfId="83"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="82" dataDxfId="81"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="80" dataDxfId="79"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="78" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="HTC_Droid_Incredible_2.1" displayName="HTC_Droid_Incredible_2.1" ref="A42:G42" headerRowCount="0" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="HTC_Evo_4G_Supersonic_2.1" displayName="HTC_Evo_4G_Supersonic_2.1" ref="A48:G48" headerRowCount="0" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="62" dataDxfId="61"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="60" dataDxfId="59"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="58" dataDxfId="57"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="56" dataDxfId="55"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="54" dataDxfId="53"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="52" dataDxfId="51"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="50" dataDxfId="49"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="72" dataDxfId="71"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="70" dataDxfId="69"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="68" dataDxfId="67"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="66" dataDxfId="65"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="64" dataDxfId="63"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="62" dataDxfId="61"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="60" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="HTC_Evo_4G_Supersonic_2.1" displayName="HTC_Evo_4G_Supersonic_2.1" ref="A45:G45" headerRowCount="0" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="HTC_Desire_2.1" displayName="HTC_Desire_2.1" ref="A36:G36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="44" dataDxfId="43"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="42" dataDxfId="41"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="40" dataDxfId="39"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="38" dataDxfId="37"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="36" dataDxfId="35"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="34" dataDxfId="33"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="32" dataDxfId="31"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="54" dataDxfId="53"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="52" dataDxfId="51"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="50" dataDxfId="49"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="48" dataDxfId="47"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="46" dataDxfId="45"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="44" dataDxfId="43"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="42" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Sony_Ericsson_x10i_1.6" displayName="Sony_Ericsson_x10i_1.6" ref="A3:G4" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
-  <autoFilter ref="A3:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="HTC_Nexus_One_2.2_MoDaCo_r20" displayName="HTC_Nexus_One_2.2_MoDaCo_r20" ref="A33:G33" headerRowCount="0" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" dataDxfId="0"/>
-    <tableColumn id="1" name="Sprite" dataDxfId="1"/>
-    <tableColumn id="2" name="Animation" dataDxfId="27"/>
-    <tableColumn id="3" name="ShapeModifier" dataDxfId="26"/>
-    <tableColumn id="4" name="TickerText" dataDxfId="25"/>
-    <tableColumn id="5" name="ParticleSystem" dataDxfId="24"/>
-    <tableColumn id="6" name="Box2D-Physics" dataDxfId="23"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="37" dataDxfId="36"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="35" dataDxfId="34"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="33" dataDxfId="32"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="31" dataDxfId="30"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="29" dataDxfId="28"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="27" dataDxfId="26"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="25" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Motorola_Droid_2.1" displayName="Motorola_Droid_2.1" ref="A3:G7" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20">
-  <autoFilter ref="A3:G7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Sony_Ericsson_x10i_1.6" displayName="Sony_Ericsson_x10i_1.6" ref="A3:G4" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
+  <autoFilter ref="A3:G4"/>
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" dataDxfId="19"/>
-    <tableColumn id="1" name="Sprite" dataDxfId="18"/>
-    <tableColumn id="2" name="Animation" dataDxfId="17"/>
-    <tableColumn id="3" name="ShapeModifier" dataDxfId="16"/>
-    <tableColumn id="4" name="TickerText" dataDxfId="15"/>
-    <tableColumn id="5" name="ParticleSystem" dataDxfId="14"/>
-    <tableColumn id="6" name="Box2D-Physics" dataDxfId="13"/>
+    <tableColumn id="7" name="Test-Version" dataDxfId="20"/>
+    <tableColumn id="1" name="Sprite" dataDxfId="19"/>
+    <tableColumn id="2" name="Animation" dataDxfId="18"/>
+    <tableColumn id="3" name="ShapeModifier" dataDxfId="17"/>
+    <tableColumn id="4" name="TickerText" dataDxfId="16"/>
+    <tableColumn id="5" name="ParticleSystem" dataDxfId="15"/>
+    <tableColumn id="6" name="Box2D-Physics" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Samsung_Galaxy_S_2.1" displayName="Samsung_Galaxy_S_2.1" ref="A3:G4" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Motorola_Droid_2.1" displayName="Motorola_Droid_2.1" ref="A3:G7" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A3:G7"/>
+  <tableColumns count="7">
+    <tableColumn id="7" name="Test-Version" dataDxfId="10"/>
+    <tableColumn id="1" name="Sprite" dataDxfId="9"/>
+    <tableColumn id="2" name="Animation" dataDxfId="8"/>
+    <tableColumn id="3" name="ShapeModifier" dataDxfId="7"/>
+    <tableColumn id="4" name="TickerText" dataDxfId="6"/>
+    <tableColumn id="5" name="ParticleSystem" dataDxfId="5"/>
+    <tableColumn id="6" name="Box2D-Physics" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Samsung_Galaxy_S_2.1" displayName="Samsung_Galaxy_S_2.1" ref="A3:G4" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A3:G4"/>
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" dataDxfId="2"/>
+    <tableColumn id="7" name="Test-Version" dataDxfId="0"/>
     <tableColumn id="1" name="Sprite"/>
     <tableColumn id="2" name="Animation"/>
     <tableColumn id="3" name="ShapeModifier"/>
@@ -4638,10 +5250,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="HTC_Hero_1.5" displayName="HTC_Hero_1.5" ref="A3:G4" totalsRowShown="0" headerRowDxfId="202" headerRowBorderDxfId="201" tableBorderDxfId="200">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="HTC_Hero_1.5" displayName="HTC_Hero_1.5" ref="A3:G4" totalsRowShown="0" headerRowDxfId="219" headerRowBorderDxfId="218" tableBorderDxfId="217">
   <autoFilter ref="A3:G4"/>
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" dataDxfId="199"/>
+    <tableColumn id="7" name="Test-Version" dataDxfId="216"/>
     <tableColumn id="1" name="Sprite"/>
     <tableColumn id="2" name="Animation"/>
     <tableColumn id="3" name="ShapeModifier"/>
@@ -4654,7 +5266,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="HTC_Hero_VanillaEclair_4.0" displayName="HTC_Hero_VanillaEclair_4.0" ref="A7:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="198" headerRowBorderDxfId="197" tableBorderDxfId="196">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="HTC_Hero_VanillaEclair_4.0" displayName="HTC_Hero_VanillaEclair_4.0" ref="A7:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="215" headerRowBorderDxfId="214" tableBorderDxfId="213">
+  <tableColumns count="7">
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="212" dataDxfId="211"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="210" dataDxfId="209"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="208" dataDxfId="207"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="206" dataDxfId="205"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="204" dataDxfId="203"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="202" dataDxfId="201"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="200" dataDxfId="199"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="HTC_Tattoo_1.6" displayName="HTC_Tattoo_1.6" ref="A10:G12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="198" headerRowBorderDxfId="197" tableBorderDxfId="196">
   <tableColumns count="7">
     <tableColumn id="7" name="Test-Version" headerRowDxfId="195" dataDxfId="194"/>
     <tableColumn id="1" name="Sprite" headerRowDxfId="193" dataDxfId="192"/>
@@ -4668,8 +5295,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="HTC_Tattoo_1.6" displayName="HTC_Tattoo_1.6" ref="A10:G12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="181" headerRowBorderDxfId="180" tableBorderDxfId="179">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="HTC_Dream_1.6" displayName="HTC_Dream_1.6" ref="A15:G18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="181" headerRowBorderDxfId="180" tableBorderDxfId="179">
   <tableColumns count="7">
     <tableColumn id="7" name="Test-Version" headerRowDxfId="178" dataDxfId="177"/>
     <tableColumn id="1" name="Sprite" headerRowDxfId="176" dataDxfId="175"/>
@@ -4683,76 +5310,61 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="HTC_Dream_1.6" displayName="HTC_Dream_1.6" ref="A15:G18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="164" headerRowBorderDxfId="163" tableBorderDxfId="162">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="HTC_Nexus_One_2.1" displayName="HTC_Nexus_One_2.1" ref="A21:G24" headerRowCount="0" totalsRowShown="0" headerRowDxfId="164" headerRowBorderDxfId="163" tableBorderDxfId="162">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="3" dataDxfId="161"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="4" dataDxfId="160"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="5" dataDxfId="159"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="6" dataDxfId="158"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="7" dataDxfId="157"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="8" dataDxfId="156"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="9" dataDxfId="155"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="HTC_Nexus_One_2.1" displayName="HTC_Nexus_One_2.1" ref="A21:G24" headerRowCount="0" totalsRowShown="0" headerRowDxfId="154" headerRowBorderDxfId="153" tableBorderDxfId="152">
-  <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="151" dataDxfId="150"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="149" dataDxfId="148"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="147" dataDxfId="146"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="145" dataDxfId="144"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="143" dataDxfId="142"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="141" dataDxfId="140"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="139" dataDxfId="138"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="161" dataDxfId="160"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="159" dataDxfId="158"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="157" dataDxfId="156"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="155" dataDxfId="154"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="153" dataDxfId="152"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="151" dataDxfId="150"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="149" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="HTC_Nexus_One_2.2" displayName="HTC_Nexus_One_2.2" ref="A27:G30" headerRowCount="0" totalsRowShown="0" headerRowDxfId="137" headerRowBorderDxfId="136" tableBorderDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="HTC_Nexus_One_2.2" displayName="HTC_Nexus_One_2.2" ref="A27:G30" headerRowCount="0" totalsRowShown="0" headerRowDxfId="147" headerRowBorderDxfId="146" tableBorderDxfId="145">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="134" dataDxfId="133"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="132" dataDxfId="131"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="130" dataDxfId="129"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="128" dataDxfId="127"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="126" dataDxfId="125"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="124" dataDxfId="123"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="122" dataDxfId="121"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="144" dataDxfId="143"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="142" dataDxfId="141"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="140" dataDxfId="139"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="138" dataDxfId="137"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="136" dataDxfId="135"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="134" dataDxfId="133"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="132" dataDxfId="131"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="HTC_Desire_2.1" displayName="HTC_Desire_2.1" ref="A33:G33" headerRowCount="0" totalsRowShown="0" headerRowDxfId="120" dataDxfId="118" headerRowBorderDxfId="119" tableBorderDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="HTC_Legend_2.1" displayName="HTC_Legend_2.1" ref="A39:G39" headerRowCount="0" totalsRowShown="0" headerRowDxfId="130" dataDxfId="128" headerRowBorderDxfId="129" tableBorderDxfId="127">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="116" dataDxfId="115"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="114" dataDxfId="113"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="112" dataDxfId="111"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="110" dataDxfId="109"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="108" dataDxfId="107"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="106" dataDxfId="105"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="104" dataDxfId="103"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="126" dataDxfId="125"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="124" dataDxfId="123"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="122" dataDxfId="121"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="120" dataDxfId="119"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="118" dataDxfId="117"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="116" dataDxfId="115"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="114" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="HTC_Legend_2.1" displayName="HTC_Legend_2.1" ref="A36:G36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="102" dataDxfId="100" headerRowBorderDxfId="101" tableBorderDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="HTC_myTouch3G_1.6" displayName="HTC_myTouch3G_1.6" ref="A42:G42" headerRowCount="0" totalsRowShown="0" headerRowDxfId="112" dataDxfId="110" headerRowBorderDxfId="111" tableBorderDxfId="109">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="98" dataDxfId="97"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="96" dataDxfId="95"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="94" dataDxfId="93"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="92" dataDxfId="91"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="90" dataDxfId="89"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="88" dataDxfId="87"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="86" dataDxfId="85"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="108" dataDxfId="107"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="106" dataDxfId="105"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="104" dataDxfId="103"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="102" dataDxfId="101"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="100" dataDxfId="99"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="98" dataDxfId="97"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="96" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5046,615 +5658,654 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:K48"/>
+  <dimension ref="B1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="63" thickBot="1">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:11" ht="62.25" thickBot="1">
+      <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="J2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="46" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="39" t="str">
+      <c r="E3" s="38" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_1.5[Sprite])),"?",(SUBTOTAL(101,HTC_Hero_1.5[Sprite])))</f>
         <v>?</v>
       </c>
-      <c r="F3" s="40" t="str">
+      <c r="F3" s="39" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_1.5[Animation])),"?",(SUBTOTAL(101,HTC_Hero_1.5[Animation])))</f>
         <v>?</v>
       </c>
-      <c r="G3" s="40" t="str">
+      <c r="G3" s="39" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_1.5[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Hero_1.5[ShapeModifier])))</f>
         <v>?</v>
       </c>
-      <c r="H3" s="40" t="str">
+      <c r="H3" s="39" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_1.5[TickerText])),"?",(SUBTOTAL(101,HTC_Hero_1.5[TickerText])))</f>
         <v>?</v>
       </c>
-      <c r="I3" s="40" t="str">
+      <c r="I3" s="39" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_1.5[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Hero_1.5[ParticleSystem])))</f>
         <v>?</v>
       </c>
-      <c r="J3" s="41" t="str">
+      <c r="J3" s="43" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_1.5[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Hero_1.5[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K3" s="22" t="str">
+      <c r="K3" s="47" t="str">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>?</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="40">
         <f>IF(ISERROR(SUBTOTAL(101,Samsung_Galaxy_S_2.1[Sprite])),"?",(SUBTOTAL(101,Samsung_Galaxy_S_2.1[Sprite])))</f>
         <v>25.367393</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,Samsung_Galaxy_S_2.1[Animation])),"?",(SUBTOTAL(101,Samsung_Galaxy_S_2.1[Animation])))</f>
         <v>28.268608</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,Samsung_Galaxy_S_2.1[ShapeModifier])),"?",(SUBTOTAL(101,Samsung_Galaxy_S_2.1[ShapeModifier])))</f>
         <v>35.899982000000001</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,Samsung_Galaxy_S_2.1[TickerText])),"?",(SUBTOTAL(101,Samsung_Galaxy_S_2.1[TickerText])))</f>
         <v>25.116581</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,Samsung_Galaxy_S_2.1[ParticleSystem])),"?",(SUBTOTAL(101,Samsung_Galaxy_S_2.1[ParticleSystem])))</f>
         <v>40.272410000000001</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="44">
         <f>IF(ISERROR(SUBTOTAL(101,Samsung_Galaxy_S_2.1[Box2D-Physics])),"?",(SUBTOTAL(101,Samsung_Galaxy_S_2.1[Box2D-Physics])))</f>
         <v>31.072804999999999</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="48">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>30.99962983333333</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="40">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2[Sprite])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2[Sprite])))</f>
-        <v>15.245471999999999</v>
-      </c>
-      <c r="F5" s="21">
+        <v>16.298299</v>
+      </c>
+      <c r="F5" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2[Animation])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2[Animation])))</f>
-        <v>16.31813</v>
-      </c>
-      <c r="G5" s="21">
+        <v>16.313920500000002</v>
+      </c>
+      <c r="G5" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2[ShapeModifier])))</f>
-        <v>18.9580965</v>
-      </c>
-      <c r="H5" s="21">
+        <v>19.314080999999998</v>
+      </c>
+      <c r="H5" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2[TickerText])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2[TickerText])))</f>
-        <v>19.625256</v>
-      </c>
-      <c r="I5" s="21">
+        <v>18.939761000000001</v>
+      </c>
+      <c r="I5" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2[ParticleSystem])))</f>
         <v>26.366634000000001</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="44">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2[Box2D-Physics])))</f>
         <v>25.671755600000001</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="48">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
-        <v>20.364224016666665</v>
+        <v>20.484075183333335</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="40">
+        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[Sprite])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[Sprite])))</f>
+        <v>17.269221999999999</v>
+      </c>
+      <c r="F6" s="37">
+        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[Animation])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[Animation])))</f>
+        <v>15.531084999999999</v>
+      </c>
+      <c r="G6" s="37">
+        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[ShapeModifier])))</f>
+        <v>18.836193000000002</v>
+      </c>
+      <c r="H6" s="37">
+        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[TickerText])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[TickerText])))</f>
+        <v>17.784476999999999</v>
+      </c>
+      <c r="I6" s="37">
+        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[ParticleSystem])))</f>
+        <v>21.471651000000001</v>
+      </c>
+      <c r="J6" s="44">
+        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[Box2D-Physics])))</f>
+        <v>20.804794000000001</v>
+      </c>
+      <c r="K6" s="48">
+        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
+        <v>18.616237000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E7" s="40">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Sprite])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Sprite])))</f>
         <v>13.379421000000001</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F7" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Animation])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Animation])))</f>
         <v>11.917116999999999</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G7" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Droid_Incredible_2.1[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[ShapeModifier])))</f>
         <v>15.435746999999999</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H7" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Droid_Incredible_2.1[TickerText])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[TickerText])))</f>
         <v>15.865864999999999</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I7" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Droid_Incredible_2.1[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[ParticleSystem])))</f>
         <v>15.810184</v>
       </c>
-      <c r="J6" s="43" t="str">
+      <c r="J7" s="44" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K7" s="48">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>14.481666799999999</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="27" t="s">
+    <row r="8" spans="2:11">
+      <c r="B8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="42" t="str">
+      <c r="E8" s="40" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Desire_2.1[Sprite])),"?",(SUBTOTAL(101,HTC_Desire_2.1[Sprite])))</f>
         <v>?</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F8" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Desire_2.1[Animation])),"?",(SUBTOTAL(101,HTC_Desire_2.1[Animation])))</f>
         <v>11.735962000000001</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G8" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Desire_2.1[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Desire_2.1[ShapeModifier])))</f>
         <v>15.083520999999999</v>
       </c>
-      <c r="H7" s="21" t="str">
+      <c r="H8" s="37" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Desire_2.1[TickerText])),"?",(SUBTOTAL(101,HTC_Desire_2.1[TickerText])))</f>
         <v>?</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I8" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Desire_2.1[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Desire_2.1[ParticleSystem])))</f>
         <v>15.923451999999999</v>
       </c>
-      <c r="J7" s="43" t="str">
+      <c r="J8" s="44" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Desire_2.1[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Desire_2.1[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K8" s="48">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>14.247644999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="27" t="s">
+    <row r="9" spans="2:11">
+      <c r="B9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E9" s="40">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.1[Sprite])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.1[Sprite])))</f>
         <v>14.475951250000001</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F9" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.1[Animation])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.1[Animation])))</f>
         <v>11.497117699999999</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G9" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.1[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.1[ShapeModifier])))</f>
         <v>15.965774333333334</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H9" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.1[TickerText])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.1[TickerText])))</f>
         <v>14.288466</v>
       </c>
-      <c r="I8" s="21" t="str">
+      <c r="I9" s="37" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.1[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.1[ParticleSystem])))</f>
         <v>?</v>
       </c>
-      <c r="J8" s="43" t="str">
+      <c r="J9" s="44" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.1[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.1[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K9" s="48">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>14.056827320833333</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="27" t="s">
+    <row r="10" spans="2:11">
+      <c r="B10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="42" t="str">
+      <c r="E10" s="40" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Legend_2.1[Sprite])),"?",(SUBTOTAL(101,HTC_Legend_2.1[Sprite])))</f>
         <v>?</v>
       </c>
-      <c r="F9" s="21" t="str">
+      <c r="F10" s="37" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Legend_2.1[Animation])),"?",(SUBTOTAL(101,HTC_Legend_2.1[Animation])))</f>
         <v>?</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G10" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Legend_2.1[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Legend_2.1[ShapeModifier])))</f>
         <v>9.7283609999999996</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H10" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Legend_2.1[TickerText])),"?",(SUBTOTAL(101,HTC_Legend_2.1[TickerText])))</f>
         <v>21.894788999999999</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I10" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Legend_2.1[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Legend_2.1[ParticleSystem])))</f>
         <v>10.11773</v>
       </c>
-      <c r="J9" s="43" t="str">
+      <c r="J10" s="44" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Legend_2.1[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Legend_2.1[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K10" s="48">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>13.913626666666666</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="27" t="s">
+    <row r="11" spans="2:11">
+      <c r="B11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E11" s="40">
         <f>IF(ISERROR(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[Sprite])),"?",(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[Sprite])))</f>
         <v>13.299028</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F11" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[Animation])),"?",(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[Animation])))</f>
         <v>8.7267685000000004</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G11" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[ShapeModifier])),"?",(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[ShapeModifier])))</f>
         <v>12.229005000000001</v>
       </c>
-      <c r="H10" s="21" t="str">
+      <c r="H11" s="37" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[TickerText])),"?",(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[TickerText])))</f>
         <v>?</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I11" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[ParticleSystem])),"?",(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[ParticleSystem])))</f>
         <v>15.026707999999999</v>
       </c>
-      <c r="J10" s="43" t="str">
+      <c r="J11" s="44" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[Box2D-Physics])),"?",(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K11" s="48">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>12.320377375</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="27" t="s">
+    <row r="12" spans="2:11">
+      <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="42" t="str">
+      <c r="E12" s="40" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[Sprite])),"?",(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[Sprite])))</f>
         <v>?</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F12" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[Animation])),"?",(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[Animation])))</f>
         <v>11.019192</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G12" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[ShapeModifier])))</f>
         <v>14.979018</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H12" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[TickerText])),"?",(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[TickerText])))</f>
         <v>10.795321</v>
       </c>
-      <c r="I11" s="21" t="str">
+      <c r="I12" s="37" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[ParticleSystem])))</f>
         <v>?</v>
       </c>
-      <c r="J11" s="43" t="str">
+      <c r="J12" s="44" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K12" s="48">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>12.264510333333334</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="27" t="s">
+    <row r="13" spans="2:11">
+      <c r="B13" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="42" t="str">
+      <c r="E13" s="40" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,Motorola_Droid_2.1[Sprite])),"?",(SUBTOTAL(101,Motorola_Droid_2.1[Sprite])))</f>
         <v>?</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F13" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,Motorola_Droid_2.1[Animation])),"?",(SUBTOTAL(101,Motorola_Droid_2.1[Animation])))</f>
         <v>2.8178247999999999</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G13" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,Motorola_Droid_2.1[ShapeModifier])),"?",(SUBTOTAL(101,Motorola_Droid_2.1[ShapeModifier])))</f>
         <v>14.407461666666668</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H13" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,Motorola_Droid_2.1[TickerText])),"?",(SUBTOTAL(101,Motorola_Droid_2.1[TickerText])))</f>
         <v>7.0465616999999998</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I13" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,Motorola_Droid_2.1[ParticleSystem])),"?",(SUBTOTAL(101,Motorola_Droid_2.1[ParticleSystem])))</f>
         <v>15.621314</v>
       </c>
-      <c r="J12" s="43" t="str">
+      <c r="J13" s="44" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,Motorola_Droid_2.1[Box2D-Physics])),"?",(SUBTOTAL(101,Motorola_Droid_2.1[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K13" s="48">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>9.9732905416666657</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="27" t="s">
+    <row r="14" spans="2:11">
+      <c r="B14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D14" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="42" t="str">
+      <c r="E14" s="40" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_myTouch3G_1.6[Sprite])),"?",(SUBTOTAL(101,HTC_myTouch3G_1.6[Sprite])))</f>
         <v>?</v>
       </c>
-      <c r="F13" s="21" t="str">
+      <c r="F14" s="37" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_myTouch3G_1.6[Animation])),"?",(SUBTOTAL(101,HTC_myTouch3G_1.6[Animation])))</f>
         <v>?</v>
       </c>
-      <c r="G13" s="21" t="str">
+      <c r="G14" s="37" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_myTouch3G_1.6[ShapeModifier])),"?",(SUBTOTAL(101,HTC_myTouch3G_1.6[ShapeModifier])))</f>
         <v>?</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H14" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_myTouch3G_1.6[TickerText])),"?",(SUBTOTAL(101,HTC_myTouch3G_1.6[TickerText])))</f>
         <v>7.2027340000000004</v>
       </c>
-      <c r="I13" s="21" t="str">
+      <c r="I14" s="37" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_myTouch3G_1.6[ParticleSystem])),"?",(SUBTOTAL(101,HTC_myTouch3G_1.6[ParticleSystem])))</f>
         <v>?</v>
       </c>
-      <c r="J13" s="43" t="str">
+      <c r="J14" s="44" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_myTouch3G_1.6[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_myTouch3G_1.6[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K14" s="48">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>7.2027340000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="27" t="s">
+    <row r="15" spans="2:11">
+      <c r="B15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E15" s="40">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[Sprite])),"?",(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[Sprite])))</f>
         <v>5.0411853999999998</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F15" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[Animation])),"?",(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[Animation])))</f>
         <v>5.1484027000000001</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G15" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[ShapeModifier])))</f>
         <v>6.4483629999999996</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H15" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[TickerText])),"?",(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[TickerText])))</f>
         <v>6.1750499999999997</v>
       </c>
-      <c r="I14" s="21" t="str">
+      <c r="I15" s="37" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[ParticleSystem])))</f>
         <v>?</v>
       </c>
-      <c r="J14" s="43" t="str">
+      <c r="J15" s="44" t="str">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K15" s="48">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>5.7032502749999994</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="27" t="s">
+    <row r="16" spans="2:11">
+      <c r="B16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D16" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E16" s="40">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Dream_1.6[Sprite])),"?",(SUBTOTAL(101,HTC_Dream_1.6[Sprite])))</f>
-        <v>3.8398394499999999</v>
-      </c>
-      <c r="F15" s="21">
+        <v>3.9721511</v>
+      </c>
+      <c r="F16" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Dream_1.6[Animation])),"?",(SUBTOTAL(101,HTC_Dream_1.6[Animation])))</f>
-        <v>3.9055052999999997</v>
-      </c>
-      <c r="G15" s="21">
+        <v>4.0216501999999998</v>
+      </c>
+      <c r="G16" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Dream_1.6[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Dream_1.6[ShapeModifier])))</f>
-        <v>5.0116149999999999</v>
-      </c>
-      <c r="H15" s="21">
+        <v>5.2090484999999997</v>
+      </c>
+      <c r="H16" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Dream_1.6[TickerText])),"?",(SUBTOTAL(101,HTC_Dream_1.6[TickerText])))</f>
-        <v>7.6490884000000001</v>
-      </c>
-      <c r="I15" s="21">
+        <v>6.6800147000000001</v>
+      </c>
+      <c r="I16" s="37">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Dream_1.6[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Dream_1.6[ParticleSystem])))</f>
         <v>5.5421003999999998</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J16" s="44">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Dream_1.6[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Dream_1.6[Box2D-Physics])))</f>
         <v>4.440436</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K16" s="48">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
-        <v>5.0647640916666665</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="28" t="s">
+        <v>4.9775668166666662</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D17" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E17" s="41">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Tattoo_1.6[Sprite])),"?",(SUBTOTAL(101,HTC_Tattoo_1.6[Sprite])))</f>
-        <v>3.8917103000000002</v>
-      </c>
-      <c r="F16" s="45">
+        <v>3.9166908500000002</v>
+      </c>
+      <c r="F17" s="42">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Tattoo_1.6[Animation])),"?",(SUBTOTAL(101,HTC_Tattoo_1.6[Animation])))</f>
-        <v>2.4991992000000001</v>
-      </c>
-      <c r="G16" s="45">
+        <v>2.4739784</v>
+      </c>
+      <c r="G17" s="42">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Tattoo_1.6[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Tattoo_1.6[ShapeModifier])))</f>
-        <v>4.9564675999999999</v>
-      </c>
-      <c r="H16" s="45">
+        <v>5.5150470499999997</v>
+      </c>
+      <c r="H17" s="42">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Tattoo_1.6[TickerText])),"?",(SUBTOTAL(101,HTC_Tattoo_1.6[TickerText])))</f>
-        <v>1.5740272</v>
-      </c>
-      <c r="I16" s="45">
+        <v>1.57046295</v>
+      </c>
+      <c r="I17" s="42">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Tattoo_1.6[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Tattoo_1.6[ParticleSystem])))</f>
         <v>3.4163103000000001</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J17" s="45">
         <f>IF(ISERROR(SUBTOTAL(101,HTC_Tattoo_1.6[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Tattoo_1.6[Box2D-Physics])))</f>
         <v>4.9549089999999998</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K17" s="49">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
-        <v>3.5487705999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="E45" s="2"/>
+        <v>3.6412330916666669</v>
+      </c>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="4"/>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="4"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:J16">
-    <cfRule type="notContainsErrors" priority="9">
+  <conditionalFormatting sqref="E3:J17">
+    <cfRule type="notContainsErrors" priority="24">
       <formula>NOT(ISERROR(E3))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -5665,8 +6316,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F16">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="F3:F17">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -5677,8 +6328,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G16">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="G3:G17">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -5689,8 +6340,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H16">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="H3:H17">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -5701,8 +6352,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I16">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="I3:I17">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -5713,8 +6364,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J16">
-    <cfRule type="colorScale" priority="21">
+  <conditionalFormatting sqref="J3:J17">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -5725,8 +6376,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K16">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="K3:K17">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -5750,10 +6401,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5840,10 +6491,18 @@
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="1">
+        <v>3.9416714000000002</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.4487576</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6.0736264999999996</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.5668987000000001</v>
+      </c>
       <c r="F10" s="1">
         <v>3.4163103000000001</v>
       </c>
@@ -5888,7 +6547,7 @@
       <c r="A14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -5898,10 +6557,18 @@
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="1">
+        <v>4.2367743999999998</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.2539400000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.4064819999999996</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5.710941</v>
+      </c>
       <c r="F15" s="1">
         <v>5.5421003999999998</v>
       </c>
@@ -6048,10 +6715,18 @@
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="1">
+        <v>17.351126000000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>16.309711</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20.026050000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>18.254266000000001</v>
+      </c>
       <c r="F27" s="1">
         <v>26.366634000000001</v>
       </c>
@@ -6103,43 +6778,55 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="12"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="23.25">
       <c r="A32" s="18" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C32" s="15"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17">
-        <v>11.735962000000001</v>
-      </c>
-      <c r="D33" s="17">
-        <v>15.083520999999999</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17">
-        <v>15.923451999999999</v>
-      </c>
-      <c r="G33" s="16"/>
+      <c r="A33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1">
+        <v>17.269221999999999</v>
+      </c>
+      <c r="C33" s="1">
+        <v>15.531084999999999</v>
+      </c>
+      <c r="D33" s="1">
+        <v>18.836193000000002</v>
+      </c>
+      <c r="E33" s="1">
+        <v>17.784476999999999</v>
+      </c>
+      <c r="F33" s="1">
+        <v>21.471651000000001</v>
+      </c>
+      <c r="G33" s="1">
+        <v>20.804794000000001</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="4"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="23.25">
       <c r="A35" s="18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15"/>
     </row>
@@ -6148,90 +6835,116 @@
         <v>27</v>
       </c>
       <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
+      <c r="C36" s="17">
+        <v>11.735962000000001</v>
+      </c>
       <c r="D36" s="17">
-        <v>9.7283609999999996</v>
-      </c>
-      <c r="E36" s="17">
-        <v>21.894788999999999</v>
-      </c>
-      <c r="F36" s="16">
-        <v>10.11773</v>
+        <v>15.083520999999999</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17">
+        <v>15.923451999999999</v>
       </c>
       <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="23.25">
       <c r="A38" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" s="15"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="3" t="s">
-        <v>30</v>
+      <c r="A39" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+      <c r="D39" s="17">
+        <v>9.7283609999999996</v>
+      </c>
       <c r="E39" s="17">
-        <v>7.2027340000000004</v>
-      </c>
-      <c r="F39" s="16"/>
+        <v>21.894788999999999</v>
+      </c>
+      <c r="F39" s="16">
+        <v>10.11773</v>
+      </c>
       <c r="G39" s="16"/>
     </row>
     <row r="41" spans="1:7" ht="23.25">
       <c r="A41" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="16">
-        <v>13.379421000000001</v>
-      </c>
-      <c r="C42" s="17">
-        <v>11.917116999999999</v>
-      </c>
-      <c r="D42" s="17">
-        <v>15.435746999999999</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="17">
-        <v>15.865864999999999</v>
-      </c>
-      <c r="F42" s="16">
-        <v>15.810184</v>
-      </c>
+        <v>7.2027340000000004</v>
+      </c>
+      <c r="F42" s="16"/>
       <c r="G42" s="16"/>
     </row>
     <row r="44" spans="1:7" ht="23.25">
       <c r="A44" s="18" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="16">
+        <v>13.379421000000001</v>
+      </c>
+      <c r="C45" s="17">
+        <v>11.917116999999999</v>
+      </c>
+      <c r="D45" s="17">
+        <v>15.435746999999999</v>
+      </c>
+      <c r="E45" s="17">
+        <v>15.865864999999999</v>
+      </c>
+      <c r="F45" s="16">
+        <v>15.810184</v>
+      </c>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="47" spans="1:7" ht="23.25">
+      <c r="A47" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17">
+      <c r="B48" s="16"/>
+      <c r="C48" s="17">
         <v>11.019192</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D48" s="17">
         <v>14.979018</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E48" s="17">
         <v>10.795321</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="11">
+  <tableParts count="12">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -6243,6 +6956,7 @@
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>

--- a/doc/benchmarks.xlsx
+++ b/doc/benchmarks.xlsx
@@ -18,15 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
   <si>
     <t>TickerText</t>
   </si>
   <si>
     <t>ShapeModifier</t>
-  </si>
-  <si>
-    <t>Version</t>
   </si>
   <si>
     <t>Animation</t>
@@ -77,9 +74,6 @@
     <t>Motorola</t>
   </si>
   <si>
-    <t>Milestone/Droid</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>1.0.9</t>
   </si>
   <si>
-    <t>myTouch3G</t>
-  </si>
-  <si>
     <t>1.1.0</t>
   </si>
   <si>
@@ -126,9 +117,6 @@
   </si>
   <si>
     <t>Droid Incredible (1.6)</t>
-  </si>
-  <si>
-    <t>myTouch 3G (1.6)</t>
   </si>
   <si>
     <t>Legend (2.1)</t>
@@ -155,9 +143,6 @@
     <t>Galaxy S (2.1)</t>
   </si>
   <si>
-    <t>Milestone/Droid (2.1)</t>
-  </si>
-  <si>
     <t>x10i (1.6)</t>
   </si>
   <si>
@@ -178,12 +163,51 @@
   <si>
     <t>Nexus One (2.2 MoDaCo r20)</t>
   </si>
+  <si>
+    <t>Galaxy Spica (2.1)</t>
+  </si>
+  <si>
+    <t>Galaxy Spica</t>
+  </si>
+  <si>
+    <t>Milestone/Droid/Sholes (2.1)</t>
+  </si>
+  <si>
+    <t>©andengine.org</t>
+  </si>
+  <si>
+    <t>Hiapk 2.18</t>
+  </si>
+  <si>
+    <t>Hero (Hiapk 2.18)</t>
+  </si>
+  <si>
+    <t>Magic/myTouch3G</t>
+  </si>
+  <si>
+    <t>Magic/myTouch 3G (1.6)</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Android-Version</t>
+  </si>
+  <si>
+    <t>CPU-Clock (MHz)</t>
+  </si>
+  <si>
+    <t>Milestone/Droid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +262,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -253,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -323,36 +376,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -440,7 +467,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -450,10 +492,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -463,10 +505,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -476,18 +518,7 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -502,22 +533,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -531,11 +547,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -586,76 +719,343 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="45"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="70"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="70"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="70"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="249">
+  <dxfs count="283">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -704,24 +1104,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -847,265 +1229,25 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1154,16 +1296,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -1201,16 +1333,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -1248,16 +1370,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -1295,16 +1407,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -1342,16 +1444,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -1389,16 +1481,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -1438,16 +1520,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -1493,23 +1565,35 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1522,11 +1606,192 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1559,304 +1824,12 @@
           <color theme="4" tint="0.39997558519241921"/>
         </right>
         <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -1902,35 +1875,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -3199,6 +3143,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -3236,6 +3190,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -3273,6 +3237,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -3310,6 +3284,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -3347,6 +3331,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -3384,6 +3378,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -3423,6 +3427,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -3468,6 +3482,35 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -3509,6 +3552,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -3546,6 +3599,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -3583,6 +3646,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -3620,6 +3693,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -3657,6 +3740,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -3694,6 +3787,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -3733,6 +3836,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -3778,6 +3891,35 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -4749,10 +4891,268 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -4804,8 +5204,381 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -4824,8 +5597,19 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -4844,8 +5628,19 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -4864,8 +5659,19 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -4884,8 +5690,19 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -4904,8 +5721,19 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -4924,8 +5752,19 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -4944,15 +5783,59 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
           <color indexed="64"/>
         </left>
         <right style="medium">
           <color indexed="64"/>
         </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -4965,8 +5848,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -4985,8 +5884,50 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -5002,6 +5943,36 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="top" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -5011,8 +5982,21 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top/>
@@ -5099,41 +6083,47 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium16 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="248"/>
-      <tableStyleElement type="headerRow" dxfId="247"/>
-      <tableStyleElement type="totalRow" dxfId="246"/>
-      <tableStyleElement type="firstColumn" dxfId="245"/>
-      <tableStyleElement type="lastColumn" dxfId="244"/>
-      <tableStyleElement type="firstRowStripe" dxfId="243"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="242"/>
+      <tableStyleElement type="wholeTable" dxfId="282"/>
+      <tableStyleElement type="headerRow" dxfId="281"/>
+      <tableStyleElement type="totalRow" dxfId="280"/>
+      <tableStyleElement type="firstColumn" dxfId="279"/>
+      <tableStyleElement type="lastColumn" dxfId="278"/>
+      <tableStyleElement type="firstRowStripe" dxfId="277"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="276"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Benchmark" displayName="Benchmark" ref="B2:K17" headerRowDxfId="241" headerRowBorderDxfId="240">
-  <autoFilter ref="B2:K17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Benchmark" displayName="Benchmark" ref="B4:M21" headerRowDxfId="275" dataDxfId="273" totalsRowDxfId="272" headerRowBorderDxfId="274">
+  <autoFilter ref="B4:M21">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
-    <filterColumn colId="9"/>
+    <filterColumn colId="3"/>
+    <filterColumn colId="4"/>
+    <filterColumn colId="11"/>
   </autoFilter>
-  <sortState ref="B3:K17">
-    <sortCondition descending="1" ref="K2:K17"/>
+  <sortState ref="B5:M21">
+    <sortCondition descending="1" ref="M4:M21"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="1" name="Manufacturer" totalsRowLabel="Ergebnis" dataDxfId="239" totalsRowDxfId="238"/>
-    <tableColumn id="9" name="Model" dataDxfId="237" totalsRowDxfId="236"/>
-    <tableColumn id="8" name="Version" dataDxfId="235" totalsRowDxfId="234"/>
-    <tableColumn id="2" name="Sprite" totalsRowFunction="average" dataDxfId="233" totalsRowDxfId="232">
+  <tableColumns count="12">
+    <tableColumn id="1" name="Manufacturer" totalsRowLabel="Ergebnis" dataDxfId="271" totalsRowDxfId="270"/>
+    <tableColumn id="9" name="Model" dataDxfId="269" totalsRowDxfId="268"/>
+    <tableColumn id="8" name="Android-Version" dataDxfId="267" totalsRowDxfId="266"/>
+    <tableColumn id="11" name="CPU-Clock (MHz)" dataDxfId="265" totalsRowDxfId="264"/>
+    <tableColumn id="12" name="Tests" dataDxfId="263" totalsRowDxfId="262">
+      <calculatedColumnFormula>SUBTOTAL(2,Samsung_Galaxy_S_2.1[])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Sprite" totalsRowFunction="average" dataDxfId="261" totalsRowDxfId="260">
       <calculatedColumnFormula>SUBTOTAL(101,HTC_Hero_1.5[Sprite])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Animation" totalsRowFunction="average" dataDxfId="231" totalsRowDxfId="230"/>
-    <tableColumn id="4" name="ShapeModifier" totalsRowFunction="average" dataDxfId="229" totalsRowDxfId="228"/>
-    <tableColumn id="5" name="TickerText" totalsRowFunction="average" dataDxfId="227" totalsRowDxfId="226"/>
-    <tableColumn id="6" name="ParticleSystem" totalsRowFunction="sum" dataDxfId="225" totalsRowDxfId="224"/>
-    <tableColumn id="7" name="Box2D-Physics" totalsRowFunction="sum" dataDxfId="223" totalsRowDxfId="222"/>
-    <tableColumn id="10" name="Average" totalsRowFunction="average" dataDxfId="221" totalsRowDxfId="220">
+    <tableColumn id="3" name="Animation" totalsRowFunction="average" dataDxfId="259" totalsRowDxfId="258"/>
+    <tableColumn id="4" name="ShapeModifier" totalsRowFunction="average" dataDxfId="257" totalsRowDxfId="256"/>
+    <tableColumn id="5" name="TickerText" totalsRowFunction="average" dataDxfId="255" totalsRowDxfId="254"/>
+    <tableColumn id="6" name="ParticleSystem" totalsRowFunction="sum" dataDxfId="253" totalsRowDxfId="252"/>
+    <tableColumn id="7" name="Box2D-Physics" totalsRowFunction="sum" dataDxfId="251" totalsRowDxfId="250"/>
+    <tableColumn id="10" name="Average" totalsRowFunction="average" dataDxfId="249" totalsRowDxfId="248">
       <calculatedColumnFormula>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5142,102 +6132,128 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="HTC_Droid_Incredible_2.1" displayName="HTC_Droid_Incredible_2.1" ref="A45:G45" headerRowCount="0" totalsRowShown="0" headerRowDxfId="94" dataDxfId="92" headerRowBorderDxfId="93" tableBorderDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="HTC_Droid_Incredible_2.1" displayName="HTC_Droid_Incredible_2.1" ref="A49:G49" headerRowCount="0" totalsRowShown="0" headerRowDxfId="122" dataDxfId="120" headerRowBorderDxfId="121" tableBorderDxfId="119">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="90" dataDxfId="89"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="88" dataDxfId="87"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="86" dataDxfId="85"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="84" dataDxfId="83"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="82" dataDxfId="81"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="80" dataDxfId="79"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="78" dataDxfId="77"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="118" dataDxfId="117"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="116" dataDxfId="115"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="114" dataDxfId="113"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="112" dataDxfId="111"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="110" dataDxfId="109"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="108" dataDxfId="107"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="106" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="HTC_Evo_4G_Supersonic_2.1" displayName="HTC_Evo_4G_Supersonic_2.1" ref="A48:G48" headerRowCount="0" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="HTC_Evo_4G_Supersonic_2.1" displayName="HTC_Evo_4G_Supersonic_2.1" ref="A52:G52" headerRowCount="0" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="72" dataDxfId="71"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="70" dataDxfId="69"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="68" dataDxfId="67"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="66" dataDxfId="65"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="64" dataDxfId="63"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="62" dataDxfId="61"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="60" dataDxfId="59"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="100" dataDxfId="99"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="98" dataDxfId="97"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="96" dataDxfId="95"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="94" dataDxfId="93"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="92" dataDxfId="91"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="90" dataDxfId="89"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="88" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="HTC_Desire_2.1" displayName="HTC_Desire_2.1" ref="A36:G36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="HTC_Desire_2.1" displayName="HTC_Desire_2.1" ref="A40:G40" headerRowCount="0" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="54" dataDxfId="53"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="52" dataDxfId="51"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="50" dataDxfId="49"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="48" dataDxfId="47"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="46" dataDxfId="45"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="44" dataDxfId="43"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="42" dataDxfId="41"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="82" dataDxfId="81"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="80" dataDxfId="79"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="78" dataDxfId="77"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="76" dataDxfId="75"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="74" dataDxfId="73"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="72" dataDxfId="71"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="70" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="HTC_Nexus_One_2.2_MoDaCo_r20" displayName="HTC_Nexus_One_2.2_MoDaCo_r20" ref="A33:G33" headerRowCount="0" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="HTC_Nexus_One_2.2_MoDaCo_r20" displayName="HTC_Nexus_One_2.2_MoDaCo_r20" ref="A37:G37" headerRowCount="0" totalsRowShown="0" headerRowDxfId="68" headerRowBorderDxfId="67" tableBorderDxfId="66">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="37" dataDxfId="36"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="35" dataDxfId="34"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="33" dataDxfId="32"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="31" dataDxfId="30"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="29" dataDxfId="28"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="27" dataDxfId="26"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="25" dataDxfId="24"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="65" dataDxfId="64"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="63" dataDxfId="62"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="61" dataDxfId="60"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="59" dataDxfId="58"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="57" dataDxfId="56"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="55" dataDxfId="54"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="53" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Sony_Ericsson_x10i_1.6" displayName="Sony_Ericsson_x10i_1.6" ref="A3:G4" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
-  <autoFilter ref="A3:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="HTC_Hero_Hiapk_2.18" displayName="HTC_Hero_Hiapk_2.18" ref="A10:G10" headerRowCount="0" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" dataDxfId="20"/>
-    <tableColumn id="1" name="Sprite" dataDxfId="19"/>
-    <tableColumn id="2" name="Animation" dataDxfId="18"/>
-    <tableColumn id="3" name="ShapeModifier" dataDxfId="17"/>
-    <tableColumn id="4" name="TickerText" dataDxfId="16"/>
-    <tableColumn id="5" name="ParticleSystem" dataDxfId="15"/>
-    <tableColumn id="6" name="Box2D-Physics" dataDxfId="14"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="48" dataDxfId="47"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="46" dataDxfId="45"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="44" dataDxfId="43"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="42" dataDxfId="41"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="40" dataDxfId="39"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="38" dataDxfId="37"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="36" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Motorola_Droid_2.1" displayName="Motorola_Droid_2.1" ref="A3:G7" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A3:G7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Sony_Ericsson_x10i_1.6" displayName="Sony_Ericsson_x10i_1.6" ref="A3:G4" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
+  <autoFilter ref="A3:G4"/>
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" dataDxfId="10"/>
-    <tableColumn id="1" name="Sprite" dataDxfId="9"/>
-    <tableColumn id="2" name="Animation" dataDxfId="8"/>
-    <tableColumn id="3" name="ShapeModifier" dataDxfId="7"/>
-    <tableColumn id="4" name="TickerText" dataDxfId="6"/>
-    <tableColumn id="5" name="ParticleSystem" dataDxfId="5"/>
-    <tableColumn id="6" name="Box2D-Physics" dataDxfId="4"/>
+    <tableColumn id="7" name="Test-Version" dataDxfId="31"/>
+    <tableColumn id="1" name="Sprite" dataDxfId="30"/>
+    <tableColumn id="2" name="Animation" dataDxfId="29"/>
+    <tableColumn id="3" name="ShapeModifier" dataDxfId="28"/>
+    <tableColumn id="4" name="TickerText" dataDxfId="27"/>
+    <tableColumn id="5" name="ParticleSystem" dataDxfId="26"/>
+    <tableColumn id="6" name="Box2D-Physics" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Samsung_Galaxy_S_2.1" displayName="Samsung_Galaxy_S_2.1" ref="A3:G4" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Motorola_Droid_2.1" displayName="Motorola_Droid_2.1" ref="A3:G8" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
+  <autoFilter ref="A3:G8">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1.1.1"/>
+        <filter val="1.1.3"/>
+        <filter val="1.1.4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A4:G8">
+    <sortCondition descending="1" ref="A3:A8"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="7" name="Test-Version" dataDxfId="21"/>
+    <tableColumn id="1" name="Sprite" dataDxfId="20"/>
+    <tableColumn id="2" name="Animation" dataDxfId="19"/>
+    <tableColumn id="3" name="ShapeModifier" dataDxfId="18"/>
+    <tableColumn id="4" name="TickerText" dataDxfId="17"/>
+    <tableColumn id="5" name="ParticleSystem" dataDxfId="16"/>
+    <tableColumn id="6" name="Box2D-Physics" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Samsung_Galaxy_S_2.1" displayName="Samsung_Galaxy_S_2.1" ref="A3:G4" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A3:G4"/>
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" dataDxfId="0"/>
+    <tableColumn id="7" name="Test-Version" dataDxfId="11"/>
     <tableColumn id="1" name="Sprite"/>
     <tableColumn id="2" name="Animation"/>
     <tableColumn id="3" name="ShapeModifier"/>
@@ -5249,11 +6265,26 @@
 </table>
 </file>
 
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Samsung_Galaxy_Spica_2.1" displayName="Samsung_Galaxy_Spica_2.1" ref="A7:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <tableColumns count="7">
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="7" dataDxfId="6"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="5"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="4"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="3"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="2"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="1"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="HTC_Hero_1.5" displayName="HTC_Hero_1.5" ref="A3:G4" totalsRowShown="0" headerRowDxfId="219" headerRowBorderDxfId="218" tableBorderDxfId="217">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="HTC_Hero_1.5" displayName="HTC_Hero_1.5" ref="A3:G4" totalsRowShown="0" headerRowDxfId="247" headerRowBorderDxfId="246" tableBorderDxfId="245">
   <autoFilter ref="A3:G4"/>
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" dataDxfId="216"/>
+    <tableColumn id="7" name="Test-Version" dataDxfId="244"/>
     <tableColumn id="1" name="Sprite"/>
     <tableColumn id="2" name="Animation"/>
     <tableColumn id="3" name="ShapeModifier"/>
@@ -5266,105 +6297,117 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="HTC_Hero_VanillaEclair_4.0" displayName="HTC_Hero_VanillaEclair_4.0" ref="A7:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="215" headerRowBorderDxfId="214" tableBorderDxfId="213">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="HTC_Hero_VanillaEclair_4.0" displayName="HTC_Hero_VanillaEclair_4.0" ref="A7:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="243" headerRowBorderDxfId="242" tableBorderDxfId="241">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="212" dataDxfId="211"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="210" dataDxfId="209"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="208" dataDxfId="207"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="206" dataDxfId="205"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="204" dataDxfId="203"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="202" dataDxfId="201"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="200" dataDxfId="199"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="240" dataDxfId="239"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="238" dataDxfId="237"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="236" dataDxfId="235"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="234" dataDxfId="233"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="232" dataDxfId="231"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="230" dataDxfId="229"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="228" dataDxfId="227"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="HTC_Tattoo_1.6" displayName="HTC_Tattoo_1.6" ref="A10:G12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="198" headerRowBorderDxfId="197" tableBorderDxfId="196">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="HTC_Tattoo_1.6" displayName="HTC_Tattoo_1.6" ref="A13:G15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="226" headerRowBorderDxfId="225" tableBorderDxfId="224">
+  <sortState ref="A10:G12">
+    <sortCondition descending="1" ref="A10"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="195" dataDxfId="194"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="193" dataDxfId="192"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="191" dataDxfId="190"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="189" dataDxfId="188"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="187" dataDxfId="186"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="185" dataDxfId="184"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="183" dataDxfId="182"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="223" dataDxfId="222"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="221" dataDxfId="220"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="219" dataDxfId="218"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="217" dataDxfId="216"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="215" dataDxfId="214"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="213" dataDxfId="212"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="211" dataDxfId="210"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="HTC_Dream_1.6" displayName="HTC_Dream_1.6" ref="A15:G18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="181" headerRowBorderDxfId="180" tableBorderDxfId="179">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="HTC_Dream_1.6" displayName="HTC_Dream_1.6" ref="A18:G21" headerRowCount="0" totalsRowShown="0" headerRowDxfId="209" headerRowBorderDxfId="208" tableBorderDxfId="207">
+  <sortState ref="A15:G18">
+    <sortCondition descending="1" ref="A15"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="178" dataDxfId="177"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="176" dataDxfId="175"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="174" dataDxfId="173"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="172" dataDxfId="171"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="170" dataDxfId="169"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="168" dataDxfId="167"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="166" dataDxfId="165"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="206" dataDxfId="205"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="204" dataDxfId="203"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="202" dataDxfId="201"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="200" dataDxfId="199"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="198" dataDxfId="197"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="196" dataDxfId="195"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="194" dataDxfId="193"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="HTC_Nexus_One_2.1" displayName="HTC_Nexus_One_2.1" ref="A21:G24" headerRowCount="0" totalsRowShown="0" headerRowDxfId="164" headerRowBorderDxfId="163" tableBorderDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="HTC_Nexus_One_2.1" displayName="HTC_Nexus_One_2.1" ref="A24:G27" headerRowCount="0" totalsRowShown="0" headerRowDxfId="192" headerRowBorderDxfId="191" tableBorderDxfId="190">
+  <sortState ref="A21:G24">
+    <sortCondition descending="1" ref="A21"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="161" dataDxfId="160"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="159" dataDxfId="158"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="157" dataDxfId="156"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="155" dataDxfId="154"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="153" dataDxfId="152"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="151" dataDxfId="150"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="149" dataDxfId="148"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="189" dataDxfId="188"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="187" dataDxfId="186"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="185" dataDxfId="184"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="183" dataDxfId="182"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="181" dataDxfId="180"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="179" dataDxfId="178"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="177" dataDxfId="176"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="HTC_Nexus_One_2.2" displayName="HTC_Nexus_One_2.2" ref="A27:G30" headerRowCount="0" totalsRowShown="0" headerRowDxfId="147" headerRowBorderDxfId="146" tableBorderDxfId="145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="HTC_Nexus_One_2.2" displayName="HTC_Nexus_One_2.2" ref="A30:G34" headerRowCount="0" totalsRowShown="0" headerRowDxfId="175" headerRowBorderDxfId="174" tableBorderDxfId="173">
+  <sortState ref="A27:G30">
+    <sortCondition descending="1" ref="A27"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="144" dataDxfId="143"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="142" dataDxfId="141"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="140" dataDxfId="139"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="138" dataDxfId="137"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="136" dataDxfId="135"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="134" dataDxfId="133"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="132" dataDxfId="131"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="172" dataDxfId="171"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="170" dataDxfId="169"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="168" dataDxfId="167"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="166" dataDxfId="165"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="164" dataDxfId="163"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="162" dataDxfId="161"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="160" dataDxfId="159"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="HTC_Legend_2.1" displayName="HTC_Legend_2.1" ref="A39:G39" headerRowCount="0" totalsRowShown="0" headerRowDxfId="130" dataDxfId="128" headerRowBorderDxfId="129" tableBorderDxfId="127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="HTC_Legend_2.1" displayName="HTC_Legend_2.1" ref="A43:G43" headerRowCount="0" totalsRowShown="0" headerRowDxfId="158" dataDxfId="156" headerRowBorderDxfId="157" tableBorderDxfId="155">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="126" dataDxfId="125"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="124" dataDxfId="123"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="122" dataDxfId="121"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="120" dataDxfId="119"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="118" dataDxfId="117"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="116" dataDxfId="115"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="114" dataDxfId="113"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="154" dataDxfId="153"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="152" dataDxfId="151"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="150" dataDxfId="149"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="148" dataDxfId="147"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="146" dataDxfId="145"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="144" dataDxfId="143"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="142" dataDxfId="141"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="HTC_myTouch3G_1.6" displayName="HTC_myTouch3G_1.6" ref="A42:G42" headerRowCount="0" totalsRowShown="0" headerRowDxfId="112" dataDxfId="110" headerRowBorderDxfId="111" tableBorderDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="HTC_myTouch3G_1.6" displayName="HTC_myTouch3G_1.6" ref="A46:G46" headerRowCount="0" totalsRowShown="0" headerRowDxfId="140" dataDxfId="138" headerRowBorderDxfId="139" tableBorderDxfId="137">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="108" dataDxfId="107"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="106" dataDxfId="105"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="104" dataDxfId="103"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="102" dataDxfId="101"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="100" dataDxfId="99"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="98" dataDxfId="97"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="96" dataDxfId="95"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="136" dataDxfId="135"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="134" dataDxfId="133"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="132" dataDxfId="131"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="130" dataDxfId="129"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="128" dataDxfId="127"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="126" dataDxfId="125"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="124" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5658,654 +6701,865 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:K49"/>
+  <dimension ref="B2:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="E5" sqref="E5:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="11" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:11" ht="62.25" thickBot="1">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:14" ht="23.25">
+      <c r="F2" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="15" customHeight="1" thickBot="1"/>
+    <row r="4" spans="2:14" ht="75" customHeight="1" thickBot="1">
+      <c r="B4" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35" t="s">
+      <c r="C5" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="49">
+        <v>528</v>
+      </c>
+      <c r="F5" s="46">
+        <f>SUBTOTAL(2,HTC_Hero_1.5[])</f>
         <v>0</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="38" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_1.5[Sprite])),"?",(SUBTOTAL(101,HTC_Hero_1.5[Sprite])))</f>
+      <c r="G5" s="43" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_1.5[Sprite])),"?",(SUBTOTAL(1,HTC_Hero_1.5[Sprite])))</f>
         <v>?</v>
       </c>
-      <c r="F3" s="39" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_1.5[Animation])),"?",(SUBTOTAL(101,HTC_Hero_1.5[Animation])))</f>
+      <c r="H5" s="44" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_1.5[Animation])),"?",(SUBTOTAL(1,HTC_Hero_1.5[Animation])))</f>
         <v>?</v>
       </c>
-      <c r="G3" s="39" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_1.5[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Hero_1.5[ShapeModifier])))</f>
+      <c r="I5" s="44" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_1.5[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Hero_1.5[ShapeModifier])))</f>
         <v>?</v>
       </c>
-      <c r="H3" s="39" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_1.5[TickerText])),"?",(SUBTOTAL(101,HTC_Hero_1.5[TickerText])))</f>
+      <c r="J5" s="44" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_1.5[TickerText])),"?",(SUBTOTAL(1,HTC_Hero_1.5[TickerText])))</f>
         <v>?</v>
       </c>
-      <c r="I3" s="39" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_1.5[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Hero_1.5[ParticleSystem])))</f>
+      <c r="K5" s="44" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_1.5[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Hero_1.5[ParticleSystem])))</f>
         <v>?</v>
       </c>
-      <c r="J3" s="43" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_1.5[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Hero_1.5[Box2D-Physics])))</f>
+      <c r="L5" s="45" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_1.5[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Hero_1.5[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K3" s="47" t="str">
+      <c r="M5" s="31" t="str">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>?</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="32" t="s">
+    <row r="6" spans="2:14">
+      <c r="B6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40">
-        <f>IF(ISERROR(SUBTOTAL(101,Samsung_Galaxy_S_2.1[Sprite])),"?",(SUBTOTAL(101,Samsung_Galaxy_S_2.1[Sprite])))</f>
+      <c r="D6" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="40">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="47">
+        <f>SUBTOTAL(2,Samsung_Galaxy_S_2.1[])</f>
+        <v>6</v>
+      </c>
+      <c r="G6" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_S_2.1[Sprite])),"?",(SUBTOTAL(1,Samsung_Galaxy_S_2.1[Sprite])))</f>
         <v>25.367393</v>
       </c>
-      <c r="F4" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,Samsung_Galaxy_S_2.1[Animation])),"?",(SUBTOTAL(101,Samsung_Galaxy_S_2.1[Animation])))</f>
+      <c r="H6" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_S_2.1[Animation])),"?",(SUBTOTAL(1,Samsung_Galaxy_S_2.1[Animation])))</f>
         <v>28.268608</v>
       </c>
-      <c r="G4" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,Samsung_Galaxy_S_2.1[ShapeModifier])),"?",(SUBTOTAL(101,Samsung_Galaxy_S_2.1[ShapeModifier])))</f>
+      <c r="I6" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_S_2.1[ShapeModifier])),"?",(SUBTOTAL(1,Samsung_Galaxy_S_2.1[ShapeModifier])))</f>
         <v>35.899982000000001</v>
       </c>
-      <c r="H4" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,Samsung_Galaxy_S_2.1[TickerText])),"?",(SUBTOTAL(101,Samsung_Galaxy_S_2.1[TickerText])))</f>
+      <c r="J6" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_S_2.1[TickerText])),"?",(SUBTOTAL(1,Samsung_Galaxy_S_2.1[TickerText])))</f>
         <v>25.116581</v>
       </c>
-      <c r="I4" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,Samsung_Galaxy_S_2.1[ParticleSystem])),"?",(SUBTOTAL(101,Samsung_Galaxy_S_2.1[ParticleSystem])))</f>
+      <c r="K6" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_S_2.1[ParticleSystem])),"?",(SUBTOTAL(1,Samsung_Galaxy_S_2.1[ParticleSystem])))</f>
         <v>40.272410000000001</v>
       </c>
-      <c r="J4" s="44">
-        <f>IF(ISERROR(SUBTOTAL(101,Samsung_Galaxy_S_2.1[Box2D-Physics])),"?",(SUBTOTAL(101,Samsung_Galaxy_S_2.1[Box2D-Physics])))</f>
+      <c r="L6" s="34">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_S_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,Samsung_Galaxy_S_2.1[Box2D-Physics])))</f>
         <v>31.072804999999999</v>
       </c>
-      <c r="K4" s="48">
+      <c r="M6" s="32">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>30.99962983333333</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="40">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2[Sprite])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2[Sprite])))</f>
-        <v>16.298299</v>
-      </c>
-      <c r="F5" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2[Animation])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2[Animation])))</f>
+    <row r="7" spans="2:14">
+      <c r="B7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="40">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="47">
+        <f>SUBTOTAL(2,HTC_Nexus_One_2.2[])</f>
+        <v>14</v>
+      </c>
+      <c r="G7" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2[Sprite])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2[Sprite])))</f>
+        <v>14.798061666666667</v>
+      </c>
+      <c r="H7" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2[Animation])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2[Animation])))</f>
         <v>16.313920500000002</v>
       </c>
-      <c r="G5" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2[ShapeModifier])))</f>
+      <c r="I7" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2[ShapeModifier])))</f>
         <v>19.314080999999998</v>
       </c>
-      <c r="H5" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2[TickerText])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2[TickerText])))</f>
+      <c r="J7" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2[TickerText])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2[TickerText])))</f>
         <v>18.939761000000001</v>
       </c>
-      <c r="I5" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2[ParticleSystem])))</f>
-        <v>26.366634000000001</v>
-      </c>
-      <c r="J5" s="44">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2[Box2D-Physics])))</f>
-        <v>25.671755600000001</v>
-      </c>
-      <c r="K5" s="48">
+      <c r="K7" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2[ParticleSystem])))</f>
+        <v>25.525525999999999</v>
+      </c>
+      <c r="L7" s="34">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2[Box2D-Physics])))</f>
+        <v>24.2664303</v>
+      </c>
+      <c r="M7" s="32">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
-        <v>20.484075183333335</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="40">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[Sprite])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[Sprite])))</f>
+        <v>19.859630077777776</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="40">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="47">
+        <f>SUBTOTAL(2,HTC_Nexus_One_2.2_MoDaCo_r20[])</f>
+        <v>6</v>
+      </c>
+      <c r="G8" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[Sprite])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[Sprite])))</f>
         <v>17.269221999999999</v>
       </c>
-      <c r="F6" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[Animation])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[Animation])))</f>
+      <c r="H8" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[Animation])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[Animation])))</f>
         <v>15.531084999999999</v>
       </c>
-      <c r="G6" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[ShapeModifier])))</f>
+      <c r="I8" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[ShapeModifier])))</f>
         <v>18.836193000000002</v>
       </c>
-      <c r="H6" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[TickerText])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[TickerText])))</f>
+      <c r="J8" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[TickerText])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[TickerText])))</f>
         <v>17.784476999999999</v>
       </c>
-      <c r="I6" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[ParticleSystem])))</f>
+      <c r="K8" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[ParticleSystem])))</f>
         <v>21.471651000000001</v>
       </c>
-      <c r="J6" s="44">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.2_MoDaCo_r20[Box2D-Physics])))</f>
+      <c r="L8" s="34">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[Box2D-Physics])))</f>
         <v>20.804794000000001</v>
       </c>
-      <c r="K6" s="48">
+      <c r="M8" s="32">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>18.616237000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="40">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Sprite])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Sprite])))</f>
+    <row r="9" spans="2:14">
+      <c r="B9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="40">
+        <v>550</v>
+      </c>
+      <c r="F9" s="47">
+        <f>SUBTOTAL(2,Motorola_Droid_2.1[])</f>
+        <v>4</v>
+      </c>
+      <c r="G9" s="24" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[Sprite])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[Sprite])))</f>
+        <v>?</v>
+      </c>
+      <c r="H9" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[Animation])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[Animation])))</f>
+        <v>?</v>
+      </c>
+      <c r="I9" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[ShapeModifier])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[ShapeModifier])))</f>
+        <v>20.46621</v>
+      </c>
+      <c r="J9" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[TickerText])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[TickerText])))</f>
+        <v>7.0465616999999998</v>
+      </c>
+      <c r="K9" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[ParticleSystem])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[ParticleSystem])))</f>
+        <v>15.621314</v>
+      </c>
+      <c r="L9" s="34">
+        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[Box2D-Physics])))</f>
+        <v>15.525149000000001</v>
+      </c>
+      <c r="M9" s="32">
+        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
+        <v>14.664808675</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="40">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="47">
+        <f>SUBTOTAL(2,HTC_Droid_Incredible_2.1[])</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Droid_Incredible_2.1[Sprite])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Sprite])))</f>
         <v>13.379421000000001</v>
       </c>
-      <c r="F7" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Animation])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Animation])))</f>
+      <c r="H10" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Droid_Incredible_2.1[Animation])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Animation])))</f>
         <v>11.917116999999999</v>
       </c>
-      <c r="G7" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Droid_Incredible_2.1[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[ShapeModifier])))</f>
+      <c r="I10" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Droid_Incredible_2.1[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[ShapeModifier])))</f>
         <v>15.435746999999999</v>
       </c>
-      <c r="H7" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Droid_Incredible_2.1[TickerText])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[TickerText])))</f>
+      <c r="J10" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Droid_Incredible_2.1[TickerText])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[TickerText])))</f>
         <v>15.865864999999999</v>
       </c>
-      <c r="I7" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Droid_Incredible_2.1[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[ParticleSystem])))</f>
+      <c r="K10" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Droid_Incredible_2.1[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[ParticleSystem])))</f>
         <v>15.810184</v>
       </c>
-      <c r="J7" s="44" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Box2D-Physics])))</f>
+      <c r="L10" s="34" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Droid_Incredible_2.1[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K7" s="48">
+      <c r="M10" s="32">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>14.481666799999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="40" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Desire_2.1[Sprite])),"?",(SUBTOTAL(101,HTC_Desire_2.1[Sprite])))</f>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="40">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="47">
+        <f>SUBTOTAL(2,HTC_Desire_2.1[])</f>
+        <v>3</v>
+      </c>
+      <c r="G11" s="24" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Desire_2.1[Sprite])),"?",(SUBTOTAL(1,HTC_Desire_2.1[Sprite])))</f>
         <v>?</v>
       </c>
-      <c r="F8" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Desire_2.1[Animation])),"?",(SUBTOTAL(101,HTC_Desire_2.1[Animation])))</f>
+      <c r="H11" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Desire_2.1[Animation])),"?",(SUBTOTAL(1,HTC_Desire_2.1[Animation])))</f>
         <v>11.735962000000001</v>
       </c>
-      <c r="G8" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Desire_2.1[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Desire_2.1[ShapeModifier])))</f>
+      <c r="I11" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Desire_2.1[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Desire_2.1[ShapeModifier])))</f>
         <v>15.083520999999999</v>
       </c>
-      <c r="H8" s="37" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Desire_2.1[TickerText])),"?",(SUBTOTAL(101,HTC_Desire_2.1[TickerText])))</f>
+      <c r="J11" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Desire_2.1[TickerText])),"?",(SUBTOTAL(1,HTC_Desire_2.1[TickerText])))</f>
         <v>?</v>
       </c>
-      <c r="I8" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Desire_2.1[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Desire_2.1[ParticleSystem])))</f>
+      <c r="K11" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Desire_2.1[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Desire_2.1[ParticleSystem])))</f>
         <v>15.923451999999999</v>
       </c>
-      <c r="J8" s="44" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Desire_2.1[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Desire_2.1[Box2D-Physics])))</f>
+      <c r="L11" s="34" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Desire_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Desire_2.1[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K8" s="48">
+      <c r="M11" s="32">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>14.247644999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="40">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.1[Sprite])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.1[Sprite])))</f>
+    <row r="12" spans="2:14">
+      <c r="B12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="40">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="47">
+        <f>SUBTOTAL(2,HTC_Nexus_One_2.1[])</f>
+        <v>11</v>
+      </c>
+      <c r="G12" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.1[Sprite])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.1[Sprite])))</f>
         <v>14.475951250000001</v>
       </c>
-      <c r="F9" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.1[Animation])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.1[Animation])))</f>
+      <c r="H12" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.1[Animation])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.1[Animation])))</f>
         <v>11.497117699999999</v>
       </c>
-      <c r="G9" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.1[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.1[ShapeModifier])))</f>
+      <c r="I12" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.1[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.1[ShapeModifier])))</f>
         <v>15.965774333333334</v>
       </c>
-      <c r="H9" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.1[TickerText])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.1[TickerText])))</f>
+      <c r="J12" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.1[TickerText])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.1[TickerText])))</f>
         <v>14.288466</v>
       </c>
-      <c r="I9" s="37" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.1[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.1[ParticleSystem])))</f>
+      <c r="K12" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.1[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.1[ParticleSystem])))</f>
         <v>?</v>
       </c>
-      <c r="J9" s="44" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Nexus_One_2.1[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Nexus_One_2.1[Box2D-Physics])))</f>
+      <c r="L12" s="34" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.1[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K9" s="48">
+      <c r="M12" s="32">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>14.056827320833333</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="40" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Legend_2.1[Sprite])),"?",(SUBTOTAL(101,HTC_Legend_2.1[Sprite])))</f>
+    <row r="13" spans="2:14">
+      <c r="B13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="40">
+        <v>600</v>
+      </c>
+      <c r="F13" s="47">
+        <f>SUBTOTAL(2,HTC_Legend_2.1[])</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="24" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Legend_2.1[Sprite])),"?",(SUBTOTAL(1,HTC_Legend_2.1[Sprite])))</f>
         <v>?</v>
       </c>
-      <c r="F10" s="37" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Legend_2.1[Animation])),"?",(SUBTOTAL(101,HTC_Legend_2.1[Animation])))</f>
+      <c r="H13" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Legend_2.1[Animation])),"?",(SUBTOTAL(1,HTC_Legend_2.1[Animation])))</f>
         <v>?</v>
       </c>
-      <c r="G10" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Legend_2.1[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Legend_2.1[ShapeModifier])))</f>
+      <c r="I13" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Legend_2.1[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Legend_2.1[ShapeModifier])))</f>
         <v>9.7283609999999996</v>
       </c>
-      <c r="H10" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Legend_2.1[TickerText])),"?",(SUBTOTAL(101,HTC_Legend_2.1[TickerText])))</f>
+      <c r="J13" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Legend_2.1[TickerText])),"?",(SUBTOTAL(1,HTC_Legend_2.1[TickerText])))</f>
         <v>21.894788999999999</v>
       </c>
-      <c r="I10" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Legend_2.1[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Legend_2.1[ParticleSystem])))</f>
+      <c r="K13" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Legend_2.1[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Legend_2.1[ParticleSystem])))</f>
         <v>10.11773</v>
       </c>
-      <c r="J10" s="44" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Legend_2.1[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Legend_2.1[Box2D-Physics])))</f>
+      <c r="L13" s="34" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Legend_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Legend_2.1[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K10" s="48">
+      <c r="M13" s="32">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>13.913626666666666</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="28" t="s">
+    <row r="14" spans="2:14">
+      <c r="B14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="40">
-        <f>IF(ISERROR(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[Sprite])),"?",(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[Sprite])))</f>
+      <c r="D14" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="40">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="47">
+        <f>SUBTOTAL(2,Sony_Ericsson_x10i_1.6[])</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[Sprite])),"?",(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[Sprite])))</f>
         <v>13.299028</v>
       </c>
-      <c r="F11" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[Animation])),"?",(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[Animation])))</f>
+      <c r="H14" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[Animation])),"?",(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[Animation])))</f>
         <v>8.7267685000000004</v>
       </c>
-      <c r="G11" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[ShapeModifier])),"?",(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[ShapeModifier])))</f>
+      <c r="I14" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[ShapeModifier])),"?",(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[ShapeModifier])))</f>
         <v>12.229005000000001</v>
       </c>
-      <c r="H11" s="37" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[TickerText])),"?",(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[TickerText])))</f>
+      <c r="J14" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[TickerText])),"?",(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[TickerText])))</f>
         <v>?</v>
       </c>
-      <c r="I11" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[ParticleSystem])),"?",(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[ParticleSystem])))</f>
+      <c r="K14" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[ParticleSystem])),"?",(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[ParticleSystem])))</f>
         <v>15.026707999999999</v>
       </c>
-      <c r="J11" s="44" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[Box2D-Physics])),"?",(SUBTOTAL(101,Sony_Ericsson_x10i_1.6[Box2D-Physics])))</f>
+      <c r="L14" s="34" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[Box2D-Physics])),"?",(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K11" s="48">
+      <c r="M14" s="32">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>12.320377375</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="40" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[Sprite])),"?",(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[Sprite])))</f>
+    <row r="15" spans="2:14">
+      <c r="B15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="40">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="47">
+        <f>SUBTOTAL(2,HTC_Evo_4G_Supersonic_2.1[])</f>
+        <v>3</v>
+      </c>
+      <c r="G15" s="24" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[Sprite])),"?",(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[Sprite])))</f>
         <v>?</v>
       </c>
-      <c r="F12" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[Animation])),"?",(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[Animation])))</f>
+      <c r="H15" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[Animation])),"?",(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[Animation])))</f>
         <v>11.019192</v>
       </c>
-      <c r="G12" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[ShapeModifier])))</f>
+      <c r="I15" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[ShapeModifier])))</f>
         <v>14.979018</v>
       </c>
-      <c r="H12" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[TickerText])),"?",(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[TickerText])))</f>
+      <c r="J15" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[TickerText])),"?",(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[TickerText])))</f>
         <v>10.795321</v>
       </c>
-      <c r="I12" s="37" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[ParticleSystem])))</f>
+      <c r="K15" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[ParticleSystem])))</f>
         <v>?</v>
       </c>
-      <c r="J12" s="44" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Evo_4G_Supersonic_2.1[Box2D-Physics])))</f>
+      <c r="L15" s="34" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K12" s="48">
+      <c r="M15" s="32">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>12.264510333333334</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="40" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,Motorola_Droid_2.1[Sprite])),"?",(SUBTOTAL(101,Motorola_Droid_2.1[Sprite])))</f>
+    <row r="16" spans="2:14">
+      <c r="B16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="40">
+        <v>528</v>
+      </c>
+      <c r="F16" s="47">
+        <f>SUBTOTAL(2,HTC_myTouch3G_1.6[])</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="24" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_myTouch3G_1.6[Sprite])),"?",(SUBTOTAL(1,HTC_myTouch3G_1.6[Sprite])))</f>
         <v>?</v>
       </c>
-      <c r="F13" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,Motorola_Droid_2.1[Animation])),"?",(SUBTOTAL(101,Motorola_Droid_2.1[Animation])))</f>
-        <v>2.8178247999999999</v>
-      </c>
-      <c r="G13" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,Motorola_Droid_2.1[ShapeModifier])),"?",(SUBTOTAL(101,Motorola_Droid_2.1[ShapeModifier])))</f>
-        <v>14.407461666666668</v>
-      </c>
-      <c r="H13" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,Motorola_Droid_2.1[TickerText])),"?",(SUBTOTAL(101,Motorola_Droid_2.1[TickerText])))</f>
-        <v>7.0465616999999998</v>
-      </c>
-      <c r="I13" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,Motorola_Droid_2.1[ParticleSystem])),"?",(SUBTOTAL(101,Motorola_Droid_2.1[ParticleSystem])))</f>
-        <v>15.621314</v>
-      </c>
-      <c r="J13" s="44" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,Motorola_Droid_2.1[Box2D-Physics])),"?",(SUBTOTAL(101,Motorola_Droid_2.1[Box2D-Physics])))</f>
+      <c r="H16" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_myTouch3G_1.6[Animation])),"?",(SUBTOTAL(1,HTC_myTouch3G_1.6[Animation])))</f>
         <v>?</v>
       </c>
-      <c r="K13" s="48">
-        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
-        <v>9.9732905416666657</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="40" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_myTouch3G_1.6[Sprite])),"?",(SUBTOTAL(101,HTC_myTouch3G_1.6[Sprite])))</f>
+      <c r="I16" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_myTouch3G_1.6[ShapeModifier])),"?",(SUBTOTAL(1,HTC_myTouch3G_1.6[ShapeModifier])))</f>
         <v>?</v>
       </c>
-      <c r="F14" s="37" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_myTouch3G_1.6[Animation])),"?",(SUBTOTAL(101,HTC_myTouch3G_1.6[Animation])))</f>
+      <c r="J16" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_myTouch3G_1.6[TickerText])),"?",(SUBTOTAL(1,HTC_myTouch3G_1.6[TickerText])))</f>
+        <v>7.2027340000000004</v>
+      </c>
+      <c r="K16" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_myTouch3G_1.6[ParticleSystem])),"?",(SUBTOTAL(1,HTC_myTouch3G_1.6[ParticleSystem])))</f>
         <v>?</v>
       </c>
-      <c r="G14" s="37" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_myTouch3G_1.6[ShapeModifier])),"?",(SUBTOTAL(101,HTC_myTouch3G_1.6[ShapeModifier])))</f>
+      <c r="L16" s="34" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_myTouch3G_1.6[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_myTouch3G_1.6[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="H14" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_myTouch3G_1.6[TickerText])),"?",(SUBTOTAL(101,HTC_myTouch3G_1.6[TickerText])))</f>
-        <v>7.2027340000000004</v>
-      </c>
-      <c r="I14" s="37" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_myTouch3G_1.6[ParticleSystem])),"?",(SUBTOTAL(101,HTC_myTouch3G_1.6[ParticleSystem])))</f>
-        <v>?</v>
-      </c>
-      <c r="J14" s="44" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_myTouch3G_1.6[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_myTouch3G_1.6[Box2D-Physics])))</f>
-        <v>?</v>
-      </c>
-      <c r="K14" s="48">
+      <c r="M16" s="32">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>7.2027340000000004</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="28" t="s">
+    <row r="17" spans="2:13">
+      <c r="B17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="40">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[Sprite])),"?",(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[Sprite])))</f>
+      <c r="D17" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="40">
+        <v>528</v>
+      </c>
+      <c r="F17" s="47">
+        <f>SUBTOTAL(2,HTC_Hero_Hiapk_2.18[])</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="24" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Sprite])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Sprite])))</f>
+        <v>?</v>
+      </c>
+      <c r="H17" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Animation])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Animation])))</f>
+        <v>?</v>
+      </c>
+      <c r="I17" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[ShapeModifier])))</f>
+        <v>?</v>
+      </c>
+      <c r="J17" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[TickerText])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[TickerText])))</f>
+        <v>?</v>
+      </c>
+      <c r="K17" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[ParticleSystem])))</f>
+        <v>6.5550036</v>
+      </c>
+      <c r="L17" s="34">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Box2D-Physics])))</f>
+        <v>5.4402046000000004</v>
+      </c>
+      <c r="M17" s="32">
+        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
+        <v>5.9976041000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="40">
+        <v>528</v>
+      </c>
+      <c r="F18" s="46">
+        <f>SUBTOTAL(2,HTC_Hero_Hiapk_2.18[])</f>
+        <v>2</v>
+      </c>
+      <c r="G18" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Sprite])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Sprite])))</f>
         <v>5.0411853999999998</v>
       </c>
-      <c r="F15" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[Animation])),"?",(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[Animation])))</f>
+      <c r="H18" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Animation])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Animation])))</f>
         <v>5.1484027000000001</v>
       </c>
-      <c r="G15" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[ShapeModifier])))</f>
+      <c r="I18" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[ShapeModifier])))</f>
         <v>6.4483629999999996</v>
       </c>
-      <c r="H15" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[TickerText])),"?",(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[TickerText])))</f>
+      <c r="J18" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[TickerText])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[TickerText])))</f>
         <v>6.1750499999999997</v>
       </c>
-      <c r="I15" s="37" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[ParticleSystem])))</f>
+      <c r="K18" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[ParticleSystem])))</f>
         <v>?</v>
       </c>
-      <c r="J15" s="44" t="str">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Hero_VanillaEclair_4.0[Box2D-Physics])))</f>
+      <c r="L18" s="34" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="K15" s="48">
+      <c r="M18" s="32">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>5.7032502749999994</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="28" t="s">
+    <row r="19" spans="2:13">
+      <c r="B19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="40">
+        <v>800</v>
+      </c>
+      <c r="F19" s="47">
+        <f>SUBTOTAL(2,Samsung_Galaxy_Spica_2.1[])</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="24" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Sprite])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Sprite])))</f>
+        <v>?</v>
+      </c>
+      <c r="H19" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Animation])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Animation])))</f>
+        <v>?</v>
+      </c>
+      <c r="I19" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[ShapeModifier])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[ShapeModifier])))</f>
+        <v>?</v>
+      </c>
+      <c r="J19" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[TickerText])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[TickerText])))</f>
+        <v>?</v>
+      </c>
+      <c r="K19" s="25" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[ParticleSystem])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[ParticleSystem])))</f>
+        <v>?</v>
+      </c>
+      <c r="L19" s="34">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Box2D-Physics])))</f>
+        <v>5.2552580000000004</v>
+      </c>
+      <c r="M19" s="32">
+        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
+        <v>5.2552580000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="40">
+        <v>528</v>
+      </c>
+      <c r="F20" s="47">
+        <f>SUBTOTAL(2,HTC_Dream_1.6[])</f>
         <v>12</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="40">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Dream_1.6[Sprite])),"?",(SUBTOTAL(101,HTC_Dream_1.6[Sprite])))</f>
+      <c r="G20" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[Sprite])),"?",(SUBTOTAL(1,HTC_Dream_1.6[Sprite])))</f>
         <v>3.9721511</v>
       </c>
-      <c r="F16" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Dream_1.6[Animation])),"?",(SUBTOTAL(101,HTC_Dream_1.6[Animation])))</f>
+      <c r="H20" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[Animation])),"?",(SUBTOTAL(1,HTC_Dream_1.6[Animation])))</f>
         <v>4.0216501999999998</v>
       </c>
-      <c r="G16" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Dream_1.6[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Dream_1.6[ShapeModifier])))</f>
+      <c r="I20" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Dream_1.6[ShapeModifier])))</f>
         <v>5.2090484999999997</v>
       </c>
-      <c r="H16" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Dream_1.6[TickerText])),"?",(SUBTOTAL(101,HTC_Dream_1.6[TickerText])))</f>
+      <c r="J20" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[TickerText])),"?",(SUBTOTAL(1,HTC_Dream_1.6[TickerText])))</f>
         <v>6.6800147000000001</v>
       </c>
-      <c r="I16" s="37">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Dream_1.6[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Dream_1.6[ParticleSystem])))</f>
+      <c r="K20" s="25">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Dream_1.6[ParticleSystem])))</f>
         <v>5.5421003999999998</v>
       </c>
-      <c r="J16" s="44">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Dream_1.6[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Dream_1.6[Box2D-Physics])))</f>
+      <c r="L20" s="34">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Dream_1.6[Box2D-Physics])))</f>
         <v>4.440436</v>
       </c>
-      <c r="K16" s="48">
+      <c r="M20" s="32">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>4.9775668166666662</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="41">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Tattoo_1.6[Sprite])),"?",(SUBTOTAL(101,HTC_Tattoo_1.6[Sprite])))</f>
+    <row r="21" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B21" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="42">
+        <v>528</v>
+      </c>
+      <c r="F21" s="48">
+        <f>SUBTOTAL(2,HTC_Tattoo_1.6[])</f>
+        <v>10</v>
+      </c>
+      <c r="G21" s="28">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Tattoo_1.6[Sprite])),"?",(SUBTOTAL(1,HTC_Tattoo_1.6[Sprite])))</f>
         <v>3.9166908500000002</v>
       </c>
-      <c r="F17" s="42">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Tattoo_1.6[Animation])),"?",(SUBTOTAL(101,HTC_Tattoo_1.6[Animation])))</f>
+      <c r="H21" s="29">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Tattoo_1.6[Animation])),"?",(SUBTOTAL(1,HTC_Tattoo_1.6[Animation])))</f>
         <v>2.4739784</v>
       </c>
-      <c r="G17" s="42">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Tattoo_1.6[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Tattoo_1.6[ShapeModifier])))</f>
+      <c r="I21" s="29">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Tattoo_1.6[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Tattoo_1.6[ShapeModifier])))</f>
         <v>5.5150470499999997</v>
       </c>
-      <c r="H17" s="42">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Tattoo_1.6[TickerText])),"?",(SUBTOTAL(101,HTC_Tattoo_1.6[TickerText])))</f>
+      <c r="J21" s="29">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Tattoo_1.6[TickerText])),"?",(SUBTOTAL(1,HTC_Tattoo_1.6[TickerText])))</f>
         <v>1.57046295</v>
       </c>
-      <c r="I17" s="42">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Tattoo_1.6[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Tattoo_1.6[ParticleSystem])))</f>
+      <c r="K21" s="29">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Tattoo_1.6[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Tattoo_1.6[ParticleSystem])))</f>
         <v>3.4163103000000001</v>
       </c>
-      <c r="J17" s="45">
-        <f>IF(ISERROR(SUBTOTAL(101,HTC_Tattoo_1.6[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Tattoo_1.6[Box2D-Physics])))</f>
+      <c r="L21" s="35">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Tattoo_1.6[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Tattoo_1.6[Box2D-Physics])))</f>
         <v>4.9549089999999998</v>
       </c>
-      <c r="K17" s="49">
+      <c r="M21" s="33">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>3.6412330916666669</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="4"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="4"/>
+    <row r="50" spans="2:5">
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="4"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3:J17">
-    <cfRule type="notContainsErrors" priority="24">
-      <formula>NOT(ISERROR(E3))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="M5:M21">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6316,8 +7570,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F17">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="G5:L21">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6328,8 +7582,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G17">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="H5:H21">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6340,8 +7594,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H17">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="I5:I21">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6352,8 +7606,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I17">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="J5:J21">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6364,8 +7618,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J17">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="K5:K21">
+    <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6376,8 +7630,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K17">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="L5:L21">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -6388,8 +7642,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F21">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="5Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E21">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -6401,10 +7677,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6415,24 +7691,24 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.5">
       <c r="A1" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="23.25">
       <c r="A2" s="18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="62.25">
       <c r="A3" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>1</v>
@@ -6441,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6455,13 +7731,13 @@
     </row>
     <row r="6" spans="1:7" ht="23.25">
       <c r="A6" s="18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1">
         <v>5.0411853999999998</v>
@@ -6480,471 +7756,518 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="23.25">
       <c r="A9" s="18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C9" s="15"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>6.5550036</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.4402046000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25">
+      <c r="A12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.9416714000000002</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.4487576</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6.0736264999999996</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.5668987000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.4163103000000001</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4.9549089999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1">
-        <v>3.9416714000000002</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.4487576</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6.0736264999999996</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.5668987000000001</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3.4163103000000001</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4.9549089999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
         <v>1.5740272</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3.8917103000000002</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.4991992000000001</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4.9564675999999999</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="23.25">
-      <c r="A14" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1">
-        <v>4.2367743999999998</v>
+        <v>3.8917103000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>4.2539400000000001</v>
+        <v>2.4991992000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>5.4064819999999996</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5.710941</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5.5421003999999998</v>
-      </c>
-      <c r="G15" s="1">
-        <v>4.440436</v>
-      </c>
+        <v>4.9564675999999999</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3.4784402999999999</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3.5970689999999998</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1">
-        <v>7.6490884000000001</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="23.25">
+      <c r="A17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1">
-        <v>4.2012385999999999</v>
+        <v>4.2367743999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>4.2139416000000001</v>
+        <v>4.2539400000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>5.0116149999999999</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+        <v>5.4064819999999996</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.710941</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5.5421003999999998</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4.440436</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="12"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="23.25">
-      <c r="A20" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="15"/>
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3.4784402999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.5970689999999998</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>7.6490884000000001</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
-        <v>16.069790000000001</v>
+        <v>4.2012385999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>13.283298500000001</v>
+        <v>4.2139416000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>16.816400000000002</v>
-      </c>
-      <c r="E21" s="1">
-        <v>16.152923999999999</v>
-      </c>
+        <v>5.0116149999999999</v>
+      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1">
-        <v>7.4547276</v>
-      </c>
-      <c r="D22" s="1">
-        <v>13.132629</v>
-      </c>
-      <c r="E22" s="1">
-        <v>8.4898179999999996</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1">
-        <v>12.8821125</v>
-      </c>
-      <c r="C23" s="1">
-        <v>13.753327000000001</v>
-      </c>
-      <c r="D23" s="1">
-        <v>17.948294000000001</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="23.25">
+      <c r="A23" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B24" s="1">
+        <v>16.069790000000001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>13.283298500000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>16.816400000000002</v>
+      </c>
       <c r="E24" s="1">
-        <v>18.222656000000001</v>
+        <v>16.152923999999999</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="23.25">
-      <c r="A26" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="15"/>
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
+        <v>7.4547276</v>
+      </c>
+      <c r="D25" s="1">
+        <v>13.132629</v>
+      </c>
+      <c r="E25" s="1">
+        <v>8.4898179999999996</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>18.222656000000001</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1">
-        <v>17.351126000000001</v>
+        <v>12.8821125</v>
       </c>
       <c r="C27" s="1">
-        <v>16.309711</v>
+        <v>13.753327000000001</v>
       </c>
       <c r="D27" s="1">
-        <v>20.026050000000001</v>
-      </c>
-      <c r="E27" s="1">
-        <v>18.254266000000001</v>
-      </c>
-      <c r="F27" s="1">
-        <v>26.366634000000001</v>
-      </c>
-      <c r="G27" s="1">
-        <v>25.671755600000001</v>
-      </c>
+        <v>17.948294000000001</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1">
-        <v>19.625256</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1">
-        <v>19.663094999999998</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="23.25">
+      <c r="A29" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1">
-        <v>15.245471999999999</v>
+        <v>17.351126000000001</v>
       </c>
       <c r="C30" s="1">
-        <v>16.31813</v>
+        <v>16.309711</v>
       </c>
       <c r="D30" s="1">
-        <v>18.253098000000001</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+        <v>20.026050000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>18.254266000000001</v>
+      </c>
+      <c r="F30" s="1">
+        <v>26.366634000000001</v>
+      </c>
+      <c r="G30" s="1">
+        <v>25.671755600000001</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="3"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1">
+        <v>11.797587</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" ht="23.25">
-      <c r="A32" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="15"/>
+      <c r="F31" s="1">
+        <v>24.684418000000001</v>
+      </c>
+      <c r="G31" s="1">
+        <v>22.861104999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <v>19.625256</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="1">
-        <v>17.269221999999999</v>
-      </c>
-      <c r="C33" s="1">
-        <v>15.531084999999999</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="1">
-        <v>18.836193000000002</v>
-      </c>
-      <c r="E33" s="1">
-        <v>17.784476999999999</v>
-      </c>
-      <c r="F33" s="1">
-        <v>21.471651000000001</v>
-      </c>
-      <c r="G33" s="1">
-        <v>20.804794000000001</v>
-      </c>
+        <v>19.663094999999998</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1">
+        <v>15.245471999999999</v>
+      </c>
+      <c r="C34" s="1">
+        <v>16.31813</v>
+      </c>
+      <c r="D34" s="1">
+        <v>18.253098000000001</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="23.25">
-      <c r="A35" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="15"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17">
+    <row r="35" spans="1:7">
+      <c r="A35" s="3"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="23.25">
+      <c r="A36" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="1">
+        <v>17.269221999999999</v>
+      </c>
+      <c r="C37" s="1">
+        <v>15.531084999999999</v>
+      </c>
+      <c r="D37" s="1">
+        <v>18.836193000000002</v>
+      </c>
+      <c r="E37" s="1">
+        <v>17.784476999999999</v>
+      </c>
+      <c r="F37" s="1">
+        <v>21.471651000000001</v>
+      </c>
+      <c r="G37" s="1">
+        <v>20.804794000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="23.25">
+      <c r="A39" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17">
         <v>11.735962000000001</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D40" s="17">
         <v>15.083520999999999</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17">
+      <c r="E40" s="16"/>
+      <c r="F40" s="17">
         <v>15.923451999999999</v>
       </c>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" ht="23.25">
-      <c r="A38" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="15"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17">
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="23.25">
+      <c r="A42" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17">
         <v>9.7283609999999996</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E43" s="17">
         <v>21.894788999999999</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F43" s="16">
         <v>10.11773</v>
       </c>
-      <c r="G39" s="16"/>
-    </row>
-    <row r="41" spans="1:7" ht="23.25">
-      <c r="A41" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="15"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17">
+      <c r="G43" s="16"/>
+    </row>
+    <row r="45" spans="1:7" ht="23.25">
+      <c r="A45" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17">
         <v>7.2027340000000004</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-    </row>
-    <row r="44" spans="1:7" ht="23.25">
-      <c r="A44" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="15"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="16">
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="48" spans="1:7" ht="23.25">
+      <c r="A48" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="16">
         <v>13.379421000000001</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C49" s="17">
         <v>11.917116999999999</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D49" s="17">
         <v>15.435746999999999</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E49" s="17">
         <v>15.865864999999999</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F49" s="16">
         <v>15.810184</v>
       </c>
-      <c r="G45" s="16"/>
-    </row>
-    <row r="47" spans="1:7" ht="23.25">
-      <c r="A47" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="15"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17">
+      <c r="G49" s="16"/>
+    </row>
+    <row r="51" spans="1:7" ht="23.25">
+      <c r="A51" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="15"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17">
         <v>11.019192</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D52" s="17">
         <v>14.979018</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E52" s="17">
         <v>10.795321</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="12">
+  <tableParts count="13">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -6957,6 +8280,7 @@
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6980,24 +8304,24 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.5">
       <c r="A1" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="23.25">
       <c r="A2" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="62.25">
       <c r="A3" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>1</v>
@@ -7006,15 +8330,15 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <v>13.299028</v>
@@ -7044,10 +8368,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7057,24 +8381,24 @@
   <sheetData>
     <row r="1" spans="1:7" ht="33.75">
       <c r="A1" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="23.25">
       <c r="A2" s="18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="62.25">
       <c r="A3" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>1</v>
@@ -7083,72 +8407,86 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>20.46621</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>15.621314</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>15.525149000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
-        <v>7.0465616999999998</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="D5" s="1">
+        <v>20.46621</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>15.621314</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>10.263685000000001</v>
-      </c>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>7.0465616999999998</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>2.8178247999999999</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>12.49249</v>
+        <v>10.263685000000001</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
+    <row r="8" spans="1:7" hidden="1">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>2.8178247999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12.49249</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7158,10 +8496,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7171,24 +8509,24 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.5">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25">
       <c r="A2" s="20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="62.25">
       <c r="A3" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>1</v>
@@ -7197,15 +8535,15 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>25.367393</v>
@@ -7226,10 +8564,25 @@
         <v>31.072804999999999</v>
       </c>
     </row>
+    <row r="6" spans="1:7" ht="26.25">
+      <c r="A6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>5.2552580000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/doc/benchmarks.xlsx
+++ b/doc/benchmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="17715" windowHeight="7740"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="17715" windowHeight="7740" tabRatio="889"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="61">
   <si>
     <t>TickerText</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Box2D-Physics</t>
-  </si>
-  <si>
-    <t>1.5</t>
   </si>
   <si>
     <t>VanillaEclair 4.0</t>
@@ -152,9 +149,6 @@
     <t>Tattoo (1.6)</t>
   </si>
   <si>
-    <t>Hero (1.5)</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
     <t>Magic/myTouch 3G (1.6)</t>
   </si>
   <si>
-    <t>Tests</t>
-  </si>
-  <si>
     <t>Android-Version</t>
   </si>
   <si>
@@ -202,12 +193,21 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Tests-Samples</t>
+  </si>
+  <si>
+    <t>Dream / G1  (Cyanogen 2.1)</t>
+  </si>
+  <si>
+    <t>Cyanogen 2.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,19 +277,30 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -306,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -483,19 +494,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -554,77 +552,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -652,23 +585,67 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -693,9 +670,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -738,11 +712,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -761,28 +732,13 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -791,26 +747,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="70"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="70"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="70"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="70"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="70"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="283">
+  <dxfs count="288">
     <dxf>
       <font>
         <b/>
@@ -1916,16 +1899,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -1963,16 +1936,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -2010,16 +1973,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -2057,16 +2010,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -2104,16 +2047,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -2151,16 +2084,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -2200,16 +2123,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -2255,35 +2168,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -3961,6 +3845,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -3998,6 +3892,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -4035,6 +3939,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -4072,6 +3986,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -4109,6 +4033,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -4146,6 +4080,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -4185,6 +4129,16 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -4230,6 +4184,35 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -5511,6 +5494,24 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -5578,7 +5579,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -5609,7 +5610,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -5640,7 +5641,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -5671,7 +5672,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -5702,7 +5703,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -5733,7 +5734,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -5764,7 +5765,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -5778,9 +5779,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5831,11 +5829,13 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -5865,7 +5865,7 @@
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -5896,7 +5896,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -5927,7 +5927,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -6083,20 +6083,20 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium16 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="282"/>
-      <tableStyleElement type="headerRow" dxfId="281"/>
-      <tableStyleElement type="totalRow" dxfId="280"/>
-      <tableStyleElement type="firstColumn" dxfId="279"/>
-      <tableStyleElement type="lastColumn" dxfId="278"/>
-      <tableStyleElement type="firstRowStripe" dxfId="277"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="276"/>
+      <tableStyleElement type="wholeTable" dxfId="287"/>
+      <tableStyleElement type="headerRow" dxfId="286"/>
+      <tableStyleElement type="totalRow" dxfId="285"/>
+      <tableStyleElement type="firstColumn" dxfId="284"/>
+      <tableStyleElement type="lastColumn" dxfId="283"/>
+      <tableStyleElement type="firstRowStripe" dxfId="282"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="281"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Benchmark" displayName="Benchmark" ref="B4:M21" headerRowDxfId="275" dataDxfId="273" totalsRowDxfId="272" headerRowBorderDxfId="274">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Benchmark" displayName="Benchmark" ref="B4:M21" headerRowDxfId="280" dataDxfId="278" totalsRowDxfId="277" headerRowBorderDxfId="279">
   <autoFilter ref="B4:M21">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -6108,22 +6108,22 @@
     <sortCondition descending="1" ref="M4:M21"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="Manufacturer" totalsRowLabel="Ergebnis" dataDxfId="271" totalsRowDxfId="270"/>
-    <tableColumn id="9" name="Model" dataDxfId="269" totalsRowDxfId="268"/>
-    <tableColumn id="8" name="Android-Version" dataDxfId="267" totalsRowDxfId="266"/>
-    <tableColumn id="11" name="CPU-Clock (MHz)" dataDxfId="265" totalsRowDxfId="264"/>
-    <tableColumn id="12" name="Tests" dataDxfId="263" totalsRowDxfId="262">
+    <tableColumn id="1" name="Manufacturer" totalsRowLabel="Ergebnis" dataDxfId="276" totalsRowDxfId="275"/>
+    <tableColumn id="9" name="Model" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="8" name="Android-Version" dataDxfId="272" totalsRowDxfId="271"/>
+    <tableColumn id="11" name="CPU-Clock (MHz)" dataDxfId="270" totalsRowDxfId="269"/>
+    <tableColumn id="12" name="Tests-Samples" dataDxfId="268">
       <calculatedColumnFormula>SUBTOTAL(2,Samsung_Galaxy_S_2.1[])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Sprite" totalsRowFunction="average" dataDxfId="261" totalsRowDxfId="260">
-      <calculatedColumnFormula>SUBTOTAL(101,HTC_Hero_1.5[Sprite])</calculatedColumnFormula>
+    <tableColumn id="2" name="Sprite" totalsRowFunction="average" dataDxfId="267" totalsRowDxfId="266">
+      <calculatedColumnFormula>SUBTOTAL(101,#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Animation" totalsRowFunction="average" dataDxfId="259" totalsRowDxfId="258"/>
-    <tableColumn id="4" name="ShapeModifier" totalsRowFunction="average" dataDxfId="257" totalsRowDxfId="256"/>
-    <tableColumn id="5" name="TickerText" totalsRowFunction="average" dataDxfId="255" totalsRowDxfId="254"/>
-    <tableColumn id="6" name="ParticleSystem" totalsRowFunction="sum" dataDxfId="253" totalsRowDxfId="252"/>
-    <tableColumn id="7" name="Box2D-Physics" totalsRowFunction="sum" dataDxfId="251" totalsRowDxfId="250"/>
-    <tableColumn id="10" name="Average" totalsRowFunction="average" dataDxfId="249" totalsRowDxfId="248">
+    <tableColumn id="3" name="Animation" totalsRowFunction="average" dataDxfId="265" totalsRowDxfId="264"/>
+    <tableColumn id="4" name="ShapeModifier" totalsRowFunction="average" dataDxfId="263" totalsRowDxfId="262"/>
+    <tableColumn id="5" name="TickerText" totalsRowFunction="average" dataDxfId="261" totalsRowDxfId="260"/>
+    <tableColumn id="6" name="ParticleSystem" totalsRowFunction="sum" dataDxfId="259" totalsRowDxfId="258"/>
+    <tableColumn id="7" name="Box2D-Physics" totalsRowFunction="sum" dataDxfId="257" totalsRowDxfId="256"/>
+    <tableColumn id="10" name="Average" totalsRowFunction="average" dataDxfId="255" totalsRowDxfId="254">
       <calculatedColumnFormula>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6132,37 +6132,37 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="HTC_Droid_Incredible_2.1" displayName="HTC_Droid_Incredible_2.1" ref="A49:G49" headerRowCount="0" totalsRowShown="0" headerRowDxfId="122" dataDxfId="120" headerRowBorderDxfId="121" tableBorderDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="HTC_Evo_4G_Supersonic_2.1" displayName="HTC_Evo_4G_Supersonic_2.1" ref="A54:G54" headerRowCount="0" totalsRowShown="0" headerRowDxfId="121" dataDxfId="119" headerRowBorderDxfId="120" tableBorderDxfId="118">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="118" dataDxfId="117"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="116" dataDxfId="115"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="114" dataDxfId="113"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="112" dataDxfId="111"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="110" dataDxfId="109"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="108" dataDxfId="107"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="106" dataDxfId="105"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="117" dataDxfId="116"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="115" dataDxfId="114"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="113" dataDxfId="112"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="111" dataDxfId="110"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="109" dataDxfId="108"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="107" dataDxfId="106"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="105" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="HTC_Evo_4G_Supersonic_2.1" displayName="HTC_Evo_4G_Supersonic_2.1" ref="A52:G52" headerRowCount="0" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="HTC_Desire_2.1" displayName="HTC_Desire_2.1" ref="A41:G41" headerRowCount="0" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="100" dataDxfId="99"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="98" dataDxfId="97"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="96" dataDxfId="95"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="94" dataDxfId="93"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="92" dataDxfId="91"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="90" dataDxfId="89"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="88" dataDxfId="87"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="99" dataDxfId="98"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="97" dataDxfId="96"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="95" dataDxfId="94"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="93" dataDxfId="92"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="91" dataDxfId="90"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="89" dataDxfId="88"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="87" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="HTC_Desire_2.1" displayName="HTC_Desire_2.1" ref="A40:G40" headerRowCount="0" totalsRowShown="0" headerRowDxfId="86" dataDxfId="84" headerRowBorderDxfId="85" tableBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="HTC_Nexus_One_2.2_MoDaCo_r20" displayName="HTC_Nexus_One_2.2_MoDaCo_r20" ref="A38:G38" headerRowCount="0" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="84" tableBorderDxfId="83">
   <tableColumns count="7">
     <tableColumn id="7" name="Test-Version" headerRowDxfId="82" dataDxfId="81"/>
     <tableColumn id="1" name="Sprite" headerRowDxfId="80" dataDxfId="79"/>
@@ -6177,7 +6177,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="HTC_Nexus_One_2.2_MoDaCo_r20" displayName="HTC_Nexus_One_2.2_MoDaCo_r20" ref="A37:G37" headerRowCount="0" totalsRowShown="0" headerRowDxfId="68" headerRowBorderDxfId="67" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="HTC_Hero_Hiapk_2.18" displayName="HTC_Hero_Hiapk_2.18" ref="A7:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="68" headerRowBorderDxfId="67" tableBorderDxfId="66">
   <tableColumns count="7">
     <tableColumn id="7" name="Test-Version" headerRowDxfId="65" dataDxfId="64"/>
     <tableColumn id="1" name="Sprite" headerRowDxfId="63" dataDxfId="62"/>
@@ -6192,7 +6192,10 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="HTC_Hero_Hiapk_2.18" displayName="HTC_Hero_Hiapk_2.18" ref="A10:G10" headerRowCount="0" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="HTC_Dream_Cyanogen_2.1" displayName="HTC_Dream_Cyanogen_2.1" ref="A21:G21" headerRowCount="0" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49">
+  <sortState ref="A21:G24">
+    <sortCondition descending="1" ref="A15"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="7" name="Test-Version" headerRowDxfId="48" dataDxfId="47"/>
     <tableColumn id="1" name="Sprite" headerRowDxfId="46" dataDxfId="45"/>
@@ -6223,8 +6226,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Motorola_Droid_2.1" displayName="Motorola_Droid_2.1" ref="A3:G8" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="A3:G8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Motorola_Droid_2.1" displayName="Motorola_Droid_2.1" ref="A3:G9" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
+  <autoFilter ref="A3:G9">
     <filterColumn colId="0">
       <filters>
         <filter val="1.1.1"/>
@@ -6281,23 +6284,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="HTC_Hero_1.5" displayName="HTC_Hero_1.5" ref="A3:G4" totalsRowShown="0" headerRowDxfId="247" headerRowBorderDxfId="246" tableBorderDxfId="245">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="HTC_Hero_VanillaEclair_4.0" displayName="HTC_Hero_VanillaEclair_4.0" ref="A3:G4" totalsRowShown="0" headerRowDxfId="253" headerRowBorderDxfId="252" tableBorderDxfId="251">
   <autoFilter ref="A3:G4"/>
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" dataDxfId="244"/>
-    <tableColumn id="1" name="Sprite"/>
-    <tableColumn id="2" name="Animation"/>
-    <tableColumn id="3" name="ShapeModifier"/>
-    <tableColumn id="4" name="TickerText"/>
-    <tableColumn id="5" name="ParticleSystem"/>
-    <tableColumn id="6" name="Box2D-Physics"/>
+    <tableColumn id="7" name="Test-Version" dataDxfId="250"/>
+    <tableColumn id="1" name="Sprite" dataDxfId="249"/>
+    <tableColumn id="2" name="Animation" dataDxfId="248"/>
+    <tableColumn id="3" name="ShapeModifier" dataDxfId="247"/>
+    <tableColumn id="4" name="TickerText" dataDxfId="246"/>
+    <tableColumn id="5" name="ParticleSystem" dataDxfId="245"/>
+    <tableColumn id="6" name="Box2D-Physics" dataDxfId="244"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="HTC_Hero_VanillaEclair_4.0" displayName="HTC_Hero_VanillaEclair_4.0" ref="A7:G7" headerRowCount="0" totalsRowShown="0" headerRowDxfId="243" headerRowBorderDxfId="242" tableBorderDxfId="241">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="HTC_Tattoo_1.6" displayName="HTC_Tattoo_1.6" ref="A10:G12" headerRowCount="0" totalsRowShown="0" headerRowDxfId="243" headerRowBorderDxfId="242" tableBorderDxfId="241">
+  <sortState ref="A10:G12">
+    <sortCondition descending="1" ref="A10"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="7" name="Test-Version" headerRowDxfId="240" dataDxfId="239"/>
     <tableColumn id="1" name="Sprite" headerRowDxfId="238" dataDxfId="237"/>
@@ -6312,9 +6318,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="HTC_Tattoo_1.6" displayName="HTC_Tattoo_1.6" ref="A13:G15" headerRowCount="0" totalsRowShown="0" headerRowDxfId="226" headerRowBorderDxfId="225" tableBorderDxfId="224">
-  <sortState ref="A10:G12">
-    <sortCondition descending="1" ref="A10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="HTC_Dream_1.6" displayName="HTC_Dream_1.6" ref="A15:G18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="226" headerRowBorderDxfId="225" tableBorderDxfId="224">
+  <sortState ref="A15:G18">
+    <sortCondition descending="1" ref="A15"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="7" name="Test-Version" headerRowDxfId="223" dataDxfId="222"/>
@@ -6330,9 +6336,9 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="HTC_Dream_1.6" displayName="HTC_Dream_1.6" ref="A18:G21" headerRowCount="0" totalsRowShown="0" headerRowDxfId="209" headerRowBorderDxfId="208" tableBorderDxfId="207">
-  <sortState ref="A15:G18">
-    <sortCondition descending="1" ref="A15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="HTC_Nexus_One_2.1" displayName="HTC_Nexus_One_2.1" ref="A24:G27" headerRowCount="0" totalsRowShown="0" headerRowDxfId="209" headerRowBorderDxfId="208" tableBorderDxfId="207">
+  <sortState ref="A21:G24">
+    <sortCondition descending="1" ref="A21"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="7" name="Test-Version" headerRowDxfId="206" dataDxfId="205"/>
@@ -6348,9 +6354,9 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="HTC_Nexus_One_2.1" displayName="HTC_Nexus_One_2.1" ref="A24:G27" headerRowCount="0" totalsRowShown="0" headerRowDxfId="192" headerRowBorderDxfId="191" tableBorderDxfId="190">
-  <sortState ref="A21:G24">
-    <sortCondition descending="1" ref="A21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="HTC_Nexus_One_2.2" displayName="HTC_Nexus_One_2.2" ref="A30:G35" headerRowCount="0" totalsRowShown="0" headerRowDxfId="192" headerRowBorderDxfId="191" tableBorderDxfId="190">
+  <sortState ref="A27:G30">
+    <sortCondition descending="1" ref="A27"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="7" name="Test-Version" headerRowDxfId="189" dataDxfId="188"/>
@@ -6366,48 +6372,45 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="HTC_Nexus_One_2.2" displayName="HTC_Nexus_One_2.2" ref="A30:G34" headerRowCount="0" totalsRowShown="0" headerRowDxfId="175" headerRowBorderDxfId="174" tableBorderDxfId="173">
-  <sortState ref="A27:G30">
-    <sortCondition descending="1" ref="A27"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="HTC_Legend_2.1" displayName="HTC_Legend_2.1" ref="A44:G44" headerRowCount="0" totalsRowShown="0" headerRowDxfId="175" dataDxfId="173" headerRowBorderDxfId="174" tableBorderDxfId="172">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="172" dataDxfId="171"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="170" dataDxfId="169"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="168" dataDxfId="167"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="166" dataDxfId="165"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="164" dataDxfId="163"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="162" dataDxfId="161"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="160" dataDxfId="159"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="171" dataDxfId="170"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="169" dataDxfId="168"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="167" dataDxfId="166"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="165" dataDxfId="164"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="163" dataDxfId="162"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="161" dataDxfId="160"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="159" dataDxfId="158"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="HTC_Legend_2.1" displayName="HTC_Legend_2.1" ref="A43:G43" headerRowCount="0" totalsRowShown="0" headerRowDxfId="158" dataDxfId="156" headerRowBorderDxfId="157" tableBorderDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="HTC_myTouch3G_1.6" displayName="HTC_myTouch3G_1.6" ref="A47:G48" headerRowCount="0" totalsRowShown="0" headerRowDxfId="157" dataDxfId="155" headerRowBorderDxfId="156" tableBorderDxfId="154">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="154" dataDxfId="153"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="152" dataDxfId="151"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="150" dataDxfId="149"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="148" dataDxfId="147"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="146" dataDxfId="145"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="144" dataDxfId="143"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="142" dataDxfId="141"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="153" dataDxfId="152"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="151" dataDxfId="150"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="149" dataDxfId="148"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="147" dataDxfId="146"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="145" dataDxfId="144"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="143" dataDxfId="142"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="141" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="HTC_myTouch3G_1.6" displayName="HTC_myTouch3G_1.6" ref="A46:G46" headerRowCount="0" totalsRowShown="0" headerRowDxfId="140" dataDxfId="138" headerRowBorderDxfId="139" tableBorderDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="HTC_Droid_Incredible_2.1" displayName="HTC_Droid_Incredible_2.1" ref="A51:G51" headerRowCount="0" totalsRowShown="0" headerRowDxfId="139" dataDxfId="137" headerRowBorderDxfId="138" tableBorderDxfId="136">
   <tableColumns count="7">
-    <tableColumn id="7" name="Test-Version" headerRowDxfId="136" dataDxfId="135"/>
-    <tableColumn id="1" name="Sprite" headerRowDxfId="134" dataDxfId="133"/>
-    <tableColumn id="2" name="Animation" headerRowDxfId="132" dataDxfId="131"/>
-    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="130" dataDxfId="129"/>
-    <tableColumn id="4" name="TickerText" headerRowDxfId="128" dataDxfId="127"/>
-    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="126" dataDxfId="125"/>
-    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="124" dataDxfId="123"/>
+    <tableColumn id="7" name="Test-Version" headerRowDxfId="135" dataDxfId="134"/>
+    <tableColumn id="1" name="Sprite" headerRowDxfId="133" dataDxfId="132"/>
+    <tableColumn id="2" name="Animation" headerRowDxfId="131" dataDxfId="130"/>
+    <tableColumn id="3" name="ShapeModifier" headerRowDxfId="129" dataDxfId="128"/>
+    <tableColumn id="4" name="TickerText" headerRowDxfId="127" dataDxfId="126"/>
+    <tableColumn id="5" name="ParticleSystem" headerRowDxfId="125" dataDxfId="124"/>
+    <tableColumn id="6" name="Box2D-Physics" headerRowDxfId="123" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6703,847 +6706,847 @@
   </sheetPr>
   <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
     <col min="7" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="23.25">
-      <c r="F2" s="30" t="s">
-        <v>51</v>
+      <c r="G2" s="29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" thickBot="1"/>
     <row r="4" spans="2:14" ht="75" customHeight="1" thickBot="1">
-      <c r="B4" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="54" t="s">
+      <c r="C4" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="58" t="s">
-        <v>45</v>
+      <c r="M4" s="44" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="49">
-        <v>528</v>
-      </c>
-      <c r="F5" s="46">
-        <f>SUBTOTAL(2,HTC_Hero_1.5[])</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="43" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_1.5[Sprite])),"?",(SUBTOTAL(1,HTC_Hero_1.5[Sprite])))</f>
-        <v>?</v>
-      </c>
-      <c r="H5" s="44" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_1.5[Animation])),"?",(SUBTOTAL(1,HTC_Hero_1.5[Animation])))</f>
-        <v>?</v>
-      </c>
-      <c r="I5" s="44" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_1.5[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Hero_1.5[ShapeModifier])))</f>
-        <v>?</v>
-      </c>
-      <c r="J5" s="44" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_1.5[TickerText])),"?",(SUBTOTAL(1,HTC_Hero_1.5[TickerText])))</f>
-        <v>?</v>
-      </c>
-      <c r="K5" s="44" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_1.5[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Hero_1.5[ParticleSystem])))</f>
-        <v>?</v>
-      </c>
-      <c r="L5" s="45" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_1.5[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Hero_1.5[Box2D-Physics])))</f>
-        <v>?</v>
-      </c>
-      <c r="M5" s="31" t="str">
-        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
-        <v>?</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="22" t="s">
+      <c r="B5" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="40">
+      <c r="D5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="46">
         <v>1000</v>
       </c>
-      <c r="F6" s="47">
-        <f>SUBTOTAL(2,Samsung_Galaxy_S_2.1[])</f>
-        <v>6</v>
-      </c>
-      <c r="G6" s="24">
+      <c r="F5" s="47">
+        <f>SUBTOTAL(2,Samsung_Galaxy_S_2.1[])/6</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="56">
         <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_S_2.1[Sprite])),"?",(SUBTOTAL(1,Samsung_Galaxy_S_2.1[Sprite])))</f>
         <v>25.367393</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H5" s="57">
         <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_S_2.1[Animation])),"?",(SUBTOTAL(1,Samsung_Galaxy_S_2.1[Animation])))</f>
         <v>28.268608</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I5" s="57">
         <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_S_2.1[ShapeModifier])),"?",(SUBTOTAL(1,Samsung_Galaxy_S_2.1[ShapeModifier])))</f>
         <v>35.899982000000001</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J5" s="57">
         <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_S_2.1[TickerText])),"?",(SUBTOTAL(1,Samsung_Galaxy_S_2.1[TickerText])))</f>
         <v>25.116581</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K5" s="57">
         <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_S_2.1[ParticleSystem])),"?",(SUBTOTAL(1,Samsung_Galaxy_S_2.1[ParticleSystem])))</f>
         <v>40.272410000000001</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L5" s="58">
         <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_S_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,Samsung_Galaxy_S_2.1[Box2D-Physics])))</f>
         <v>31.072804999999999</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M5" s="51">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>30.99962983333333</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="23" t="s">
+    <row r="6" spans="2:14">
+      <c r="B6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="40">
+      <c r="E6" s="36">
         <v>1000</v>
       </c>
-      <c r="F7" s="47">
-        <f>SUBTOTAL(2,HTC_Nexus_One_2.2[])</f>
-        <v>14</v>
-      </c>
-      <c r="G7" s="24">
+      <c r="F6" s="47">
+        <f>SUBTOTAL(2,HTC_Nexus_One_2.2[])/6</f>
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="23">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2[Sprite])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2[Sprite])))</f>
-        <v>14.798061666666667</v>
-      </c>
-      <c r="H7" s="25">
+        <v>14.922869500000001</v>
+      </c>
+      <c r="H6" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2[Animation])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2[Animation])))</f>
         <v>16.313920500000002</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I6" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2[ShapeModifier])))</f>
         <v>19.314080999999998</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J6" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2[TickerText])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2[TickerText])))</f>
         <v>18.939761000000001</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K6" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2[ParticleSystem])))</f>
         <v>25.525525999999999</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L6" s="30">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2[Box2D-Physics])))</f>
         <v>24.2664303</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M6" s="52">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
-        <v>19.859630077777776</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="40">
+        <v>19.880431383333335</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="36">
         <v>1000</v>
       </c>
-      <c r="F8" s="47">
-        <f>SUBTOTAL(2,HTC_Nexus_One_2.2_MoDaCo_r20[])</f>
-        <v>6</v>
-      </c>
-      <c r="G8" s="24">
+      <c r="F7" s="47">
+        <f>SUBTOTAL(2,HTC_Nexus_One_2.2_MoDaCo_r20[])/6</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="23">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[Sprite])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[Sprite])))</f>
         <v>17.269221999999999</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H7" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[Animation])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[Animation])))</f>
         <v>15.531084999999999</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I7" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[ShapeModifier])))</f>
         <v>18.836193000000002</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J7" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[TickerText])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[TickerText])))</f>
         <v>17.784476999999999</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K7" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[ParticleSystem])))</f>
         <v>21.471651000000001</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L7" s="30">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.2_MoDaCo_r20[Box2D-Physics])))</f>
         <v>20.804794000000001</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M7" s="52">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>18.616237000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="22" t="s">
+    <row r="8" spans="2:14">
+      <c r="B8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="40">
-        <v>550</v>
-      </c>
-      <c r="F9" s="47">
-        <f>SUBTOTAL(2,Motorola_Droid_2.1[])</f>
-        <v>4</v>
-      </c>
-      <c r="G9" s="24" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[Sprite])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[Sprite])))</f>
-        <v>?</v>
-      </c>
-      <c r="H9" s="25" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[Animation])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[Animation])))</f>
-        <v>?</v>
-      </c>
-      <c r="I9" s="25">
-        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[ShapeModifier])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[ShapeModifier])))</f>
-        <v>20.46621</v>
-      </c>
-      <c r="J9" s="25">
-        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[TickerText])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[TickerText])))</f>
-        <v>7.0465616999999998</v>
-      </c>
-      <c r="K9" s="25">
-        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[ParticleSystem])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[ParticleSystem])))</f>
-        <v>15.621314</v>
-      </c>
-      <c r="L9" s="34">
-        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[Box2D-Physics])))</f>
-        <v>15.525149000000001</v>
-      </c>
-      <c r="M9" s="32">
-        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
-        <v>14.664808675</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="40">
+      <c r="E8" s="36">
         <v>1000</v>
       </c>
-      <c r="F10" s="47">
-        <f>SUBTOTAL(2,HTC_Droid_Incredible_2.1[])</f>
-        <v>5</v>
-      </c>
-      <c r="G10" s="24">
+      <c r="F8" s="47">
+        <f>SUBTOTAL(2,HTC_Droid_Incredible_2.1[])/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G8" s="23">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Droid_Incredible_2.1[Sprite])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Sprite])))</f>
         <v>13.379421000000001</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H8" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Droid_Incredible_2.1[Animation])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Animation])))</f>
         <v>11.917116999999999</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I8" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Droid_Incredible_2.1[ShapeModifier])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[ShapeModifier])))</f>
         <v>15.435746999999999</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J8" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Droid_Incredible_2.1[TickerText])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[TickerText])))</f>
         <v>15.865864999999999</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K8" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Droid_Incredible_2.1[ParticleSystem])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[ParticleSystem])))</f>
         <v>15.810184</v>
       </c>
-      <c r="L10" s="34" t="str">
+      <c r="L8" s="30" t="str">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Droid_Incredible_2.1[Box2D-Physics])),"?",(SUBTOTAL(101,HTC_Droid_Incredible_2.1[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M8" s="52">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>14.481666799999999</v>
       </c>
-      <c r="N10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="40">
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="36">
         <v>1000</v>
       </c>
-      <c r="F11" s="47">
-        <f>SUBTOTAL(2,HTC_Desire_2.1[])</f>
-        <v>3</v>
-      </c>
-      <c r="G11" s="24" t="str">
+      <c r="F9" s="47">
+        <f>SUBTOTAL(2,HTC_Desire_2.1[])/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="23" t="str">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Desire_2.1[Sprite])),"?",(SUBTOTAL(1,HTC_Desire_2.1[Sprite])))</f>
         <v>?</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H9" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Desire_2.1[Animation])),"?",(SUBTOTAL(1,HTC_Desire_2.1[Animation])))</f>
         <v>11.735962000000001</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I9" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Desire_2.1[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Desire_2.1[ShapeModifier])))</f>
         <v>15.083520999999999</v>
       </c>
-      <c r="J11" s="25" t="str">
+      <c r="J9" s="24" t="str">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Desire_2.1[TickerText])),"?",(SUBTOTAL(1,HTC_Desire_2.1[TickerText])))</f>
         <v>?</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K9" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Desire_2.1[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Desire_2.1[ParticleSystem])))</f>
         <v>15.923451999999999</v>
       </c>
-      <c r="L11" s="34" t="str">
+      <c r="L9" s="30" t="str">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Desire_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Desire_2.1[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M9" s="52">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>14.247644999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="40">
+    <row r="10" spans="2:14">
+      <c r="B10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="36">
         <v>1000</v>
       </c>
-      <c r="F12" s="47">
-        <f>SUBTOTAL(2,HTC_Nexus_One_2.1[])</f>
-        <v>11</v>
-      </c>
-      <c r="G12" s="24">
+      <c r="F10" s="47">
+        <f>SUBTOTAL(2,HTC_Nexus_One_2.1[])/6</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="G10" s="23">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.1[Sprite])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.1[Sprite])))</f>
         <v>14.475951250000001</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H10" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.1[Animation])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.1[Animation])))</f>
         <v>11.497117699999999</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I10" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.1[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.1[ShapeModifier])))</f>
         <v>15.965774333333334</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J10" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.1[TickerText])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.1[TickerText])))</f>
         <v>14.288466</v>
       </c>
-      <c r="K12" s="25" t="str">
+      <c r="K10" s="24" t="str">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.1[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.1[ParticleSystem])))</f>
         <v>?</v>
       </c>
-      <c r="L12" s="34" t="str">
+      <c r="L10" s="30" t="str">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Nexus_One_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Nexus_One_2.1[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M10" s="52">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>14.056827320833333</v>
       </c>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="40">
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="36">
         <v>600</v>
       </c>
-      <c r="F13" s="47">
-        <f>SUBTOTAL(2,HTC_Legend_2.1[])</f>
-        <v>3</v>
-      </c>
-      <c r="G13" s="24" t="str">
+      <c r="F11" s="47">
+        <f>SUBTOTAL(2,HTC_Legend_2.1[])/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="23" t="str">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Legend_2.1[Sprite])),"?",(SUBTOTAL(1,HTC_Legend_2.1[Sprite])))</f>
         <v>?</v>
       </c>
-      <c r="H13" s="25" t="str">
+      <c r="H11" s="24" t="str">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Legend_2.1[Animation])),"?",(SUBTOTAL(1,HTC_Legend_2.1[Animation])))</f>
         <v>?</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I11" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Legend_2.1[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Legend_2.1[ShapeModifier])))</f>
         <v>9.7283609999999996</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J11" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Legend_2.1[TickerText])),"?",(SUBTOTAL(1,HTC_Legend_2.1[TickerText])))</f>
         <v>21.894788999999999</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K11" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Legend_2.1[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Legend_2.1[ParticleSystem])))</f>
         <v>10.11773</v>
       </c>
-      <c r="L13" s="34" t="str">
+      <c r="L11" s="30" t="str">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Legend_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Legend_2.1[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M11" s="52">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>13.913626666666666</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="22" t="s">
+    <row r="12" spans="2:14">
+      <c r="B12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="36">
+        <v>550</v>
+      </c>
+      <c r="F12" s="47">
+        <f>SUBTOTAL(2,Motorola_Droid_2.1[])/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G12" s="23">
+        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[Sprite])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[Sprite])))</f>
+        <v>10.067555</v>
+      </c>
+      <c r="H12" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[Animation])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[Animation])))</f>
+        <v>9.7792589999999997</v>
+      </c>
+      <c r="I12" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[ShapeModifier])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[ShapeModifier])))</f>
+        <v>17.582723999999999</v>
+      </c>
+      <c r="J12" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[TickerText])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[TickerText])))</f>
+        <v>6.6133508499999998</v>
+      </c>
+      <c r="K12" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[ParticleSystem])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[ParticleSystem])))</f>
+        <v>15.275971999999999</v>
+      </c>
+      <c r="L12" s="30">
+        <f>IF(ISERROR(SUBTOTAL(1,Motorola_Droid_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,Motorola_Droid_2.1[Box2D-Physics])))</f>
+        <v>15.0093785</v>
+      </c>
+      <c r="M12" s="52">
+        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
+        <v>12.388039891666665</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="40">
+      <c r="D13" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="36">
         <v>1000</v>
       </c>
-      <c r="F14" s="47">
-        <f>SUBTOTAL(2,Sony_Ericsson_x10i_1.6[])</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="24">
+      <c r="F13" s="47">
+        <f>SUBTOTAL(2,Sony_Ericsson_x10i_1.6[])/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G13" s="23">
         <f>IF(ISERROR(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[Sprite])),"?",(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[Sprite])))</f>
         <v>13.299028</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H13" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[Animation])),"?",(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[Animation])))</f>
         <v>8.7267685000000004</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I13" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[ShapeModifier])),"?",(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[ShapeModifier])))</f>
         <v>12.229005000000001</v>
       </c>
-      <c r="J14" s="25" t="str">
+      <c r="J13" s="24" t="str">
         <f>IF(ISERROR(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[TickerText])),"?",(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[TickerText])))</f>
         <v>?</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K13" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[ParticleSystem])),"?",(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[ParticleSystem])))</f>
         <v>15.026707999999999</v>
       </c>
-      <c r="L14" s="34" t="str">
+      <c r="L13" s="30" t="str">
         <f>IF(ISERROR(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[Box2D-Physics])),"?",(SUBTOTAL(1,Sony_Ericsson_x10i_1.6[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M13" s="52">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>12.320377375</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="40">
+    <row r="14" spans="2:14">
+      <c r="B14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="36">
         <v>1000</v>
       </c>
-      <c r="F15" s="47">
-        <f>SUBTOTAL(2,HTC_Evo_4G_Supersonic_2.1[])</f>
-        <v>3</v>
-      </c>
-      <c r="G15" s="24" t="str">
+      <c r="F14" s="47">
+        <f>SUBTOTAL(2,HTC_Evo_4G_Supersonic_2.1[])/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="23" t="str">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[Sprite])),"?",(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[Sprite])))</f>
         <v>?</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H14" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[Animation])),"?",(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[Animation])))</f>
         <v>11.019192</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I14" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[ShapeModifier])))</f>
         <v>14.979018</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J14" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[TickerText])),"?",(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[TickerText])))</f>
         <v>10.795321</v>
       </c>
-      <c r="K15" s="25" t="str">
+      <c r="K14" s="24" t="str">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[ParticleSystem])))</f>
         <v>?</v>
       </c>
-      <c r="L15" s="34" t="str">
+      <c r="L14" s="30" t="str">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Evo_4G_Supersonic_2.1[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M14" s="52">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>12.264510333333334</v>
       </c>
     </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="36">
+        <v>528</v>
+      </c>
+      <c r="F15" s="47">
+        <f>SUBTOTAL(2,HTC_Hero_Hiapk_2.18[])/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G15" s="23" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Sprite])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Sprite])))</f>
+        <v>?</v>
+      </c>
+      <c r="H15" s="24" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Animation])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Animation])))</f>
+        <v>?</v>
+      </c>
+      <c r="I15" s="24" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[ShapeModifier])))</f>
+        <v>?</v>
+      </c>
+      <c r="J15" s="24" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[TickerText])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[TickerText])))</f>
+        <v>?</v>
+      </c>
+      <c r="K15" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[ParticleSystem])))</f>
+        <v>6.5550036</v>
+      </c>
+      <c r="L15" s="30">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Box2D-Physics])))</f>
+        <v>5.4402046000000004</v>
+      </c>
+      <c r="M15" s="52">
+        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
+        <v>5.9976041000000002</v>
+      </c>
+    </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="40">
+      <c r="D16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="36">
         <v>528</v>
       </c>
       <c r="F16" s="47">
-        <f>SUBTOTAL(2,HTC_myTouch3G_1.6[])</f>
+        <f>SUBTOTAL(2,HTC_Hero_Hiapk_2.18[])/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G16" s="23">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Sprite])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Sprite])))</f>
+        <v>5.0411853999999998</v>
+      </c>
+      <c r="H16" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Animation])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Animation])))</f>
+        <v>5.1484027000000001</v>
+      </c>
+      <c r="I16" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[ShapeModifier])))</f>
+        <v>6.4483629999999996</v>
+      </c>
+      <c r="J16" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[TickerText])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[TickerText])))</f>
+        <v>6.1750499999999997</v>
+      </c>
+      <c r="K16" s="24" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[ParticleSystem])))</f>
+        <v>?</v>
+      </c>
+      <c r="L16" s="30" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Box2D-Physics])))</f>
+        <v>?</v>
+      </c>
+      <c r="M16" s="52">
+        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
+        <v>5.7032502749999994</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="36">
+        <v>528</v>
+      </c>
+      <c r="F17" s="48">
+        <f>SUBTOTAL(2,HTC_Dream_Cyanogen_2.1[])/6</f>
         <v>1</v>
       </c>
-      <c r="G16" s="24" t="str">
+      <c r="G17" s="23">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_Cyanogen_2.1[Sprite])),"?",(SUBTOTAL(1,HTC_Dream_Cyanogen_2.1[Sprite])))</f>
+        <v>5.0072136</v>
+      </c>
+      <c r="H17" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_Cyanogen_2.1[Animation])),"?",(SUBTOTAL(1,HTC_Dream_Cyanogen_2.1[Animation])))</f>
+        <v>4.5709169999999997</v>
+      </c>
+      <c r="I17" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_Cyanogen_2.1[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Dream_Cyanogen_2.1[ShapeModifier])))</f>
+        <v>6.9393643999999997</v>
+      </c>
+      <c r="J17" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_Cyanogen_2.1[TickerText])),"?",(SUBTOTAL(1,HTC_Dream_Cyanogen_2.1[TickerText])))</f>
+        <v>5.4820840000000004</v>
+      </c>
+      <c r="K17" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_Cyanogen_2.1[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Dream_Cyanogen_2.1[ParticleSystem])))</f>
+        <v>6.1154102999999997</v>
+      </c>
+      <c r="L17" s="30">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_Cyanogen_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Dream_Cyanogen_2.1[Box2D-Physics])))</f>
+        <v>5.4332867</v>
+      </c>
+      <c r="M17" s="52">
+        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
+        <v>5.5913793333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="36">
+        <v>800</v>
+      </c>
+      <c r="F18" s="47">
+        <f>SUBTOTAL(2,Samsung_Galaxy_Spica_2.1[])/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G18" s="23" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Sprite])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Sprite])))</f>
+        <v>?</v>
+      </c>
+      <c r="H18" s="24" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Animation])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Animation])))</f>
+        <v>?</v>
+      </c>
+      <c r="I18" s="24" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[ShapeModifier])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[ShapeModifier])))</f>
+        <v>?</v>
+      </c>
+      <c r="J18" s="24" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[TickerText])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[TickerText])))</f>
+        <v>?</v>
+      </c>
+      <c r="K18" s="24" t="str">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[ParticleSystem])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[ParticleSystem])))</f>
+        <v>?</v>
+      </c>
+      <c r="L18" s="30">
+        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Box2D-Physics])))</f>
+        <v>5.2552580000000004</v>
+      </c>
+      <c r="M18" s="52">
+        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
+        <v>5.2552580000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="36">
+        <v>528</v>
+      </c>
+      <c r="F19" s="49">
+        <f>SUBTOTAL(2,HTC_Dream_1.6[])/6</f>
+        <v>2</v>
+      </c>
+      <c r="G19" s="23">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[Sprite])),"?",(SUBTOTAL(1,HTC_Dream_1.6[Sprite])))</f>
+        <v>3.9721511</v>
+      </c>
+      <c r="H19" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[Animation])),"?",(SUBTOTAL(1,HTC_Dream_1.6[Animation])))</f>
+        <v>4.0216501999999998</v>
+      </c>
+      <c r="I19" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Dream_1.6[ShapeModifier])))</f>
+        <v>5.2090484999999997</v>
+      </c>
+      <c r="J19" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[TickerText])),"?",(SUBTOTAL(1,HTC_Dream_1.6[TickerText])))</f>
+        <v>6.6800147000000001</v>
+      </c>
+      <c r="K19" s="24">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Dream_1.6[ParticleSystem])))</f>
+        <v>5.5421003999999998</v>
+      </c>
+      <c r="L19" s="30">
+        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Dream_1.6[Box2D-Physics])))</f>
+        <v>4.440436</v>
+      </c>
+      <c r="M19" s="52">
+        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
+        <v>4.9775668166666662</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="36">
+        <v>528</v>
+      </c>
+      <c r="F20" s="47">
+        <f>SUBTOTAL(2,HTC_myTouch3G_1.6[])/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G20" s="23">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_myTouch3G_1.6[Sprite])),"?",(SUBTOTAL(1,HTC_myTouch3G_1.6[Sprite])))</f>
-        <v>?</v>
-      </c>
-      <c r="H16" s="25" t="str">
+        <v>4.1197623999999999</v>
+      </c>
+      <c r="H20" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_myTouch3G_1.6[Animation])),"?",(SUBTOTAL(1,HTC_myTouch3G_1.6[Animation])))</f>
-        <v>?</v>
-      </c>
-      <c r="I16" s="25" t="str">
+        <v>1.87686</v>
+      </c>
+      <c r="I20" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_myTouch3G_1.6[ShapeModifier])),"?",(SUBTOTAL(1,HTC_myTouch3G_1.6[ShapeModifier])))</f>
-        <v>?</v>
-      </c>
-      <c r="J16" s="25">
+        <v>5.5699643999999999</v>
+      </c>
+      <c r="J20" s="24">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_myTouch3G_1.6[TickerText])),"?",(SUBTOTAL(1,HTC_myTouch3G_1.6[TickerText])))</f>
-        <v>7.2027340000000004</v>
-      </c>
-      <c r="K16" s="25" t="str">
+        <v>4.7583508500000002</v>
+      </c>
+      <c r="K20" s="24" t="str">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_myTouch3G_1.6[ParticleSystem])),"?",(SUBTOTAL(1,HTC_myTouch3G_1.6[ParticleSystem])))</f>
         <v>?</v>
       </c>
-      <c r="L16" s="34" t="str">
+      <c r="L20" s="30" t="str">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_myTouch3G_1.6[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_myTouch3G_1.6[Box2D-Physics])))</f>
         <v>?</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M20" s="52">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
-        <v>7.2027340000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="23" t="s">
+        <v>4.0812344124999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B21" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="40">
+      <c r="D21" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="38">
         <v>528</v>
       </c>
-      <c r="F17" s="47">
-        <f>SUBTOTAL(2,HTC_Hero_Hiapk_2.18[])</f>
-        <v>2</v>
-      </c>
-      <c r="G17" s="24" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Sprite])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Sprite])))</f>
-        <v>?</v>
-      </c>
-      <c r="H17" s="25" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Animation])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Animation])))</f>
-        <v>?</v>
-      </c>
-      <c r="I17" s="25" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[ShapeModifier])))</f>
-        <v>?</v>
-      </c>
-      <c r="J17" s="25" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[TickerText])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[TickerText])))</f>
-        <v>?</v>
-      </c>
-      <c r="K17" s="25">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[ParticleSystem])))</f>
-        <v>6.5550036</v>
-      </c>
-      <c r="L17" s="34">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Hero_Hiapk_2.18[Box2D-Physics])))</f>
-        <v>5.4402046000000004</v>
-      </c>
-      <c r="M17" s="32">
-        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
-        <v>5.9976041000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="40">
-        <v>528</v>
-      </c>
-      <c r="F18" s="46">
-        <f>SUBTOTAL(2,HTC_Hero_Hiapk_2.18[])</f>
-        <v>2</v>
-      </c>
-      <c r="G18" s="24">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Sprite])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Sprite])))</f>
-        <v>5.0411853999999998</v>
-      </c>
-      <c r="H18" s="25">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Animation])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Animation])))</f>
-        <v>5.1484027000000001</v>
-      </c>
-      <c r="I18" s="25">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[ShapeModifier])))</f>
-        <v>6.4483629999999996</v>
-      </c>
-      <c r="J18" s="25">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[TickerText])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[TickerText])))</f>
-        <v>6.1750499999999997</v>
-      </c>
-      <c r="K18" s="25" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[ParticleSystem])))</f>
-        <v>?</v>
-      </c>
-      <c r="L18" s="34" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Hero_VanillaEclair_4.0[Box2D-Physics])))</f>
-        <v>?</v>
-      </c>
-      <c r="M18" s="32">
-        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
-        <v>5.7032502749999994</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="40">
-        <v>800</v>
-      </c>
-      <c r="F19" s="47">
-        <f>SUBTOTAL(2,Samsung_Galaxy_Spica_2.1[])</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="24" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Sprite])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Sprite])))</f>
-        <v>?</v>
-      </c>
-      <c r="H19" s="25" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Animation])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Animation])))</f>
-        <v>?</v>
-      </c>
-      <c r="I19" s="25" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[ShapeModifier])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[ShapeModifier])))</f>
-        <v>?</v>
-      </c>
-      <c r="J19" s="25" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[TickerText])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[TickerText])))</f>
-        <v>?</v>
-      </c>
-      <c r="K19" s="25" t="str">
-        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[ParticleSystem])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[ParticleSystem])))</f>
-        <v>?</v>
-      </c>
-      <c r="L19" s="34">
-        <f>IF(ISERROR(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Box2D-Physics])),"?",(SUBTOTAL(1,Samsung_Galaxy_Spica_2.1[Box2D-Physics])))</f>
-        <v>5.2552580000000004</v>
-      </c>
-      <c r="M19" s="32">
-        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
-        <v>5.2552580000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="40">
-        <v>528</v>
-      </c>
-      <c r="F20" s="47">
-        <f>SUBTOTAL(2,HTC_Dream_1.6[])</f>
-        <v>12</v>
-      </c>
-      <c r="G20" s="24">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[Sprite])),"?",(SUBTOTAL(1,HTC_Dream_1.6[Sprite])))</f>
-        <v>3.9721511</v>
-      </c>
-      <c r="H20" s="25">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[Animation])),"?",(SUBTOTAL(1,HTC_Dream_1.6[Animation])))</f>
-        <v>4.0216501999999998</v>
-      </c>
-      <c r="I20" s="25">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Dream_1.6[ShapeModifier])))</f>
-        <v>5.2090484999999997</v>
-      </c>
-      <c r="J20" s="25">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[TickerText])),"?",(SUBTOTAL(1,HTC_Dream_1.6[TickerText])))</f>
-        <v>6.6800147000000001</v>
-      </c>
-      <c r="K20" s="25">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Dream_1.6[ParticleSystem])))</f>
-        <v>5.5421003999999998</v>
-      </c>
-      <c r="L20" s="34">
-        <f>IF(ISERROR(SUBTOTAL(1,HTC_Dream_1.6[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Dream_1.6[Box2D-Physics])))</f>
-        <v>4.440436</v>
-      </c>
-      <c r="M20" s="32">
-        <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
-        <v>4.9775668166666662</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B21" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="42">
-        <v>528</v>
-      </c>
-      <c r="F21" s="48">
-        <f>SUBTOTAL(2,HTC_Tattoo_1.6[])</f>
-        <v>10</v>
-      </c>
-      <c r="G21" s="28">
+      <c r="F21" s="50">
+        <f>SUBTOTAL(2,HTC_Tattoo_1.6[])/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G21" s="27">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Tattoo_1.6[Sprite])),"?",(SUBTOTAL(1,HTC_Tattoo_1.6[Sprite])))</f>
         <v>3.9166908500000002</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="28">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Tattoo_1.6[Animation])),"?",(SUBTOTAL(1,HTC_Tattoo_1.6[Animation])))</f>
         <v>2.4739784</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="28">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Tattoo_1.6[ShapeModifier])),"?",(SUBTOTAL(1,HTC_Tattoo_1.6[ShapeModifier])))</f>
         <v>5.5150470499999997</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="28">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Tattoo_1.6[TickerText])),"?",(SUBTOTAL(1,HTC_Tattoo_1.6[TickerText])))</f>
         <v>1.57046295</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="28">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Tattoo_1.6[ParticleSystem])),"?",(SUBTOTAL(1,HTC_Tattoo_1.6[ParticleSystem])))</f>
         <v>3.4163103000000001</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="31">
         <f>IF(ISERROR(SUBTOTAL(1,HTC_Tattoo_1.6[Box2D-Physics])),"?",(SUBTOTAL(1,HTC_Tattoo_1.6[Box2D-Physics])))</f>
         <v>4.9549089999999998</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="53">
         <f>IF(ISERROR(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])),"?",(AVERAGE(Benchmark[[#This Row],[Sprite]:[Box2D-Physics]])))</f>
         <v>3.6412330916666669</v>
       </c>
@@ -7559,19 +7562,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="M5:M21">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:L21">
-    <cfRule type="colorScale" priority="62">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7583,7 +7574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H21">
-    <cfRule type="colorScale" priority="65">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7595,7 +7586,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I21">
-    <cfRule type="colorScale" priority="67">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7607,7 +7598,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J21">
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7619,7 +7610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K21">
-    <cfRule type="colorScale" priority="71">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7631,7 +7622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L21">
-    <cfRule type="colorScale" priority="73">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -7643,7 +7634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F21">
-    <cfRule type="iconSet" priority="2">
+    <cfRule type="iconSet" priority="96">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -7654,7 +7645,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E21">
-    <cfRule type="iconSet" priority="1">
+    <cfRule type="iconSet" priority="98">
       <iconSet iconSet="5Rating">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -7662,6 +7653,18 @@
         <cfvo type="percent" val="60"/>
         <cfvo type="percent" val="80"/>
       </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G21 H19:L19">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7677,10 +7680,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7691,18 +7694,18 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.5">
       <c r="A1" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="15"/>
+      <c r="A2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="62.25">
       <c r="A3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
@@ -7724,227 +7727,257 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.0411853999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.1484027000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.4483629999999996</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.1750499999999997</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="15"/>
+      <c r="A6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5.0411853999999998</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5.1484027000000001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6.4483629999999996</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6.1750499999999997</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>6.5550036</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.4402046000000004</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="23.25">
-      <c r="A9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="15"/>
+      <c r="A9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.9416714000000002</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.4487576</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6.0736264999999996</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.5668987000000001</v>
+      </c>
       <c r="F10" s="1">
-        <v>6.5550036</v>
+        <v>3.4163103000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>5.4402046000000004</v>
+        <v>4.9549089999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="23.25">
-      <c r="A12" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="15"/>
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>1.5740272</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.8917103000000002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.4991992000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.9564675999999999</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3.9416714000000002</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.4487576</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6.0736264999999996</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.5668987000000001</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3.4163103000000001</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4.9549089999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1">
-        <v>1.5740272</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="23.25">
+      <c r="A14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
-        <v>3.8917103000000002</v>
+        <v>4.2367743999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>2.4991992000000001</v>
+        <v>4.2539400000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>4.9564675999999999</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+        <v>5.4064819999999996</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5.710941</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5.5421003999999998</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4.440436</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="23.25">
-      <c r="A17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.4784402999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.5970689999999998</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>7.6490884000000001</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
-        <v>4.2367743999999998</v>
+        <v>4.2012385999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>4.2539400000000001</v>
+        <v>4.2139416000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>5.4064819999999996</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5.710941</v>
-      </c>
-      <c r="F18" s="1">
-        <v>5.5421003999999998</v>
-      </c>
-      <c r="G18" s="1">
-        <v>4.440436</v>
-      </c>
+        <v>5.0116149999999999</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1">
-        <v>3.4784402999999999</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3.5970689999999998</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1">
-        <v>7.6490884000000001</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+    <row r="20" spans="1:7" ht="23.25">
+      <c r="A20" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
-        <v>4.2012385999999999</v>
+        <v>5.0072136</v>
       </c>
       <c r="C21" s="1">
-        <v>4.2139416000000001</v>
+        <v>4.5709169999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>5.0116149999999999</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+        <v>6.9393643999999997</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5.4820840000000004</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6.1154102999999997</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5.4332867</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="12"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="23.25">
-      <c r="A23" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="15"/>
+      <c r="A23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>16.069790000000001</v>
@@ -7963,7 +7996,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
@@ -7980,7 +8013,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -7993,7 +8026,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
         <v>12.8821125</v>
@@ -8012,14 +8045,14 @@
       <c r="A28" s="3"/>
     </row>
     <row r="29" spans="1:7" ht="23.25">
-      <c r="A29" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="15"/>
+      <c r="A29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1">
         <v>17.351126000000001</v>
@@ -8042,44 +8075,44 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1">
-        <v>11.797587</v>
+        <v>15.297293</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1">
-        <v>24.684418000000001</v>
-      </c>
-      <c r="G31" s="1">
-        <v>22.861104999999998</v>
-      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B32" s="1">
+        <v>11.797587</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1">
-        <v>19.625256</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1">
+        <v>24.684418000000001</v>
+      </c>
+      <c r="G32" s="1">
+        <v>22.861104999999998</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1">
-        <v>19.663094999999998</v>
-      </c>
-      <c r="E33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <v>19.625256</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
@@ -8087,188 +8120,220 @@
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="1">
-        <v>15.245471999999999</v>
-      </c>
-      <c r="C34" s="1">
-        <v>16.31813</v>
-      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1">
-        <v>18.253098000000001</v>
+        <v>19.663094999999998</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="3"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1">
+        <v>15.245471999999999</v>
+      </c>
+      <c r="C35" s="1">
+        <v>16.31813</v>
+      </c>
+      <c r="D35" s="1">
+        <v>18.253098000000001</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="23.25">
-      <c r="A36" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="1">
+    <row r="36" spans="1:7">
+      <c r="A36" s="3"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="23.25">
+      <c r="A37" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1">
         <v>17.269221999999999</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C38" s="1">
         <v>15.531084999999999</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D38" s="1">
         <v>18.836193000000002</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E38" s="1">
         <v>17.784476999999999</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F38" s="1">
         <v>21.471651000000001</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G38" s="1">
         <v>20.804794000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="3"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="23.25">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="3"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="23.25">
+      <c r="A40" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="14"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16">
+        <v>11.735962000000001</v>
+      </c>
+      <c r="D41" s="16">
+        <v>15.083520999999999</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16">
+        <v>15.923451999999999</v>
+      </c>
+      <c r="G41" s="15"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="23.25">
+      <c r="A43" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="14"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16">
+        <v>9.7283609999999996</v>
+      </c>
+      <c r="E44" s="16">
+        <v>21.894788999999999</v>
+      </c>
+      <c r="F44" s="15">
+        <v>10.11773</v>
+      </c>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="46" spans="1:7" ht="23.25">
+      <c r="A46" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="14"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16">
+        <v>7.2027340000000004</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="62">
+        <v>4.1197623999999999</v>
+      </c>
+      <c r="C48" s="61">
+        <v>1.87686</v>
+      </c>
+      <c r="D48" s="61">
+        <v>5.5699643999999999</v>
+      </c>
+      <c r="E48" s="61">
+        <v>2.3139677000000001</v>
+      </c>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+    </row>
+    <row r="50" spans="1:7" ht="23.25">
+      <c r="A50" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="15">
+        <v>13.379421000000001</v>
+      </c>
+      <c r="C51" s="16">
+        <v>11.917116999999999</v>
+      </c>
+      <c r="D51" s="16">
+        <v>15.435746999999999</v>
+      </c>
+      <c r="E51" s="16">
+        <v>15.865864999999999</v>
+      </c>
+      <c r="F51" s="15">
+        <v>15.810184</v>
+      </c>
+      <c r="G51" s="15"/>
+    </row>
+    <row r="53" spans="1:7" ht="23.25">
+      <c r="A53" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="15"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="13" t="s">
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17">
-        <v>11.735962000000001</v>
-      </c>
-      <c r="D40" s="17">
-        <v>15.083520999999999</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17">
-        <v>15.923451999999999</v>
-      </c>
-      <c r="G40" s="16"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" ht="23.25">
-      <c r="A42" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17">
-        <v>9.7283609999999996</v>
-      </c>
-      <c r="E43" s="17">
-        <v>21.894788999999999</v>
-      </c>
-      <c r="F43" s="16">
-        <v>10.11773</v>
-      </c>
-      <c r="G43" s="16"/>
-    </row>
-    <row r="45" spans="1:7" ht="23.25">
-      <c r="A45" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="15"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17">
-        <v>7.2027340000000004</v>
-      </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-    </row>
-    <row r="48" spans="1:7" ht="23.25">
-      <c r="A48" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="15"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="16">
-        <v>13.379421000000001</v>
-      </c>
-      <c r="C49" s="17">
-        <v>11.917116999999999</v>
-      </c>
-      <c r="D49" s="17">
-        <v>15.435746999999999</v>
-      </c>
-      <c r="E49" s="17">
-        <v>15.865864999999999</v>
-      </c>
-      <c r="F49" s="16">
-        <v>15.810184</v>
-      </c>
-      <c r="G49" s="16"/>
-    </row>
-    <row r="51" spans="1:7" ht="23.25">
-      <c r="A51" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="15"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="17">
+      <c r="B54" s="15"/>
+      <c r="C54" s="16">
         <v>11.019192</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D54" s="16">
         <v>14.979018</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E54" s="16">
         <v>10.795321</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <tableParts count="13">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -8281,6 +8346,7 @@
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8304,18 +8370,18 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.5">
       <c r="A1" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="15"/>
+      <c r="A2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="62.25">
       <c r="A3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
@@ -8338,7 +8404,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <v>13.299028</v>
@@ -8368,10 +8434,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8381,18 +8447,18 @@
   <sheetData>
     <row r="1" spans="1:7" ht="33.75">
       <c r="A1" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="15"/>
+      <c r="A2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="62.25">
       <c r="A3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
@@ -8415,7 +8481,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8430,57 +8496,80 @@
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1">
+        <v>10.067555</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9.7792589999999997</v>
+      </c>
       <c r="D5" s="1">
-        <v>20.46621</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>14.699237999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.1801399999999997</v>
+      </c>
       <c r="F5" s="1">
-        <v>15.621314</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>14.930630000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>14.493608</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
-        <v>7.0465616999999998</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="D6" s="1">
+        <v>20.46621</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>15.621314</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" hidden="1">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1">
-        <v>10.263685000000001</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>7.0465616999999998</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" hidden="1">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>2.8178247999999999</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>12.49249</v>
+        <v>10.263685000000001</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>2.8178247999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12.49249</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8509,18 +8598,18 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.5">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="26.25">
-      <c r="A2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="15"/>
+      <c r="A2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="62.25">
       <c r="A3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
@@ -8543,7 +8632,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>25.367393</v>
@@ -8565,14 +8654,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25">
-      <c r="A6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="15"/>
+      <c r="A6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>5.2552580000000004</v>

--- a/doc/benchmarks.xlsx
+++ b/doc/benchmarks.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId2"/>
+    <pivotCache cacheId="2" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -19,13 +19,13 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Abfrage von AndEngine Benchmarks" type="1" refreshedVersion="3">
-    <dbPr connection="DRIVER={MySQL ODBC 5.1 Driver};UID=d00e3e7d;SERVER={alekto-programming.com};DATABASE=d00e3e7d;PORT=3306;" command="SELECT t_benchmarks_0.id, t_benchmarks_0.timestamp, t_benchmarks_0.benchmark_id, t_benchmarks_0.benchmark_versionname, t_benchmarks_0.benchmark_versioncode, t_benchmarks_0.benchmark_fps, t_benchmarks_0.device_model, t_benchmarks_0.device_android_version, t_benchmarks_0.device_sdk_version, t_benchmarks_0.device_manufacturer, t_benchmarks_0.device_build_id, t_benchmarks_0.device_build, t_benchmarks_0.device_device, t_benchmarks_0.device_product, t_benchmarks_0.device_cpuabi, t_benchmarks_0.device_board, t_benchmarks_0.device_fingerprint, t_benchmarks_0.benchmark_extension_vbo, t_benchmarks_0.benchmark_extension_drawtexture, t_benchmarks_0.device_imei_x000d__x000a_FROM d00e3e7d.t_benchmarks t_benchmarks_0"/>
+    <dbPr connection="Driver=MySQL ODBC 5.1 Driver;SERVER={alekto-programming.com};UID=d00e3e7d;DATABASE=d00e3e7d;PORT=3306_x0000_" command="SELECT t_benchmarks_0.id, t_benchmarks_0.timestamp, t_benchmarks_0.benchmark_id, t_benchmarks_0.benchmark_versionname, t_benchmarks_0.benchmark_versioncode, t_benchmarks_0.benchmark_fps, t_benchmarks_0.device_model, t_benchmarks_0.device_android_version, t_benchmarks_0.device_sdk_version, t_benchmarks_0.device_manufacturer, t_benchmarks_0.device_build_id, t_benchmarks_0.device_build, t_benchmarks_0.device_device, t_benchmarks_0.device_product, t_benchmarks_0.device_cpuabi, t_benchmarks_0.device_board, t_benchmarks_0.device_fingerprint, t_benchmarks_0.benchmark_extension_vbo, t_benchmarks_0.benchmark_extension_drawtexture, t_benchmarks_0.device_imei_x000d__x000a_FROM d00e3e7d.t_benchmarks t_benchmarks_0"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>TickerText</t>
   </si>
@@ -76,6 +76,39 @@
   </si>
   <si>
     <t>Bench</t>
+  </si>
+  <si>
+    <t>GT-I9000</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>HTC Desire</t>
+  </si>
+  <si>
+    <t>ADR6300</t>
+  </si>
+  <si>
+    <t>XT720</t>
+  </si>
+  <si>
+    <t>Droid</t>
+  </si>
+  <si>
+    <t>A853</t>
+  </si>
+  <si>
+    <t>E10i</t>
+  </si>
+  <si>
+    <t>HTC Magic</t>
+  </si>
+  <si>
+    <t>Docomo HT-03A</t>
+  </si>
+  <si>
+    <t>X10i</t>
   </si>
 </sst>
 </file>
@@ -363,340 +396,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="109">
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="75">
     <dxf>
       <alignment textRotation="70" readingOrder="0"/>
     </dxf>
@@ -1443,13 +1143,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium16 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="108"/>
-      <tableStyleElement type="headerRow" dxfId="107"/>
-      <tableStyleElement type="totalRow" dxfId="106"/>
-      <tableStyleElement type="firstColumn" dxfId="105"/>
-      <tableStyleElement type="lastColumn" dxfId="104"/>
-      <tableStyleElement type="firstRowStripe" dxfId="103"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="102"/>
+      <tableStyleElement type="wholeTable" dxfId="74"/>
+      <tableStyleElement type="headerRow" dxfId="73"/>
+      <tableStyleElement type="totalRow" dxfId="72"/>
+      <tableStyleElement type="firstColumn" dxfId="71"/>
+      <tableStyleElement type="lastColumn" dxfId="70"/>
+      <tableStyleElement type="firstRowStripe" dxfId="69"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="68"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -1594,16 +1294,49 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$11</c:f>
+              <c:f>Benchmarks!$B$8:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>GT-I9000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Liquid</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Nexus One</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>HTC Desire</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADR6300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X10i</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>XT720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>E10i</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Droid</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>A853</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HTC Magic</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>T-Mobile G1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
+                  <c:v>Docomo HT-03A</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
               </c:strCache>
@@ -1611,18 +1344,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$C$8:$C$11</c:f>
+              <c:f>Benchmarks!$C$8:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>17.226800000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                  <c:v>22.449300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.426416666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.268999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.206900000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0224499999999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6301400000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7490299999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4.0504699999999998</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7688299999999999</c:v>
+                <c:pt idx="13">
+                  <c:v>3.86246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1644,16 +1395,49 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$11</c:f>
+              <c:f>Benchmarks!$B$8:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>GT-I9000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Liquid</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Nexus One</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>HTC Desire</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADR6300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X10i</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>XT720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>E10i</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Droid</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>A853</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HTC Magic</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>T-Mobile G1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
+                  <c:v>Docomo HT-03A</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
               </c:strCache>
@@ -1661,17 +1445,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$D$8:$D$11</c:f>
+              <c:f>Benchmarks!$D$8:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>16.032900000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3552099999999996</c:v>
+                  <c:v>21.101299999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>15.580750000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.283100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.386099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.730399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6300400000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.1149</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.639699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3078699999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2.5402200000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1694,16 +1499,49 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$11</c:f>
+              <c:f>Benchmarks!$B$8:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>GT-I9000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Liquid</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Nexus One</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>HTC Desire</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADR6300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X10i</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>XT720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>E10i</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Droid</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>A853</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HTC Magic</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>T-Mobile G1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
+                  <c:v>Docomo HT-03A</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
               </c:strCache>
@@ -1711,17 +1549,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$E$8:$E$11</c:f>
+              <c:f>Benchmarks!$E$8:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>19.675999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.65693</c:v>
+                  <c:v>30.263500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>19.538999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.2423</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.834299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.2303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.94285</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.442399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5901449999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>5.7587000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -1744,16 +1603,49 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$11</c:f>
+              <c:f>Benchmarks!$B$8:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>GT-I9000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Liquid</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Nexus One</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>HTC Desire</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADR6300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X10i</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>XT720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>E10i</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Droid</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>A853</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HTC Magic</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>T-Mobile G1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
+                  <c:v>Docomo HT-03A</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
               </c:strCache>
@@ -1761,17 +1653,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$F$8:$F$11</c:f>
+              <c:f>Benchmarks!$F$8:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>19.587599999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5746200000000004</c:v>
+                  <c:v>23.0059</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>19.592833333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.5276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.454499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.357900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2748499999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2275900000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8972300000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9780700000000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.6008500000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1794,16 +1707,49 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$11</c:f>
+              <c:f>Benchmarks!$B$8:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>GT-I9000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Liquid</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Nexus One</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>HTC Desire</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADR6300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X10i</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>XT720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>E10i</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Droid</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>A853</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HTC Magic</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>T-Mobile G1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
+                  <c:v>Docomo HT-03A</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
               </c:strCache>
@@ -1811,17 +1757,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$G$8:$G$11</c:f>
+              <c:f>Benchmarks!$G$8:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>25.982500000000002</c:v>
+                  <c:v>25.753799999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>24.884699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.333350000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.6311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.866849999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.2043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9395799999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.4039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.9245</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>6.1369600000000002</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="13">
                   <c:v>3.3304100000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1844,16 +1814,49 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$11</c:f>
+              <c:f>Benchmarks!$B$8:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>GT-I9000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Liquid</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Nexus One</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>HTC Desire</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ADR6300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>X10i</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>XT720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>E10i</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Droid</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>A853</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>HTC Magic</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>T-Mobile G1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
+                  <c:v>Docomo HT-03A</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
               </c:strCache>
@@ -1861,41 +1864,65 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$H$8:$H$11</c:f>
+              <c:f>Benchmarks!$H$8:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>23.358899999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.4875100000000003</c:v>
+                  <c:v>31.088799999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>23.238939999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.072200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.1531</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.343400000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.3736</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7200300000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6874649999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.2819700000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>5.0047800000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75620736"/>
-        <c:axId val="75622272"/>
+        <c:axId val="67050112"/>
+        <c:axId val="67068288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75620736"/>
+        <c:axId val="67050112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75622272"/>
+        <c:crossAx val="67068288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75622272"/>
+        <c:axId val="67068288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1930,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75620736"/>
+        <c:crossAx val="67050112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1916,7 +1943,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1958,52 +1985,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nico" refreshedDate="40361.821456365738" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="18">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nico" refreshedDate="40363.862021759262" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="94">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="20">
     <cacheField name="id" numFmtId="0" sqlType="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="29" count="18">
-        <n v="16"/>
-        <n v="12"/>
-        <n v="15"/>
-        <n v="13"/>
-        <n v="14"/>
-        <n v="17"/>
-        <n v="18"/>
-        <n v="19"/>
-        <n v="20"/>
-        <n v="21"/>
-        <n v="22"/>
-        <n v="23"/>
-        <n v="24"/>
-        <n v="25"/>
-        <n v="26"/>
-        <n v="27"/>
-        <n v="28"/>
-        <n v="29"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="105"/>
     </cacheField>
     <cacheField name="timestamp" numFmtId="0" sqlType="11">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-07-02T17:05:18" maxDate="2010-07-02T17:29:02" count="18">
-        <d v="2010-07-02T17:08:17"/>
-        <d v="2010-07-02T17:05:18"/>
-        <d v="2010-07-02T17:07:44"/>
-        <d v="2010-07-02T17:06:02"/>
-        <d v="2010-07-02T17:07:16"/>
-        <d v="2010-07-02T17:09:44"/>
-        <d v="2010-07-02T17:23:13"/>
-        <d v="2010-07-02T17:23:54"/>
-        <d v="2010-07-02T17:25:41"/>
-        <d v="2010-07-02T17:25:48"/>
-        <d v="2010-07-02T17:26:08"/>
-        <d v="2010-07-02T17:26:47"/>
-        <d v="2010-07-02T17:27:15"/>
-        <d v="2010-07-02T17:27:27"/>
-        <d v="2010-07-02T17:27:40"/>
-        <d v="2010-07-02T17:28:27"/>
-        <d v="2010-07-02T17:28:28"/>
-        <d v="2010-07-02T17:29:02"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-07-02T17:05:18" maxDate="2010-07-04T19:43:33"/>
     </cacheField>
     <cacheField name="benchmark_id" numFmtId="0" sqlType="4">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5" count="6">
@@ -2019,9 +2008,9 @@
       <sharedItems count="5">
         <s v="1.1.5"/>
         <s v="" u="1"/>
+        <s v="1.1.3" u="1"/>
+        <s v="1.1.4" u="1"/>
         <s v="benchmark_versionname" u="1"/>
-        <s v="1.1.4" u="1"/>
-        <s v="1.1.3" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="benchmark_versioncode" numFmtId="0" sqlType="4">
@@ -2030,32 +2019,24 @@
       </sharedItems>
     </cacheField>
     <cacheField name="benchmark_fps" numFmtId="0" sqlType="7">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.6008500000000001" maxValue="25.982500000000002" count="18">
-        <n v="25.982500000000002"/>
-        <n v="19.675999999999998"/>
-        <n v="19.587599999999998"/>
-        <n v="17.226800000000001"/>
-        <n v="16.032900000000001"/>
-        <n v="23.358899999999998"/>
-        <n v="3.7688299999999999"/>
-        <n v="5.7587000000000002"/>
-        <n v="2.5402200000000001"/>
-        <n v="4.0504699999999998"/>
-        <n v="5.65693"/>
-        <n v="1.6008500000000001"/>
-        <n v="4.3552099999999996"/>
-        <n v="3.3304100000000001"/>
-        <n v="7.5746200000000004"/>
-        <n v="6.1369600000000002"/>
-        <n v="5.0047800000000002"/>
-        <n v="4.4875100000000003"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.6008500000000001" maxValue="31.088799999999999"/>
     </cacheField>
     <cacheField name="device_model" numFmtId="0" sqlType="12">
-      <sharedItems count="7">
+      <sharedItems count="18">
         <s v="Nexus One"/>
         <s v="HTC Tattoo"/>
         <s v="T-Mobile G1"/>
+        <s v="Liquid"/>
+        <s v="GT-I9000"/>
+        <s v="Droid"/>
+        <s v="XT720"/>
+        <s v="HTC Magic"/>
+        <s v="A853"/>
+        <s v="E10i"/>
+        <s v="Docomo HT-03A"/>
+        <s v="HTC Desire"/>
+        <s v="ADR6300"/>
+        <s v="X10i"/>
         <s v="" u="1"/>
         <s v="HTC Wildfire" u="1"/>
         <s v="device_model" u="1"/>
@@ -2066,52 +2047,107 @@
       <sharedItems count="7">
         <s v="2.2"/>
         <s v="1.6"/>
+        <s v="2.1-update1"/>
         <s v="" u="1"/>
-        <s v="2.1-update1" u="1"/>
-        <s v="2.1" u="1"/>
         <s v="device_android_version_2" u="1"/>
         <s v="device_android_version" u="1"/>
+        <s v="2.1" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_sdk_version" numFmtId="0" sqlType="5">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="8" count="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="8" count="3">
         <n v="8"/>
         <n v="4"/>
+        <n v="7"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_manufacturer" numFmtId="0" sqlType="12">
-      <sharedItems count="3">
+      <sharedItems count="7">
         <s v="HTC"/>
+        <s v="Acer"/>
+        <s v="samsung"/>
+        <s v="Motorola"/>
+        <s v="Sony Ericsson"/>
         <s v="" u="1"/>
         <s v="device_manufacturer" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_build_id" numFmtId="0" sqlType="12">
-      <sharedItems count="3">
+      <sharedItems count="16">
         <s v="FRF91"/>
         <s v="DRC79"/>
         <s v="DMD64"/>
+        <s v="FRF50"/>
+        <s v="ECLAIR"/>
+        <s v="ESE81"/>
+        <s v="STSKT_N_79.11.36R1"/>
+        <s v="ERD79"/>
+        <s v="SHLA_U2_03.05.0"/>
+        <s v="1.0.A.1.36"/>
+        <s v="DRD08"/>
+        <s v="FRF85b"/>
+        <s v="1.0.A.1.38"/>
+        <s v="ERE27"/>
+        <s v="DRC83"/>
+        <s v="R1FB001"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_build" numFmtId="0" sqlType="12">
-      <sharedItems count="3">
+      <sharedItems count="17">
         <s v="FRF91"/>
         <s v="DRC79"/>
         <s v="DMD64"/>
+        <s v="FRF50_Liquid-Port"/>
+        <s v="ECLAIR"/>
+        <s v="ESE81"/>
+        <s v="STSKT_N_79.11.36R1"/>
+        <s v="Smoki_0.6.9"/>
+        <s v="SHLA_U2_03.05.0"/>
+        <s v="1.0.A.1.36"/>
+        <s v="FRF91 MRCr21/CM6 Mod By RoDrIgUeZsTyLe"/>
+        <s v="DRD08"/>
+        <s v="DeFroST 1.6c for HTC Desire (FRF85b)"/>
+        <s v="1.0.A.1.38"/>
+        <s v="ERE27"/>
+        <s v="AOSP-1.6_r2-DRD36_v2.6.3"/>
+        <s v="R1FB001"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_device" numFmtId="0" sqlType="12">
-      <sharedItems count="3">
+      <sharedItems count="13">
         <s v="passion"/>
         <s v="bahamas"/>
         <s v="dream"/>
+        <s v="a1"/>
+        <s v="GT-I9000"/>
+        <s v="sholes"/>
+        <s v="sholest"/>
+        <s v="sapphire"/>
+        <s v="umts_sholes"/>
+        <s v="SonyEricssonE10i"/>
+        <s v="inc"/>
+        <s v="bravo"/>
+        <s v="SonyEricssonX10i"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_product" numFmtId="0" sqlType="12">
-      <sharedItems count="3">
+      <sharedItems count="16">
         <s v="passion"/>
         <s v="htc_tattoo"/>
         <s v="kila"/>
+        <s v="a1_generic1"/>
+        <s v="GT-I9000"/>
+        <s v="voles"/>
+        <s v="sholest_skt"/>
+        <s v="htc_magic"/>
+        <s v="umts_sholes"/>
+        <s v="E10i_1237-2935"/>
+        <s v="zaku"/>
+        <s v="E10i_1238-0549"/>
+        <s v="inc"/>
+        <s v="htc_bravo"/>
+        <s v="E10i_1237-1322"/>
+        <s v="X10_1234-8465"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_cpuabi" numFmtId="0" sqlType="12">
@@ -2121,17 +2157,40 @@
       </sharedItems>
     </cacheField>
     <cacheField name="device_board" numFmtId="0" sqlType="12">
-      <sharedItems count="3">
+      <sharedItems count="11">
         <s v="mahimahi"/>
         <s v="bahamas"/>
         <s v="trout"/>
+        <s v="salsa"/>
+        <s v="GT-I9000"/>
+        <s v="sholes"/>
+        <s v="sapphire"/>
+        <s v="delta"/>
+        <s v="bravo"/>
+        <s v="inc"/>
+        <s v="es209ra"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_fingerprint" numFmtId="0" sqlType="12">
-      <sharedItems count="3">
+      <sharedItems count="18">
         <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
         <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
         <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
+        <s v="acer/a1_generic1/a1/salsa:2.2/FRF50/38042:user/release-keys"/>
+        <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/DXJF4:user/release-keys"/>
+        <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+        <s v="MOT/sholest_skt/sholest/sholes:2.1-update1/STSKT_N_79.11.36R1/0423:user/release-keys"/>
+        <s v="google/passion/passion/mahimahi:2.1/ERD79/22607:user/release-keys"/>
+        <s v="MOTO_TIMBR/umts_sholes/umts_sholes/sholes:2.1-update1/SHLA_U2_03.05.0/8935007:user/rel-keys"/>
+        <s v="SEMC/E10i_1237-2935/SonyEricssonE10i/delta:1.6/1.0.A.1.36/0:user/release-keys"/>
+        <s v="docomo/zaku/sapphire/sapphire:1.6/DRD08/16431:user/ota-rel-keys,release-keys"/>
+        <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+        <s v="SEMC/E10i_1238-0549/SonyEricssonE10i/delta:1.6/1.0.A.1.38/0:user/release-keys"/>
+        <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
+        <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+        <s v="SEMC/E10i_1237-1322/SonyEricssonE10i/delta:1.6/1.0.A.1.38/0:user/release-keys"/>
+        <s v="tmobile/kila/dream/trout:1.6/DRC83/14721:user/ota-rel-keys,release-keys"/>
+        <s v="SEMC/X10_1234-8465/SonyEricssonX10i/es209ra:1.6/R1FB001/1270087315:user/rel-keys"/>
       </sharedItems>
     </cacheField>
     <cacheField name="benchmark_extension_vbo" numFmtId="0" sqlType="-6">
@@ -2146,10 +2205,31 @@
       </sharedItems>
     </cacheField>
     <cacheField name="device_imei" numFmtId="0" sqlType="12">
-      <sharedItems count="3">
+      <sharedItems count="24">
         <s v="354957032594197"/>
         <s v="358355021486002"/>
         <s v="358279011512835"/>
+        <s v="353509030068160"/>
+        <s v="351751040120373"/>
+        <s v="A0000015FCAD39"/>
+        <s v="354636030642188"/>
+        <s v="354957032587928"/>
+        <s v="354059027532645"/>
+        <s v="356698030279856"/>
+        <s v="012312004112087"/>
+        <s v="354957031553616"/>
+        <s v="358098020840239"/>
+        <s v="357841030201509"/>
+        <s v="012312001091797"/>
+        <s v="A100001351BB96"/>
+        <s v="351680031197837"/>
+        <s v="354957032398417"/>
+        <s v="357841031973593"/>
+        <s v="012312002777386"/>
+        <s v="358279017179100"/>
+        <s v="354957030769916"/>
+        <s v="354957031494423"/>
+        <s v="359419030331143"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2157,409 +2237,2081 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="18">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="94">
+  <r>
+    <n v="16"/>
+    <d v="2010-07-02T17:08:17"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="25.982500000000002"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <d v="2010-07-02T17:05:18"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.675999999999998"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <d v="2010-07-02T17:07:44"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.587599999999998"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <d v="2010-07-02T17:06:02"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17.226800000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <d v="2010-07-02T17:07:16"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.032900000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <d v="2010-07-02T17:09:44"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23.358899999999998"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <d v="2010-07-02T17:23:13"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.7688299999999999"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <d v="2010-07-02T17:23:54"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.7587000000000002"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <d v="2010-07-02T17:25:41"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.5402200000000001"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <d v="2010-07-02T17:25:48"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.0504699999999998"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <d v="2010-07-02T17:26:08"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.65693"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <d v="2010-07-02T17:26:47"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1.6008500000000001"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <d v="2010-07-02T17:27:15"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.3552099999999996"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <d v="2010-07-02T17:27:27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.3304100000000001"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <d v="2010-07-02T17:27:40"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.5746200000000004"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <d v="2010-07-02T17:28:27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6.1369600000000002"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <d v="2010-07-02T17:28:28"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.0047800000000002"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <d v="2010-07-02T17:29:02"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.4875100000000003"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <d v="2010-07-03T15:07:40"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17.360299999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <d v="2010-07-03T15:20:01"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.9560900000000001"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <d v="2010-07-03T15:51:59"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="24.884699999999999"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="3"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <d v="2010-07-03T17:07:49"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="22.449300000000001"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <d v="2010-07-03T17:08:12"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="30.263500000000001"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <d v="2010-07-03T17:08:43"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="21.101299999999998"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <d v="2010-07-03T17:09:05"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23.0059"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <d v="2010-07-03T17:09:45"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="25.753799999999998"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <d v="2010-07-03T17:10:15"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="31.088799999999999"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <d v="2010-07-03T18:57:03"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.442399999999999"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <d v="2010-07-03T18:57:31"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.1149"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <d v="2010-07-03T18:57:52"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.2748499999999998"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <d v="2010-07-03T18:58:19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14.4039"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <d v="2010-07-03T18:58:48"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13.343400000000001"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <d v="2010-07-03T18:59:08"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="9.6301400000000008"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <d v="2010-07-03T21:12:29"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.2303"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
     <x v="6"/>
     <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <d v="2010-07-03T21:40:01"/>
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
+    <n v="14.8939"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <d v="2010-07-03T21:40:27"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14.467000000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <d v="2010-07-03T21:41:31"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.058299999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <d v="2010-07-03T21:41:55"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.525300000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <d v="2010-07-03T21:42:25"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="25.680299999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <d v="2010-07-03T21:42:57"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23.592199999999998"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <d v="2010-07-03T23:00:53"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.7200300000000004"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
     <x v="7"/>
     <x v="7"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
     <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <d v="2010-07-03T23:01:20"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.8972300000000004"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <d v="2010-07-04T00:13:55"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="9.7490299999999994"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
     <x v="8"/>
     <x v="8"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
     <x v="8"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <d v="2010-07-04T00:14:20"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.36"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <d v="2010-07-04T00:14:41"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.639699999999999"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <d v="2010-07-04T00:15:06"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.2275900000000002"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <d v="2010-07-04T00:15:41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13.9245"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <d v="2010-07-04T00:16:13"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12.3736"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <d v="2010-07-04T00:19:15"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.1531"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
     <x v="9"/>
     <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <d v="2010-07-04T00:19:51"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8.9395799999999994"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <d v="2010-07-04T00:20:12"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20.0702"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <d v="2010-07-04T00:20:33"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6.6300400000000002"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <d v="2010-07-04T00:20:52"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11.279500000000001"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <d v="2010-07-04T00:21:17"/>
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
+    <n v="8.0224499999999992"/>
     <x v="9"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="10"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <d v="2010-07-04T01:19:48"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="21.995799999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="10"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <d v="2010-07-04T01:20:21"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.601800000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="10"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="11"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <d v="2010-07-04T01:20:41"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.8827"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="11"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <d v="2010-07-04T01:20:41"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.2819700000000003"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="10"/>
     <x v="11"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
+    <x v="7"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="12"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <d v="2010-07-04T01:21:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.4452"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <d v="2010-07-04T01:21:19"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.665600000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <d v="2010-07-04T01:21:48"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="25.441500000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <d v="2010-07-04T01:22:20"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23.663399999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <d v="2010-07-04T03:31:17"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.283100000000001"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
     <x v="12"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <d v="2010-07-04T03:31:39"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.2423"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
     <x v="12"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="13"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <d v="2010-07-04T03:32:02"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.268999999999998"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="13"/>
-    <x v="0"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <d v="2010-07-04T03:32:22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.5276"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="11"/>
     <x v="0"/>
     <x v="0"/>
     <x v="13"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
+  </r>
+  <r>
+    <n v="78"/>
+    <d v="2010-07-04T03:32:49"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="25.6311"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <d v="2010-07-04T03:33:17"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="22.7042"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <d v="2010-07-04T05:23:48"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.606199999999999"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="9"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="14"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <d v="2010-07-04T05:39:30"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.294600000000001"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
     <x v="14"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="10"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <d v="2010-07-04T05:39:47"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12.664899999999999"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
     <x v="14"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
+    <x v="10"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="15"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <d v="2010-07-04T05:40:10"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11.8987"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="15"/>
-    <x v="0"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <d v="2010-07-04T05:40:28"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18.4435"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="13"/>
     <x v="0"/>
     <x v="0"/>
     <x v="15"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
+  </r>
+  <r>
+    <n v="85"/>
+    <d v="2010-07-04T05:40:52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17.967400000000001"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <d v="2010-07-04T05:41:19"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.6876"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <d v="2010-07-04T05:42:08"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13.748900000000001"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <d v="2010-07-04T05:42:24"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.373999999999999"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <d v="2010-07-04T05:42:42"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12.8735"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <d v="2010-07-04T05:42:59"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18.465499999999999"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <d v="2010-07-04T05:43:23"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.766300000000001"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <d v="2010-07-04T05:43:49"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20.486000000000001"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <d v="2010-07-04T08:43:05"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.5233599999999998"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="16"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <d v="2010-07-04T12:21:02"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.683"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <d v="2010-07-04T13:10:15"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.440200000000001"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <x v="14"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <d v="2010-07-04T15:57:32"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18.645600000000002"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="9"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <d v="2010-07-04T17:43:38"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.2605300000000002"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="16"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <d v="2010-07-04T17:44:31"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6.3815200000000001"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="16"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <d v="2010-07-04T17:45:10"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.8874199999999997"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <d v="2010-07-04T18:08:02"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23.584399999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <d v="2010-07-04T18:08:23"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.3779"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <d v="2010-07-04T18:08:51"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="24.229099999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <d v="2010-07-04T18:47:10"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.7927"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <d v="2010-07-04T19:43:10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="22.2043"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="15"/>
+    <x v="16"/>
+    <x v="12"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="10"/>
     <x v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <d v="2010-07-04T19:43:33"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.730399999999999"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="15"/>
+    <x v="16"/>
+    <x v="12"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="10"/>
     <x v="17"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="17"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="23"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Benchmarks" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" grandTotalCaption="Average" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Device" colHeaderCaption="Bench" fieldListSortAscending="1">
-  <location ref="B6:I11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Benchmarks" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" grandTotalCaption="Average" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Device" colHeaderCaption="Bench" fieldListSortAscending="1">
+  <location ref="B6:I22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2577,8 +4329,8 @@
     <pivotField name="Benchmark Version" axis="axisPage" showAll="0">
       <items count="6">
         <item m="1" x="3"/>
+        <item m="1" x="2"/>
         <item m="1" x="4"/>
-        <item m="1" x="2"/>
         <item m="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
@@ -2587,14 +4339,25 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0" countASubtotal="1"/>
     <pivotField name="Device" axis="axisRow" showAll="0" sortType="descending">
-      <items count="8">
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
-        <item m="1" x="3"/>
+      <items count="19">
+        <item m="1" x="15"/>
+        <item m="1" x="17"/>
+        <item m="1" x="16"/>
+        <item m="1" x="14"/>
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -2609,22 +4372,26 @@
     </pivotField>
     <pivotField name="Android Version" axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="8">
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="2"/>
         <item m="1" x="6"/>
-        <item m="1" x="5"/>
+        <item x="0"/>
         <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item m="1" x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField name="Manufacturer" axis="axisPage" showAll="0">
-      <items count="4">
-        <item m="1" x="2"/>
+      <items count="8">
+        <item m="1" x="6"/>
         <item x="0"/>
-        <item m="1" x="1"/>
+        <item m="1" x="5"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2642,12 +4409,45 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="15">
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
     <i>
       <x v="4"/>
     </i>
     <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
       <x v="6"/>
+    </i>
+    <i>
+      <x v="14"/>
     </i>
     <i>
       <x v="5"/>
@@ -2691,174 +4491,158 @@
     <dataField name="FPS" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="34">
-    <format dxfId="101">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="100">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="95">
+    <format dxfId="61">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="60">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="56">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="55">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="54">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="52">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="51">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="50">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="48">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="46">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="44">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="43">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="41">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="39">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="37">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="36">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="35">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="34">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <conditionalFormats count="7">
-    <conditionalFormat priority="8">
-      <pivotAreas count="1">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="6" count="3">
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
     <conditionalFormat priority="7">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -2867,12 +4651,23 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="1"/>
+              <x v="0"/>
             </reference>
-            <reference field="6" count="3">
+            <reference field="6" count="14">
               <x v="4"/>
               <x v="5"/>
               <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
             </reference>
           </references>
         </pivotArea>
@@ -2886,12 +4681,23 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="1"/>
             </reference>
-            <reference field="6" count="3">
+            <reference field="6" count="14">
               <x v="4"/>
               <x v="5"/>
               <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
             </reference>
           </references>
         </pivotArea>
@@ -2905,12 +4711,23 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="3"/>
+              <x v="2"/>
             </reference>
-            <reference field="6" count="3">
+            <reference field="6" count="14">
               <x v="4"/>
               <x v="5"/>
               <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
             </reference>
           </references>
         </pivotArea>
@@ -2924,12 +4741,23 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="4"/>
+              <x v="3"/>
             </reference>
-            <reference field="6" count="3">
+            <reference field="6" count="14">
               <x v="4"/>
               <x v="5"/>
               <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
             </reference>
           </references>
         </pivotArea>
@@ -2943,12 +4771,23 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="5"/>
+              <x v="4"/>
             </reference>
-            <reference field="6" count="3">
+            <reference field="6" count="14">
               <x v="4"/>
               <x v="5"/>
               <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
             </reference>
           </references>
         </pivotArea>
@@ -2962,12 +4801,50 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
-            <reference field="6" count="3">
+            <reference field="6" count="14">
               <x v="4"/>
               <x v="5"/>
               <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="6" count="14">
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
             </reference>
           </references>
         </pivotArea>
@@ -3340,10 +5217,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:I17"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3426,125 +5303,350 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="9" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C8" s="10">
-        <v>17.226800000000001</v>
+        <v>22.449300000000001</v>
       </c>
       <c r="D8" s="11">
-        <v>16.032900000000001</v>
+        <v>21.101299999999998</v>
       </c>
       <c r="E8" s="11">
-        <v>19.675999999999998</v>
+        <v>30.263500000000001</v>
       </c>
       <c r="F8" s="11">
-        <v>19.587599999999998</v>
+        <v>23.0059</v>
       </c>
       <c r="G8" s="11">
-        <v>25.982500000000002</v>
+        <v>25.753799999999998</v>
       </c>
       <c r="H8" s="11">
-        <v>23.358899999999998</v>
+        <v>31.088799999999999</v>
       </c>
       <c r="I8" s="12">
-        <v>20.310783333333333</v>
+        <v>25.610433333333333</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15">
+        <v>24.884699999999999</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16">
+        <v>24.884699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14">
+        <v>16.426416666666668</v>
+      </c>
+      <c r="D10" s="15">
+        <v>15.580750000000002</v>
+      </c>
+      <c r="E10" s="15">
+        <v>19.538999999999998</v>
+      </c>
+      <c r="F10" s="15">
+        <v>19.592833333333331</v>
+      </c>
+      <c r="G10" s="15">
+        <v>25.333350000000003</v>
+      </c>
+      <c r="H10" s="15">
+        <v>23.238939999999999</v>
+      </c>
+      <c r="I10" s="16">
+        <v>19.832204000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="14">
+        <v>16.268999999999998</v>
+      </c>
+      <c r="D11" s="15">
+        <v>16.283100000000001</v>
+      </c>
+      <c r="E11" s="15">
+        <v>19.2423</v>
+      </c>
+      <c r="F11" s="15">
+        <v>19.5276</v>
+      </c>
+      <c r="G11" s="15">
+        <v>25.6311</v>
+      </c>
+      <c r="H11" s="15">
+        <v>19.072200000000002</v>
+      </c>
+      <c r="I11" s="16">
+        <v>19.299642857142857</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="14">
+        <v>13.206900000000001</v>
+      </c>
+      <c r="D12" s="15">
+        <v>12.386099999999999</v>
+      </c>
+      <c r="E12" s="15">
+        <v>15.834299999999999</v>
+      </c>
+      <c r="F12" s="15">
+        <v>18.454499999999999</v>
+      </c>
+      <c r="G12" s="15">
+        <v>18.866849999999999</v>
+      </c>
+      <c r="H12" s="15">
+        <v>20.0868</v>
+      </c>
+      <c r="I12" s="16">
+        <v>16.472574999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15">
+        <v>10.730399999999999</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15">
+        <v>22.2043</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16">
+        <v>16.46735</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15">
+        <v>15.2303</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16">
+        <v>15.2303</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="14">
+        <v>8.0224499999999992</v>
+      </c>
+      <c r="D15" s="15">
+        <v>6.6300400000000002</v>
+      </c>
+      <c r="E15" s="15">
+        <v>10.94285</v>
+      </c>
+      <c r="F15" s="15">
+        <v>19.357900000000001</v>
+      </c>
+      <c r="G15" s="15">
+        <v>8.9395799999999994</v>
+      </c>
+      <c r="H15" s="15">
+        <v>10.1531</v>
+      </c>
+      <c r="I15" s="16">
+        <v>11.793333749999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="14">
+        <v>9.6301400000000008</v>
+      </c>
+      <c r="D16" s="15">
+        <v>10.1149</v>
+      </c>
+      <c r="E16" s="15">
+        <v>15.442399999999999</v>
+      </c>
+      <c r="F16" s="15">
+        <v>7.2748499999999998</v>
+      </c>
+      <c r="G16" s="15">
+        <v>14.4039</v>
+      </c>
+      <c r="H16" s="15">
+        <v>13.343400000000001</v>
+      </c>
+      <c r="I16" s="16">
+        <v>11.701598333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="14">
+        <v>9.7490299999999994</v>
+      </c>
+      <c r="D17" s="15">
+        <v>10.639699999999999</v>
+      </c>
+      <c r="E17" s="15">
+        <v>15.36</v>
+      </c>
+      <c r="F17" s="15">
+        <v>7.2275900000000002</v>
+      </c>
+      <c r="G17" s="15">
+        <v>13.9245</v>
+      </c>
+      <c r="H17" s="15">
+        <v>12.3736</v>
+      </c>
+      <c r="I17" s="16">
+        <v>11.545736666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15">
+        <v>7.8972300000000004</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15">
+        <v>5.7200300000000004</v>
+      </c>
+      <c r="I18" s="16">
+        <v>6.8086300000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C19" s="14">
         <v>4.0504699999999998</v>
       </c>
-      <c r="D9" s="15">
-        <v>4.3552099999999996</v>
-      </c>
-      <c r="E9" s="15">
-        <v>5.65693</v>
-      </c>
-      <c r="F9" s="15">
-        <v>7.5746200000000004</v>
-      </c>
-      <c r="G9" s="15">
+      <c r="D19" s="15">
+        <v>4.3078699999999994</v>
+      </c>
+      <c r="E19" s="15">
+        <v>4.5901449999999997</v>
+      </c>
+      <c r="F19" s="15">
+        <v>6.9780700000000007</v>
+      </c>
+      <c r="G19" s="15">
         <v>6.1369600000000002</v>
       </c>
-      <c r="H9" s="15">
-        <v>4.4875100000000003</v>
-      </c>
-      <c r="I9" s="16">
-        <v>5.3769499999999999</v>
+      <c r="H19" s="15">
+        <v>4.6874649999999995</v>
+      </c>
+      <c r="I19" s="16">
+        <v>5.1314529999999996</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B10" s="17" t="s">
+    <row r="20" spans="2:9">
+      <c r="B20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15">
+        <v>4.2819700000000003</v>
+      </c>
+      <c r="I20" s="16">
+        <v>4.2819700000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="18">
-        <v>3.7688299999999999</v>
-      </c>
-      <c r="D10" s="19">
+      <c r="C21" s="18">
+        <v>3.86246</v>
+      </c>
+      <c r="D21" s="19">
         <v>2.5402200000000001</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E21" s="19">
         <v>5.7587000000000002</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F21" s="19">
         <v>1.6008500000000001</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G21" s="19">
         <v>3.3304100000000001</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H21" s="19">
         <v>5.0047800000000002</v>
       </c>
-      <c r="I10" s="20">
-        <v>3.6672983333333331</v>
+      <c r="I21" s="20">
+        <v>3.7085542857142859</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B11" s="21" t="s">
+    <row r="22" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="22">
-        <v>8.3487000000000009</v>
-      </c>
-      <c r="D11" s="23">
-        <v>7.6427766666666672</v>
-      </c>
-      <c r="E11" s="23">
-        <v>10.363876666666666</v>
-      </c>
-      <c r="F11" s="23">
-        <v>9.5876900000000003</v>
-      </c>
-      <c r="G11" s="23">
-        <v>11.816623333333334</v>
-      </c>
-      <c r="H11" s="23">
-        <v>10.950396666666668</v>
-      </c>
-      <c r="I11" s="24">
-        <v>9.7850105555555551</v>
+      <c r="C22" s="22">
+        <v>12.679225625000001</v>
+      </c>
+      <c r="D22" s="23">
+        <v>11.583373333333334</v>
+      </c>
+      <c r="E22" s="23">
+        <v>14.843252666666668</v>
+      </c>
+      <c r="F22" s="23">
+        <v>14.326230666666667</v>
+      </c>
+      <c r="G22" s="23">
+        <v>18.951756666666665</v>
+      </c>
+      <c r="H22" s="23">
+        <v>15.880739444444442</v>
+      </c>
+      <c r="I22" s="24">
+        <v>14.726490638297873</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1"/>
-    <row r="16" spans="2:9" ht="15.75" thickBot="1"/>
-    <row r="17" ht="15.75" thickBot="1"/>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="I8:I10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="D8:D10">
+  <conditionalFormatting pivot="1" sqref="C8:C21">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3556,7 +5658,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="E8:E10">
+  <conditionalFormatting pivot="1" sqref="D8:D21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3568,7 +5670,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="F8:F10">
+  <conditionalFormatting pivot="1" sqref="E8:E21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3580,7 +5682,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="G8:G10">
+  <conditionalFormatting pivot="1" sqref="F8:F21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3592,7 +5694,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="H8:H10">
+  <conditionalFormatting pivot="1" sqref="G8:G21">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3604,8 +5706,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C8:C10">
+  <conditionalFormatting pivot="1" sqref="H8:H21">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="I8:I21">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>

--- a/doc/benchmarks.xlsx
+++ b/doc/benchmarks.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="2" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -87,9 +87,6 @@
     <t>HTC Legend</t>
   </si>
   <si>
-    <t>HTC Hero</t>
-  </si>
-  <si>
     <t>HTC Wildfire</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>HTC Dream (G1)</t>
+  </si>
+  <si>
+    <t>HTC Hero/Droid Eris</t>
   </si>
 </sst>
 </file>
@@ -277,25 +277,21 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -333,21 +329,480 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" pivotButton="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="113">
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="medium">
@@ -901,13 +1356,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium16 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="60"/>
-      <tableStyleElement type="headerRow" dxfId="59"/>
-      <tableStyleElement type="totalRow" dxfId="58"/>
-      <tableStyleElement type="firstColumn" dxfId="57"/>
-      <tableStyleElement type="lastColumn" dxfId="56"/>
-      <tableStyleElement type="firstRowStripe" dxfId="55"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="54"/>
+      <tableStyleElement type="wholeTable" dxfId="112"/>
+      <tableStyleElement type="headerRow" dxfId="111"/>
+      <tableStyleElement type="totalRow" dxfId="110"/>
+      <tableStyleElement type="firstColumn" dxfId="109"/>
+      <tableStyleElement type="lastColumn" dxfId="108"/>
+      <tableStyleElement type="firstRowStripe" dxfId="107"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="106"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -1110,7 +1565,7 @@
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>HTC Hero</c:v>
+                  <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>HTC Dream (G1)</c:v>
@@ -1143,7 +1598,7 @@
                   <c:v>23.908349999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.916253333333335</c:v>
+                  <c:v>16.27948235294118</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13.451033333333333</c:v>
@@ -1164,7 +1619,7 @@
                   <c:v>8.0224499999999992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.0411799999999998</c:v>
+                  <c:v>4.3786849999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4.1948260000000008</c:v>
@@ -1238,7 +1693,7 @@
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>HTC Hero</c:v>
+                  <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>HTC Dream (G1)</c:v>
@@ -1271,7 +1726,7 @@
                   <c:v>24.684950000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.44964</c:v>
+                  <c:v>14.679947499999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12.562760000000001</c:v>
@@ -1295,7 +1750,7 @@
                   <c:v>6.6300400000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1483999999999996</c:v>
+                  <c:v>4.6807549999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4.2086016666666666</c:v>
@@ -1366,7 +1821,7 @@
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>HTC Hero</c:v>
+                  <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>HTC Dream (G1)</c:v>
@@ -1399,7 +1854,7 @@
                   <c:v>33.08175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.632691666666663</c:v>
+                  <c:v>19.260721428571426</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16.066425000000002</c:v>
@@ -1426,7 +1881,7 @@
                   <c:v>10.94285</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.4483600000000001</c:v>
+                  <c:v>6.0571299999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5.1309749999999994</c:v>
@@ -1494,7 +1949,7 @@
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>HTC Hero</c:v>
+                  <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>HTC Dream (G1)</c:v>
@@ -1527,7 +1982,7 @@
                   <c:v>24.061250000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.319880000000001</c:v>
+                  <c:v>17.695971249999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>18.474033333333335</c:v>
@@ -1551,7 +2006,7 @@
                   <c:v>19.357900000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.1750499999999997</c:v>
+                  <c:v>6.6844199999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6.5596500000000004</c:v>
@@ -1622,7 +2077,7 @@
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>HTC Hero</c:v>
+                  <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>HTC Dream (G1)</c:v>
@@ -1658,7 +2113,7 @@
                   <c:v>24.884699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.143581818181818</c:v>
+                  <c:v>25.159076923076928</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19.113999999999997</c:v>
@@ -1682,7 +2137,7 @@
                   <c:v>9.6063899999999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5549999999999997</c:v>
+                  <c:v>6.5297999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5.9314899999999993</c:v>
@@ -1753,7 +2208,7 @@
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>HTC Hero</c:v>
+                  <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>HTC Dream (G1)</c:v>
@@ -1786,7 +2241,7 @@
                   <c:v>31.0808</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.381090909090911</c:v>
+                  <c:v>23.614115384615388</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>18.772185714285715</c:v>
@@ -1807,7 +2262,7 @@
                   <c:v>9.4552849999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4402100000000004</c:v>
+                  <c:v>5.2401400000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4.8121649999999994</c:v>
@@ -1830,25 +2285,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="89656320"/>
-        <c:axId val="89662208"/>
+        <c:axId val="91611904"/>
+        <c:axId val="91613440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89656320"/>
+        <c:axId val="91611904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89662208"/>
+        <c:crossAx val="91613440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89662208"/>
+        <c:axId val="91613440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,7 +2317,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="89656320"/>
+        <c:crossAx val="91611904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1875,8 +2330,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000011" l="0.25" r="0.25" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1885,16 +2340,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>99332</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>118381</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180173</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>186417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>639535</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>612320</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1917,14 +2372,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nico" refreshedDate="40365.94729178241" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="285">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nico" refreshedDate="40366.71772523148" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="304">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="21">
     <cacheField name="id" numFmtId="0" sqlType="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="298"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="317"/>
     </cacheField>
     <cacheField name="timestamp" numFmtId="0" sqlType="11">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-07-02T17:05:18" maxDate="2010-07-06T22:40:07"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-07-02T17:05:18" maxDate="2010-07-07T12:51:25"/>
     </cacheField>
     <cacheField name="benchmark_id" numFmtId="0" sqlType="4">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5" count="6">
@@ -1937,32 +2392,34 @@
       </sharedItems>
     </cacheField>
     <cacheField name="benchmark_versionname" numFmtId="0" sqlType="12">
-      <sharedItems count="8">
+      <sharedItems count="9">
         <s v="1.1.5"/>
         <s v="1.1.1"/>
         <s v="1.1.4"/>
         <s v="1.1.3"/>
         <s v="1.1.0"/>
         <s v="1.0.9"/>
+        <s v="1.1.6"/>
         <s v="" u="1"/>
         <s v="benchmark_versionname" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="benchmark_versioncode" numFmtId="0" sqlType="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="15" count="6">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="16" count="7">
         <n v="15"/>
         <n v="11"/>
         <n v="14"/>
         <n v="13"/>
         <n v="10"/>
         <n v="9"/>
+        <n v="16"/>
       </sharedItems>
     </cacheField>
     <cacheField name="benchmark_fps" numFmtId="0" sqlType="7">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.5669" maxValue="40.272399999999998"/>
     </cacheField>
     <cacheField name="device_model" numFmtId="0" sqlType="12">
-      <sharedItems count="27">
+      <sharedItems count="28">
         <s v="Nexus One"/>
         <s v="HTC Tattoo"/>
         <s v="T-Mobile G1"/>
@@ -1987,6 +2444,7 @@
         <s v="T-Mobile myTouch 3G"/>
         <s v="Hero"/>
         <s v="XT701"/>
+        <s v="Eris"/>
         <s v="" u="1"/>
         <s v="device_model" u="1"/>
         <s v="HTC Nexus One" u="1"/>
@@ -2059,7 +2517,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="device_device" numFmtId="0" sqlType="12">
-      <sharedItems count="19">
+      <sharedItems count="20">
         <s v="passion"/>
         <s v="bahamas"/>
         <s v="dream"/>
@@ -2079,10 +2537,11 @@
         <s v="hero"/>
         <s v="supersonic"/>
         <s v="choles"/>
+        <s v="desirec"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_product" numFmtId="0" sqlType="12">
-      <sharedItems count="27">
+      <sharedItems count="28">
         <s v="passion"/>
         <s v="htc_tattoo"/>
         <s v="kila"/>
@@ -2110,6 +2569,7 @@
         <s v="passion_vf"/>
         <s v="opal"/>
         <s v="choles"/>
+        <s v="htc_desirec"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_cpuabi" numFmtId="0" sqlType="12">
@@ -2119,7 +2579,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="device_board" numFmtId="0" sqlType="12">
-      <sharedItems count="17">
+      <sharedItems count="18">
         <s v="mahimahi"/>
         <s v="bahamas"/>
         <s v="trout"/>
@@ -2137,6 +2597,7 @@
         <s v="hero"/>
         <s v="supersonic"/>
         <s v="choles"/>
+        <s v="desirec"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_fingerprint" numFmtId="0" sqlType="12">
@@ -2158,31 +2619,32 @@
     </cacheField>
     <cacheField name="Device2" numFmtId="0" databaseField="0">
       <fieldGroup base="6">
-        <discretePr count="27">
+        <discretePr count="28">
           <x v="0"/>
           <x v="1"/>
-          <x v="20"/>
+          <x v="19"/>
           <x v="2"/>
           <x v="3"/>
+          <x v="17"/>
+          <x v="16"/>
           <x v="18"/>
           <x v="17"/>
-          <x v="19"/>
-          <x v="18"/>
           <x v="4"/>
           <x v="5"/>
           <x v="6"/>
           <x v="7"/>
           <x v="8"/>
-          <x v="18"/>
+          <x v="17"/>
           <x v="9"/>
           <x v="10"/>
           <x v="11"/>
+          <x v="19"/>
+          <x v="20"/>
+          <x v="12"/>
+          <x v="18"/>
           <x v="20"/>
           <x v="16"/>
-          <x v="12"/>
-          <x v="19"/>
-          <x v="16"/>
-          <x v="17"/>
+          <x v="20"/>
           <x v="13"/>
           <x v="14"/>
           <x v="15"/>
@@ -2204,11 +2666,11 @@
           <s v=""/>
           <s v="device_model"/>
           <s v="HTC Nexus One"/>
-          <s v="Gruppe1"/>
           <s v="Gruppe3"/>
           <s v="Gruppe2"/>
           <s v="Gruppe4"/>
           <s v="Gruppe5"/>
+          <s v="Gruppe1"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -2217,7 +2679,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="285">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="304">
   <r>
     <n v="16"/>
     <d v="2010-07-02T17:08:17"/>
@@ -8488,11 +8950,429 @@
     <x v="0"/>
     <s v="012312005194100"/>
   </r>
+  <r>
+    <n v="299"/>
+    <d v="2010-07-07T08:13:42"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.7161900000000001"/>
+    <x v="24"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="ERD79"/>
+    <x v="19"/>
+    <x v="27"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="verizon/htc_desirec/desirec/desirec:2.1/ERD79/165907:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A100001238E2CD"/>
+  </r>
+  <r>
+    <n v="300"/>
+    <d v="2010-07-07T08:14:38"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.6658999999999997"/>
+    <x v="24"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="ERD79"/>
+    <x v="19"/>
+    <x v="27"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="verizon/htc_desirec/desirec/desirec:2.1/ERD79/165907:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A100001238E2CD"/>
+  </r>
+  <r>
+    <n v="301"/>
+    <d v="2010-07-07T08:15:13"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.2131100000000004"/>
+    <x v="24"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="ERD79"/>
+    <x v="19"/>
+    <x v="27"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="verizon/htc_desirec/desirec/desirec:2.1/ERD79/165907:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A100001238E2CD"/>
+  </r>
+  <r>
+    <n v="302"/>
+    <d v="2010-07-07T08:15:56"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.1937899999999999"/>
+    <x v="24"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="ERD79"/>
+    <x v="19"/>
+    <x v="27"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="verizon/htc_desirec/desirec/desirec:2.1/ERD79/165907:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A100001238E2CD"/>
+  </r>
+  <r>
+    <n v="303"/>
+    <d v="2010-07-07T08:16:37"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6.5045999999999999"/>
+    <x v="24"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="ERD79"/>
+    <x v="19"/>
+    <x v="27"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="verizon/htc_desirec/desirec/desirec:2.1/ERD79/165907:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A100001238E2CD"/>
+  </r>
+  <r>
+    <n v="304"/>
+    <d v="2010-07-07T08:17:15"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.0400700000000001"/>
+    <x v="24"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="ERD79"/>
+    <x v="19"/>
+    <x v="27"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="verizon/htc_desirec/desirec/desirec:2.1/ERD79/165907:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A100001238E2CD"/>
+  </r>
+  <r>
+    <n v="305"/>
+    <d v="2010-07-07T10:10:45"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17.326899999999998"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031032926"/>
+  </r>
+  <r>
+    <n v="306"/>
+    <d v="2010-07-07T10:11:09"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.121500000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031032926"/>
+  </r>
+  <r>
+    <n v="307"/>
+    <d v="2010-07-07T10:11:36"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.777900000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="354957031032926"/>
+  </r>
+  <r>
+    <n v="308"/>
+    <d v="2010-07-07T10:11:58"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.824300000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031032926"/>
+  </r>
+  <r>
+    <n v="309"/>
+    <d v="2010-07-07T10:12:28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="24.964200000000002"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031032926"/>
+  </r>
+  <r>
+    <n v="310"/>
+    <d v="2010-07-07T10:12:58"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23.737200000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031032926"/>
+  </r>
+  <r>
+    <n v="311"/>
+    <d v="2010-07-07T11:15:02"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="25.5244"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957030835139"/>
+  </r>
+  <r>
+    <n v="312"/>
+    <d v="2010-07-07T11:15:22"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="20.680499999999999"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957030835139"/>
+  </r>
+  <r>
+    <n v="313"/>
+    <d v="2010-07-07T11:15:41"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="26.936299999999999"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957030835139"/>
+  </r>
+  <r>
+    <n v="314"/>
+    <d v="2010-07-07T11:17:11"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="16.8063"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="354957030835139"/>
+  </r>
+  <r>
+    <n v="315"/>
+    <d v="2010-07-07T11:18:17"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="18.642299999999999"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957030835139"/>
+  </r>
+  <r>
+    <n v="316"/>
+    <d v="2010-07-07T11:18:53"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="26.054300000000001"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957030835139"/>
+  </r>
+  <r>
+    <n v="317"/>
+    <d v="2010-07-07T12:51:25"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.5105"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031423729"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Benchmarks" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" grandTotalCaption="Average" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Device" colHeaderCaption="Bench" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Benchmarks" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" grandTotalCaption="Average" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Device" colHeaderCaption="Bench" fieldListSortAscending="1">
   <location ref="B6:I26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -8509,26 +9389,27 @@
       </items>
     </pivotField>
     <pivotField name="Benchmark Version" axis="axisPage" showAll="0">
-      <items count="9">
+      <items count="10">
         <item x="2"/>
         <item x="3"/>
+        <item m="1" x="8"/>
         <item m="1" x="7"/>
-        <item m="1" x="6"/>
         <item x="0"/>
         <item x="1"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0" countASubtotal="1"/>
     <pivotField name="Device" axis="axisRow" showAll="0">
-      <items count="28">
+      <items count="29">
         <item x="17"/>
+        <item m="1" x="27"/>
         <item m="1" x="26"/>
         <item m="1" x="25"/>
-        <item m="1" x="24"/>
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item x="2"/>
@@ -8552,6 +9433,7 @@
         <item x="21"/>
         <item x="22"/>
         <item x="23"/>
+        <item x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8602,7 +9484,6 @@
         <item sd="0" x="1"/>
         <item x="15"/>
         <item sd="0" x="9"/>
-        <item n="HTC Hero" sd="0" x="16"/>
         <item sd="0" x="6"/>
         <item n="Samsung Galaxy Spica" sd="0" x="10"/>
         <item n="Samsung Galaxy S" sd="0" x="3"/>
@@ -8612,10 +9493,11 @@
         <item x="14"/>
         <item n="HTC Incredible" sd="0" x="7"/>
         <item x="13"/>
-        <item n="Motorola XT720/701" sd="0" x="17"/>
-        <item n="Motorola Droid/Milestone" sd="0" x="18"/>
-        <item n="HTC Magic" sd="0" x="19"/>
-        <item n="HTC Dream (G1)" sd="0" x="20"/>
+        <item n="Motorola XT720/701" sd="0" x="16"/>
+        <item n="Motorola Droid/Milestone" sd="0" x="17"/>
+        <item n="HTC Magic" sd="0" x="18"/>
+        <item n="HTC Dream (G1)" sd="0" x="19"/>
+        <item n="HTC Hero/Droid Eris" sd="0" x="20"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -8634,7 +9516,7 @@
   </rowFields>
   <rowItems count="19">
     <i>
-      <x v="10"/>
+      <x v="9"/>
     </i>
     <i>
       <x v="2"/>
@@ -8643,31 +9525,28 @@
       <x v="1"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="7"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i>
       <x v="17"/>
     </i>
     <i>
-      <x/>
+      <x v="6"/>
     </i>
     <i>
       <x v="11"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="7"/>
     </i>
     <i>
       <x v="20"/>
@@ -8676,10 +9555,13 @@
       <x v="19"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="18"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="8"/>
     </i>
     <i>
       <x v="4"/>
@@ -8725,168 +9607,231 @@
   <dataFields count="1">
     <dataField name="FPS" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
-  <formats count="54">
-    <format dxfId="53">
+  <formats count="53">
+    <format dxfId="105">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="104">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="101">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="99">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="98">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="95">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="94">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="93">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="92">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="90">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="89">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="88">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="86">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="84">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="82">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="81">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="79">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="77">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="75">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="74">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="73">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="72">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="71">
       <pivotArea field="6" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="70">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="69">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="68">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="67">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="66">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="1">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="64">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="1">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -8895,25 +9840,61 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="61">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
-            <x v="2"/>
+            <x v="17"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="60">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
-            <x v="1"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="59">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="1">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="1">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="1">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="55">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -8922,115 +9903,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="15"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="12">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="17"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="18"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="20"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="19"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="13"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
+    <format dxfId="54">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9039,7 +9912,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="53">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9058,7 +9931,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="10"/>
+              <x v="9"/>
             </reference>
           </references>
         </pivotArea>
@@ -9088,7 +9961,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="8"/>
+              <x v="7"/>
             </reference>
           </references>
         </pivotArea>
@@ -9098,7 +9971,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="15"/>
+              <x v="14"/>
             </reference>
           </references>
         </pivotArea>
@@ -9108,7 +9981,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="17"/>
+              <x v="16"/>
             </reference>
           </references>
         </pivotArea>
@@ -9128,7 +10001,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="11"/>
+              <x v="10"/>
             </reference>
           </references>
         </pivotArea>
@@ -9138,7 +10011,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="18"/>
+              <x v="17"/>
             </reference>
           </references>
         </pivotArea>
@@ -9158,7 +10031,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="12"/>
+              <x v="11"/>
             </reference>
           </references>
         </pivotArea>
@@ -9168,7 +10041,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="7"/>
+              <x v="20"/>
             </reference>
           </references>
         </pivotArea>
@@ -9178,7 +10051,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="20"/>
+              <x v="19"/>
             </reference>
           </references>
         </pivotArea>
@@ -9188,7 +10061,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="19"/>
+              <x v="18"/>
             </reference>
           </references>
         </pivotArea>
@@ -9198,7 +10071,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="13"/>
+              <x v="12"/>
             </reference>
           </references>
         </pivotArea>
@@ -9208,7 +10081,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="9"/>
+              <x v="8"/>
             </reference>
           </references>
         </pivotArea>
@@ -9245,7 +10118,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="10"/>
+              <x v="9"/>
             </reference>
           </references>
         </pivotArea>
@@ -9284,7 +10157,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="8"/>
+              <x v="7"/>
             </reference>
           </references>
         </pivotArea>
@@ -9297,7 +10170,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="15"/>
+              <x v="14"/>
             </reference>
           </references>
         </pivotArea>
@@ -9310,7 +10183,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="17"/>
+              <x v="16"/>
             </reference>
           </references>
         </pivotArea>
@@ -9336,7 +10209,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="11"/>
+              <x v="10"/>
             </reference>
           </references>
         </pivotArea>
@@ -9349,7 +10222,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="18"/>
+              <x v="17"/>
             </reference>
           </references>
         </pivotArea>
@@ -9375,7 +10248,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="12"/>
+              <x v="11"/>
             </reference>
           </references>
         </pivotArea>
@@ -9388,7 +10261,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="7"/>
+              <x v="20"/>
             </reference>
           </references>
         </pivotArea>
@@ -9401,7 +10274,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="20"/>
+              <x v="19"/>
             </reference>
           </references>
         </pivotArea>
@@ -9414,7 +10287,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="19"/>
+              <x v="18"/>
             </reference>
           </references>
         </pivotArea>
@@ -9427,7 +10300,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="13"/>
+              <x v="12"/>
             </reference>
           </references>
         </pivotArea>
@@ -9440,7 +10313,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="9"/>
+              <x v="8"/>
             </reference>
           </references>
         </pivotArea>
@@ -9483,7 +10356,7 @@
               <x v="4"/>
             </reference>
             <reference field="20" count="1">
-              <x v="10"/>
+              <x v="9"/>
             </reference>
           </references>
         </pivotArea>
@@ -9522,7 +10395,7 @@
               <x v="4"/>
             </reference>
             <reference field="20" count="1">
-              <x v="8"/>
+              <x v="7"/>
             </reference>
           </references>
         </pivotArea>
@@ -9535,7 +10408,7 @@
               <x v="4"/>
             </reference>
             <reference field="20" count="1">
-              <x v="15"/>
+              <x v="14"/>
             </reference>
           </references>
         </pivotArea>
@@ -9548,7 +10421,7 @@
               <x v="4"/>
             </reference>
             <reference field="20" count="1">
-              <x v="17"/>
+              <x v="16"/>
             </reference>
           </references>
         </pivotArea>
@@ -9574,7 +10447,7 @@
               <x v="4"/>
             </reference>
             <reference field="20" count="1">
-              <x v="11"/>
+              <x v="10"/>
             </reference>
           </references>
         </pivotArea>
@@ -9587,7 +10460,7 @@
               <x v="4"/>
             </reference>
             <reference field="20" count="1">
-              <x v="18"/>
+              <x v="17"/>
             </reference>
           </references>
         </pivotArea>
@@ -9613,7 +10486,7 @@
               <x v="4"/>
             </reference>
             <reference field="20" count="1">
-              <x v="12"/>
+              <x v="11"/>
             </reference>
           </references>
         </pivotArea>
@@ -9626,7 +10499,7 @@
               <x v="4"/>
             </reference>
             <reference field="20" count="1">
-              <x v="7"/>
+              <x v="20"/>
             </reference>
           </references>
         </pivotArea>
@@ -9639,7 +10512,7 @@
               <x v="4"/>
             </reference>
             <reference field="20" count="1">
-              <x v="20"/>
+              <x v="19"/>
             </reference>
           </references>
         </pivotArea>
@@ -9652,7 +10525,7 @@
               <x v="4"/>
             </reference>
             <reference field="20" count="1">
-              <x v="19"/>
+              <x v="18"/>
             </reference>
           </references>
         </pivotArea>
@@ -9665,7 +10538,7 @@
               <x v="4"/>
             </reference>
             <reference field="20" count="1">
-              <x v="13"/>
+              <x v="12"/>
             </reference>
           </references>
         </pivotArea>
@@ -9678,7 +10551,7 @@
               <x v="4"/>
             </reference>
             <reference field="20" count="1">
-              <x v="9"/>
+              <x v="8"/>
             </reference>
           </references>
         </pivotArea>
@@ -9721,7 +10594,7 @@
               <x v="3"/>
             </reference>
             <reference field="20" count="1">
-              <x v="10"/>
+              <x v="9"/>
             </reference>
           </references>
         </pivotArea>
@@ -9760,7 +10633,7 @@
               <x v="3"/>
             </reference>
             <reference field="20" count="1">
-              <x v="8"/>
+              <x v="7"/>
             </reference>
           </references>
         </pivotArea>
@@ -9773,7 +10646,7 @@
               <x v="3"/>
             </reference>
             <reference field="20" count="1">
-              <x v="15"/>
+              <x v="14"/>
             </reference>
           </references>
         </pivotArea>
@@ -9786,7 +10659,7 @@
               <x v="3"/>
             </reference>
             <reference field="20" count="1">
-              <x v="17"/>
+              <x v="16"/>
             </reference>
           </references>
         </pivotArea>
@@ -9812,7 +10685,7 @@
               <x v="3"/>
             </reference>
             <reference field="20" count="1">
-              <x v="11"/>
+              <x v="10"/>
             </reference>
           </references>
         </pivotArea>
@@ -9825,7 +10698,7 @@
               <x v="3"/>
             </reference>
             <reference field="20" count="1">
-              <x v="18"/>
+              <x v="17"/>
             </reference>
           </references>
         </pivotArea>
@@ -9851,7 +10724,7 @@
               <x v="3"/>
             </reference>
             <reference field="20" count="1">
-              <x v="12"/>
+              <x v="11"/>
             </reference>
           </references>
         </pivotArea>
@@ -9864,7 +10737,7 @@
               <x v="3"/>
             </reference>
             <reference field="20" count="1">
-              <x v="7"/>
+              <x v="20"/>
             </reference>
           </references>
         </pivotArea>
@@ -9877,7 +10750,7 @@
               <x v="3"/>
             </reference>
             <reference field="20" count="1">
-              <x v="20"/>
+              <x v="19"/>
             </reference>
           </references>
         </pivotArea>
@@ -9890,7 +10763,7 @@
               <x v="3"/>
             </reference>
             <reference field="20" count="1">
-              <x v="19"/>
+              <x v="18"/>
             </reference>
           </references>
         </pivotArea>
@@ -9903,7 +10776,7 @@
               <x v="3"/>
             </reference>
             <reference field="20" count="1">
-              <x v="13"/>
+              <x v="12"/>
             </reference>
           </references>
         </pivotArea>
@@ -9916,7 +10789,7 @@
               <x v="3"/>
             </reference>
             <reference field="20" count="1">
-              <x v="9"/>
+              <x v="8"/>
             </reference>
           </references>
         </pivotArea>
@@ -9959,7 +10832,7 @@
               <x v="2"/>
             </reference>
             <reference field="20" count="1">
-              <x v="10"/>
+              <x v="9"/>
             </reference>
           </references>
         </pivotArea>
@@ -9998,7 +10871,7 @@
               <x v="2"/>
             </reference>
             <reference field="20" count="1">
-              <x v="8"/>
+              <x v="7"/>
             </reference>
           </references>
         </pivotArea>
@@ -10011,7 +10884,7 @@
               <x v="2"/>
             </reference>
             <reference field="20" count="1">
-              <x v="15"/>
+              <x v="14"/>
             </reference>
           </references>
         </pivotArea>
@@ -10024,7 +10897,7 @@
               <x v="2"/>
             </reference>
             <reference field="20" count="1">
-              <x v="17"/>
+              <x v="16"/>
             </reference>
           </references>
         </pivotArea>
@@ -10050,7 +10923,7 @@
               <x v="2"/>
             </reference>
             <reference field="20" count="1">
-              <x v="11"/>
+              <x v="10"/>
             </reference>
           </references>
         </pivotArea>
@@ -10063,7 +10936,7 @@
               <x v="2"/>
             </reference>
             <reference field="20" count="1">
-              <x v="18"/>
+              <x v="17"/>
             </reference>
           </references>
         </pivotArea>
@@ -10089,7 +10962,7 @@
               <x v="2"/>
             </reference>
             <reference field="20" count="1">
-              <x v="12"/>
+              <x v="11"/>
             </reference>
           </references>
         </pivotArea>
@@ -10102,7 +10975,7 @@
               <x v="2"/>
             </reference>
             <reference field="20" count="1">
-              <x v="7"/>
+              <x v="20"/>
             </reference>
           </references>
         </pivotArea>
@@ -10115,7 +10988,7 @@
               <x v="2"/>
             </reference>
             <reference field="20" count="1">
-              <x v="20"/>
+              <x v="19"/>
             </reference>
           </references>
         </pivotArea>
@@ -10128,7 +11001,7 @@
               <x v="2"/>
             </reference>
             <reference field="20" count="1">
-              <x v="19"/>
+              <x v="18"/>
             </reference>
           </references>
         </pivotArea>
@@ -10141,7 +11014,7 @@
               <x v="2"/>
             </reference>
             <reference field="20" count="1">
-              <x v="13"/>
+              <x v="12"/>
             </reference>
           </references>
         </pivotArea>
@@ -10154,7 +11027,7 @@
               <x v="2"/>
             </reference>
             <reference field="20" count="1">
-              <x v="9"/>
+              <x v="8"/>
             </reference>
           </references>
         </pivotArea>
@@ -10197,7 +11070,7 @@
               <x v="1"/>
             </reference>
             <reference field="20" count="1">
-              <x v="10"/>
+              <x v="9"/>
             </reference>
           </references>
         </pivotArea>
@@ -10236,7 +11109,7 @@
               <x v="1"/>
             </reference>
             <reference field="20" count="1">
-              <x v="8"/>
+              <x v="7"/>
             </reference>
           </references>
         </pivotArea>
@@ -10249,7 +11122,7 @@
               <x v="1"/>
             </reference>
             <reference field="20" count="1">
-              <x v="15"/>
+              <x v="14"/>
             </reference>
           </references>
         </pivotArea>
@@ -10262,7 +11135,7 @@
               <x v="1"/>
             </reference>
             <reference field="20" count="1">
-              <x v="17"/>
+              <x v="16"/>
             </reference>
           </references>
         </pivotArea>
@@ -10288,7 +11161,7 @@
               <x v="1"/>
             </reference>
             <reference field="20" count="1">
-              <x v="11"/>
+              <x v="10"/>
             </reference>
           </references>
         </pivotArea>
@@ -10301,7 +11174,7 @@
               <x v="1"/>
             </reference>
             <reference field="20" count="1">
-              <x v="18"/>
+              <x v="17"/>
             </reference>
           </references>
         </pivotArea>
@@ -10327,7 +11200,7 @@
               <x v="1"/>
             </reference>
             <reference field="20" count="1">
-              <x v="12"/>
+              <x v="11"/>
             </reference>
           </references>
         </pivotArea>
@@ -10340,7 +11213,7 @@
               <x v="1"/>
             </reference>
             <reference field="20" count="1">
-              <x v="7"/>
+              <x v="20"/>
             </reference>
           </references>
         </pivotArea>
@@ -10353,7 +11226,7 @@
               <x v="1"/>
             </reference>
             <reference field="20" count="1">
-              <x v="20"/>
+              <x v="19"/>
             </reference>
           </references>
         </pivotArea>
@@ -10366,7 +11239,7 @@
               <x v="1"/>
             </reference>
             <reference field="20" count="1">
-              <x v="19"/>
+              <x v="18"/>
             </reference>
           </references>
         </pivotArea>
@@ -10379,7 +11252,7 @@
               <x v="1"/>
             </reference>
             <reference field="20" count="1">
-              <x v="13"/>
+              <x v="12"/>
             </reference>
           </references>
         </pivotArea>
@@ -10392,7 +11265,7 @@
               <x v="1"/>
             </reference>
             <reference field="20" count="1">
-              <x v="9"/>
+              <x v="8"/>
             </reference>
           </references>
         </pivotArea>
@@ -10435,7 +11308,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="10"/>
+              <x v="9"/>
             </reference>
           </references>
         </pivotArea>
@@ -10474,7 +11347,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="8"/>
+              <x v="7"/>
             </reference>
           </references>
         </pivotArea>
@@ -10487,7 +11360,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="15"/>
+              <x v="14"/>
             </reference>
           </references>
         </pivotArea>
@@ -10500,7 +11373,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="17"/>
+              <x v="16"/>
             </reference>
           </references>
         </pivotArea>
@@ -10526,7 +11399,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="11"/>
+              <x v="10"/>
             </reference>
           </references>
         </pivotArea>
@@ -10539,7 +11412,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="18"/>
+              <x v="17"/>
             </reference>
           </references>
         </pivotArea>
@@ -10565,7 +11438,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="12"/>
+              <x v="11"/>
             </reference>
           </references>
         </pivotArea>
@@ -10578,7 +11451,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="7"/>
+              <x v="20"/>
             </reference>
           </references>
         </pivotArea>
@@ -10591,7 +11464,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="20"/>
+              <x v="19"/>
             </reference>
           </references>
         </pivotArea>
@@ -10604,7 +11477,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="19"/>
+              <x v="18"/>
             </reference>
           </references>
         </pivotArea>
@@ -10617,7 +11490,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="13"/>
+              <x v="12"/>
             </reference>
           </references>
         </pivotArea>
@@ -10630,7 +11503,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="9"/>
+              <x v="8"/>
             </reference>
           </references>
         </pivotArea>
@@ -11121,8 +11994,8 @@
   </sheetPr>
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11130,12 +12003,7 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="9" width="7.140625" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -11204,8 +12072,8 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="23" t="s">
-        <v>23</v>
+      <c r="B8" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="9">
         <v>23.908349999999999</v>
@@ -11230,8 +12098,8 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="23" t="s">
-        <v>22</v>
+      <c r="B9" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
@@ -11246,33 +12114,33 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="11">
-        <v>15.916253333333335</v>
+        <v>16.27948235294118</v>
       </c>
       <c r="D10" s="12">
-        <v>14.44964</v>
+        <v>14.679947499999999</v>
       </c>
       <c r="E10" s="12">
-        <v>18.632691666666663</v>
+        <v>19.260721428571426</v>
       </c>
       <c r="F10" s="12">
-        <v>17.319880000000001</v>
+        <v>17.695971249999999</v>
       </c>
       <c r="G10" s="12">
-        <v>25.143581818181818</v>
+        <v>25.159076923076928</v>
       </c>
       <c r="H10" s="12">
-        <v>23.381090909090911</v>
+        <v>23.614115384615388</v>
       </c>
       <c r="I10" s="20">
-        <v>18.731064473684217</v>
+        <v>19.083904494382026</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="11">
@@ -11298,8 +12166,8 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="23" t="s">
-        <v>24</v>
+      <c r="B12" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="11">
         <v>13.2644</v>
@@ -11324,8 +12192,8 @@
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="23" t="s">
-        <v>25</v>
+      <c r="B13" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="11">
         <v>12.5755</v>
@@ -11350,8 +12218,8 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="23" t="s">
-        <v>26</v>
+      <c r="B14" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="11">
         <v>13.298999999999999</v>
@@ -11372,8 +12240,8 @@
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="23" t="s">
-        <v>30</v>
+      <c r="B15" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12">
@@ -11392,8 +12260,8 @@
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="23" t="s">
-        <v>29</v>
+      <c r="B16" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="11">
         <v>10.060796666666667</v>
@@ -11418,7 +12286,7 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="11"/>
@@ -11440,8 +12308,8 @@
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="23" t="s">
-        <v>27</v>
+      <c r="B18" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="C18" s="11">
         <v>8.0224499999999992</v>
@@ -11466,34 +12334,34 @@
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="23" t="s">
-        <v>20</v>
+      <c r="B19" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="C19" s="11">
-        <v>5.0411799999999998</v>
+        <v>4.3786849999999999</v>
       </c>
       <c r="D19" s="12">
-        <v>5.1483999999999996</v>
+        <v>4.6807549999999996</v>
       </c>
       <c r="E19" s="12">
-        <v>6.4483600000000001</v>
+        <v>6.0571299999999999</v>
       </c>
       <c r="F19" s="12">
-        <v>6.1750499999999997</v>
+        <v>6.6844199999999994</v>
       </c>
       <c r="G19" s="12">
-        <v>6.5549999999999997</v>
+        <v>6.5297999999999998</v>
       </c>
       <c r="H19" s="12">
-        <v>5.4402100000000004</v>
-      </c>
-      <c r="I19" s="20">
-        <v>5.8013666666666666</v>
+        <v>5.2401400000000002</v>
+      </c>
+      <c r="I19" s="23">
+        <v>5.595155000000001</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="23" t="s">
-        <v>31</v>
+      <c r="B20" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="C20" s="11">
         <v>4.1948260000000008</v>
@@ -11518,7 +12386,7 @@
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="11">
@@ -11540,7 +12408,7 @@
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="11"/>
@@ -11556,8 +12424,8 @@
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="23" t="s">
-        <v>28</v>
+      <c r="B23" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="11">
         <v>2.38863</v>
@@ -11582,7 +12450,7 @@
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="11">
@@ -11608,8 +12476,8 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B25" s="23" t="s">
-        <v>21</v>
+      <c r="B25" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="C25" s="11">
         <v>3.1853899999999999</v>
@@ -11621,7 +12489,7 @@
         <v>3.0426899999999999</v>
       </c>
       <c r="H25" s="12"/>
-      <c r="I25" s="21">
+      <c r="I25" s="20">
         <v>3.1140400000000001</v>
       </c>
     </row>
@@ -11630,30 +12498,31 @@
         <v>7</v>
       </c>
       <c r="C26" s="14">
-        <v>11.300381458333332</v>
+        <v>11.453762745098034</v>
       </c>
       <c r="D26" s="15">
-        <v>10.39603224489796</v>
+        <v>10.503901730769231</v>
       </c>
       <c r="E26" s="15">
-        <v>14.814152978723401</v>
+        <v>14.959777799999998</v>
       </c>
       <c r="F26" s="15">
-        <v>12.369192553191493</v>
+        <v>12.676920392156864</v>
       </c>
       <c r="G26" s="15">
-        <v>16.888563043478264</v>
+        <v>17.017695918367352</v>
       </c>
       <c r="H26" s="15">
-        <v>15.581374999999994</v>
-      </c>
-      <c r="I26" s="22">
-        <v>13.523582561403508</v>
+        <v>15.739952352941172</v>
+      </c>
+      <c r="I26" s="21">
+        <v>13.689017401315789</v>
       </c>
     </row>
+    <row r="28" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="53" ht="15.75" thickBot="1"/>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25">
+  <conditionalFormatting pivot="1" sqref="C9 C8 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11677,7 +12546,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25">
+  <conditionalFormatting pivot="1" sqref="E9 E8 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11701,7 +12570,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25">
+  <conditionalFormatting pivot="1" sqref="G9 G8 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11725,7 +12594,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25">
+  <conditionalFormatting pivot="1" sqref="I9 I8 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -11737,8 +12606,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/doc/benchmarks.xlsx
+++ b/doc/benchmarks.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -159,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -198,17 +198,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -294,520 +283,213 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" pivotButton="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" pivotButton="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="70"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="70"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="70"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="70"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" pivotButton="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="113">
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="78">
     <dxf>
       <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
         <right style="medium">
           <color indexed="64"/>
         </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <border>
         <right style="medium">
           <color indexed="64"/>
         </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </left>
+        </right>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </left>
+        </right>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </left>
+        </right>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </left>
+        </right>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </left>
+        </right>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </left>
+        </right>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </left>
+        </right>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </left>
+        </right>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </left>
+        </right>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </left>
+        </right>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </left>
+        </right>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </left>
+        </right>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </left>
+        </right>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </left>
+        </right>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </left>
+        </right>
       </border>
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
+        <right style="medium">
           <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -1356,13 +1038,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium16 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="112"/>
-      <tableStyleElement type="headerRow" dxfId="111"/>
-      <tableStyleElement type="totalRow" dxfId="110"/>
-      <tableStyleElement type="firstColumn" dxfId="109"/>
-      <tableStyleElement type="lastColumn" dxfId="108"/>
-      <tableStyleElement type="firstRowStripe" dxfId="107"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="106"/>
+      <tableStyleElement type="wholeTable" dxfId="77"/>
+      <tableStyleElement type="headerRow" dxfId="76"/>
+      <tableStyleElement type="totalRow" dxfId="75"/>
+      <tableStyleElement type="firstColumn" dxfId="74"/>
+      <tableStyleElement type="lastColumn" dxfId="73"/>
+      <tableStyleElement type="firstRowStripe" dxfId="72"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="71"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -2285,25 +1967,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="91611904"/>
-        <c:axId val="91613440"/>
+        <c:axId val="88314624"/>
+        <c:axId val="88316160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91611904"/>
+        <c:axId val="88314624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91613440"/>
+        <c:crossAx val="88316160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91613440"/>
+        <c:axId val="88316160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2317,7 +1999,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="91611904"/>
+        <c:crossAx val="88314624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2330,7 +2012,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.25" r="0.25" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.25" r="0.25" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -9372,7 +9054,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Benchmarks" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" grandTotalCaption="Average" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Device" colHeaderCaption="Bench" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Benchmarks" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" grandTotalCaption="Average" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Device" colHeaderCaption="Bench" fieldListSortAscending="1">
   <location ref="B6:I26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -9607,168 +9289,168 @@
   <dataFields count="1">
     <dataField name="FPS" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
-  <formats count="53">
-    <format dxfId="105">
+  <formats count="71">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="104">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="103">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="102">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="100">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="64">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="63">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="95">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="59">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="58">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="57">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="91">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="55">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="54">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="53">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="51">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="49">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="47">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="46">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="44">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="42">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="40">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="39">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="38">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="37">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="36">
       <pivotArea field="6" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="35">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="34">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9777,7 +9459,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="33">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9786,7 +9468,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="32">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9795,7 +9477,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="31">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9804,7 +9486,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="30">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9813,7 +9495,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="29">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9822,7 +9504,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="28">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9831,7 +9513,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="27">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9840,7 +9522,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="26">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9849,7 +9531,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="25">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9858,7 +9540,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="24">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9867,7 +9549,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="23">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9876,7 +9558,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="22">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9885,7 +9567,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="21">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9894,7 +9576,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="20">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9903,7 +9585,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="19">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9912,7 +9594,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="18">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9921,13 +9603,196 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="17">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
   </formats>
   <conditionalFormats count="7">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="7">
       <pivotAreas count="18">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -9935,9 +9800,12 @@
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -9945,9 +9813,12 @@
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -9955,9 +9826,12 @@
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -9965,9 +9839,12 @@
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -9975,9 +9852,12 @@
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -9985,19 +9865,25 @@
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -10005,9 +9891,12 @@
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -10015,9 +9904,12 @@
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -10025,9 +9917,12 @@
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -10035,9 +9930,12 @@
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -10045,9 +9943,12 @@
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -10055,9 +9956,12 @@
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -10065,9 +9969,12 @@
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -10075,9 +9982,12 @@
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -10085,9 +9995,12 @@
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -10095,10 +10008,965 @@
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="6">
+      <pivotAreas count="18">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="16"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="12"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="5">
+      <pivotAreas count="18">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="16"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="12"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="4">
+      <pivotAreas count="18">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="16"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="12"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="3">
+      <pivotAreas count="18">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="16"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="12"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
             </reference>
             <reference field="20" count="1">
               <x v="3"/>
@@ -10345,1187 +11213,181 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="16"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="12"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
               <x v="4"/>
             </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="4">
-      <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="5">
-      <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="6">
-      <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="7">
-      <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -11995,7 +11857,7 @@
   <dimension ref="B2:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E19:E20"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12072,7 +11934,7 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="9">
@@ -12090,15 +11952,15 @@
       <c r="G8" s="10">
         <v>33.013099999999994</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="22">
         <v>31.0808</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="22">
         <v>28.305033333333331</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="11"/>
@@ -12108,13 +11970,13 @@
       <c r="G9" s="12">
         <v>24.884699999999999</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="20">
+      <c r="H9" s="21"/>
+      <c r="I9" s="21">
         <v>24.884699999999999</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="11">
@@ -12132,15 +11994,15 @@
       <c r="G10" s="12">
         <v>25.159076923076928</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="21">
         <v>23.614115384615388</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="21">
         <v>19.083904494382026</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="11">
@@ -12158,15 +12020,15 @@
       <c r="G11" s="12">
         <v>19.113999999999997</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="21">
         <v>18.772185714285715</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="21">
         <v>16.660370370370369</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="11">
@@ -12184,15 +12046,15 @@
       <c r="G12" s="12">
         <v>17.847966666666668</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="21">
         <v>20.0868</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="21">
         <v>15.887011764705884</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="11">
@@ -12210,15 +12072,15 @@
       <c r="G13" s="12">
         <v>14.9398</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="21">
         <v>25.3642</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="21">
         <v>15.206027142857142</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="11">
@@ -12234,13 +12096,13 @@
       <c r="G14" s="12">
         <v>18.615500000000001</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="20">
+      <c r="H14" s="21"/>
+      <c r="I14" s="21">
         <v>13.702695</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="11"/>
@@ -12254,13 +12116,13 @@
         <v>10.795299999999999</v>
       </c>
       <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="20">
+      <c r="H15" s="21"/>
+      <c r="I15" s="21">
         <v>12.264499999999998</v>
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="11">
@@ -12278,15 +12140,15 @@
       <c r="G16" s="12">
         <v>14.520400000000002</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="21">
         <v>13.645518181818181</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="21">
         <v>11.946854999999998</v>
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="11"/>
@@ -12300,15 +12162,15 @@
       <c r="G17" s="12">
         <v>9.7563449999999996</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="21">
         <v>7.8437000000000001</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="21">
         <v>11.795909999999999</v>
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="11">
@@ -12326,15 +12188,15 @@
       <c r="G18" s="12">
         <v>9.6063899999999993</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="21">
         <v>9.4552849999999999</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="21">
         <v>11.337733999999999</v>
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="11">
@@ -12352,15 +12214,15 @@
       <c r="G19" s="12">
         <v>6.5297999999999998</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="21">
         <v>5.2401400000000002</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="21">
         <v>5.595155000000001</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="11">
@@ -12378,15 +12240,15 @@
       <c r="G20" s="12">
         <v>5.9314899999999993</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="21">
         <v>4.8121649999999994</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="21">
         <v>5.0589266666666663</v>
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="11">
@@ -12400,15 +12262,15 @@
         <v>5.8046433333333338</v>
       </c>
       <c r="G21" s="12"/>
-      <c r="H21" s="12">
+      <c r="H21" s="21">
         <v>5.7200300000000004</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="21">
         <v>4.8550966666666673</v>
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="11"/>
@@ -12416,15 +12278,15 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="12">
+      <c r="H22" s="21">
         <v>4.2819700000000003</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="21">
         <v>4.2819700000000003</v>
       </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="11">
@@ -12442,15 +12304,15 @@
       <c r="G23" s="12">
         <v>4.5509500000000003</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="21">
         <v>5.0518850000000004</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="21">
         <v>3.86794875</v>
       </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="11">
@@ -12468,28 +12330,28 @@
       <c r="G24" s="12">
         <v>3.3733599999999999</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="21">
         <v>4.9798450000000001</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="21">
         <v>3.6049100000000003</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="23">
         <v>3.1853899999999999</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24">
         <v>3.0426899999999999</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="20">
+      <c r="H25" s="25"/>
+      <c r="I25" s="21">
         <v>3.1140400000000001</v>
       </c>
     </row>
@@ -12515,14 +12377,14 @@
       <c r="H26" s="15">
         <v>15.739952352941172</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="19">
         <v>13.689017401315789</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="53" ht="15.75" thickBot="1"/>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="C9 C8 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25">
+  <conditionalFormatting pivot="1" sqref="C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12534,7 +12396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="D9 D8 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25">
+  <conditionalFormatting pivot="1" sqref="D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12546,7 +12408,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="E9 E8 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25">
+  <conditionalFormatting pivot="1" sqref="E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12558,7 +12420,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="F9 F8 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25">
+  <conditionalFormatting pivot="1" sqref="F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12570,7 +12432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="G9 G8 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25">
+  <conditionalFormatting pivot="1" sqref="G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12582,7 +12444,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="H9 H8 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25">
+  <conditionalFormatting pivot="1" sqref="H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12594,7 +12456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="I9 I8 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25">
+  <conditionalFormatting pivot="1" sqref="I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/doc/benchmarks.xlsx
+++ b/doc/benchmarks.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="2" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -159,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -287,38 +287,18 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" pivotButton="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -358,14 +338,1789 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="291">
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <right style="medium">
@@ -1038,13 +2793,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium16 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="77"/>
-      <tableStyleElement type="headerRow" dxfId="76"/>
-      <tableStyleElement type="totalRow" dxfId="75"/>
-      <tableStyleElement type="firstColumn" dxfId="74"/>
-      <tableStyleElement type="lastColumn" dxfId="73"/>
-      <tableStyleElement type="firstRowStripe" dxfId="72"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="71"/>
+      <tableStyleElement type="wholeTable" dxfId="290"/>
+      <tableStyleElement type="headerRow" dxfId="289"/>
+      <tableStyleElement type="totalRow" dxfId="288"/>
+      <tableStyleElement type="firstColumn" dxfId="287"/>
+      <tableStyleElement type="lastColumn" dxfId="286"/>
+      <tableStyleElement type="firstRowStripe" dxfId="285"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="284"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -1217,10 +2972,10 @@
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Nexus One</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Acer Liquid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Nexus One</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>HTC Desire</c:v>
@@ -1235,10 +2990,10 @@
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Motorola Droid/Milestone</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>HTC Evo 4G</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Motorola Droid/Milestone</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>HTC Legend</c:v>
@@ -1279,11 +3034,14 @@
                 <c:pt idx="0">
                   <c:v>23.908349999999999</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.177578947368421</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.27948235294118</c:v>
+                  <c:v>12.078799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.451033333333333</c:v>
+                  <c:v>12.892949999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13.2644</c:v>
@@ -1294,8 +3052,8 @@
                 <c:pt idx="6">
                   <c:v>13.298999999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.060796666666667</c:v>
+                <c:pt idx="7">
+                  <c:v>10.403597500000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8.0224499999999992</c:v>
@@ -1345,10 +3103,10 @@
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Nexus One</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Acer Liquid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Nexus One</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>HTC Desire</c:v>
@@ -1363,10 +3121,10 @@
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Motorola Droid/Milestone</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>HTC Evo 4G</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Motorola Droid/Milestone</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>HTC Legend</c:v>
@@ -1407,11 +3165,14 @@
                 <c:pt idx="0">
                   <c:v>24.684950000000001</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.73173111111111</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.679947499999999</c:v>
+                  <c:v>12.1652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.562760000000001</c:v>
+                  <c:v>12.270666666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12.229766666666665</c:v>
@@ -1423,10 +3184,10 @@
                   <c:v>9.7285849999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>9.8110979999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>11.0192</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.2592828571428587</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6.6300400000000002</c:v>
@@ -1473,10 +3234,10 @@
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Nexus One</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Acer Liquid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Nexus One</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>HTC Desire</c:v>
@@ -1491,10 +3252,10 @@
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Motorola Droid/Milestone</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>HTC Evo 4G</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Motorola Droid/Milestone</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>HTC Legend</c:v>
@@ -1535,11 +3296,11 @@
                 <c:pt idx="0">
                   <c:v>33.08175</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.260721428571426</c:v>
+                <c:pt idx="1">
+                  <c:v>19.160787499999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.066425000000002</c:v>
+                  <c:v>15.604580000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>15.701433333333332</c:v>
@@ -1551,10 +3312,10 @@
                   <c:v>12.228999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>16.034561538461539</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>14.978999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.22142</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9.7283600000000003</c:v>
@@ -1601,10 +3362,10 @@
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Nexus One</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Acer Liquid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Nexus One</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>HTC Desire</c:v>
@@ -1619,10 +3380,10 @@
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Motorola Droid/Milestone</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>HTC Evo 4G</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Motorola Droid/Milestone</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>HTC Legend</c:v>
@@ -1663,11 +3424,11 @@
                 <c:pt idx="0">
                   <c:v>24.061250000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.695971249999999</c:v>
+                <c:pt idx="1">
+                  <c:v>17.907185555555557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.474033333333335</c:v>
+                  <c:v>17.799849999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17.591633333333334</c:v>
@@ -1676,10 +3437,10 @@
                   <c:v>7.3719900000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>7.146995454545455</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>10.795299999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.09619</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21.8948</c:v>
@@ -1729,10 +3490,10 @@
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Nexus One</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Acer Liquid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Nexus One</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>HTC Desire</c:v>
@@ -1747,10 +3508,10 @@
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Motorola Droid/Milestone</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>HTC Evo 4G</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Motorola Droid/Milestone</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>HTC Legend</c:v>
@@ -1792,13 +3553,13 @@
                   <c:v>33.013099999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>24.973653333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>24.884699999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.159076923076928</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.113999999999997</c:v>
+                  <c:v>18.70378333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17.847966666666668</c:v>
@@ -1809,8 +3570,8 @@
                 <c:pt idx="6">
                   <c:v>18.615500000000001</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.520400000000002</c:v>
+                <c:pt idx="7">
+                  <c:v>14.803625000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9.7563449999999996</c:v>
@@ -1860,10 +3621,10 @@
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Nexus One</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Acer Liquid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Nexus One</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>HTC Desire</c:v>
@@ -1878,10 +3639,10 @@
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Motorola Droid/Milestone</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>HTC Evo 4G</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Motorola Droid/Milestone</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>HTC Legend</c:v>
@@ -1922,11 +3683,11 @@
                 <c:pt idx="0">
                   <c:v>31.0808</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.614115384615388</c:v>
+                <c:pt idx="1">
+                  <c:v>23.519468750000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.772185714285715</c:v>
+                  <c:v>18.578537500000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20.0868</c:v>
@@ -1934,8 +3695,8 @@
                 <c:pt idx="5">
                   <c:v>25.3642</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>13.645518181818181</c:v>
+                <c:pt idx="7">
+                  <c:v>14.696914285714286</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7.8437000000000001</c:v>
@@ -1967,25 +3728,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="88314624"/>
-        <c:axId val="88316160"/>
+        <c:axId val="78029568"/>
+        <c:axId val="78031104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88314624"/>
+        <c:axId val="78029568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88316160"/>
+        <c:crossAx val="78031104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88316160"/>
+        <c:axId val="78031104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +3760,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="88314624"/>
+        <c:crossAx val="78029568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2012,7 +3773,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.25" r="0.25" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.25" r="0.25" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2054,14 +3815,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nico" refreshedDate="40366.71772523148" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="304">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nico" refreshedDate="40367.500603009263" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="343">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="21">
     <cacheField name="id" numFmtId="0" sqlType="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="317"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="356"/>
     </cacheField>
     <cacheField name="timestamp" numFmtId="0" sqlType="11">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-07-02T17:05:18" maxDate="2010-07-07T12:51:25"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-07-02T17:05:18" maxDate="2010-07-08T12:00:31"/>
     </cacheField>
     <cacheField name="benchmark_id" numFmtId="0" sqlType="4">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5" count="6">
@@ -2361,7 +4122,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="304">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="343">
   <r>
     <n v="16"/>
     <d v="2010-07-02T17:08:17"/>
@@ -9050,11 +10811,869 @@
     <x v="0"/>
     <s v="354957031423729"/>
   </r>
+  <r>
+    <n v="318"/>
+    <d v="2010-07-07T18:04:15"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.055400000000001"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635031583540"/>
+  </r>
+  <r>
+    <n v="319"/>
+    <d v="2010-07-07T18:04:22"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11.2187"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/153468:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841030074674"/>
+  </r>
+  <r>
+    <n v="320"/>
+    <d v="2010-07-07T18:04:43"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13.757199999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/153468:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841030074674"/>
+  </r>
+  <r>
+    <n v="321"/>
+    <d v="2010-07-07T18:04:44"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14.6861"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635031583540"/>
+  </r>
+  <r>
+    <n v="322"/>
+    <d v="2010-07-07T18:05:06"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.8102"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/153468:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="357841030074674"/>
+  </r>
+  <r>
+    <n v="323"/>
+    <d v="2010-07-07T18:05:08"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.5153"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="354635031583540"/>
+  </r>
+  <r>
+    <n v="324"/>
+    <d v="2010-07-07T18:05:34"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.2726300000000004"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635031583540"/>
+  </r>
+  <r>
+    <n v="325"/>
+    <d v="2010-07-07T18:05:34"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.7773"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/153468:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841030074674"/>
+  </r>
+  <r>
+    <n v="326"/>
+    <d v="2010-07-07T18:06:08"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.652699999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/153468:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841030074674"/>
+  </r>
+  <r>
+    <n v="327"/>
+    <d v="2010-07-07T18:06:13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14.872199999999999"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635031583540"/>
+  </r>
+  <r>
+    <n v="328"/>
+    <d v="2010-07-07T18:06:46"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17.222999999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/153468:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841030074674"/>
+  </r>
+  <r>
+    <n v="329"/>
+    <d v="2010-07-07T18:06:49"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13.5341"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635031583540"/>
+  </r>
+  <r>
+    <n v="330"/>
+    <d v="2010-07-07T22:00:46"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="19.421900000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031128021"/>
+  </r>
+  <r>
+    <n v="331"/>
+    <d v="2010-07-07T22:01:07"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="14.2301"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031128021"/>
+  </r>
+  <r>
+    <n v="332"/>
+    <d v="2010-07-07T22:01:25"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="17.643599999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031128021"/>
+  </r>
+  <r>
+    <n v="333"/>
+    <d v="2010-07-07T22:01:43"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="14.924300000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="354957031128021"/>
+  </r>
+  <r>
+    <n v="334"/>
+    <d v="2010-07-07T22:02:10"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="23.015000000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031128021"/>
+  </r>
+  <r>
+    <n v="335"/>
+    <d v="2010-07-07T22:02:37"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="21.761600000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031128021"/>
+  </r>
+  <r>
+    <n v="336"/>
+    <d v="2010-07-08T01:46:05"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="25.767299999999999"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A00000221A3D3A"/>
+  </r>
+  <r>
+    <n v="337"/>
+    <d v="2010-07-08T01:46:27"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13.9955"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A00000221A3D3A"/>
+  </r>
+  <r>
+    <n v="338"/>
+    <d v="2010-07-08T01:46:46"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11.921200000000001"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A00000221A3D3A"/>
+  </r>
+  <r>
+    <n v="339"/>
+    <d v="2010-07-08T01:47:06"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.3235900000000003"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A00000221A3D3A"/>
+  </r>
+  <r>
+    <n v="340"/>
+    <d v="2010-07-08T01:47:32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17.226099999999999"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A00000221A3D3A"/>
+  </r>
+  <r>
+    <n v="341"/>
+    <d v="2010-07-08T01:48:03"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="27.8889"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A00000221A3D3A"/>
+  </r>
+  <r>
+    <n v="342"/>
+    <d v="2010-07-08T02:03:19"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.392700000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031634705"/>
+  </r>
+  <r>
+    <n v="343"/>
+    <d v="2010-07-08T02:03:41"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.2789"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031634705"/>
+  </r>
+  <r>
+    <n v="344"/>
+    <d v="2010-07-08T02:04:02"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.367699999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="354957031634705"/>
+  </r>
+  <r>
+    <n v="345"/>
+    <d v="2010-07-08T02:04:23"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.771899999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031634705"/>
+  </r>
+  <r>
+    <n v="346"/>
+    <d v="2010-07-08T02:04:51"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="24.521799999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031634705"/>
+  </r>
+  <r>
+    <n v="347"/>
+    <d v="2010-07-08T02:05:21"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23.229199999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031634705"/>
+  </r>
+  <r>
+    <n v="348"/>
+    <d v="2010-07-08T05:19:25"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.245100000000001"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A0000015FAFBFB"/>
+  </r>
+  <r>
+    <n v="349"/>
+    <d v="2010-07-08T05:19:43"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.781700000000001"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A0000015FAFBFB"/>
+  </r>
+  <r>
+    <n v="350"/>
+    <d v="2010-07-08T05:20:02"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.859500000000001"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A0000015FAFBFB"/>
+  </r>
+  <r>
+    <n v="351"/>
+    <d v="2010-07-08T05:20:23"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.2512100000000004"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A0000015FAFBFB"/>
+  </r>
+  <r>
+    <n v="352"/>
+    <d v="2010-07-08T05:20:54"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14.2331"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A0000015FAFBFB"/>
+  </r>
+  <r>
+    <n v="353"/>
+    <d v="2010-07-08T05:21:21"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14.861599999999999"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A0000015FAFBFB"/>
+  </r>
+  <r>
+    <n v="354"/>
+    <d v="2010-07-08T06:09:13"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="24.337199999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031032926"/>
+  </r>
+  <r>
+    <n v="355"/>
+    <d v="2010-07-08T12:00:17"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="12.078799999999999"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Acer_LiquidE_1.100.05_EMEA_GEN1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="acer/a1_generic1/a1/salsa:2.1-update1/ECLAIR/1273494847:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="?"/>
+  </r>
+  <r>
+    <n v="356"/>
+    <d v="2010-07-08T12:00:31"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="12.1652"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Acer_LiquidE_1.100.05_EMEA_GEN1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="acer/a1_generic1/a1/salsa:2.1-update1/ECLAIR/1273494847:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="?"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Benchmarks" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" grandTotalCaption="Average" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Device" colHeaderCaption="Bench" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Benchmarks" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" grandTotalCaption="Average" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Device" colHeaderCaption="Bench" fieldListSortAscending="1">
   <location ref="B6:I26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -9201,10 +11820,10 @@
       <x v="9"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="1"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i>
       <x v="7"/>
@@ -9219,10 +11838,10 @@
       <x/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="17"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="10"/>
     </i>
     <i>
       <x v="6"/>
@@ -9290,167 +11909,167 @@
     <dataField name="FPS" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="71">
-    <format dxfId="70">
+    <format dxfId="283">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="282">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="281">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="280">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="279">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="278">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="277">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="276">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="275">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="274">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="273">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="272">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="271">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="270">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="269">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="268">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="267">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="266">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="265">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="264">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="263">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="262">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="261">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="260">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="259">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="258">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="257">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="256">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="255">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="254">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="253">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="252">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="251">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="250">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="249">
       <pivotArea field="6" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="248">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="247">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9459,7 +12078,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="246">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9468,7 +12087,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="245">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9477,7 +12096,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="244">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9486,7 +12105,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="243">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9495,7 +12114,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="242">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9504,7 +12123,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="241">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9513,7 +12132,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="240">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9522,7 +12141,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="239">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9531,7 +12150,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="238">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9540,7 +12159,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="237">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9549,7 +12168,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="236">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9558,7 +12177,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="235">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9567,7 +12186,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="234">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9576,7 +12195,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="233">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9585,7 +12204,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="232">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9594,7 +12213,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="231">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -9603,7 +12222,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="230">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9613,7 +12232,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="229">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9623,7 +12242,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="228">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9633,7 +12252,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="227">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9643,7 +12262,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="226">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9653,7 +12272,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="225">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9663,7 +12282,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="224">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9673,7 +12292,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="223">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9683,7 +12302,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="222">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9693,7 +12312,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="221">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9703,7 +12322,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="220">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9713,7 +12332,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="219">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9723,7 +12342,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="218">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9733,7 +12352,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="217">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9743,7 +12362,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="216">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9753,7 +12372,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="215">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9763,7 +12382,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="214">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9773,7 +12392,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="213">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -9785,7 +12404,191 @@
     </format>
   </formats>
   <conditionalFormats count="7">
-    <conditionalFormat priority="7">
+    <conditionalFormat priority="1">
+      <pivotAreas count="18">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="16"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="12"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
       <pivotAreas count="18">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -9793,7 +12596,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="9"/>
@@ -9806,7 +12609,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="2"/>
@@ -9819,7 +12622,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="1"/>
@@ -9832,7 +12635,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="7"/>
@@ -9845,7 +12648,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="14"/>
@@ -9858,7 +12661,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="16"/>
@@ -9871,7 +12674,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="0"/>
@@ -9884,7 +12687,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="10"/>
@@ -9897,7 +12700,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="17"/>
@@ -9910,7 +12713,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="6"/>
@@ -9923,7 +12726,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="11"/>
@@ -9936,7 +12739,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="20"/>
@@ -9949,7 +12752,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="19"/>
@@ -9962,7 +12765,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="18"/>
@@ -9975,7 +12778,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="12"/>
@@ -9988,7 +12791,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="8"/>
@@ -10001,7 +12804,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
             </reference>
             <reference field="20" count="1">
               <x v="4"/>
@@ -10014,7 +12817,721 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="0"/>
+              <x v="5"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="3">
+      <pivotAreas count="18">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="16"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="12"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="4">
+      <pivotAreas count="18">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="16"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="12"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="5">
+      <pivotAreas count="18">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="16"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="12"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
             </reference>
             <reference field="20" count="1">
               <x v="3"/>
@@ -10261,7 +13778,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="5">
+    <conditionalFormat priority="7">
       <pivotAreas count="18">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -10269,7 +13786,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="9"/>
@@ -10282,7 +13799,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="2"/>
@@ -10295,7 +13812,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="1"/>
@@ -10308,7 +13825,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="7"/>
@@ -10321,7 +13838,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="14"/>
@@ -10334,7 +13851,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="16"/>
@@ -10347,7 +13864,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="0"/>
@@ -10360,7 +13877,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="10"/>
@@ -10373,7 +13890,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="17"/>
@@ -10386,7 +13903,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="6"/>
@@ -10399,7 +13916,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="11"/>
@@ -10412,7 +13929,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="20"/>
@@ -10425,7 +13942,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="19"/>
@@ -10438,7 +13955,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="18"/>
@@ -10451,7 +13968,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="12"/>
@@ -10464,7 +13981,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="8"/>
@@ -10477,7 +13994,7 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="4"/>
@@ -10490,904 +14007,6 @@
               <x v="0"/>
             </reference>
             <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="4">
-      <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="3">
-      <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="2">
-      <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="18">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -11857,7 +14476,7 @@
   <dimension ref="B2:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11955,50 +14574,54 @@
       <c r="H8" s="22">
         <v>31.0808</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="23">
         <v>28.305033333333331</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="20" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="11">
+        <v>16.177578947368421</v>
+      </c>
+      <c r="D9" s="12">
+        <v>14.73173111111111</v>
+      </c>
+      <c r="E9" s="12">
+        <v>19.160787499999998</v>
+      </c>
+      <c r="F9" s="12">
+        <v>17.907185555555557</v>
+      </c>
       <c r="G9" s="12">
-        <v>24.884699999999999</v>
+        <v>24.973653333333335</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21">
-        <v>24.884699999999999</v>
+      <c r="H9" s="21">
+        <v>23.519468750000001</v>
+      </c>
+      <c r="I9" s="24">
+        <v>19.140817647058828</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="20" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11">
-        <v>16.27948235294118</v>
+        <v>12.078799999999999</v>
       </c>
       <c r="D10" s="12">
-        <v>14.679947499999999</v>
+        <v>12.1652</v>
       </c>
-      <c r="E10" s="12">
-        <v>19.260721428571426</v>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
+        <v>24.884699999999999</v>
       </c>
-      <c r="F10" s="12">
-        <v>17.695971249999999</v>
-      </c>
-      <c r="G10" s="12">
-        <v>25.159076923076928</v>
-      </c>
-      <c r="H10" s="21">
-        <v>23.614115384615388</v>
-      </c>
-      <c r="I10" s="21">
-        <v>19.083904494382026</v>
+      <c r="H10" s="21"/>
+      <c r="I10" s="24">
+        <v>16.376233333333332</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -12006,25 +14629,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="11">
-        <v>13.451033333333333</v>
+        <v>12.892949999999999</v>
       </c>
       <c r="D11" s="12">
-        <v>12.562760000000001</v>
+        <v>12.270666666666665</v>
       </c>
       <c r="E11" s="12">
-        <v>16.066425000000002</v>
+        <v>15.604580000000002</v>
       </c>
       <c r="F11" s="12">
-        <v>18.474033333333335</v>
+        <v>17.799849999999999</v>
       </c>
       <c r="G11" s="12">
-        <v>19.113999999999997</v>
+        <v>18.70378333333333</v>
       </c>
       <c r="H11" s="21">
-        <v>18.772185714285715</v>
+        <v>18.578537500000003</v>
       </c>
-      <c r="I11" s="21">
-        <v>16.660370370370369</v>
+      <c r="I11" s="24">
+        <v>16.220275757575756</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -12049,7 +14672,7 @@
       <c r="H12" s="21">
         <v>20.0868</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="24">
         <v>15.887011764705884</v>
       </c>
     </row>
@@ -12075,7 +14698,7 @@
       <c r="H13" s="21">
         <v>25.3642</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="24">
         <v>15.206027142857142</v>
       </c>
     </row>
@@ -12097,54 +14720,54 @@
         <v>18.615500000000001</v>
       </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="21">
+      <c r="I14" s="24">
         <v>13.702695</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="11">
+        <v>10.403597500000002</v>
+      </c>
       <c r="D15" s="12">
-        <v>11.0192</v>
+        <v>9.8110979999999994</v>
       </c>
       <c r="E15" s="12">
-        <v>14.978999999999999</v>
+        <v>16.034561538461539</v>
       </c>
       <c r="F15" s="12">
-        <v>10.795299999999999</v>
+        <v>7.146995454545455</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21">
-        <v>12.264499999999998</v>
+      <c r="G15" s="12">
+        <v>14.803625000000002</v>
+      </c>
+      <c r="H15" s="21">
+        <v>14.696914285714286</v>
+      </c>
+      <c r="I15" s="24">
+        <v>12.408620833333336</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
-      <c r="C16" s="11">
-        <v>10.060796666666667</v>
-      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="12">
-        <v>9.2592828571428587</v>
+        <v>11.0192</v>
       </c>
       <c r="E16" s="12">
-        <v>15.22142</v>
+        <v>14.978999999999999</v>
       </c>
       <c r="F16" s="12">
-        <v>7.09619</v>
+        <v>10.795299999999999</v>
       </c>
-      <c r="G16" s="12">
-        <v>14.520400000000002</v>
-      </c>
-      <c r="H16" s="21">
-        <v>13.645518181818181</v>
-      </c>
-      <c r="I16" s="21">
-        <v>11.946854999999998</v>
+      <c r="G16" s="12"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="24">
+        <v>12.264499999999998</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -12165,7 +14788,7 @@
       <c r="H17" s="21">
         <v>7.8437000000000001</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="24">
         <v>11.795909999999999</v>
       </c>
     </row>
@@ -12191,7 +14814,7 @@
       <c r="H18" s="21">
         <v>9.4552849999999999</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="24">
         <v>11.337733999999999</v>
       </c>
     </row>
@@ -12243,7 +14866,7 @@
       <c r="H20" s="21">
         <v>4.8121649999999994</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="24">
         <v>5.0589266666666663</v>
       </c>
     </row>
@@ -12265,7 +14888,7 @@
       <c r="H21" s="21">
         <v>5.7200300000000004</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="24">
         <v>4.8550966666666673</v>
       </c>
     </row>
@@ -12281,7 +14904,7 @@
       <c r="H22" s="21">
         <v>4.2819700000000003</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="24">
         <v>4.2819700000000003</v>
       </c>
     </row>
@@ -12307,7 +14930,7 @@
       <c r="H23" s="21">
         <v>5.0518850000000004</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="24">
         <v>3.86794875</v>
       </c>
     </row>
@@ -12333,7 +14956,7 @@
       <c r="H24" s="21">
         <v>4.9798450000000001</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="24">
         <v>3.6049100000000003</v>
       </c>
     </row>
@@ -12341,17 +14964,17 @@
       <c r="B25" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="11">
         <v>3.1853899999999999</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12">
         <v>3.0426899999999999</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="21">
+      <c r="H25" s="21"/>
+      <c r="I25" s="24">
         <v>3.1140400000000001</v>
       </c>
     </row>
@@ -12360,31 +14983,30 @@
         <v>7</v>
       </c>
       <c r="C26" s="14">
-        <v>11.453762745098034</v>
+        <v>11.592382758620683</v>
       </c>
       <c r="D26" s="15">
-        <v>10.503901730769231</v>
+        <v>10.724852372881353</v>
       </c>
       <c r="E26" s="15">
-        <v>14.959777799999998</v>
+        <v>15.266137321428568</v>
       </c>
       <c r="F26" s="15">
-        <v>12.676920392156864</v>
+        <v>12.690201228070176</v>
       </c>
       <c r="G26" s="15">
-        <v>17.017695918367352</v>
+        <v>17.182118181818183</v>
       </c>
       <c r="H26" s="15">
-        <v>15.739952352941172</v>
+        <v>16.292149482758617</v>
       </c>
       <c r="I26" s="19">
-        <v>13.689017401315789</v>
+        <v>13.91641638483965</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="53" ht="15.75" thickBot="1"/>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25">
+  <conditionalFormatting pivot="1" sqref="C10 C8 C9 C11 C12 C13 C14 C16 C15 C17 C18 C19 C20 C21 C22 C23 C24 C25">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12396,7 +15018,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25">
+  <conditionalFormatting pivot="1" sqref="D10 D8 D9 D11 D12 D13 D14 D16 D15 D17 D18 D19 D20 D21 D22 D23 D24 D25">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12408,7 +15030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25">
+  <conditionalFormatting pivot="1" sqref="E10 E8 E9 E11 E12 E13 E14 E16 E15 E17 E18 E19 E20 E21 E22 E23 E24 E25">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12420,7 +15042,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25">
+  <conditionalFormatting pivot="1" sqref="F10 F8 F9 F11 F12 F13 F14 F16 F15 F17 F18 F19 F20 F21 F22 F23 F24 F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12432,7 +15054,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25">
+  <conditionalFormatting pivot="1" sqref="G10 G8 G9 G11 G12 G13 G14 G16 G15 G17 G18 G19 G20 G21 G22 G23 G24 G25">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12444,7 +15066,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25">
+  <conditionalFormatting pivot="1" sqref="H10 H8 H9 H11 H12 H13 H14 H16 H15 H17 H18 H19 H20 H21 H22 H23 H24 H25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12456,7 +15078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25">
+  <conditionalFormatting pivot="1" sqref="I10 I8 I9 I11 I12 I13 I14 I16 I15 I17 I18 I19 I20 I21 I22 I23 I24 I25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/doc/benchmarks.xlsx
+++ b/doc/benchmarks.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -111,9 +111,6 @@
     <t>Samsung Galaxy Spica</t>
   </si>
   <si>
-    <t>Motorola Droid/Milestone</t>
-  </si>
-  <si>
     <t>HTC Evo 4G</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>HTC Hero/Droid Eris</t>
+  </si>
+  <si>
+    <t>Motorola Milestone/Droid</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -287,18 +287,38 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" pivotButton="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -338,13 +358,14 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="291">
+  <dxfs count="652">
     <dxf>
       <alignment textRotation="70" readingOrder="0"/>
     </dxf>
@@ -806,9 +827,121 @@
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -1398,20 +1531,6 @@
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <right style="medium">
           <color indexed="64"/>
         </right>
@@ -1990,405 +2109,440 @@
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2396,12 +2550,1112 @@
       </font>
     </dxf>
     <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <sz val="14"/>
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2439,6 +3693,417 @@
       </font>
     </dxf>
     <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -2571,17 +4236,342 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <border>
@@ -2610,19 +4600,26 @@
         <top style="medium">
           <color indexed="64"/>
         </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
         <top style="medium">
           <color indexed="64"/>
         </top>
@@ -2632,16 +4629,19 @@
       </border>
     </dxf>
     <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <top style="medium">
           <color indexed="64"/>
         </top>
@@ -2661,19 +4661,9 @@
         <top style="medium">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2693,25 +4683,1058 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2793,13 +5816,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium16 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="290"/>
-      <tableStyleElement type="headerRow" dxfId="289"/>
-      <tableStyleElement type="totalRow" dxfId="288"/>
-      <tableStyleElement type="firstColumn" dxfId="287"/>
-      <tableStyleElement type="lastColumn" dxfId="286"/>
-      <tableStyleElement type="firstRowStripe" dxfId="285"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="284"/>
+      <tableStyleElement type="wholeTable" dxfId="651"/>
+      <tableStyleElement type="headerRow" dxfId="650"/>
+      <tableStyleElement type="totalRow" dxfId="649"/>
+      <tableStyleElement type="firstColumn" dxfId="648"/>
+      <tableStyleElement type="lastColumn" dxfId="647"/>
+      <tableStyleElement type="firstRowStripe" dxfId="646"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="645"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -2990,7 +6013,7 @@
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Motorola Droid/Milestone</c:v>
+                  <c:v>Motorola Milestone/Droid</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>HTC Evo 4G</c:v>
@@ -3041,7 +6064,7 @@
                   <c:v>12.078799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.892949999999999</c:v>
+                  <c:v>12.908599999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13.2644</c:v>
@@ -3053,19 +6076,19 @@
                   <c:v>13.298999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.403597500000002</c:v>
+                  <c:v>10.395528461538463</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8.0224499999999992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3786849999999999</c:v>
+                  <c:v>4.5369599999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4.1948260000000008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1197600000000003</c:v>
+                  <c:v>4.1200933333333341</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.38863</c:v>
@@ -3121,7 +6144,7 @@
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Motorola Droid/Milestone</c:v>
+                  <c:v>Motorola Milestone/Droid</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>HTC Evo 4G</c:v>
@@ -3172,7 +6195,7 @@
                   <c:v>12.1652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.270666666666665</c:v>
+                  <c:v>12.296071428571427</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12.229766666666665</c:v>
@@ -3184,7 +6207,7 @@
                   <c:v>9.7285849999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8110979999999994</c:v>
+                  <c:v>10.036315</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>11.0192</c:v>
@@ -3193,13 +6216,13 @@
                   <c:v>6.6300400000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.6807549999999996</c:v>
+                  <c:v>4.7542866666666663</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4.2086016666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.87686</c:v>
+                  <c:v>3.0599833333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.8887900000000002</c:v>
@@ -3252,7 +6275,7 @@
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Motorola Droid/Milestone</c:v>
+                  <c:v>Motorola Milestone/Droid</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>HTC Evo 4G</c:v>
@@ -3300,7 +6323,7 @@
                   <c:v>19.160787499999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.604580000000002</c:v>
+                  <c:v>15.730000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>15.701433333333332</c:v>
@@ -3312,7 +6335,7 @@
                   <c:v>12.228999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.034561538461539</c:v>
+                  <c:v>16.593566666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>14.978999999999999</c:v>
@@ -3324,10 +6347,13 @@
                   <c:v>10.94285</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.0571299999999999</c:v>
+                  <c:v>5.9749266666666658</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5.1309749999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5903749999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4.9249700000000001</c:v>
@@ -3380,7 +6406,7 @@
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Motorola Droid/Milestone</c:v>
+                  <c:v>Motorola Milestone/Droid</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>HTC Evo 4G</c:v>
@@ -3428,7 +6454,7 @@
                   <c:v>17.907185555555557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.799849999999999</c:v>
+                  <c:v>17.932120000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17.591633333333334</c:v>
@@ -3437,7 +6463,7 @@
                   <c:v>7.3719900000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.146995454545455</c:v>
+                  <c:v>7.1570916666666671</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10.795299999999999</c:v>
@@ -3449,13 +6475,13 @@
                   <c:v>19.357900000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6844199999999994</c:v>
+                  <c:v>6.8872099999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6.5596500000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8046433333333338</c:v>
+                  <c:v>6.2247775000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3.1976900000000001</c:v>
@@ -3508,7 +6534,7 @@
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Motorola Droid/Milestone</c:v>
+                  <c:v>Motorola Milestone/Droid</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>HTC Evo 4G</c:v>
@@ -3559,7 +6585,7 @@
                   <c:v>24.884699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.70378333333333</c:v>
+                  <c:v>18.781014285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17.847966666666668</c:v>
@@ -3571,7 +6597,7 @@
                   <c:v>18.615500000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.803625000000002</c:v>
+                  <c:v>14.935900000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9.7563449999999996</c:v>
@@ -3580,10 +6606,13 @@
                   <c:v>9.6063899999999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5297999999999998</c:v>
+                  <c:v>6.6164866666666668</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5.9314899999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9920299999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4.5509500000000003</c:v>
@@ -3639,7 +6668,7 @@
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Motorola Droid/Milestone</c:v>
+                  <c:v>Motorola Milestone/Droid</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>HTC Evo 4G</c:v>
@@ -3684,10 +6713,10 @@
                   <c:v>31.0808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.519468750000001</c:v>
+                  <c:v>23.023735294117646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.578537500000003</c:v>
+                  <c:v>18.744744444444446</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20.0868</c:v>
@@ -3696,7 +6725,7 @@
                   <c:v>25.3642</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.696914285714286</c:v>
+                  <c:v>14.55965</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7.8437000000000001</c:v>
@@ -3705,13 +6734,13 @@
                   <c:v>9.4552849999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2401400000000002</c:v>
+                  <c:v>5.3767066666666672</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4.8121649999999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7200300000000004</c:v>
+                  <c:v>4.8528500000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4.2819700000000003</c:v>
@@ -3728,25 +6757,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="78029568"/>
-        <c:axId val="78031104"/>
+        <c:axId val="126808832"/>
+        <c:axId val="126810368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78029568"/>
+        <c:axId val="126808832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78031104"/>
+        <c:crossAx val="126810368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78031104"/>
+        <c:axId val="126810368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3760,7 +6789,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78029568"/>
+        <c:crossAx val="126808832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3773,7 +6802,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.25" r="0.25" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.25" r="0.25" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3815,14 +6844,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nico" refreshedDate="40367.500603009263" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="343">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nico" refreshedDate="40368.579163888891" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="376">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="21">
     <cacheField name="id" numFmtId="0" sqlType="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="356"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="389"/>
     </cacheField>
     <cacheField name="timestamp" numFmtId="0" sqlType="11">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-07-02T17:05:18" maxDate="2010-07-08T12:00:31"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-07-02T17:05:18" maxDate="2010-07-09T09:27:58"/>
     </cacheField>
     <cacheField name="benchmark_id" numFmtId="0" sqlType="4">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5" count="6">
@@ -3862,7 +6891,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.5669" maxValue="40.272399999999998"/>
     </cacheField>
     <cacheField name="device_model" numFmtId="0" sqlType="12">
-      <sharedItems count="28">
+      <sharedItems count="29">
         <s v="Nexus One"/>
         <s v="HTC Tattoo"/>
         <s v="T-Mobile G1"/>
@@ -3888,6 +6917,7 @@
         <s v="Hero"/>
         <s v="XT701"/>
         <s v="Eris"/>
+        <s v="'Simply Stunning' Droid"/>
         <s v="" u="1"/>
         <s v="device_model" u="1"/>
         <s v="HTC Nexus One" u="1"/>
@@ -3927,7 +6957,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="device_build_id" numFmtId="0" sqlType="12">
-      <sharedItems count="26">
+      <sharedItems count="27">
         <s v="FRF91"/>
         <s v="DRC79"/>
         <s v="DMD64"/>
@@ -3954,6 +6984,7 @@
         <s v="EPF30"/>
         <s v="SHOLS_U2_03.10.0"/>
         <s v="STCU_31.05.4"/>
+        <s v="SHOLS_U2_02.36.0"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_build" numFmtId="0" sqlType="12">
@@ -4062,31 +7093,32 @@
     </cacheField>
     <cacheField name="Device2" numFmtId="0" databaseField="0">
       <fieldGroup base="6">
-        <discretePr count="28">
+        <discretePr count="29">
           <x v="0"/>
           <x v="1"/>
-          <x v="19"/>
+          <x v="18"/>
           <x v="2"/>
           <x v="3"/>
+          <x v="20"/>
+          <x v="16"/>
           <x v="17"/>
-          <x v="16"/>
-          <x v="18"/>
-          <x v="17"/>
+          <x v="20"/>
           <x v="4"/>
           <x v="5"/>
           <x v="6"/>
           <x v="7"/>
           <x v="8"/>
-          <x v="17"/>
+          <x v="20"/>
           <x v="9"/>
           <x v="10"/>
           <x v="11"/>
+          <x v="18"/>
           <x v="19"/>
-          <x v="20"/>
           <x v="12"/>
-          <x v="18"/>
-          <x v="20"/>
+          <x v="17"/>
+          <x v="19"/>
           <x v="16"/>
+          <x v="19"/>
           <x v="20"/>
           <x v="13"/>
           <x v="14"/>
@@ -4110,10 +7142,10 @@
           <s v="device_model"/>
           <s v="HTC Nexus One"/>
           <s v="Gruppe3"/>
-          <s v="Gruppe2"/>
           <s v="Gruppe4"/>
           <s v="Gruppe5"/>
           <s v="Gruppe1"/>
+          <s v="Gruppe2"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -4122,7 +7154,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="343">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="376">
   <r>
     <n v="16"/>
     <d v="2010-07-02T17:08:17"/>
@@ -11669,11 +14701,737 @@
     <x v="0"/>
     <s v="?"/>
   </r>
+  <r>
+    <n v="357"/>
+    <d v="2010-07-08T17:08:25"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.092000000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032606702"/>
+  </r>
+  <r>
+    <n v="358"/>
+    <d v="2010-07-08T18:38:56"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.23034"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="EPE54B"/>
+    <x v="7"/>
+    <x v="25"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354059020090005"/>
+  </r>
+  <r>
+    <n v="359"/>
+    <d v="2010-07-08T18:39:16"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.8965100000000001"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="EPE54B"/>
+    <x v="7"/>
+    <x v="25"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354059020090005"/>
+  </r>
+  <r>
+    <n v="360"/>
+    <d v="2010-07-08T18:39:53"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.7742499999999999"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="17"/>
+    <s v="EPE54B"/>
+    <x v="7"/>
+    <x v="25"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="354059020090005"/>
+  </r>
+  <r>
+    <n v="361"/>
+    <d v="2010-07-08T19:39:40"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.9856699999999998"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="DRC92"/>
+    <x v="7"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="vodafone/vfpioneer/sapphire/sapphire:1.6/DRC92/15632:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354059020421820"/>
+  </r>
+  <r>
+    <n v="362"/>
+    <d v="2010-07-08T19:40:14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.9920299999999997"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="DRC92"/>
+    <x v="7"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="vodafone/vfpioneer/sapphire/sapphire:1.6/DRC92/15632:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354059020421820"/>
+  </r>
+  <r>
+    <n v="363"/>
+    <d v="2010-07-08T19:40:43"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.4851799999999997"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="DRC92"/>
+    <x v="7"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="vodafone/vfpioneer/sapphire/sapphire:1.6/DRC92/15632:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354059020421820"/>
+  </r>
+  <r>
+    <n v="364"/>
+    <d v="2010-07-08T19:41:09"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.5288400000000002"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="DRC92"/>
+    <x v="7"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="vodafone/vfpioneer/sapphire/sapphire:1.6/DRC92/15632:user/ota-rel-keys,release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="354059020421820"/>
+  </r>
+  <r>
+    <n v="365"/>
+    <d v="2010-07-08T19:41:32"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.2842399999999996"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="DRC92"/>
+    <x v="7"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="vodafone/vfpioneer/sapphire/sapphire:1.6/DRC92/15632:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354059020421820"/>
+  </r>
+  <r>
+    <n v="366"/>
+    <d v="2010-07-08T19:42:05"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.0101800000000001"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="18"/>
+    <s v="DRC92"/>
+    <x v="7"/>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="vodafone/vfpioneer/sapphire/sapphire:1.6/DRC92/15632:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354059020421820"/>
+  </r>
+  <r>
+    <n v="367"/>
+    <d v="2010-07-08T20:22:13"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.85351"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="16"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357988020566027"/>
+  </r>
+  <r>
+    <n v="368"/>
+    <d v="2010-07-08T20:23:02"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.8105200000000004"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="16"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357988020566027"/>
+  </r>
+  <r>
+    <n v="369"/>
+    <d v="2010-07-08T20:23:22"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.9013499999999999"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="16"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="357988020566027"/>
+  </r>
+  <r>
+    <n v="370"/>
+    <d v="2010-07-08T20:23:51"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.2927900000000001"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="16"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357988020566027"/>
+  </r>
+  <r>
+    <n v="371"/>
+    <d v="2010-07-08T20:24:22"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6.78986"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="16"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357988020566027"/>
+  </r>
+  <r>
+    <n v="372"/>
+    <d v="2010-07-08T20:24:52"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.6498400000000002"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="16"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357988020566027"/>
+  </r>
+  <r>
+    <n v="373"/>
+    <d v="2010-07-08T22:51:39"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13.212199999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841036853436"/>
+  </r>
+  <r>
+    <n v="374"/>
+    <d v="2010-07-08T22:52:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.357099999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841036853436"/>
+  </r>
+  <r>
+    <n v="375"/>
+    <d v="2010-07-08T22:52:17"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12.448499999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="357841036853436"/>
+  </r>
+  <r>
+    <n v="376"/>
+    <d v="2010-07-08T22:53:03"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18.461200000000002"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841036853436"/>
+  </r>
+  <r>
+    <n v="377"/>
+    <d v="2010-07-08T22:53:30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.244399999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841036853436"/>
+  </r>
+  <r>
+    <n v="378"/>
+    <d v="2010-07-08T22:54:04"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20.074400000000001"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841036853436"/>
+  </r>
+  <r>
+    <n v="379"/>
+    <d v="2010-07-09T02:18:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12.6676"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="o2_de/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841037491830"/>
+  </r>
+  <r>
+    <n v="380"/>
+    <d v="2010-07-09T07:24:25"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="25.277100000000001"/>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="20"/>
+    <s v="ChevyNo1 -&gt; Simply Stunning v4.3 - FRF57 Built from Source Code - 07-01-2010"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A0000015D4B20E"/>
+  </r>
+  <r>
+    <n v="381"/>
+    <d v="2010-07-09T07:24:45"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11.8995"/>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="20"/>
+    <s v="ChevyNo1 -&gt; Simply Stunning v4.3 - FRF57 Built from Source Code - 07-01-2010"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A0000015D4B20E"/>
+  </r>
+  <r>
+    <n v="382"/>
+    <d v="2010-07-09T07:25:13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17.100999999999999"/>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="20"/>
+    <s v="ChevyNo1 -&gt; Simply Stunning v4.3 - FRF57 Built from Source Code - 07-01-2010"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A0000015D4B20E"/>
+  </r>
+  <r>
+    <n v="383"/>
+    <d v="2010-07-09T08:34:19"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13.609500000000001"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A0000015CF9E83"/>
+  </r>
+  <r>
+    <n v="384"/>
+    <d v="2010-07-09T08:34:57"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.4253"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A0000015CF9E83"/>
+  </r>
+  <r>
+    <n v="385"/>
+    <d v="2010-07-09T09:26:03"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.2987"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="26"/>
+    <s v="SHOLS_U2_02.36.0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635030618610"/>
+  </r>
+  <r>
+    <n v="386"/>
+    <d v="2010-07-09T09:26:24"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.177099999999999"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="26"/>
+    <s v="SHOLS_U2_02.36.0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635030618610"/>
+  </r>
+  <r>
+    <n v="387"/>
+    <d v="2010-07-09T09:26:55"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.2681500000000003"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="26"/>
+    <s v="SHOLS_U2_02.36.0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635030618610"/>
+  </r>
+  <r>
+    <n v="388"/>
+    <d v="2010-07-09T09:27:25"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14.3581"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="26"/>
+    <s v="SHOLS_U2_02.36.0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635030618610"/>
+  </r>
+  <r>
+    <n v="389"/>
+    <d v="2010-07-09T09:27:58"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13.588100000000001"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="26"/>
+    <s v="SHOLS_U2_02.36.0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635030618610"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Benchmarks" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" grandTotalCaption="Average" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Device" colHeaderCaption="Bench" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Benchmarks" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" grandTotalCaption="Average" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Device" colHeaderCaption="Bench" fieldListSortAscending="1">
   <location ref="B6:I26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -11689,7 +15447,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField name="Benchmark Version" axis="axisPage" showAll="0">
+    <pivotField name="Benchmark Version" axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="10">
         <item x="2"/>
         <item x="3"/>
@@ -11706,11 +15464,11 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0" countASubtotal="1"/>
     <pivotField name="Device" axis="axisRow" showAll="0">
-      <items count="29">
+      <items count="30">
         <item x="17"/>
+        <item m="1" x="28"/>
         <item m="1" x="27"/>
         <item m="1" x="26"/>
-        <item m="1" x="25"/>
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item x="2"/>
@@ -11735,6 +15493,7 @@
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
+        <item x="25"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11795,10 +15554,10 @@
         <item n="HTC Incredible" sd="0" x="7"/>
         <item x="13"/>
         <item n="Motorola XT720/701" sd="0" x="16"/>
-        <item n="Motorola Droid/Milestone" sd="0" x="17"/>
-        <item n="HTC Magic" sd="0" x="18"/>
-        <item n="HTC Dream (G1)" sd="0" x="19"/>
-        <item n="HTC Hero/Droid Eris" sd="0" x="20"/>
+        <item n="HTC Magic" sd="0" x="17"/>
+        <item n="HTC Dream (G1)" sd="0" x="18"/>
+        <item n="HTC Hero/Droid Eris" sd="0" x="19"/>
+        <item n="Motorola Milestone/Droid" sd="0" x="20"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -11838,7 +15597,7 @@
       <x/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="20"/>
     </i>
     <i>
       <x v="10"/>
@@ -11850,13 +15609,13 @@
       <x v="11"/>
     </i>
     <i>
-      <x v="20"/>
-    </i>
-    <i>
       <x v="19"/>
     </i>
     <i>
       <x v="18"/>
+    </i>
+    <i>
+      <x v="17"/>
     </i>
     <i>
       <x v="12"/>
@@ -11908,168 +15667,168 @@
   <dataFields count="1">
     <dataField name="FPS" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
-  <formats count="71">
-    <format dxfId="283">
+  <formats count="70">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="282">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="281">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="280">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="279">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="278">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="277">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="276">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="275">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="274">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="273">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="272">
+    <format dxfId="11">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="271">
+    <format dxfId="12">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="270">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="269">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="268">
+    <format dxfId="15">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="267">
+    <format dxfId="16">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="266">
+    <format dxfId="17">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="265">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="264">
+    <format dxfId="19">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="263">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="262">
+    <format dxfId="21">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="261">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="260">
+    <format dxfId="23">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="259">
+    <format dxfId="24">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="258">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="257">
+    <format dxfId="26">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="256">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="255">
+    <format dxfId="28">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="254">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="253">
+    <format dxfId="30">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="252">
+    <format dxfId="31">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="251">
+    <format dxfId="32">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="250">
+    <format dxfId="33">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="249">
+    <format dxfId="34">
       <pivotArea field="6" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="248">
+    <format dxfId="35">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="247">
+    <format dxfId="36">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -12078,7 +15837,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="246">
+    <format dxfId="37">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -12087,7 +15846,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="245">
+    <format dxfId="38">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -12096,7 +15855,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="244">
+    <format dxfId="39">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -12105,7 +15864,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="243">
+    <format dxfId="40">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -12114,7 +15873,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="242">
+    <format dxfId="41">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -12123,7 +15882,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="241">
+    <format dxfId="42">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -12132,7 +15891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="240">
+    <format dxfId="43">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -12141,7 +15900,34 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="239">
+    <format dxfId="44">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="45">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="46">
+      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
+        <references count="1">
+          <reference field="20" count="1">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="47">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -12150,43 +15936,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="238">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="237">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="236">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="19"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="235">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="18"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="234">
+    <format dxfId="48">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -12195,7 +15945,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="233">
+    <format dxfId="49">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -12204,7 +15954,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="232">
+    <format dxfId="50">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -12213,7 +15963,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="231">
+    <format dxfId="51">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -12222,7 +15972,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="230">
+    <format dxfId="52">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -12232,7 +15982,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="229">
+    <format dxfId="53">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -12242,17 +16002,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="228">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="227">
+    <format dxfId="55">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -12262,7 +16012,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="226">
+    <format dxfId="56">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -12272,7 +16022,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="225">
+    <format dxfId="57">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -12282,7 +16032,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="224">
+    <format dxfId="58">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -12292,7 +16042,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="223">
+    <format dxfId="59">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -12302,7 +16062,47 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="222">
+    <format dxfId="61">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="64">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -12312,57 +16112,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="221">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="220">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="219">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="20"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="218">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="19"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="217">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="18"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="216">
+    <format dxfId="66">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -12372,7 +16122,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="215">
+    <format dxfId="67">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -12382,7 +16132,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="214">
+    <format dxfId="68">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -12392,7 +16142,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="213">
+    <format dxfId="69">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -12404,182 +16154,1188 @@
     </format>
   </formats>
   <conditionalFormats count="7">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="7">
       <pivotAreas count="18">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
             <reference field="20" count="1">
               <x v="9"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
             <reference field="20" count="1">
               <x v="2"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="16"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="12"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="6">
+      <pivotAreas count="18">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
             <reference field="20" count="1">
               <x v="1"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
             <reference field="20" count="1">
               <x v="7"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
             <reference field="20" count="1">
               <x v="14"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
             <reference field="20" count="1">
               <x v="16"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
             <reference field="20" count="1">
               <x v="0"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
             <reference field="20" count="1">
               <x v="10"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
             <reference field="20" count="1">
               <x v="17"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="12"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="5">
+      <pivotAreas count="18">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="16"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
             <reference field="20" count="1">
               <x v="6"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
             <reference field="20" count="1">
               <x v="11"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="12"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="4">
+      <pivotAreas count="18">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="16"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
             <reference field="20" count="1">
               <x v="20"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
             <reference field="20" count="1">
               <x v="19"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
             <reference field="20" count="1">
               <x v="18"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
             <reference field="20" count="1">
               <x v="12"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
             <reference field="20" count="1">
               <x v="8"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
             <reference field="20" count="1">
               <x v="4"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="3">
+      <pivotAreas count="18">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="16"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="12"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
             </reference>
             <reference field="20" count="1">
               <x v="3"/>
@@ -12612,7 +17368,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="2"/>
+              <x v="1"/>
             </reference>
           </references>
         </pivotArea>
@@ -12625,7 +17381,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="1"/>
+              <x v="2"/>
             </reference>
           </references>
         </pivotArea>
@@ -12690,7 +17446,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="10"/>
+              <x v="20"/>
             </reference>
           </references>
         </pivotArea>
@@ -12703,7 +17459,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="17"/>
+              <x v="10"/>
             </reference>
           </references>
         </pivotArea>
@@ -12742,7 +17498,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="20"/>
+              <x v="19"/>
             </reference>
           </references>
         </pivotArea>
@@ -12755,7 +17511,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="19"/>
+              <x v="18"/>
             </reference>
           </references>
         </pivotArea>
@@ -12768,7 +17524,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="18"/>
+              <x v="17"/>
             </reference>
           </references>
         </pivotArea>
@@ -12826,1187 +17582,181 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
             <reference field="20" count="1">
               <x v="9"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
+            <reference field="20" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="2"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
             <reference field="20" count="1">
-              <x v="1"/>
+              <x v="7"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
             <reference field="20" count="1">
-              <x v="7"/>
+              <x v="14"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
             <reference field="20" count="1">
-              <x v="14"/>
+              <x v="16"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
             <reference field="20" count="1">
-              <x v="16"/>
+              <x v="0"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
             <reference field="20" count="1">
-              <x v="0"/>
+              <x v="20"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
             <reference field="20" count="1">
               <x v="10"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
+            <reference field="20" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="17"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
             <reference field="20" count="1">
-              <x v="6"/>
+              <x v="12"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
             <reference field="20" count="1">
-              <x v="11"/>
+              <x v="8"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
+            <reference field="20" count="1">
               <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
             </reference>
           </references>
         </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
             <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="4">
-      <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="5">
-      <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="6">
-      <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="7">
-      <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
@@ -14475,8 +18225,8 @@
   </sheetPr>
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14574,7 +18324,7 @@
       <c r="H8" s="22">
         <v>31.0808</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>28.305033333333331</v>
       </c>
     </row>
@@ -14598,10 +18348,10 @@
         <v>24.973653333333335</v>
       </c>
       <c r="H9" s="21">
-        <v>23.519468750000001</v>
+        <v>23.023735294117646</v>
       </c>
-      <c r="I9" s="24">
-        <v>19.140817647058828</v>
+      <c r="I9" s="21">
+        <v>19.101508737864084</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -14620,7 +18370,7 @@
         <v>24.884699999999999</v>
       </c>
       <c r="H10" s="21"/>
-      <c r="I10" s="24">
+      <c r="I10" s="21">
         <v>16.376233333333332</v>
       </c>
     </row>
@@ -14629,25 +18379,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="11">
-        <v>12.892949999999999</v>
+        <v>12.908599999999998</v>
       </c>
       <c r="D11" s="12">
-        <v>12.270666666666665</v>
+        <v>12.296071428571427</v>
       </c>
       <c r="E11" s="12">
-        <v>15.604580000000002</v>
+        <v>15.730000000000002</v>
       </c>
       <c r="F11" s="12">
-        <v>17.799849999999999</v>
+        <v>17.932120000000001</v>
       </c>
       <c r="G11" s="12">
-        <v>18.70378333333333</v>
+        <v>18.781014285714285</v>
       </c>
       <c r="H11" s="21">
-        <v>18.578537500000003</v>
+        <v>18.744744444444446</v>
       </c>
-      <c r="I11" s="24">
-        <v>16.220275757575756</v>
+      <c r="I11" s="21">
+        <v>16.193362499999999</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -14672,7 +18422,7 @@
       <c r="H12" s="21">
         <v>20.0868</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="21">
         <v>15.887011764705884</v>
       </c>
     </row>
@@ -14698,7 +18448,7 @@
       <c r="H13" s="21">
         <v>25.3642</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="21">
         <v>15.206027142857142</v>
       </c>
     </row>
@@ -14720,39 +18470,39 @@
         <v>18.615500000000001</v>
       </c>
       <c r="H14" s="21"/>
-      <c r="I14" s="24">
+      <c r="I14" s="21">
         <v>13.702695</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" s="11">
-        <v>10.403597500000002</v>
+        <v>10.395528461538463</v>
       </c>
       <c r="D15" s="12">
-        <v>9.8110979999999994</v>
+        <v>10.036315</v>
       </c>
       <c r="E15" s="12">
-        <v>16.034561538461539</v>
+        <v>16.593566666666668</v>
       </c>
       <c r="F15" s="12">
-        <v>7.146995454545455</v>
+        <v>7.1570916666666671</v>
       </c>
       <c r="G15" s="12">
-        <v>14.803625000000002</v>
+        <v>14.935900000000002</v>
       </c>
       <c r="H15" s="21">
-        <v>14.696914285714286</v>
+        <v>14.55965</v>
       </c>
-      <c r="I15" s="24">
-        <v>12.408620833333336</v>
+      <c r="I15" s="21">
+        <v>12.590527439024392</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12">
@@ -14766,7 +18516,7 @@
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="21"/>
-      <c r="I16" s="24">
+      <c r="I16" s="21">
         <v>12.264499999999998</v>
       </c>
     </row>
@@ -14788,7 +18538,7 @@
       <c r="H17" s="21">
         <v>7.8437000000000001</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="21">
         <v>11.795909999999999</v>
       </c>
     </row>
@@ -14814,39 +18564,39 @@
       <c r="H18" s="21">
         <v>9.4552849999999999</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="21">
         <v>11.337733999999999</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="11">
-        <v>4.3786849999999999</v>
+        <v>4.5369599999999997</v>
       </c>
       <c r="D19" s="12">
-        <v>4.6807549999999996</v>
+        <v>4.7542866666666663</v>
       </c>
       <c r="E19" s="12">
-        <v>6.0571299999999999</v>
+        <v>5.9749266666666658</v>
       </c>
       <c r="F19" s="12">
-        <v>6.6844199999999994</v>
+        <v>6.8872099999999996</v>
       </c>
       <c r="G19" s="12">
-        <v>6.5297999999999998</v>
+        <v>6.6164866666666668</v>
       </c>
       <c r="H19" s="21">
-        <v>5.2401400000000002</v>
+        <v>5.3767066666666672</v>
       </c>
       <c r="I19" s="21">
-        <v>5.595155000000001</v>
+        <v>5.6910961111111114</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="11">
         <v>4.1948260000000008</v>
@@ -14866,7 +18616,7 @@
       <c r="H20" s="21">
         <v>4.8121649999999994</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="21">
         <v>5.0589266666666663</v>
       </c>
     </row>
@@ -14875,21 +18625,25 @@
         <v>17</v>
       </c>
       <c r="C21" s="11">
-        <v>4.1197600000000003</v>
+        <v>4.1200933333333341</v>
       </c>
       <c r="D21" s="12">
-        <v>1.87686</v>
+        <v>3.0599833333333333</v>
       </c>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12">
+        <v>5.5903749999999999</v>
+      </c>
       <c r="F21" s="12">
-        <v>5.8046433333333338</v>
+        <v>6.2247775000000001</v>
       </c>
-      <c r="G21" s="12"/>
+      <c r="G21" s="12">
+        <v>4.9920299999999997</v>
+      </c>
       <c r="H21" s="21">
-        <v>5.7200300000000004</v>
+        <v>4.8528500000000001</v>
       </c>
-      <c r="I21" s="24">
-        <v>4.8550966666666673</v>
+      <c r="I21" s="21">
+        <v>4.8211880000000003</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -14904,7 +18658,7 @@
       <c r="H22" s="21">
         <v>4.2819700000000003</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="21">
         <v>4.2819700000000003</v>
       </c>
     </row>
@@ -14930,7 +18684,7 @@
       <c r="H23" s="21">
         <v>5.0518850000000004</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="21">
         <v>3.86794875</v>
       </c>
     </row>
@@ -14956,7 +18710,7 @@
       <c r="H24" s="21">
         <v>4.9798450000000001</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="21">
         <v>3.6049100000000003</v>
       </c>
     </row>
@@ -14964,17 +18718,17 @@
       <c r="B25" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="23">
         <v>3.1853899999999999</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24">
         <v>3.0426899999999999</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="24">
+      <c r="H25" s="25"/>
+      <c r="I25" s="21">
         <v>3.1140400000000001</v>
       </c>
     </row>
@@ -14983,30 +18737,32 @@
         <v>7</v>
       </c>
       <c r="C26" s="14">
-        <v>11.592382758620683</v>
+        <v>11.275480156249996</v>
       </c>
       <c r="D26" s="15">
-        <v>10.724852372881353</v>
+        <v>10.457600461538458</v>
       </c>
       <c r="E26" s="15">
-        <v>15.266137321428568</v>
+        <v>14.979133225806446</v>
       </c>
       <c r="F26" s="15">
-        <v>12.690201228070176</v>
+        <v>12.522111311475413</v>
       </c>
       <c r="G26" s="15">
-        <v>17.182118181818183</v>
+        <v>16.79169816666667</v>
       </c>
       <c r="H26" s="15">
-        <v>16.292149482758617</v>
+        <v>15.889752812499999</v>
       </c>
       <c r="I26" s="19">
-        <v>13.91641638483965</v>
+        <v>13.612701808510639</v>
       </c>
     </row>
+    <row r="29" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="30" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="53" ht="15.75" thickBot="1"/>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="C10 C8 C9 C11 C12 C13 C14 C16 C15 C17 C18 C19 C20 C21 C22 C23 C24 C25">
+  <conditionalFormatting pivot="1" sqref="C9 C8 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -15018,7 +18774,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="D10 D8 D9 D11 D12 D13 D14 D16 D15 D17 D18 D19 D20 D21 D22 D23 D24 D25">
+  <conditionalFormatting pivot="1" sqref="D9 D8 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -15030,7 +18786,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="E10 E8 E9 E11 E12 E13 E14 E16 E15 E17 E18 E19 E20 E21 E22 E23 E24 E25">
+  <conditionalFormatting pivot="1" sqref="E9 E8 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -15042,7 +18798,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="F10 F8 F9 F11 F12 F13 F14 F16 F15 F17 F18 F19 F20 F21 F22 F23 F24 F25">
+  <conditionalFormatting pivot="1" sqref="F9 F8 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -15054,7 +18810,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="G10 G8 G9 G11 G12 G13 G14 G16 G15 G17 G18 G19 G20 G21 G22 G23 G24 G25">
+  <conditionalFormatting pivot="1" sqref="G9 G8 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -15066,7 +18822,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="H10 H8 H9 H11 H12 H13 H14 H16 H15 H17 H18 H19 H20 H21 H22 H23 H24 H25">
+  <conditionalFormatting pivot="1" sqref="H9 H8 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -15078,7 +18834,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="I10 I8 I9 I11 I12 I13 I14 I16 I15 I17 I18 I19 I20 I21 I22 I23 I24 I25">
+  <conditionalFormatting pivot="1" sqref="I9 I8 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/doc/benchmarks.xlsx
+++ b/doc/benchmarks.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>TickerText</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Motorola Milestone/Droid</t>
+  </si>
+  <si>
+    <t>Nuvifone A50</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,259 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="652">
+  <dxfs count="581">
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <alignment textRotation="70" readingOrder="0"/>
     </dxf>
@@ -945,132 +1200,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
       <alignment textRotation="70" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3383,6 +3512,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
       <alignment textRotation="70" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3961,6 +4097,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
       <alignment textRotation="70" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4421,411 +4564,278 @@
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -4863,307 +4873,149 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -5192,26 +5044,19 @@
         <top style="medium">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <top style="medium">
           <color indexed="64"/>
         </top>
@@ -5221,19 +5066,16 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
         <top style="medium">
           <color indexed="64"/>
         </top>
@@ -5253,9 +5095,19 @@
         <top style="medium">
           <color indexed="64"/>
         </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -5275,466 +5127,25 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -5816,13 +5227,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium16 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="651"/>
-      <tableStyleElement type="headerRow" dxfId="650"/>
-      <tableStyleElement type="totalRow" dxfId="649"/>
-      <tableStyleElement type="firstColumn" dxfId="648"/>
-      <tableStyleElement type="lastColumn" dxfId="647"/>
-      <tableStyleElement type="firstRowStripe" dxfId="646"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="645"/>
+      <tableStyleElement type="wholeTable" dxfId="580"/>
+      <tableStyleElement type="headerRow" dxfId="579"/>
+      <tableStyleElement type="totalRow" dxfId="578"/>
+      <tableStyleElement type="firstColumn" dxfId="577"/>
+      <tableStyleElement type="lastColumn" dxfId="576"/>
+      <tableStyleElement type="firstRowStripe" dxfId="575"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="574"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -5988,9 +5399,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$26</c:f>
+              <c:f>Benchmarks!$B$8:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -6001,22 +5412,22 @@
                   <c:v>Acer Liquid</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>HTC Incredible</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>HTC Desire</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>HTC Incredible</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Motorola XT720/701</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>HTC Evo 4G</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Motorola Milestone/Droid</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>HTC Evo 4G</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>HTC Legend</c:v>
@@ -6025,24 +5436,27 @@
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Nuvifone A50</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>HTC Dream (G1)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>HTC Magic</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Docomo HT-03A</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Samsung Galaxy Spica</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>HTC Wildfire</c:v>
                 </c:pt>
               </c:strCache>
@@ -6050,53 +5464,59 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$C$8:$C$26</c:f>
+              <c:f>Benchmarks!$C$8:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>23.908349999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.177578947368421</c:v>
+                  <c:v>16.153445454545459</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.078799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.908599999999998</c:v>
+                  <c:v>13.2644</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.2644</c:v>
+                  <c:v>12.297079</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>12.5755</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>12.1503</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>13.298999999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.395528461538463</c:v>
+                <c:pt idx="8">
+                  <c:v>10.533140714285716</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8.0224499999999992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5369599999999997</c:v>
+                  <c:v>7.3076100000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1948260000000008</c:v>
+                  <c:v>5.057993999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>4.2038283333333339</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>4.1200933333333341</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>2.38863</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>3.8895749999999998</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>3.1853899999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -6119,9 +5539,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$26</c:f>
+              <c:f>Benchmarks!$B$8:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -6132,22 +5552,22 @@
                   <c:v>Acer Liquid</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>HTC Incredible</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>HTC Desire</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>HTC Incredible</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Motorola XT720/701</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>HTC Evo 4G</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Motorola Milestone/Droid</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>HTC Evo 4G</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>HTC Legend</c:v>
@@ -6156,24 +5576,27 @@
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Nuvifone A50</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>HTC Dream (G1)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>HTC Magic</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Docomo HT-03A</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Samsung Galaxy Spica</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>HTC Wildfire</c:v>
                 </c:pt>
               </c:strCache>
@@ -6181,53 +5604,56 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$D$8:$D$26</c:f>
+              <c:f>Benchmarks!$D$8:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>24.684950000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.73173111111111</c:v>
+                  <c:v>14.774345263157894</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.1652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.296071428571427</c:v>
+                  <c:v>12.229766666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.229766666666665</c:v>
+                  <c:v>11.433886666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10.7736</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>11.2333</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>9.7285849999999989</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.036315</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.0192</c:v>
+                  <c:v>10.201606153846154</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6.6300400000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7542866666666663</c:v>
+                  <c:v>5.6898900000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2086016666666666</c:v>
+                  <c:v>4.9686666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>4.192392857142857</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3.0599833333333333</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>2.8887900000000002</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>2.4960599999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -6250,9 +5676,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$26</c:f>
+              <c:f>Benchmarks!$B$8:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -6263,22 +5689,22 @@
                   <c:v>Acer Liquid</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>HTC Incredible</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>HTC Desire</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>HTC Incredible</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Motorola XT720/701</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>HTC Evo 4G</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Motorola Milestone/Droid</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>HTC Evo 4G</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>HTC Legend</c:v>
@@ -6287,24 +5713,27 @@
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Nuvifone A50</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>HTC Dream (G1)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>HTC Magic</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Docomo HT-03A</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Samsung Galaxy Spica</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>HTC Wildfire</c:v>
                 </c:pt>
               </c:strCache>
@@ -6312,33 +5741,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$E$8:$E$26</c:f>
+              <c:f>Benchmarks!$E$8:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>33.08175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.160787499999998</c:v>
+                  <c:v>19.138823529411763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.730000000000002</c:v>
+                  <c:v>15.701433333333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.701433333333332</c:v>
+                  <c:v>15.406320000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>17.708550000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>14.893899999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>12.228999999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.593566666666668</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.978999999999999</c:v>
+                  <c:v>16.916487500000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9.7283600000000003</c:v>
@@ -6347,18 +5776,21 @@
                   <c:v>10.94285</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9749266666666658</c:v>
+                  <c:v>11.763299999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1309749999999994</c:v>
+                  <c:v>6.2735974999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>5.263916</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>5.5903749999999999</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>4.9249700000000001</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>5.5962666666666658</c:v>
                 </c:pt>
               </c:numCache>
@@ -6381,9 +5813,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$26</c:f>
+              <c:f>Benchmarks!$B$8:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -6394,22 +5826,22 @@
                   <c:v>Acer Liquid</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>HTC Incredible</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>HTC Desire</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>HTC Incredible</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Motorola XT720/701</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>HTC Evo 4G</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Motorola Milestone/Droid</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>HTC Evo 4G</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>HTC Legend</c:v>
@@ -6418,24 +5850,27 @@
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Nuvifone A50</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>HTC Dream (G1)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>HTC Magic</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Docomo HT-03A</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Samsung Galaxy Spica</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>HTC Wildfire</c:v>
                 </c:pt>
               </c:strCache>
@@ -6443,30 +5878,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$F$8:$F$26</c:f>
+              <c:f>Benchmarks!$F$8:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>24.061250000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.907185555555557</c:v>
+                  <c:v>18.086912000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.932120000000001</c:v>
+                  <c:v>17.591633333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.591633333333334</c:v>
+                  <c:v>18.296055555555554</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7.3719900000000003</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="6">
+                  <c:v>14.666499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>7.1570916666666671</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.795299999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21.8948</c:v>
@@ -6475,18 +5910,21 @@
                   <c:v>19.357900000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8872099999999996</c:v>
+                  <c:v>14.8971</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5596500000000004</c:v>
+                  <c:v>7.1158760000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>6.6812950000000013</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>6.2247775000000001</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>3.1976900000000001</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>1.5805933333333335</c:v>
                 </c:pt>
               </c:numCache>
@@ -6509,9 +5947,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$26</c:f>
+              <c:f>Benchmarks!$B$8:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -6522,22 +5960,22 @@
                   <c:v>Acer Liquid</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>HTC Incredible</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>HTC Desire</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>HTC Incredible</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Motorola XT720/701</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>HTC Evo 4G</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Motorola Milestone/Droid</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>HTC Evo 4G</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>HTC Legend</c:v>
@@ -6546,24 +5984,27 @@
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Nuvifone A50</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>HTC Dream (G1)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>HTC Magic</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Docomo HT-03A</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Samsung Galaxy Spica</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>HTC Wildfire</c:v>
                 </c:pt>
               </c:strCache>
@@ -6571,33 +6012,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$G$8:$G$26</c:f>
+              <c:f>Benchmarks!$G$8:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>33.013099999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.973653333333335</c:v>
+                  <c:v>24.953729411764709</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>24.884699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.781014285714285</c:v>
+                  <c:v>17.847966666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.847966666666668</c:v>
+                  <c:v>17.734790909090908</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14.9398</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>17.305499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>18.615500000000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.935900000000002</c:v>
+                <c:pt idx="8">
+                  <c:v>15.087406666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9.7563449999999996</c:v>
@@ -6606,21 +6050,24 @@
                   <c:v>9.6063899999999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6164866666666668</c:v>
+                  <c:v>10.223100000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.9314899999999993</c:v>
+                  <c:v>6.5940475000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>5.8949074999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>4.9920299999999997</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>4.5509500000000003</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>3.3733599999999999</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>3.0426899999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -6643,9 +6090,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$26</c:f>
+              <c:f>Benchmarks!$B$8:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -6656,22 +6103,22 @@
                   <c:v>Acer Liquid</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>HTC Incredible</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>HTC Desire</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>HTC Incredible</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Motorola XT720/701</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>HTC Evo 4G</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Sony Ericsson X10i</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Motorola Milestone/Droid</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>HTC Evo 4G</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>HTC Legend</c:v>
@@ -6680,24 +6127,27 @@
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Nuvifone A50</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>HTC Dream (G1)</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>HTC Magic</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>Docomo HT-03A</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Samsung Galaxy Spica</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>HTC Wildfire</c:v>
                 </c:pt>
               </c:strCache>
@@ -6705,27 +6155,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$H$8:$H$26</c:f>
+              <c:f>Benchmarks!$H$8:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>31.0808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.023735294117646</c:v>
+                  <c:v>23.114431578947368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.744744444444446</c:v>
+                  <c:v>20.0868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.0868</c:v>
+                  <c:v>18.814825000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25.3642</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.0914</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.55965</c:v>
+                  <c:v>16.570699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.067394117647057</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7.8437000000000001</c:v>
@@ -6734,21 +6190,24 @@
                   <c:v>9.4552849999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3767066666666672</c:v>
+                  <c:v>8.0161899999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8121649999999994</c:v>
+                  <c:v>5.74648</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>4.668812</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>4.8528500000000001</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>4.2819700000000003</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>5.0518850000000004</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>4.9798450000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -6757,25 +6216,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="126808832"/>
-        <c:axId val="126810368"/>
+        <c:axId val="78853248"/>
+        <c:axId val="78854784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126808832"/>
+        <c:axId val="78853248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126810368"/>
+        <c:crossAx val="78854784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126810368"/>
+        <c:axId val="78854784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6789,7 +6248,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="126808832"/>
+        <c:crossAx val="78853248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6802,7 +6261,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.25" r="0.25" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.25" r="0.25" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -6844,14 +6303,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nico" refreshedDate="40368.579163888891" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="376">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nico" refreshedDate="40371.428479629627" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="446">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="21">
     <cacheField name="id" numFmtId="0" sqlType="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="389"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="459"/>
     </cacheField>
     <cacheField name="timestamp" numFmtId="0" sqlType="11">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-07-02T17:05:18" maxDate="2010-07-09T09:27:58"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-07-02T17:05:18" maxDate="2010-07-12T05:35:01"/>
     </cacheField>
     <cacheField name="benchmark_id" numFmtId="0" sqlType="4">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5" count="6">
@@ -6864,7 +6323,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="benchmark_versionname" numFmtId="0" sqlType="12">
-      <sharedItems count="9">
+      <sharedItems count="11">
         <s v="1.1.5"/>
         <s v="1.1.1"/>
         <s v="1.1.4"/>
@@ -6872,12 +6331,14 @@
         <s v="1.1.0"/>
         <s v="1.0.9"/>
         <s v="1.1.6"/>
+        <s v="1.1.9"/>
+        <s v="1.2.0"/>
         <s v="" u="1"/>
         <s v="benchmark_versionname" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="benchmark_versioncode" numFmtId="0" sqlType="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="16" count="7">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="20" count="9">
         <n v="15"/>
         <n v="11"/>
         <n v="14"/>
@@ -6885,13 +6346,15 @@
         <n v="10"/>
         <n v="9"/>
         <n v="16"/>
+        <n v="19"/>
+        <n v="20"/>
       </sharedItems>
     </cacheField>
     <cacheField name="benchmark_fps" numFmtId="0" sqlType="7">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.5669" maxValue="40.272399999999998"/>
     </cacheField>
     <cacheField name="device_model" numFmtId="0" sqlType="12">
-      <sharedItems count="29">
+      <sharedItems count="31">
         <s v="Nexus One"/>
         <s v="HTC Tattoo"/>
         <s v="T-Mobile G1"/>
@@ -6918,6 +6381,8 @@
         <s v="XT701"/>
         <s v="Eris"/>
         <s v="'Simply Stunning' Droid"/>
+        <s v="Garminfone"/>
+        <s v="FroyoEris"/>
         <s v="" u="1"/>
         <s v="device_model" u="1"/>
         <s v="HTC Nexus One" u="1"/>
@@ -6925,7 +6390,7 @@
       <fieldGroup par="20"/>
     </cacheField>
     <cacheField name="device_android_version" numFmtId="0" sqlType="12">
-      <sharedItems count="10">
+      <sharedItems count="11">
         <s v="2.2"/>
         <s v="1.6"/>
         <s v="2.1-update1"/>
@@ -6933,6 +6398,7 @@
         <s v="Hero_2.18_Hiapk"/>
         <s v="VanillaEclair 4.0"/>
         <s v="Itfunz2.1_Eclipse_NewBegin_Final_SP2"/>
+        <s v="VillainROM6.2.2"/>
         <s v="" u="1"/>
         <s v="device_android_version_2" u="1"/>
         <s v="device_android_version" u="1"/>
@@ -6946,18 +6412,19 @@
       </sharedItems>
     </cacheField>
     <cacheField name="device_manufacturer" numFmtId="0" sqlType="12">
-      <sharedItems count="7">
+      <sharedItems count="8">
         <s v="HTC"/>
         <s v="Acer"/>
         <s v="samsung"/>
         <s v="Motorola"/>
         <s v="Sony Ericsson"/>
+        <s v="garmin-asus"/>
         <s v="" u="1"/>
         <s v="device_manufacturer" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_build_id" numFmtId="0" sqlType="12">
-      <sharedItems count="27">
+      <sharedItems count="30">
         <s v="FRF91"/>
         <s v="DRC79"/>
         <s v="DMD64"/>
@@ -6985,13 +6452,16 @@
         <s v="SHOLS_U2_03.10.0"/>
         <s v="STCU_31.05.4"/>
         <s v="SHOLS_U2_02.36.0"/>
+        <s v="R2BA023"/>
+        <s v="FRF84B"/>
+        <s v="unknown"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_build" numFmtId="0" sqlType="12">
       <sharedItems/>
     </cacheField>
     <cacheField name="device_device" numFmtId="0" sqlType="12">
-      <sharedItems count="20">
+      <sharedItems count="21">
         <s v="passion"/>
         <s v="bahamas"/>
         <s v="dream"/>
@@ -7012,10 +6482,11 @@
         <s v="supersonic"/>
         <s v="choles"/>
         <s v="desirec"/>
+        <s v="a50"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_product" numFmtId="0" sqlType="12">
-      <sharedItems count="28">
+      <sharedItems count="30">
         <s v="passion"/>
         <s v="htc_tattoo"/>
         <s v="kila"/>
@@ -7044,6 +6515,8 @@
         <s v="opal"/>
         <s v="choles"/>
         <s v="htc_desirec"/>
+        <s v="X10_1237-0692"/>
+        <s v="a50"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_cpuabi" numFmtId="0" sqlType="12">
@@ -7053,7 +6526,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="device_board" numFmtId="0" sqlType="12">
-      <sharedItems count="18">
+      <sharedItems count="19">
         <s v="mahimahi"/>
         <s v="bahamas"/>
         <s v="trout"/>
@@ -7072,6 +6545,7 @@
         <s v="supersonic"/>
         <s v="choles"/>
         <s v="desirec"/>
+        <s v="A50"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_fingerprint" numFmtId="0" sqlType="12">
@@ -7093,38 +6567,40 @@
     </cacheField>
     <cacheField name="Device2" numFmtId="0" databaseField="0">
       <fieldGroup base="6">
-        <discretePr count="29">
+        <discretePr count="31">
           <x v="0"/>
           <x v="1"/>
           <x v="18"/>
           <x v="2"/>
           <x v="3"/>
-          <x v="20"/>
+          <x v="19"/>
           <x v="16"/>
           <x v="17"/>
-          <x v="20"/>
+          <x v="19"/>
           <x v="4"/>
           <x v="5"/>
           <x v="6"/>
           <x v="7"/>
           <x v="8"/>
-          <x v="20"/>
+          <x v="19"/>
           <x v="9"/>
           <x v="10"/>
           <x v="11"/>
           <x v="18"/>
-          <x v="19"/>
+          <x v="21"/>
           <x v="12"/>
           <x v="17"/>
-          <x v="19"/>
+          <x v="21"/>
           <x v="16"/>
+          <x v="21"/>
           <x v="19"/>
           <x v="20"/>
+          <x v="21"/>
           <x v="13"/>
           <x v="14"/>
           <x v="15"/>
         </discretePr>
-        <groupItems count="21">
+        <groupItems count="22">
           <s v="Nexus One"/>
           <s v="HTC Tattoo"/>
           <s v="Liquid"/>
@@ -7144,8 +6620,9 @@
           <s v="Gruppe3"/>
           <s v="Gruppe4"/>
           <s v="Gruppe5"/>
+          <s v="Gruppe2"/>
+          <s v="Garminfone"/>
           <s v="Gruppe1"/>
-          <s v="Gruppe2"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -7154,7 +6631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="376">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="446">
   <r>
     <n v="16"/>
     <d v="2010-07-02T17:08:17"/>
@@ -15427,12 +14904,1552 @@
     <x v="0"/>
     <s v="354635030618610"/>
   </r>
+  <r>
+    <n v="390"/>
+    <d v="2010-07-09T15:43:56"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20.233499999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841032173938"/>
+  </r>
+  <r>
+    <n v="391"/>
+    <d v="2010-07-09T15:45:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.058900000000001"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841032173938"/>
+  </r>
+  <r>
+    <n v="392"/>
+    <d v="2010-07-09T16:07:04"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13.0962"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/175581:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841038626632"/>
+  </r>
+  <r>
+    <n v="393"/>
+    <d v="2010-07-09T16:07:23"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="9.66831"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/175581:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841038626632"/>
+  </r>
+  <r>
+    <n v="394"/>
+    <d v="2010-07-09T16:07:39"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12.972300000000001"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/175581:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841038626632"/>
+  </r>
+  <r>
+    <n v="395"/>
+    <d v="2010-07-09T16:07:56"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.2082899999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/175581:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="357841038626632"/>
+  </r>
+  <r>
+    <n v="396"/>
+    <d v="2010-07-09T16:08:20"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18.614599999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/175581:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841038626632"/>
+  </r>
+  <r>
+    <n v="397"/>
+    <d v="2010-07-09T18:06:23"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.570699999999999"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="27"/>
+    <s v="R2BA023"/>
+    <x v="12"/>
+    <x v="28"/>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="SEMC/X10_1237-0692/SonyEricssonX10i/es209ra:1.6/R2BA023/1276006243:user/rel-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="359419035334761"/>
+  </r>
+  <r>
+    <n v="398"/>
+    <d v="2010-07-09T19:00:29"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12.205399999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="chunghwa/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="357841035057450"/>
+  </r>
+  <r>
+    <n v="399"/>
+    <d v="2010-07-09T22:17:38"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="16.671099999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957031128021"/>
+  </r>
+  <r>
+    <n v="400"/>
+    <d v="2010-07-10T01:12:15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.680700000000002"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841030961516"/>
+  </r>
+  <r>
+    <n v="401"/>
+    <d v="2010-07-10T01:12:33"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13.567399999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841030961516"/>
+  </r>
+  <r>
+    <n v="402"/>
+    <d v="2010-07-10T01:12:51"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12.796099999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="357841030961516"/>
+  </r>
+  <r>
+    <n v="403"/>
+    <d v="2010-07-10T01:13:10"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18.378399999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841030961516"/>
+  </r>
+  <r>
+    <n v="404"/>
+    <d v="2010-07-10T11:14:21"/>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="6.7159399999999998"/>
+    <x v="19"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="VillainROM"/>
+    <x v="16"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="google/passion/passion/mahimahi:2.1/ERD79/22607:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357988021043018"/>
+  </r>
+  <r>
+    <n v="405"/>
+    <d v="2010-07-10T11:14:46"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="4.96204"/>
+    <x v="19"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="VillainROM"/>
+    <x v="16"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="google/passion/passion/mahimahi:2.1/ERD79/22607:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="357988021043018"/>
+  </r>
+  <r>
+    <n v="406"/>
+    <d v="2010-07-10T23:24:22"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6.5267299999999997"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="16"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357988024719663"/>
+  </r>
+  <r>
+    <n v="407"/>
+    <d v="2010-07-10T23:26:08"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.3913200000000003"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="16"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357988024719663"/>
+  </r>
+  <r>
+    <n v="408"/>
+    <d v="2010-07-10T23:36:01"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.8863399999999997"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="16"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357988024719663"/>
+  </r>
+  <r>
+    <n v="409"/>
+    <d v="2010-07-10T23:37:29"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.1507399999999999"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="16"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="357988024719663"/>
+  </r>
+  <r>
+    <n v="410"/>
+    <d v="2010-07-10T23:39:33"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.2187599999999996"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="16"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357988024719663"/>
+  </r>
+  <r>
+    <n v="411"/>
+    <d v="2010-07-11T02:24:15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="21.760300000000001"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="28"/>
+    <s v="Bugless Beast V0.4"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A0000015E2E1D3"/>
+  </r>
+  <r>
+    <n v="412"/>
+    <d v="2010-07-11T02:24:42"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12.322100000000001"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="28"/>
+    <s v="Bugless Beast V0.4"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A0000015E2E1D3"/>
+  </r>
+  <r>
+    <n v="413"/>
+    <d v="2010-07-11T02:25:00"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12.1851"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="28"/>
+    <s v="Bugless Beast V0.4"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A0000015E2E1D3"/>
+  </r>
+  <r>
+    <n v="414"/>
+    <d v="2010-07-11T02:25:28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17.208500000000001"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="28"/>
+    <s v="Bugless Beast V0.4"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A0000015E2E1D3"/>
+  </r>
+  <r>
+    <n v="415"/>
+    <d v="2010-07-11T02:26:03"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23.191299999999998"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="28"/>
+    <s v="Bugless Beast V0.4"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A0000015E2E1D3"/>
+  </r>
+  <r>
+    <n v="416"/>
+    <d v="2010-07-11T10:00:17"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23.578399999999998"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957030632981"/>
+  </r>
+  <r>
+    <n v="417"/>
+    <d v="2010-07-11T10:00:38"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.586300000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957030632981"/>
+  </r>
+  <r>
+    <n v="418"/>
+    <d v="2010-07-11T10:00:56"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.8459"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957030632981"/>
+  </r>
+  <r>
+    <n v="419"/>
+    <d v="2010-07-11T10:01:14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18.787400000000002"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957030632981"/>
+  </r>
+  <r>
+    <n v="420"/>
+    <d v="2010-07-11T10:01:45"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="24.547499999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957030632981"/>
+  </r>
+  <r>
+    <n v="421"/>
+    <d v="2010-07-11T11:46:03"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13.5974"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841035246376"/>
+  </r>
+  <r>
+    <n v="422"/>
+    <d v="2010-07-11T11:46:24"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.742699999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841035246376"/>
+  </r>
+  <r>
+    <n v="423"/>
+    <d v="2010-07-11T11:46:43"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13.038399999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="357841035246376"/>
+  </r>
+  <r>
+    <n v="424"/>
+    <d v="2010-07-11T11:47:03"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18.505400000000002"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841035246376"/>
+  </r>
+  <r>
+    <n v="425"/>
+    <d v="2010-07-11T11:47:32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.410699999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841035246376"/>
+  </r>
+  <r>
+    <n v="426"/>
+    <d v="2010-07-11T11:48:10"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20.7562"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841035246376"/>
+  </r>
+  <r>
+    <n v="427"/>
+    <d v="2010-07-11T14:21:32"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="12.049799999999999"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="DJ Droid v 1.0R1"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_generic/htc_bravo/bravo/bravo:2.2/FRF85B"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841033869765"/>
+  </r>
+  <r>
+    <n v="428"/>
+    <d v="2010-07-11T14:22:03"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="16.0855"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="DJ Droid v 1.0R1"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_generic/htc_bravo/bravo/bravo:2.2/FRF85B"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841033869765"/>
+  </r>
+  <r>
+    <n v="429"/>
+    <d v="2010-07-11T14:22:27"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="19.505500000000001"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="DJ Droid v 1.0R1"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_generic/htc_bravo/bravo/bravo:2.2/FRF85B"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841033869765"/>
+  </r>
+  <r>
+    <n v="430"/>
+    <d v="2010-07-11T14:22:47"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="5.8859500000000002"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="DJ Droid v 1.0R1"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_generic/htc_bravo/bravo/bravo:2.2/FRF85B"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="357841033869765"/>
+  </r>
+  <r>
+    <n v="431"/>
+    <d v="2010-07-11T14:23:06"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="13.2875"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="DJ Droid v 1.0R1"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_generic/htc_bravo/bravo/bravo:2.2/FRF85B"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841033869765"/>
+  </r>
+  <r>
+    <n v="432"/>
+    <d v="2010-07-11T14:23:25"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="8.6860800000000005"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="11"/>
+    <s v="DJ Droid v 1.0R1"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_generic/htc_bravo/bravo/bravo:2.2/FRF85B"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841033869765"/>
+  </r>
+  <r>
+    <n v="433"/>
+    <d v="2010-07-11T16:39:53"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="24.192299999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032133681"/>
+  </r>
+  <r>
+    <n v="434"/>
+    <d v="2010-07-11T16:40:20"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="25.0611"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032133681"/>
+  </r>
+  <r>
+    <n v="435"/>
+    <d v="2010-07-11T16:40:37"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.822600000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032133681"/>
+  </r>
+  <r>
+    <n v="436"/>
+    <d v="2010-07-11T16:40:53"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.4848"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032133681"/>
+  </r>
+  <r>
+    <n v="437"/>
+    <d v="2010-07-11T16:41:14"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.541399999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="354957032133681"/>
+  </r>
+  <r>
+    <n v="438"/>
+    <d v="2010-07-11T18:40:47"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11.763299999999999"/>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="20"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="18"/>
+    <s v="garmin-asus/a50/a50/A50:1.6/DRC79/A50-V4.0.6-user-20100313:user/test-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357355030330713"/>
+  </r>
+  <r>
+    <n v="439"/>
+    <d v="2010-07-11T18:41:06"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.3076100000000004"/>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="20"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="18"/>
+    <s v="garmin-asus/a50/a50/A50:1.6/DRC79/A50-V4.0.6-user-20100313:user/test-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357355030330713"/>
+  </r>
+  <r>
+    <n v="440"/>
+    <d v="2010-07-11T18:41:23"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.6898900000000001"/>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="20"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="18"/>
+    <s v="garmin-asus/a50/a50/A50:1.6/DRC79/A50-V4.0.6-user-20100313:user/test-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="357355030330713"/>
+  </r>
+  <r>
+    <n v="441"/>
+    <d v="2010-07-11T18:41:42"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14.8971"/>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="20"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="18"/>
+    <s v="garmin-asus/a50/a50/A50:1.6/DRC79/A50-V4.0.6-user-20100313:user/test-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357355030330713"/>
+  </r>
+  <r>
+    <n v="442"/>
+    <d v="2010-07-11T18:42:08"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.223100000000001"/>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="20"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="18"/>
+    <s v="garmin-asus/a50/a50/A50:1.6/DRC79/A50-V4.0.6-user-20100313:user/test-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357355030330713"/>
+  </r>
+  <r>
+    <n v="443"/>
+    <d v="2010-07-11T18:42:37"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8.0161899999999999"/>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="20"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="18"/>
+    <s v="garmin-asus/a50/a50/A50:1.6/DRC79/A50-V4.0.6-user-20100313:user/test-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357355030330713"/>
+  </r>
+  <r>
+    <n v="444"/>
+    <d v="2010-07-11T20:14:36"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.2488400000000004"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="358279013234933"/>
+  </r>
+  <r>
+    <n v="445"/>
+    <d v="2010-07-11T20:14:59"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.7956799999999999"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="358279013234933"/>
+  </r>
+  <r>
+    <n v="446"/>
+    <d v="2010-07-11T20:15:19"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.0951399999999998"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="358279013234933"/>
+  </r>
+  <r>
+    <n v="447"/>
+    <d v="2010-07-11T20:15:49"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.2895200000000004"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="358279013234933"/>
+  </r>
+  <r>
+    <n v="448"/>
+    <d v="2010-07-11T20:16:30"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.7851600000000003"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="358279013234933"/>
+  </r>
+  <r>
+    <n v="449"/>
+    <d v="2010-07-11T20:17:07"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.0953999999999997"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="358279013234933"/>
+  </r>
+  <r>
+    <n v="450"/>
+    <d v="2010-07-12T05:21:24"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6.4603299999999999"/>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="KaosFroyo V20"/>
+    <x v="7"/>
+    <x v="25"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A10000123AB0AB"/>
+  </r>
+  <r>
+    <n v="451"/>
+    <d v="2010-07-12T05:21:49"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.1696099999999996"/>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="KaosFroyo V20"/>
+    <x v="7"/>
+    <x v="25"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A10000123AB0AB"/>
+  </r>
+  <r>
+    <n v="452"/>
+    <d v="2010-07-12T05:22:11"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.4363599999999996"/>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="KaosFroyo V20"/>
+    <x v="7"/>
+    <x v="25"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A10000123AB0AB"/>
+  </r>
+  <r>
+    <n v="453"/>
+    <d v="2010-07-12T05:22:33"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.5264300000000004"/>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="29"/>
+    <s v="KaosFroyo V20"/>
+    <x v="7"/>
+    <x v="25"/>
+    <x v="1"/>
+    <x v="17"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A10000123AB0AB"/>
+  </r>
+  <r>
+    <n v="454"/>
+    <d v="2010-07-12T05:32:27"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.0914"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="1.32.651.6"/>
+    <x v="17"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/171253:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A100000D9DE2C2"/>
+  </r>
+  <r>
+    <n v="455"/>
+    <d v="2010-07-12T05:33:08"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17.305499999999999"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="1.32.651.6"/>
+    <x v="17"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/171253:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A100000D9DE2C2"/>
+  </r>
+  <r>
+    <n v="456"/>
+    <d v="2010-07-12T05:33:40"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18.537700000000001"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="1.32.651.6"/>
+    <x v="17"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/171253:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A100000D9DE2C2"/>
+  </r>
+  <r>
+    <n v="457"/>
+    <d v="2010-07-12T05:34:03"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11.4474"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="1.32.651.6"/>
+    <x v="17"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/171253:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A100000D9DE2C2"/>
+  </r>
+  <r>
+    <n v="458"/>
+    <d v="2010-07-12T05:34:32"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14.8088"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="1.32.651.6"/>
+    <x v="17"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/171253:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A100000D9DE2C2"/>
+  </r>
+  <r>
+    <n v="459"/>
+    <d v="2010-07-12T05:35:01"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12.1503"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="13"/>
+    <s v="1.32.651.6"/>
+    <x v="17"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/171253:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A100000D9DE2C2"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Benchmarks" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" grandTotalCaption="Average" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Device" colHeaderCaption="Bench" fieldListSortAscending="1">
-  <location ref="B6:I26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <location ref="B6:I27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -15448,27 +16465,29 @@
       </items>
     </pivotField>
     <pivotField name="Benchmark Version" axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="10">
+      <items count="12">
         <item x="2"/>
         <item x="3"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
         <item x="0"/>
         <item x="1"/>
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0" countASubtotal="1"/>
     <pivotField name="Device" axis="axisRow" showAll="0">
-      <items count="30">
+      <items count="32">
         <item x="17"/>
+        <item m="1" x="30"/>
+        <item m="1" x="29"/>
         <item m="1" x="28"/>
-        <item m="1" x="27"/>
-        <item m="1" x="26"/>
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item x="2"/>
@@ -15494,34 +16513,38 @@
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField name="Android Version" axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="11">
+      <items count="12">
+        <item m="1" x="10"/>
         <item m="1" x="9"/>
-        <item m="1" x="8"/>
         <item x="2"/>
         <item x="3"/>
         <item x="0"/>
-        <item m="1" x="7"/>
+        <item m="1" x="8"/>
         <item x="1"/>
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField name="Manufacturer" axis="axisPage" showAll="0">
-      <items count="8">
+      <items count="9">
+        <item m="1" x="7"/>
+        <item x="0"/>
         <item m="1" x="6"/>
-        <item x="0"/>
-        <item m="1" x="5"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15536,7 +16559,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="21">
+      <items count="22">
         <item n="Sony Ericsson X10i" sd="0" x="8"/>
         <item sd="0" x="0"/>
         <item n="Acer Liquid" sd="0" x="2"/>
@@ -15556,8 +16579,9 @@
         <item n="Motorola XT720/701" sd="0" x="16"/>
         <item n="HTC Magic" sd="0" x="17"/>
         <item n="HTC Dream (G1)" sd="0" x="18"/>
-        <item n="HTC Hero/Droid Eris" sd="0" x="19"/>
-        <item n="Motorola Milestone/Droid" sd="0" x="20"/>
+        <item n="Motorola Milestone/Droid" sd="0" x="19"/>
+        <item n="Nuvifone A50" sd="0" x="20"/>
+        <item n="HTC Hero/Droid Eris" sd="0" x="21"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -15574,7 +16598,7 @@
     <field x="20"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="19">
+  <rowItems count="20">
     <i>
       <x v="9"/>
     </i>
@@ -15585,22 +16609,22 @@
       <x v="2"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="14"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="7"/>
     </i>
     <i>
       <x v="16"/>
     </i>
     <i>
+      <x v="10"/>
+    </i>
+    <i>
       <x/>
     </i>
     <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="10"/>
+      <x v="19"/>
     </i>
     <i>
       <x v="6"/>
@@ -15609,7 +16633,10 @@
       <x v="11"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
     </i>
     <i>
       <x v="18"/>
@@ -15667,168 +16694,168 @@
   <dataFields count="1">
     <dataField name="FPS" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
-  <formats count="70">
-    <format dxfId="0">
+  <formats count="71">
+    <format dxfId="573">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="572">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="571">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="570">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="569">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="568">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="567">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="566">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="565">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="564">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="563">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="562">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="561">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="560">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="559">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="558">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="557">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="556">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="555">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="554">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="553">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="552">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="551">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="550">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="549">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="548">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="547">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="546">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="545">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="544">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="543">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="542">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="541">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="540">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="539">
       <pivotArea field="6" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="538">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="537">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -15837,7 +16864,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="536">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -15846,7 +16873,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="535">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -15855,7 +16882,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="534">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -15864,7 +16891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="533">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -15873,7 +16900,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="532">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -15882,7 +16909,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="531">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -15891,7 +16918,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="530">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -15900,7 +16927,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="529">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -15909,7 +16936,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="528">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -15918,7 +16945,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="527">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -15927,7 +16954,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="526">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -15936,7 +16963,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="525">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -15945,7 +16972,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="524">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -15954,7 +16981,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="523">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -15963,7 +16990,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="522">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -15972,7 +16999,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="35">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -15982,7 +17009,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -15992,7 +17019,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="31">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -16002,7 +17029,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="29">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -16012,17 +17049,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="14"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="57">
+    <format dxfId="25">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -16032,7 +17059,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="23">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -16042,7 +17079,37 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="19">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -16052,47 +17119,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
           <reference field="20" count="1">
-            <x v="10"/>
+            <x v="21"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="62">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="63">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="19"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="64">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -16102,7 +17139,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -16112,7 +17149,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -16122,7 +17159,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -16132,7 +17169,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -16142,7 +17179,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -16153,1205 +17190,20 @@
       </pivotArea>
     </format>
   </formats>
-  <conditionalFormats count="7">
-    <conditionalFormat priority="7">
-      <pivotAreas count="18">
+  <conditionalFormats count="2">
+    <conditionalFormat priority="2">
+      <pivotAreas count="19">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
+            <reference field="2" count="6" selected="0">
               <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
               <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
               <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
+              <x v="3"/>
               <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="6">
-      <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="5">
-      <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="4">
-      <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="3"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="3">
-      <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="2">
-      <pivotAreas count="18">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
@@ -17364,7 +17216,12 @@
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
@@ -17377,7 +17234,12 @@
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
@@ -17390,7 +17252,30 @@
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
@@ -17403,20 +17288,12 @@
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
+            <reference field="2" count="6" selected="0">
               <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
@@ -17429,7 +17306,30 @@
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
@@ -17442,7 +17342,66 @@
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
@@ -17455,11 +17414,16 @@
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="10"/>
+              <x v="21"/>
             </reference>
           </references>
         </pivotArea>
@@ -17468,46 +17432,12 @@
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
+            <reference field="2" count="6" selected="0">
               <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
@@ -17520,7 +17450,12 @@
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
@@ -17533,7 +17468,12 @@
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
@@ -17546,7 +17486,12 @@
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
@@ -17559,7 +17504,12 @@
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
@@ -17572,7 +17522,12 @@
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="2" count="1" selected="0">
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
@@ -17583,7 +17538,7 @@
       </pivotAreas>
     </conditionalFormat>
     <conditionalFormat priority="1">
-      <pivotAreas count="18">
+      <pivotAreas count="19">
         <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
@@ -17620,7 +17575,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="7"/>
+              <x v="14"/>
             </reference>
           </references>
         </pivotArea>
@@ -17630,7 +17585,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="14"/>
+              <x v="7"/>
             </reference>
           </references>
         </pivotArea>
@@ -17650,6 +17605,16 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
               <x v="0"/>
             </reference>
           </references>
@@ -17660,17 +17625,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
+              <x v="19"/>
             </reference>
           </references>
         </pivotArea>
@@ -17700,7 +17655,17 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="19"/>
+              <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="21"/>
             </reference>
           </references>
         </pivotArea>
@@ -18226,7 +18191,7 @@
   <dimension ref="B2:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18333,25 +18298,25 @@
         <v>6</v>
       </c>
       <c r="C9" s="11">
-        <v>16.177578947368421</v>
+        <v>16.153445454545459</v>
       </c>
       <c r="D9" s="12">
-        <v>14.73173111111111</v>
+        <v>14.774345263157894</v>
       </c>
       <c r="E9" s="12">
-        <v>19.160787499999998</v>
+        <v>19.138823529411763</v>
       </c>
       <c r="F9" s="12">
-        <v>17.907185555555557</v>
+        <v>18.086912000000002</v>
       </c>
       <c r="G9" s="12">
-        <v>24.973653333333335</v>
+        <v>24.953729411764709</v>
       </c>
       <c r="H9" s="21">
-        <v>23.023735294117646</v>
+        <v>23.114431578947368</v>
       </c>
       <c r="I9" s="21">
-        <v>19.101508737864084</v>
+        <v>19.180475438596492</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -18376,54 +18341,54 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="20" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="11">
-        <v>12.908599999999998</v>
+        <v>13.2644</v>
       </c>
       <c r="D11" s="12">
-        <v>12.296071428571427</v>
+        <v>12.229766666666665</v>
       </c>
       <c r="E11" s="12">
-        <v>15.730000000000002</v>
+        <v>15.701433333333332</v>
       </c>
       <c r="F11" s="12">
-        <v>17.932120000000001</v>
+        <v>17.591633333333334</v>
       </c>
       <c r="G11" s="12">
-        <v>18.781014285714285</v>
+        <v>17.847966666666668</v>
       </c>
       <c r="H11" s="21">
-        <v>18.744744444444446</v>
+        <v>20.0868</v>
       </c>
       <c r="I11" s="21">
-        <v>16.193362499999999</v>
+        <v>15.887011764705884</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C12" s="11">
-        <v>13.2644</v>
+        <v>12.297079</v>
       </c>
       <c r="D12" s="12">
-        <v>12.229766666666665</v>
+        <v>11.433886666666666</v>
       </c>
       <c r="E12" s="12">
-        <v>15.701433333333332</v>
+        <v>15.406320000000003</v>
       </c>
       <c r="F12" s="12">
-        <v>17.591633333333334</v>
+        <v>18.296055555555554</v>
       </c>
       <c r="G12" s="12">
-        <v>17.847966666666668</v>
+        <v>17.734790909090908</v>
       </c>
       <c r="H12" s="21">
-        <v>20.0868</v>
+        <v>18.814825000000003</v>
       </c>
       <c r="I12" s="21">
-        <v>15.887011764705884</v>
+        <v>15.621339531250001</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -18454,70 +18419,78 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" s="11">
-        <v>13.298999999999999</v>
+        <v>12.1503</v>
       </c>
       <c r="D14" s="12">
-        <v>9.7285849999999989</v>
+        <v>11.2333</v>
       </c>
       <c r="E14" s="12">
-        <v>12.228999999999999</v>
+        <v>14.893899999999999</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="12">
+        <v>14.666499999999999</v>
+      </c>
       <c r="G14" s="12">
-        <v>18.615500000000001</v>
+        <v>17.305499999999999</v>
       </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="21">
+        <v>16.0914</v>
+      </c>
       <c r="I14" s="21">
-        <v>13.702695</v>
+        <v>14.126066666666667</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" s="11">
-        <v>10.395528461538463</v>
+        <v>13.298999999999999</v>
       </c>
       <c r="D15" s="12">
-        <v>10.036315</v>
+        <v>9.7285849999999989</v>
       </c>
       <c r="E15" s="12">
-        <v>16.593566666666668</v>
+        <v>12.228999999999999</v>
       </c>
-      <c r="F15" s="12">
-        <v>7.1570916666666671</v>
-      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="12">
-        <v>14.935900000000002</v>
+        <v>18.615500000000001</v>
       </c>
       <c r="H15" s="21">
-        <v>14.55965</v>
+        <v>16.570699999999999</v>
       </c>
       <c r="I15" s="21">
-        <v>12.590527439024392</v>
+        <v>14.112410000000001</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="11">
+        <v>10.533140714285716</v>
+      </c>
       <c r="D16" s="12">
-        <v>11.0192</v>
+        <v>10.201606153846154</v>
       </c>
       <c r="E16" s="12">
-        <v>14.978999999999999</v>
+        <v>16.916487500000002</v>
       </c>
       <c r="F16" s="12">
-        <v>10.795299999999999</v>
+        <v>7.1570916666666671</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="21"/>
+      <c r="G16" s="12">
+        <v>15.087406666666668</v>
+      </c>
+      <c r="H16" s="21">
+        <v>15.067394117647057</v>
+      </c>
       <c r="I16" s="21">
-        <v>12.264499999999998</v>
+        <v>12.863109770114939</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -18570,259 +18543,225 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" s="11">
-        <v>4.5369599999999997</v>
+        <v>7.3076100000000004</v>
       </c>
       <c r="D19" s="12">
-        <v>4.7542866666666663</v>
+        <v>5.6898900000000001</v>
       </c>
       <c r="E19" s="12">
-        <v>5.9749266666666658</v>
+        <v>11.763299999999999</v>
       </c>
       <c r="F19" s="12">
-        <v>6.8872099999999996</v>
+        <v>14.8971</v>
       </c>
       <c r="G19" s="12">
-        <v>6.6164866666666668</v>
+        <v>10.223100000000001</v>
       </c>
       <c r="H19" s="21">
-        <v>5.3767066666666672</v>
+        <v>8.0161899999999999</v>
       </c>
       <c r="I19" s="21">
-        <v>5.6910961111111114</v>
+        <v>9.6495316666666664</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="11">
-        <v>4.1948260000000008</v>
+        <v>5.057993999999999</v>
       </c>
       <c r="D20" s="12">
-        <v>4.2086016666666666</v>
+        <v>4.9686666666666666</v>
       </c>
       <c r="E20" s="12">
-        <v>5.1309749999999994</v>
+        <v>6.2735974999999993</v>
       </c>
       <c r="F20" s="12">
-        <v>6.5596500000000004</v>
+        <v>7.1158760000000001</v>
       </c>
       <c r="G20" s="12">
-        <v>5.9314899999999993</v>
+        <v>6.5940475000000003</v>
       </c>
       <c r="H20" s="21">
-        <v>4.8121649999999994</v>
+        <v>5.74648</v>
       </c>
       <c r="I20" s="21">
-        <v>5.0589266666666663</v>
+        <v>5.8925631034482766</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="20" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C21" s="11">
-        <v>4.1200933333333341</v>
+        <v>4.2038283333333339</v>
       </c>
       <c r="D21" s="12">
-        <v>3.0599833333333333</v>
+        <v>4.192392857142857</v>
       </c>
       <c r="E21" s="12">
-        <v>5.5903749999999999</v>
+        <v>5.263916</v>
       </c>
       <c r="F21" s="12">
-        <v>6.2247775000000001</v>
+        <v>6.6812950000000013</v>
       </c>
       <c r="G21" s="12">
-        <v>4.9920299999999997</v>
+        <v>5.8949074999999995</v>
       </c>
       <c r="H21" s="21">
-        <v>4.8528500000000001</v>
+        <v>4.668812</v>
       </c>
       <c r="I21" s="21">
-        <v>4.8211880000000003</v>
+        <v>5.0879018181818187</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="C22" s="11">
+        <v>4.1200933333333341</v>
+      </c>
+      <c r="D22" s="12">
+        <v>3.0599833333333333</v>
+      </c>
+      <c r="E22" s="12">
+        <v>5.5903749999999999</v>
+      </c>
+      <c r="F22" s="12">
+        <v>6.2247775000000001</v>
+      </c>
+      <c r="G22" s="12">
+        <v>4.9920299999999997</v>
+      </c>
       <c r="H22" s="21">
-        <v>4.2819700000000003</v>
+        <v>4.8528500000000001</v>
       </c>
       <c r="I22" s="21">
-        <v>4.2819700000000003</v>
+        <v>4.8211880000000003</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
-      <c r="C23" s="11">
-        <v>2.38863</v>
-      </c>
-      <c r="D23" s="12">
-        <v>2.8887900000000002</v>
-      </c>
-      <c r="E23" s="12">
-        <v>4.9249700000000001</v>
-      </c>
-      <c r="F23" s="12">
-        <v>3.1976900000000001</v>
-      </c>
-      <c r="G23" s="12">
-        <v>4.5509500000000003</v>
-      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="21">
-        <v>5.0518850000000004</v>
+        <v>4.2819700000000003</v>
       </c>
       <c r="I23" s="21">
-        <v>3.86794875</v>
+        <v>4.2819700000000003</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2.38863</v>
+      </c>
+      <c r="D24" s="12">
+        <v>2.8887900000000002</v>
+      </c>
+      <c r="E24" s="12">
+        <v>4.9249700000000001</v>
+      </c>
+      <c r="F24" s="12">
+        <v>3.1976900000000001</v>
+      </c>
+      <c r="G24" s="12">
+        <v>4.5509500000000003</v>
+      </c>
+      <c r="H24" s="21">
+        <v>5.0518850000000004</v>
+      </c>
+      <c r="I24" s="21">
+        <v>3.86794875</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C25" s="11">
         <v>3.8895749999999998</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <v>2.4960599999999999</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E25" s="12">
         <v>5.5962666666666658</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F25" s="12">
         <v>1.5805933333333335</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="12">
         <v>3.3733599999999999</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H25" s="21">
         <v>4.9798450000000001</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I25" s="21">
         <v>3.6049100000000003</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B25" s="20" t="s">
+    <row r="26" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C26" s="23">
         <v>3.1853899999999999</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24">
         <v>3.0426899999999999</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="21">
+      <c r="H26" s="25"/>
+      <c r="I26" s="21">
         <v>3.1140400000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B26" s="13" t="s">
+    <row r="27" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="14">
-        <v>11.275480156249996</v>
+      <c r="C27" s="14">
+        <v>11.20596961038961</v>
       </c>
-      <c r="D26" s="15">
-        <v>10.457600461538458</v>
+      <c r="D27" s="15">
+        <v>10.197259487179489</v>
       </c>
-      <c r="E26" s="15">
-        <v>14.979133225806446</v>
+      <c r="E27" s="15">
+        <v>14.839924305555554</v>
       </c>
-      <c r="F26" s="15">
-        <v>12.522111311475413</v>
+      <c r="F27" s="15">
+        <v>12.970884166666666</v>
       </c>
-      <c r="G26" s="15">
-        <v>16.79169816666667</v>
+      <c r="G27" s="15">
+        <v>16.588381408450704</v>
       </c>
-      <c r="H26" s="15">
-        <v>15.889752812499999</v>
+      <c r="H27" s="15">
+        <v>15.820491447368418</v>
       </c>
-      <c r="I26" s="19">
-        <v>13.612701808510639</v>
+      <c r="I27" s="19">
+        <v>13.544297174887891</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="30" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="31" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="53" ht="15.75" thickBot="1"/>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="C9 C8 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="D9 D8 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="E9 E8 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="F9 F8 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="G9 G8 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="H9 H8 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25">
+  <conditionalFormatting pivot="1" sqref="C8:H8 C9:H9 C10:H10 C11:H11 C12:H12 C13:H13 C14:H14 C15:H15 C16:H16 C17:H17 C18:H18 C19:H19 C20:H20 C21:H21 C22:H22 C23:H23 C24:H24 C25:H25 C26:H26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -18834,7 +18773,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="I9 I8 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25">
+  <conditionalFormatting pivot="1" sqref="I9 I8 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/doc/benchmarks.xlsx
+++ b/doc/benchmarks.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>TickerText</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Nuvifone A50</t>
+  </si>
+  <si>
+    <t>Emulator</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,21 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="581">
+  <dxfs count="589">
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <right style="medium">
@@ -1075,9 +1092,9 @@
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -1653,9 +1670,9 @@
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -2356,6 +2373,20 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
       <alignment textRotation="70" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2934,6 +2965,20 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
       <alignment textRotation="70" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3519,6 +3564,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
       <alignment textRotation="70" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4104,6 +4156,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
       <alignment textRotation="70" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4690,9 +4749,9 @@
     </dxf>
     <dxf>
       <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -5227,13 +5286,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium16 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="580"/>
-      <tableStyleElement type="headerRow" dxfId="579"/>
-      <tableStyleElement type="totalRow" dxfId="578"/>
-      <tableStyleElement type="firstColumn" dxfId="577"/>
-      <tableStyleElement type="lastColumn" dxfId="576"/>
-      <tableStyleElement type="firstRowStripe" dxfId="575"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="574"/>
+      <tableStyleElement type="wholeTable" dxfId="588"/>
+      <tableStyleElement type="headerRow" dxfId="587"/>
+      <tableStyleElement type="totalRow" dxfId="586"/>
+      <tableStyleElement type="firstColumn" dxfId="585"/>
+      <tableStyleElement type="lastColumn" dxfId="584"/>
+      <tableStyleElement type="firstRowStripe" dxfId="583"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="582"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -5399,9 +5458,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$27</c:f>
+              <c:f>Benchmarks!$B$8:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -5458,42 +5517,45 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>HTC Wildfire</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Emulator</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$C$8:$C$27</c:f>
+              <c:f>Benchmarks!$C$8:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>23.908349999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.153445454545459</c:v>
+                  <c:v>16.174720000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.078799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.2644</c:v>
+                  <c:v>13.176500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.297079</c:v>
+                  <c:v>12.121348333333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>12.5755</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.1503</c:v>
+                  <c:v>12.229749999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>13.298999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.533140714285716</c:v>
+                  <c:v>10.494477333333334</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8.0224499999999992</c:v>
@@ -5505,19 +5567,22 @@
                   <c:v>5.057993999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2038283333333339</c:v>
+                  <c:v>4.3109900000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4.1200933333333341</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.38863</c:v>
+                  <c:v>2.2576000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3.8895749999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3.1853899999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.15449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5539,9 +5604,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$27</c:f>
+              <c:f>Benchmarks!$B$8:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -5598,42 +5663,45 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>HTC Wildfire</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Emulator</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$D$8:$D$27</c:f>
+              <c:f>Benchmarks!$D$8:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>24.684950000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.774345263157894</c:v>
+                  <c:v>14.881148181818183</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.1652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.229766666666665</c:v>
+                  <c:v>12.2653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.433886666666666</c:v>
+                  <c:v>11.476964615384615</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10.7736</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.2333</c:v>
+                  <c:v>11.543166666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9.7285849999999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.201606153846154</c:v>
+                  <c:v>10.228620000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6.6300400000000002</c:v>
@@ -5645,16 +5713,19 @@
                   <c:v>4.9686666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.192392857142857</c:v>
+                  <c:v>4.2156649999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3.0599833333333333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8887900000000002</c:v>
+                  <c:v>2.9144000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2.4960599999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.741757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5676,9 +5747,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$27</c:f>
+              <c:f>Benchmarks!$B$8:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -5735,27 +5806,30 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>HTC Wildfire</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Emulator</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$E$8:$E$27</c:f>
+              <c:f>Benchmarks!$E$8:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>33.08175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.138823529411763</c:v>
+                  <c:v>19.12504736842105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.701433333333332</c:v>
+                  <c:v>15.762074999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.406320000000003</c:v>
+                  <c:v>15.453309090909094</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>17.708550000000002</c:v>
@@ -5767,7 +5841,7 @@
                   <c:v>12.228999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.916487500000002</c:v>
+                  <c:v>16.8611</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9.7283600000000003</c:v>
@@ -5782,7 +5856,7 @@
                   <c:v>6.2735974999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.263916</c:v>
+                  <c:v>5.3905999999999992</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5.5903749999999999</c:v>
@@ -5813,9 +5887,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$27</c:f>
+              <c:f>Benchmarks!$B$8:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -5872,27 +5946,30 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>HTC Wildfire</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Emulator</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$F$8:$F$27</c:f>
+              <c:f>Benchmarks!$F$8:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>24.061250000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.086912000000002</c:v>
+                  <c:v>18.228029090909093</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.591633333333334</c:v>
+                  <c:v>17.642025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.296055555555554</c:v>
+                  <c:v>18.24699</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7.3719900000000003</c:v>
@@ -5901,7 +5978,7 @@
                   <c:v>14.666499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1570916666666671</c:v>
+                  <c:v>7.1606223076923081</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21.8948</c:v>
@@ -5916,13 +5993,13 @@
                   <c:v>7.1158760000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.6812950000000013</c:v>
+                  <c:v>6.7510214285714296</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>6.2247775000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1976900000000001</c:v>
+                  <c:v>3.014745</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.5805933333333335</c:v>
@@ -5947,9 +6024,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$27</c:f>
+              <c:f>Benchmarks!$B$8:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -6006,42 +6083,45 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>HTC Wildfire</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Emulator</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$G$8:$G$27</c:f>
+              <c:f>Benchmarks!$G$8:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>33.013099999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.953729411764709</c:v>
+                  <c:v>24.870420000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>24.884699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.847966666666668</c:v>
+                  <c:v>17.759340000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.734790909090908</c:v>
+                  <c:v>17.809433333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14.9398</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.305499999999999</c:v>
+                  <c:v>17.7318</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>18.615500000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.087406666666668</c:v>
+                  <c:v>15.064468750000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9.7563449999999996</c:v>
@@ -6056,13 +6136,13 @@
                   <c:v>6.5940475000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8949074999999995</c:v>
+                  <c:v>5.9283671428571427</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4.9920299999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5509500000000003</c:v>
+                  <c:v>4.2579000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3.3733599999999999</c:v>
@@ -6090,9 +6170,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$27</c:f>
+              <c:f>Benchmarks!$B$8:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -6149,27 +6229,30 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>HTC Wildfire</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Emulator</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$H$8:$H$27</c:f>
+              <c:f>Benchmarks!$H$8:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>31.0808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.114431578947368</c:v>
+                  <c:v>23.157331818181817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0868</c:v>
+                  <c:v>19.989366666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.814825000000003</c:v>
+                  <c:v>18.555135714285715</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25.3642</c:v>
@@ -6181,7 +6264,7 @@
                   <c:v>16.570699999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.067394117647057</c:v>
+                  <c:v>15.01901111111111</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7.8437000000000001</c:v>
@@ -6196,7 +6279,7 @@
                   <c:v>5.74648</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.668812</c:v>
+                  <c:v>4.8485199999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4.8528500000000001</c:v>
@@ -6205,7 +6288,7 @@
                   <c:v>4.2819700000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0518850000000004</c:v>
+                  <c:v>5.0139125</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4.9798450000000001</c:v>
@@ -6216,25 +6299,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="78853248"/>
-        <c:axId val="78854784"/>
+        <c:axId val="62219008"/>
+        <c:axId val="62220544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78853248"/>
+        <c:axId val="62219008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78854784"/>
+        <c:crossAx val="62220544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78854784"/>
+        <c:axId val="62220544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6248,7 +6331,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78853248"/>
+        <c:crossAx val="62219008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6261,7 +6344,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.25" r="0.25" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.25" r="0.25" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -6303,14 +6386,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nico" refreshedDate="40371.428479629627" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="446">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nico" refreshedDate="40373.59061712963" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="506">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="21">
     <cacheField name="id" numFmtId="0" sqlType="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="459"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="519"/>
     </cacheField>
     <cacheField name="timestamp" numFmtId="0" sqlType="11">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-07-02T17:05:18" maxDate="2010-07-12T05:35:01"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-07-02T17:05:18" maxDate="2010-07-14T13:59:33"/>
     </cacheField>
     <cacheField name="benchmark_id" numFmtId="0" sqlType="4">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5" count="6">
@@ -6323,7 +6406,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="benchmark_versionname" numFmtId="0" sqlType="12">
-      <sharedItems count="11">
+      <sharedItems count="12">
         <s v="1.1.5"/>
         <s v="1.1.1"/>
         <s v="1.1.4"/>
@@ -6333,12 +6416,13 @@
         <s v="1.1.6"/>
         <s v="1.1.9"/>
         <s v="1.2.0"/>
+        <s v="1.2.3"/>
         <s v="" u="1"/>
         <s v="benchmark_versionname" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="benchmark_versioncode" numFmtId="0" sqlType="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="20" count="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="23" count="10">
         <n v="15"/>
         <n v="11"/>
         <n v="14"/>
@@ -6348,13 +6432,14 @@
         <n v="16"/>
         <n v="19"/>
         <n v="20"/>
+        <n v="23"/>
       </sharedItems>
     </cacheField>
     <cacheField name="benchmark_fps" numFmtId="0" sqlType="7">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.5669" maxValue="40.272399999999998"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.741757" maxValue="40.272399999999998"/>
     </cacheField>
     <cacheField name="device_model" numFmtId="0" sqlType="12">
-      <sharedItems count="31">
+      <sharedItems count="33">
         <s v="Nexus One"/>
         <s v="HTC Tattoo"/>
         <s v="T-Mobile G1"/>
@@ -6383,6 +6468,8 @@
         <s v="'Simply Stunning' Droid"/>
         <s v="Garminfone"/>
         <s v="FroyoEris"/>
+        <s v="sdk"/>
+        <s v="Android Dev Phone 1"/>
         <s v="" u="1"/>
         <s v="device_model" u="1"/>
         <s v="HTC Nexus One" u="1"/>
@@ -6412,56 +6499,26 @@
       </sharedItems>
     </cacheField>
     <cacheField name="device_manufacturer" numFmtId="0" sqlType="12">
-      <sharedItems count="8">
+      <sharedItems count="9">
         <s v="HTC"/>
         <s v="Acer"/>
         <s v="samsung"/>
         <s v="Motorola"/>
         <s v="Sony Ericsson"/>
         <s v="garmin-asus"/>
+        <s v="unknown"/>
         <s v="" u="1"/>
         <s v="device_manufacturer" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_build_id" numFmtId="0" sqlType="12">
-      <sharedItems count="30">
-        <s v="FRF91"/>
-        <s v="DRC79"/>
-        <s v="DMD64"/>
-        <s v="FRF50"/>
-        <s v="ECLAIR"/>
-        <s v="ESE81"/>
-        <s v="STSKT_N_79.11.36R1"/>
-        <s v="ERD79"/>
-        <s v="SHLA_U2_03.05.0"/>
-        <s v="1.0.A.1.36"/>
-        <s v="DRD08"/>
-        <s v="FRF85b"/>
-        <s v="1.0.A.1.38"/>
-        <s v="ERE27"/>
-        <s v="DRC83"/>
-        <s v="R1FB001"/>
-        <s v="SHOLS_U2_02.31.0"/>
-        <s v="EPE54B"/>
-        <s v="DRC92"/>
-        <s v="SHOLS_U2_02.34.0"/>
-        <s v="FRF83"/>
-        <s v="R2BA020"/>
-        <s v="EPF21B"/>
-        <s v="EPF30"/>
-        <s v="SHOLS_U2_03.10.0"/>
-        <s v="STCU_31.05.4"/>
-        <s v="SHOLS_U2_02.36.0"/>
-        <s v="R2BA023"/>
-        <s v="FRF84B"/>
-        <s v="unknown"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="device_build" numFmtId="0" sqlType="12">
       <sharedItems/>
     </cacheField>
     <cacheField name="device_device" numFmtId="0" sqlType="12">
-      <sharedItems count="21">
+      <sharedItems count="22">
         <s v="passion"/>
         <s v="bahamas"/>
         <s v="dream"/>
@@ -6483,41 +6540,11 @@
         <s v="choles"/>
         <s v="desirec"/>
         <s v="a50"/>
+        <s v="generic"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_product" numFmtId="0" sqlType="12">
-      <sharedItems count="30">
-        <s v="passion"/>
-        <s v="htc_tattoo"/>
-        <s v="kila"/>
-        <s v="a1_generic1"/>
-        <s v="GT-I9000"/>
-        <s v="voles"/>
-        <s v="sholest_skt"/>
-        <s v="htc_magic"/>
-        <s v="umts_sholes"/>
-        <s v="E10i_1237-2935"/>
-        <s v="zaku"/>
-        <s v="E10i_1238-0549"/>
-        <s v="inc"/>
-        <s v="htc_bravo"/>
-        <s v="E10i_1237-1322"/>
-        <s v="X10_1234-8465"/>
-        <s v="htc_legend"/>
-        <s v="GT-I5700"/>
-        <s v="htc_buzz"/>
-        <s v="vfpioneer"/>
-        <s v="htc_hero"/>
-        <s v="htc_supersonic"/>
-        <s v="X10_1235-7379"/>
-        <s v="passion_eu"/>
-        <s v="passion_vf"/>
-        <s v="opal"/>
-        <s v="choles"/>
-        <s v="htc_desirec"/>
-        <s v="X10_1237-0692"/>
-        <s v="a50"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="device_cpuabi" numFmtId="0" sqlType="12">
       <sharedItems count="2">
@@ -6526,7 +6553,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="device_board" numFmtId="0" sqlType="12">
-      <sharedItems count="19">
+      <sharedItems count="20">
         <s v="mahimahi"/>
         <s v="bahamas"/>
         <s v="trout"/>
@@ -6546,6 +6573,7 @@
         <s v="choles"/>
         <s v="desirec"/>
         <s v="A50"/>
+        <s v="unknown"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_fingerprint" numFmtId="0" sqlType="12">
@@ -6567,40 +6595,42 @@
     </cacheField>
     <cacheField name="Device2" numFmtId="0" databaseField="0">
       <fieldGroup base="6">
-        <discretePr count="31">
+        <discretePr count="33">
           <x v="0"/>
           <x v="1"/>
-          <x v="18"/>
+          <x v="22"/>
           <x v="2"/>
           <x v="3"/>
-          <x v="19"/>
+          <x v="18"/>
           <x v="16"/>
           <x v="17"/>
-          <x v="19"/>
+          <x v="18"/>
           <x v="4"/>
           <x v="5"/>
           <x v="6"/>
           <x v="7"/>
           <x v="8"/>
-          <x v="19"/>
+          <x v="18"/>
           <x v="9"/>
           <x v="10"/>
           <x v="11"/>
-          <x v="18"/>
-          <x v="21"/>
+          <x v="22"/>
+          <x v="20"/>
           <x v="12"/>
           <x v="17"/>
-          <x v="21"/>
+          <x v="20"/>
           <x v="16"/>
-          <x v="21"/>
+          <x v="20"/>
+          <x v="18"/>
           <x v="19"/>
           <x v="20"/>
           <x v="21"/>
+          <x v="22"/>
           <x v="13"/>
           <x v="14"/>
           <x v="15"/>
         </discretePr>
-        <groupItems count="22">
+        <groupItems count="23">
           <s v="Nexus One"/>
           <s v="HTC Tattoo"/>
           <s v="Liquid"/>
@@ -6619,10 +6649,11 @@
           <s v="HTC Nexus One"/>
           <s v="Gruppe3"/>
           <s v="Gruppe4"/>
-          <s v="Gruppe5"/>
           <s v="Gruppe2"/>
           <s v="Garminfone"/>
           <s v="Gruppe1"/>
+          <s v="sdk"/>
+          <s v="Gruppe5"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -6631,7 +6662,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="446">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="506">
   <r>
     <n v="16"/>
     <d v="2010-07-02T17:08:17"/>
@@ -6643,10 +6674,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -6665,10 +6696,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -6687,10 +6718,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -6709,10 +6740,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -6731,10 +6762,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -6753,10 +6784,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -6775,10 +6806,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -6797,10 +6828,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -6819,10 +6850,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -6841,10 +6872,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -6863,10 +6894,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -6885,10 +6916,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -6907,10 +6938,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -6929,10 +6960,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -6951,10 +6982,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -6973,10 +7004,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -6995,10 +7026,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -7017,10 +7048,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -7039,10 +7070,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -7061,10 +7092,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -7083,10 +7114,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="3"/>
+    <s v="FRF50"/>
     <s v="FRF50_Liquid-Port"/>
     <x v="3"/>
-    <x v="3"/>
+    <s v="a1_generic1"/>
     <x v="0"/>
     <x v="3"/>
     <s v="acer/a1_generic1/a1/salsa:2.2/FRF50/38042:user/release-keys"/>
@@ -7105,10 +7136,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR"/>
     <x v="4"/>
-    <x v="4"/>
+    <s v="GT-I9000"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/DXJF4:user/release-keys"/>
@@ -7127,10 +7158,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR"/>
     <x v="4"/>
-    <x v="4"/>
+    <s v="GT-I9000"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/DXJF4:user/release-keys"/>
@@ -7149,10 +7180,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR"/>
     <x v="4"/>
-    <x v="4"/>
+    <s v="GT-I9000"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/DXJF4:user/release-keys"/>
@@ -7171,10 +7202,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR"/>
     <x v="4"/>
-    <x v="4"/>
+    <s v="GT-I9000"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/DXJF4:user/release-keys"/>
@@ -7193,10 +7224,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR"/>
     <x v="4"/>
-    <x v="4"/>
+    <s v="GT-I9000"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/DXJF4:user/release-keys"/>
@@ -7215,10 +7246,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR"/>
     <x v="4"/>
-    <x v="4"/>
+    <s v="GT-I9000"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/DXJF4:user/release-keys"/>
@@ -7237,10 +7268,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -7259,10 +7290,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -7281,10 +7312,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -7303,10 +7334,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -7325,10 +7356,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -7347,10 +7378,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -7369,10 +7400,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="6"/>
+    <s v="STSKT_N_79.11.36R1"/>
     <s v="STSKT_N_79.11.36R1"/>
     <x v="6"/>
-    <x v="6"/>
+    <s v="sholest_skt"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOT/sholest_skt/sholest/sholes:2.1-update1/STSKT_N_79.11.36R1/0423:user/release-keys"/>
@@ -7391,10 +7422,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -7413,10 +7444,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -7435,10 +7466,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -7457,10 +7488,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -7479,10 +7510,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -7501,10 +7532,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -7523,10 +7554,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="7"/>
+    <s v="ERD79"/>
     <s v="Smoki_0.6.9"/>
     <x v="7"/>
-    <x v="7"/>
+    <s v="htc_magic"/>
     <x v="1"/>
     <x v="6"/>
     <s v="google/passion/passion/mahimahi:2.1/ERD79/22607:user/release-keys"/>
@@ -7545,10 +7576,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="7"/>
+    <s v="ERD79"/>
     <s v="Smoki_0.6.9"/>
     <x v="7"/>
-    <x v="7"/>
+    <s v="htc_magic"/>
     <x v="1"/>
     <x v="6"/>
     <s v="google/passion/passion/mahimahi:2.1/ERD79/22607:user/release-keys"/>
@@ -7567,10 +7598,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="8"/>
+    <s v="SHLA_U2_03.05.0"/>
     <s v="SHLA_U2_03.05.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_TIMBR/umts_sholes/umts_sholes/sholes:2.1-update1/SHLA_U2_03.05.0/8935007:user/rel-keys"/>
@@ -7589,10 +7620,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="8"/>
+    <s v="SHLA_U2_03.05.0"/>
     <s v="SHLA_U2_03.05.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_TIMBR/umts_sholes/umts_sholes/sholes:2.1-update1/SHLA_U2_03.05.0/8935007:user/rel-keys"/>
@@ -7611,10 +7642,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="8"/>
+    <s v="SHLA_U2_03.05.0"/>
     <s v="SHLA_U2_03.05.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_TIMBR/umts_sholes/umts_sholes/sholes:2.1-update1/SHLA_U2_03.05.0/8935007:user/rel-keys"/>
@@ -7633,10 +7664,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="8"/>
+    <s v="SHLA_U2_03.05.0"/>
     <s v="SHLA_U2_03.05.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_TIMBR/umts_sholes/umts_sholes/sholes:2.1-update1/SHLA_U2_03.05.0/8935007:user/rel-keys"/>
@@ -7655,10 +7686,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="8"/>
+    <s v="SHLA_U2_03.05.0"/>
     <s v="SHLA_U2_03.05.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_TIMBR/umts_sholes/umts_sholes/sholes:2.1-update1/SHLA_U2_03.05.0/8935007:user/rel-keys"/>
@@ -7677,10 +7708,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="8"/>
+    <s v="SHLA_U2_03.05.0"/>
     <s v="SHLA_U2_03.05.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_TIMBR/umts_sholes/umts_sholes/sholes:2.1-update1/SHLA_U2_03.05.0/8935007:user/rel-keys"/>
@@ -7699,10 +7730,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="9"/>
+    <s v="1.0.A.1.36"/>
     <s v="1.0.A.1.36"/>
     <x v="9"/>
-    <x v="9"/>
+    <s v="E10i_1237-2935"/>
     <x v="1"/>
     <x v="7"/>
     <s v="SEMC/E10i_1237-2935/SonyEricssonE10i/delta:1.6/1.0.A.1.36/0:user/release-keys"/>
@@ -7721,10 +7752,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="9"/>
+    <s v="1.0.A.1.36"/>
     <s v="1.0.A.1.36"/>
     <x v="9"/>
-    <x v="9"/>
+    <s v="E10i_1237-2935"/>
     <x v="1"/>
     <x v="7"/>
     <s v="SEMC/E10i_1237-2935/SonyEricssonE10i/delta:1.6/1.0.A.1.36/0:user/release-keys"/>
@@ -7743,10 +7774,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="9"/>
+    <s v="1.0.A.1.36"/>
     <s v="1.0.A.1.36"/>
     <x v="9"/>
-    <x v="9"/>
+    <s v="E10i_1237-2935"/>
     <x v="1"/>
     <x v="7"/>
     <s v="SEMC/E10i_1237-2935/SonyEricssonE10i/delta:1.6/1.0.A.1.36/0:user/release-keys"/>
@@ -7765,10 +7796,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="9"/>
+    <s v="1.0.A.1.36"/>
     <s v="1.0.A.1.36"/>
     <x v="9"/>
-    <x v="9"/>
+    <s v="E10i_1237-2935"/>
     <x v="1"/>
     <x v="7"/>
     <s v="SEMC/E10i_1237-2935/SonyEricssonE10i/delta:1.6/1.0.A.1.36/0:user/release-keys"/>
@@ -7787,10 +7818,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="9"/>
+    <s v="1.0.A.1.36"/>
     <s v="1.0.A.1.36"/>
     <x v="9"/>
-    <x v="9"/>
+    <s v="E10i_1237-2935"/>
     <x v="1"/>
     <x v="7"/>
     <s v="SEMC/E10i_1237-2935/SonyEricssonE10i/delta:1.6/1.0.A.1.36/0:user/release-keys"/>
@@ -7809,10 +7840,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="9"/>
+    <s v="1.0.A.1.36"/>
     <s v="1.0.A.1.36"/>
     <x v="9"/>
-    <x v="9"/>
+    <s v="E10i_1237-2935"/>
     <x v="1"/>
     <x v="7"/>
     <s v="SEMC/E10i_1237-2935/SonyEricssonE10i/delta:1.6/1.0.A.1.36/0:user/release-keys"/>
@@ -7831,10 +7862,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
     <s v="FRF91 MRCr21/CM6 Mod By RoDrIgUeZsTyLe"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -7853,10 +7884,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
     <s v="FRF91 MRCr21/CM6 Mod By RoDrIgUeZsTyLe"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -7875,10 +7906,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
     <s v="FRF91 MRCr21/CM6 Mod By RoDrIgUeZsTyLe"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -7897,10 +7928,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="10"/>
+    <s v="DRD08"/>
     <s v="DRD08"/>
     <x v="7"/>
-    <x v="10"/>
+    <s v="zaku"/>
     <x v="1"/>
     <x v="6"/>
     <s v="docomo/zaku/sapphire/sapphire:1.6/DRD08/16431:user/ota-rel-keys,release-keys"/>
@@ -7919,10 +7950,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
     <s v="FRF91 MRCr21/CM6 Mod By RoDrIgUeZsTyLe"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -7941,10 +7972,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
     <s v="FRF91 MRCr21/CM6 Mod By RoDrIgUeZsTyLe"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -7963,10 +7994,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
     <s v="FRF91 MRCr21/CM6 Mod By RoDrIgUeZsTyLe"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -7985,10 +8016,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
     <s v="FRF91 MRCr21/CM6 Mod By RoDrIgUeZsTyLe"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -8007,10 +8038,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="DeFroST 1.6c for HTC Desire (FRF85b)"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="8"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -8029,10 +8060,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="DeFroST 1.6c for HTC Desire (FRF85b)"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="8"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -8051,10 +8082,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="DeFroST 1.6c for HTC Desire (FRF85b)"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="8"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -8073,10 +8104,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="DeFroST 1.6c for HTC Desire (FRF85b)"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="8"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -8095,10 +8126,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="DeFroST 1.6c for HTC Desire (FRF85b)"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="8"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -8117,10 +8148,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="DeFroST 1.6c for HTC Desire (FRF85b)"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="8"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -8139,10 +8170,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="12"/>
+    <s v="1.0.A.1.38"/>
     <s v="1.0.A.1.38"/>
     <x v="9"/>
-    <x v="11"/>
+    <s v="E10i_1238-0549"/>
     <x v="1"/>
     <x v="7"/>
     <s v="SEMC/E10i_1238-0549/SonyEricssonE10i/delta:1.6/1.0.A.1.38/0:user/release-keys"/>
@@ -8161,10 +8192,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -8183,10 +8214,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -8205,10 +8236,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -8227,10 +8258,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -8249,10 +8280,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -8271,10 +8302,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -8293,10 +8324,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -8315,10 +8346,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -8337,10 +8368,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -8359,10 +8390,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -8381,10 +8412,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -8403,10 +8434,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -8425,10 +8456,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -8447,10 +8478,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
-    <s v="ERE27"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -8469,10 +8500,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -8491,10 +8522,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="12"/>
+    <s v="1.0.A.1.38"/>
     <s v="1.0.A.1.38"/>
     <x v="9"/>
-    <x v="14"/>
+    <s v="E10i_1237-1322"/>
     <x v="1"/>
     <x v="7"/>
     <s v="SEMC/E10i_1237-1322/SonyEricssonE10i/delta:1.6/1.0.A.1.38/0:user/release-keys"/>
@@ -8513,10 +8544,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="14"/>
+    <s v="DRC83"/>
     <s v="AOSP-1.6_r2-DRD36_v2.6.3"/>
     <x v="2"/>
-    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DRC83/14721:user/ota-rel-keys,release-keys"/>
@@ -8535,10 +8566,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="14"/>
+    <s v="DRC83"/>
     <s v="AOSP-1.6_r2-DRD36_v2.6.3"/>
     <x v="2"/>
-    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DRC83/14721:user/ota-rel-keys,release-keys"/>
@@ -8557,10 +8588,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="14"/>
+    <s v="DRC83"/>
     <s v="AOSP-1.6_r2-DRD36_v2.6.3"/>
     <x v="2"/>
-    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DRC83/14721:user/ota-rel-keys,release-keys"/>
@@ -8579,10 +8610,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -8601,10 +8632,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -8623,10 +8654,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -8645,10 +8676,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -8667,10 +8698,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="15"/>
+    <s v="R1FB001"/>
     <s v="R1FB001"/>
     <x v="12"/>
-    <x v="15"/>
+    <s v="X10_1234-8465"/>
     <x v="1"/>
     <x v="10"/>
     <s v="SEMC/X10_1234-8465/SonyEricssonX10i/es209ra:1.6/R1FB001/1270087315:user/rel-keys"/>
@@ -8689,10 +8720,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="15"/>
+    <s v="R1FB001"/>
     <s v="R1FB001"/>
     <x v="12"/>
-    <x v="15"/>
+    <s v="X10_1234-8465"/>
     <x v="1"/>
     <x v="10"/>
     <s v="SEMC/X10_1234-8465/SonyEricssonX10i/es209ra:1.6/R1FB001/1270087315:user/rel-keys"/>
@@ -8711,10 +8742,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="Moto_RTEU/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267742362:user/rkeys"/>
@@ -8733,10 +8764,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -8755,10 +8786,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -8777,10 +8808,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -8799,10 +8830,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -8821,10 +8852,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -8843,10 +8874,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -8865,10 +8896,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -8887,10 +8918,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -8909,10 +8940,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -8931,10 +8962,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -8953,10 +8984,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -8975,10 +9006,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
@@ -8997,10 +9028,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
@@ -9019,10 +9050,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
@@ -9041,10 +9072,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
@@ -9063,10 +9094,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
@@ -9085,10 +9116,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
@@ -9107,10 +9138,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
@@ -9129,10 +9160,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
@@ -9151,10 +9182,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
@@ -9173,10 +9204,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="1"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/155070:user/release-keys"/>
@@ -9195,10 +9226,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="1"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/155070:user/release-keys"/>
@@ -9217,10 +9248,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="1"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/155070:user/release-keys"/>
@@ -9239,10 +9270,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="1"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/155070:user/release-keys"/>
@@ -9261,10 +9292,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="1"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/155070:user/release-keys"/>
@@ -9283,10 +9314,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="1"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/155070:user/release-keys"/>
@@ -9305,10 +9336,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
@@ -9327,10 +9358,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="12"/>
+    <s v="1.0.A.1.38"/>
     <s v="1.0.A.1.38"/>
     <x v="9"/>
-    <x v="14"/>
+    <s v="E10i_1237-1322"/>
     <x v="1"/>
     <x v="7"/>
     <s v="SEMC/E10i_1237-1322/SonyEricssonE10i/delta:1.6/1.0.A.1.38/0:user/release-keys"/>
@@ -9349,10 +9380,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/EPE54B/26040:user/ota-rel-keys,release-keys"/>
@@ -9371,10 +9402,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/EPE54B/26040:user/ota-rel-keys,release-keys"/>
@@ -9393,10 +9424,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -9415,10 +9446,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -9437,10 +9468,10 @@
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="7"/>
+    <s v="ERD79"/>
     <s v="ERD79"/>
     <x v="13"/>
-    <x v="16"/>
+    <s v="htc_legend"/>
     <x v="1"/>
     <x v="11"/>
     <s v="htc_asia_wwe/htc_legend/legend/legend:2.1/ERD79/150763:user/release-keys"/>
@@ -9459,10 +9490,10 @@
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="7"/>
+    <s v="ERD79"/>
     <s v="ERD79"/>
     <x v="13"/>
-    <x v="16"/>
+    <s v="htc_legend"/>
     <x v="1"/>
     <x v="11"/>
     <s v="htc_asia_wwe/htc_legend/legend/legend:2.1/ERD79/150763:user/release-keys"/>
@@ -9481,10 +9512,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR.XXJE4"/>
     <x v="14"/>
-    <x v="17"/>
+    <s v="GT-I5700"/>
     <x v="1"/>
     <x v="12"/>
     <s v="Samsung/GT-I5700/GT-I5700/GT-I5700:2.1-update1/ECLAIR/XXJE4:user/ota-rel-keys,release-keys"/>
@@ -9503,10 +9534,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR.XXJE4"/>
     <x v="14"/>
-    <x v="17"/>
+    <s v="GT-I5700"/>
     <x v="1"/>
     <x v="12"/>
     <s v="Samsung/GT-I5700/GT-I5700/GT-I5700:2.1-update1/ECLAIR/XXJE4:user/ota-rel-keys,release-keys"/>
@@ -9525,10 +9556,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR.XXJE4"/>
     <x v="14"/>
-    <x v="17"/>
+    <s v="GT-I5700"/>
     <x v="1"/>
     <x v="12"/>
     <s v="Samsung/GT-I5700/GT-I5700/GT-I5700:2.1-update1/ECLAIR/XXJE4:user/ota-rel-keys,release-keys"/>
@@ -9547,10 +9578,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR.XXJE4"/>
     <x v="14"/>
-    <x v="17"/>
+    <s v="GT-I5700"/>
     <x v="1"/>
     <x v="12"/>
     <s v="Samsung/GT-I5700/GT-I5700/GT-I5700:2.1-update1/ECLAIR/XXJE4:user/ota-rel-keys,release-keys"/>
@@ -9569,10 +9600,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR.XXJE4"/>
     <x v="14"/>
-    <x v="17"/>
+    <s v="GT-I5700"/>
     <x v="1"/>
     <x v="12"/>
     <s v="Samsung/GT-I5700/GT-I5700/GT-I5700:2.1-update1/ECLAIR/XXJE4:user/ota-rel-keys,release-keys"/>
@@ -9591,10 +9622,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR.XXJE4"/>
     <x v="14"/>
-    <x v="17"/>
+    <s v="GT-I5700"/>
     <x v="1"/>
     <x v="12"/>
     <s v="Samsung/GT-I5700/GT-I5700/GT-I5700:2.1-update1/ECLAIR/XXJE4:user/ota-rel-keys,release-keys"/>
@@ -9613,10 +9644,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="15"/>
-    <x v="18"/>
+    <s v="htc_buzz"/>
     <x v="1"/>
     <x v="13"/>
     <s v="tmo_uk/htc_buzz/buzz/buzz:2.1-update1/ERE27/183733:user/release-keys"/>
@@ -9635,10 +9666,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="15"/>
-    <x v="18"/>
+    <s v="htc_buzz"/>
     <x v="1"/>
     <x v="13"/>
     <s v="tmo_uk/htc_buzz/buzz/buzz:2.1-update1/ERE27/183733:user/release-keys"/>
@@ -9657,10 +9688,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="18"/>
+    <s v="DRC92"/>
     <s v="DRC92"/>
     <x v="7"/>
-    <x v="19"/>
+    <s v="vfpioneer"/>
     <x v="1"/>
     <x v="6"/>
     <s v="vodafone/vfpioneer/sapphire/sapphire:1.6/DRC92/15632:user/ota-rel-keys,release-keys"/>
@@ -9679,10 +9710,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="18"/>
+    <s v="DRC92"/>
     <s v="DRC92"/>
     <x v="7"/>
-    <x v="19"/>
+    <s v="vfpioneer"/>
     <x v="1"/>
     <x v="6"/>
     <s v="vodafone/vfpioneer/sapphire/sapphire:1.6/DRC92/15632:user/ota-rel-keys,release-keys"/>
@@ -9701,10 +9732,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="18"/>
+    <s v="DRC92"/>
     <s v="DRC92"/>
     <x v="7"/>
-    <x v="19"/>
+    <s v="vfpioneer"/>
     <x v="1"/>
     <x v="6"/>
     <s v="vodafone/vfpioneer/sapphire/sapphire:1.6/DRC92/15632:user/ota-rel-keys,release-keys"/>
@@ -9723,10 +9754,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="19"/>
+    <s v="SHOLS_U2_02.34.0"/>
     <s v="SHOLS_U2_02.34.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_O2DE/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.34.0/8844737:user/rel-keys"/>
@@ -9745,10 +9776,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="19"/>
+    <s v="SHOLS_U2_02.34.0"/>
     <s v="SHOLS_U2_02.34.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_O2DE/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.34.0/8844737:user/rel-keys"/>
@@ -9767,10 +9798,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="19"/>
+    <s v="SHOLS_U2_02.34.0"/>
     <s v="SHOLS_U2_02.34.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_O2DE/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.34.0/8844737:user/rel-keys"/>
@@ -9789,10 +9820,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="19"/>
+    <s v="SHOLS_U2_02.34.0"/>
     <s v="SHOLS_U2_02.34.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_O2DE/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.34.0/8844737:user/rel-keys"/>
@@ -9811,10 +9842,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="19"/>
+    <s v="SHOLS_U2_02.34.0"/>
     <s v="SHOLS_U2_02.34.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_O2DE/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.34.0/8844737:user/rel-keys"/>
@@ -9833,10 +9864,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="19"/>
+    <s v="SHOLS_U2_02.34.0"/>
     <s v="SHOLS_U2_02.34.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_O2DE/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.34.0/8844737:user/rel-keys"/>
@@ -9855,10 +9886,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="3"/>
     <s v="FRF50"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF50"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF50/38042:user/release-keys"/>
@@ -9877,10 +9908,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="EPE54B"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -9899,10 +9930,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="EPE54B"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -9921,10 +9952,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="EPE54B"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -9943,10 +9974,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="EPE54B"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -9965,10 +9996,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="EPE54B"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -9987,10 +10018,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="EPE54B"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -10009,10 +10040,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="FRF85B"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
@@ -10031,10 +10062,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="FRF85B"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
@@ -10053,10 +10084,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="FRF85B"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
@@ -10075,10 +10106,10 @@
     <x v="4"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="16"/>
-    <x v="20"/>
+    <s v="htc_hero"/>
     <x v="1"/>
     <x v="14"/>
     <s v="chunghwa/htc_hero/hero/hero:2.1-update1/ERE27/183682:user/release-keys"/>
@@ -10097,10 +10128,10 @@
     <x v="4"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="16"/>
-    <x v="20"/>
+    <s v="htc_hero"/>
     <x v="1"/>
     <x v="14"/>
     <s v="chunghwa/htc_hero/hero/hero:2.1-update1/ERE27/183682:user/release-keys"/>
@@ -10119,10 +10150,10 @@
     <x v="3"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
+    <s v="ESE81"/>
     <s v="Bugless Beast V1.1"/>
     <x v="5"/>
-    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -10141,10 +10172,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="LK2.06.beta3 / SamdroidMod 1.2.x [samdroid.net]"/>
     <x v="14"/>
-    <x v="17"/>
+    <s v="GT-I5700"/>
     <x v="1"/>
     <x v="12"/>
     <s v="Samsung/GT-I5700/GT-I5700/GT-I5700:2.1-update1/ECLAIR/XXJE1:user/ota-rel-keys,release-keys"/>
@@ -10163,10 +10194,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="20"/>
     <s v="FRF83"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF83"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF83/42295:user/release-keys"/>
@@ -10185,10 +10216,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -10207,10 +10238,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -10229,10 +10260,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="20"/>
     <s v="FRF83"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF83"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF83/42295:user/release-keys"/>
@@ -10251,10 +10282,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -10273,10 +10304,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -10295,10 +10326,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="20"/>
     <s v="FRF83"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF83"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF83/42295:user/release-keys"/>
@@ -10317,10 +10348,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -10339,10 +10370,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -10361,10 +10392,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="20"/>
     <s v="FRF83"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF83"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF83/42295:user/release-keys"/>
@@ -10383,10 +10414,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -10405,10 +10436,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -10427,10 +10458,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="MoDaCo Custom ROM r20 for the Google Nexus One (FRF85B)"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
@@ -10449,10 +10480,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR"/>
     <x v="4"/>
-    <x v="4"/>
+    <s v="GT-I9000"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/I9000XXJE9:user/release-keys"/>
@@ -10471,10 +10502,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR"/>
     <x v="4"/>
-    <x v="4"/>
+    <s v="GT-I9000"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/I9000XXJE9:user/release-keys"/>
@@ -10493,10 +10524,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="MoDaCo Custom ROM r20 for the Google Nexus One (FRF85B)"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
@@ -10515,10 +10546,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR"/>
     <x v="4"/>
-    <x v="4"/>
+    <s v="GT-I9000"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/I9000XXJE9:user/release-keys"/>
@@ -10537,10 +10568,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="MoDaCo Custom ROM r20 for the Google Nexus One (FRF85B)"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
@@ -10559,10 +10590,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR"/>
     <x v="4"/>
-    <x v="4"/>
+    <s v="GT-I9000"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/I9000XXJE9:user/release-keys"/>
@@ -10581,10 +10612,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="MoDaCo Custom ROM r20 for the Google Nexus One (FRF85B)"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
@@ -10603,10 +10634,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR"/>
     <x v="4"/>
-    <x v="4"/>
+    <s v="GT-I9000"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/I9000XXJE9:user/release-keys"/>
@@ -10625,10 +10656,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="MoDaCo Custom ROM r20 for the Google Nexus One (FRF85B)"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
@@ -10647,10 +10678,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR"/>
     <x v="4"/>
-    <x v="4"/>
+    <s v="GT-I9000"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/I9000XXJE9:user/release-keys"/>
@@ -10669,10 +10700,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="MoDaCo Custom ROM r20 for the Google Nexus One (FRF85B)"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
@@ -10691,10 +10722,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -10713,10 +10744,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -10735,10 +10766,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="20"/>
     <s v="FRF83"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF83"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF83/42295:user/release-keys"/>
@@ -10757,10 +10788,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="17"/>
-    <x v="21"/>
+    <s v="htc_supersonic"/>
     <x v="0"/>
     <x v="15"/>
     <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/195459:user/release-keys"/>
@@ -10779,10 +10810,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="17"/>
-    <x v="21"/>
+    <s v="htc_supersonic"/>
     <x v="0"/>
     <x v="15"/>
     <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/195459:user/release-keys"/>
@@ -10801,10 +10832,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="17"/>
-    <x v="21"/>
+    <s v="htc_supersonic"/>
     <x v="0"/>
     <x v="15"/>
     <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/195459:user/release-keys"/>
@@ -10823,10 +10854,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -10845,10 +10876,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -10867,10 +10898,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -10889,10 +10920,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -10911,10 +10942,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="10"/>
-    <x v="12"/>
+    <s v="inc"/>
     <x v="0"/>
     <x v="9"/>
     <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
@@ -10933,10 +10964,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="1"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/155070:user/release-keys"/>
@@ -10955,10 +10986,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="1"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/155070:user/release-keys"/>
@@ -10977,10 +11008,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="1"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/155070:user/release-keys"/>
@@ -10999,10 +11030,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="20"/>
     <s v="FRF83"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF83"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF83/42295:user/release-keys"/>
@@ -11021,10 +11052,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -11043,10 +11074,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -11065,10 +11096,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="21"/>
+    <s v="R2BA020"/>
     <s v="R2BA020"/>
     <x v="12"/>
-    <x v="22"/>
+    <s v="X10_1235-7379"/>
     <x v="1"/>
     <x v="10"/>
     <s v="SEMC/X10_1235-7379/SonyEricssonX10i/es209ra:1.6/R2BA020/1274691689:user/rel-keys"/>
@@ -11087,10 +11118,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="21"/>
+    <s v="R2BA020"/>
     <s v="R2BA020"/>
     <x v="12"/>
-    <x v="22"/>
+    <s v="X10_1235-7379"/>
     <x v="1"/>
     <x v="10"/>
     <s v="SEMC/X10_1235-7379/SonyEricssonX10i/es209ra:1.6/R2BA020/1274691689:user/rel-keys"/>
@@ -11109,10 +11140,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="21"/>
+    <s v="R2BA020"/>
     <s v="R2BA020"/>
     <x v="12"/>
-    <x v="22"/>
+    <s v="X10_1235-7379"/>
     <x v="1"/>
     <x v="10"/>
     <s v="SEMC/X10_1235-7379/SonyEricssonX10i/es209ra:1.6/R2BA020/1274691689:user/rel-keys"/>
@@ -11131,10 +11162,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="21"/>
+    <s v="R2BA020"/>
     <s v="R2BA020"/>
     <x v="12"/>
-    <x v="22"/>
+    <s v="X10_1235-7379"/>
     <x v="1"/>
     <x v="10"/>
     <s v="SEMC/X10_1235-7379/SonyEricssonX10i/es209ra:1.6/R2BA020/1274691689:user/rel-keys"/>
@@ -11153,10 +11184,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_FRRT/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267819287:user/rkeys"/>
@@ -11175,10 +11206,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_FRRT/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267819287:user/rkeys"/>
@@ -11197,10 +11228,10 @@
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="7"/>
+    <s v="ERD79"/>
     <s v="ERD79"/>
     <x v="13"/>
-    <x v="16"/>
+    <s v="htc_legend"/>
     <x v="1"/>
     <x v="11"/>
     <s v="htc_wwe/htc_legend/legend/legend:2.1/ERD79/154058:user/release-keys"/>
@@ -11219,10 +11250,10 @@
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="7"/>
+    <s v="ERD79"/>
     <s v="ERD79"/>
     <x v="13"/>
-    <x v="16"/>
+    <s v="htc_legend"/>
     <x v="1"/>
     <x v="11"/>
     <s v="htc_wwe/htc_legend/legend/legend:2.1/ERD79/154058:user/release-keys"/>
@@ -11241,10 +11272,10 @@
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="7"/>
+    <s v="ERD79"/>
     <s v="ERD79"/>
     <x v="13"/>
-    <x v="16"/>
+    <s v="htc_legend"/>
     <x v="1"/>
     <x v="11"/>
     <s v="htc_wwe/htc_legend/legend/legend:2.1/ERD79/154058:user/release-keys"/>
@@ -11263,10 +11294,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="22"/>
     <s v="EPF21B"/>
-    <x v="0"/>
-    <x v="23"/>
+    <s v="EPF21B"/>
+    <x v="0"/>
+    <s v="passion_eu"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion_eu/passion/mahimahi:2.1-update1/EPF21B/34082:user/release-keys"/>
@@ -11285,10 +11316,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="22"/>
     <s v="EPF21B"/>
-    <x v="0"/>
-    <x v="23"/>
+    <s v="EPF21B"/>
+    <x v="0"/>
+    <s v="passion_eu"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion_eu/passion/mahimahi:2.1-update1/EPF21B/34082:user/release-keys"/>
@@ -11307,10 +11338,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="22"/>
     <s v="EPF21B"/>
-    <x v="0"/>
-    <x v="23"/>
+    <s v="EPF21B"/>
+    <x v="0"/>
+    <s v="passion_eu"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion_eu/passion/mahimahi:2.1-update1/EPF21B/34082:user/release-keys"/>
@@ -11329,10 +11360,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="22"/>
     <s v="EPF21B"/>
-    <x v="0"/>
-    <x v="23"/>
+    <s v="EPF21B"/>
+    <x v="0"/>
+    <s v="passion_eu"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion_eu/passion/mahimahi:2.1-update1/EPF21B/34082:user/release-keys"/>
@@ -11351,10 +11382,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/EPE54B/26040:user/ota-rel-keys,release-keys"/>
@@ -11373,10 +11404,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/EPE54B/26040:user/ota-rel-keys,release-keys"/>
@@ -11395,10 +11426,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/EPE54B/26040:user/ota-rel-keys,release-keys"/>
@@ -11417,10 +11448,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -11439,10 +11470,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="23"/>
     <s v="EPF30"/>
-    <x v="0"/>
-    <x v="24"/>
+    <s v="EPF30"/>
+    <x v="0"/>
+    <s v="passion_vf"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion_vf/passion/mahimahi:2.1-update1/EPF30/35377:user/release-keys"/>
@@ -11461,10 +11492,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_FRRT/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267819287:user/rkeys"/>
@@ -11483,10 +11514,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -11505,10 +11536,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -11527,10 +11558,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -11549,10 +11580,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="14"/>
+    <s v="DRC83"/>
     <s v="DRC83"/>
     <x v="7"/>
-    <x v="25"/>
+    <s v="opal"/>
     <x v="1"/>
     <x v="6"/>
     <s v="tmobile/opal/sapphire/sapphire:1.5/COC10/150449:user/ota-rel-keys,release-keys"/>
@@ -11571,10 +11602,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -11593,10 +11624,10 @@
     <x v="5"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
+    <s v="EPE54B"/>
     <s v="VE4.0*"/>
     <x v="7"/>
-    <x v="25"/>
+    <s v="opal"/>
     <x v="1"/>
     <x v="14"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -11615,10 +11646,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -11637,10 +11668,10 @@
     <x v="5"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
+    <s v="EPE54B"/>
     <s v="VE4.0*"/>
     <x v="7"/>
-    <x v="25"/>
+    <s v="opal"/>
     <x v="1"/>
     <x v="14"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -11659,10 +11690,10 @@
     <x v="5"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
+    <s v="EPE54B"/>
     <s v="VE4.0*"/>
     <x v="7"/>
-    <x v="25"/>
+    <s v="opal"/>
     <x v="1"/>
     <x v="14"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -11681,10 +11712,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -11703,10 +11734,10 @@
     <x v="5"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
+    <s v="EPE54B"/>
     <s v="VE4.0*"/>
     <x v="7"/>
-    <x v="25"/>
+    <s v="opal"/>
     <x v="1"/>
     <x v="14"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -11725,10 +11756,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -11747,10 +11778,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="20"/>
     <s v="FRF83"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF83"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF83/42295:user/release-keys"/>
@@ -11769,10 +11800,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -11791,10 +11822,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -11813,10 +11844,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="20"/>
     <s v="FRF83"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF83"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF83/42295:user/release-keys"/>
@@ -11835,10 +11866,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="23"/>
     <s v="EPF30"/>
-    <x v="0"/>
-    <x v="24"/>
+    <s v="EPF30"/>
+    <x v="0"/>
+    <s v="passion_vf"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion_vf/passion/mahimahi:2.1-update1/EPF30/35377:user/release-keys"/>
@@ -11857,10 +11888,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -11879,10 +11910,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -11901,10 +11932,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -11923,10 +11954,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="20"/>
     <s v="FRF83"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF83"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF83/42295:user/release-keys"/>
@@ -11945,10 +11976,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -11967,10 +11998,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
     <s v="DRC79"/>
-    <x v="1"/>
-    <x v="1"/>
+    <s v="DRC79"/>
+    <x v="1"/>
+    <s v="htc_tattoo"/>
     <x v="1"/>
     <x v="1"/>
     <s v="htc_wwe/htc_tattoo/bahamas/bahamas:1.6/DRC79/74178:user/release-keys"/>
@@ -11989,10 +12020,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_FRRT/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267819287:user/rkeys"/>
@@ -12011,10 +12042,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_FRRT/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267819287:user/rkeys"/>
@@ -12033,10 +12064,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_FRRT/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267819287:user/rkeys"/>
@@ -12055,10 +12086,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="20"/>
     <s v="FRF83"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF83"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF83/42295:user/release-keys"/>
@@ -12077,10 +12108,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="23"/>
     <s v="EPF30"/>
-    <x v="0"/>
-    <x v="24"/>
+    <s v="EPF30"/>
+    <x v="0"/>
+    <s v="passion_vf"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion_vf/passion/mahimahi:2.1-update1/EPF30/35377:user/release-keys"/>
@@ -12099,10 +12130,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="20"/>
     <s v="FRF83"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF83"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF83/42295:user/release-keys"/>
@@ -12121,10 +12152,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="23"/>
     <s v="EPF30"/>
-    <x v="0"/>
-    <x v="24"/>
+    <s v="EPF30"/>
+    <x v="0"/>
+    <s v="passion_vf"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion_vf/passion/mahimahi:2.1-update1/EPF30/35377:user/release-keys"/>
@@ -12143,10 +12174,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -12165,10 +12196,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -12187,10 +12218,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -12209,10 +12240,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -12231,10 +12262,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="24"/>
+    <s v="SHOLS_U2_03.10.0"/>
     <s v="SHOLS_U2_03.10.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_TELUS/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_03.10.0/986318:user/rel-keys"/>
@@ -12253,10 +12284,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="24"/>
+    <s v="SHOLS_U2_03.10.0"/>
     <s v="SHOLS_U2_03.10.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_TELUS/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_03.10.0/986318:user/rel-keys"/>
@@ -12275,10 +12306,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="24"/>
+    <s v="SHOLS_U2_03.10.0"/>
     <s v="SHOLS_U2_03.10.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_TELUS/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_03.10.0/986318:user/rel-keys"/>
@@ -12297,10 +12328,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="24"/>
+    <s v="SHOLS_U2_03.10.0"/>
     <s v="SHOLS_U2_03.10.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_TELUS/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_03.10.0/986318:user/rel-keys"/>
@@ -12319,10 +12350,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="24"/>
+    <s v="SHOLS_U2_03.10.0"/>
     <s v="SHOLS_U2_03.10.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_TELUS/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_03.10.0/986318:user/rel-keys"/>
@@ -12341,10 +12372,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="24"/>
+    <s v="SHOLS_U2_03.10.0"/>
     <s v="SHOLS_U2_03.10.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_TELUS/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_03.10.0/986318:user/rel-keys"/>
@@ -12363,10 +12394,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -12385,10 +12416,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -12407,10 +12438,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -12429,10 +12460,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -12451,10 +12482,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -12473,10 +12504,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -12495,10 +12526,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="o2_de/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
@@ -12517,10 +12548,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="o2_de/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
@@ -12539,10 +12570,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="o2_de/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
@@ -12561,10 +12592,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="o2_de/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
@@ -12583,10 +12614,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="o2_de/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
@@ -12605,10 +12636,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="o2_de/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
@@ -12627,10 +12658,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -12649,10 +12680,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="ECLAIR.XXJE1"/>
     <x v="14"/>
-    <x v="17"/>
+    <s v="GT-I5700"/>
     <x v="1"/>
     <x v="12"/>
     <s v="Samsung/GT-I5700/GT-I5700/GT-I5700:2.1-update1/ECLAIR/XXJE1:user/ota-rel-keys,release-keys"/>
@@ -12671,10 +12702,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/175581:user/release-keys"/>
@@ -12693,10 +12724,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/175581:user/release-keys"/>
@@ -12715,10 +12746,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="25"/>
+    <s v="STCU_31.05.4"/>
     <s v="STCU_31.05.4.1274247921"/>
     <x v="18"/>
-    <x v="26"/>
+    <s v="choles"/>
     <x v="1"/>
     <x v="16"/>
     <s v="Moto-HK/choles/choles/choles:2.1-update1/STCU_31.05.4/1274247921:user/release-keys"/>
@@ -12737,10 +12768,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="25"/>
+    <s v="STCU_31.05.4"/>
     <s v="STCU_31.05.4.1274247921"/>
     <x v="18"/>
-    <x v="26"/>
+    <s v="choles"/>
     <x v="1"/>
     <x v="16"/>
     <s v="Moto-HK/choles/choles/choles:2.1-update1/STCU_31.05.4/1274247921:user/release-keys"/>
@@ -12759,10 +12790,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="25"/>
+    <s v="STCU_31.05.4"/>
     <s v="STCU_31.05.4.1274247921"/>
     <x v="18"/>
-    <x v="26"/>
+    <s v="choles"/>
     <x v="1"/>
     <x v="16"/>
     <s v="Moto-HK/choles/choles/choles:2.1-update1/STCU_31.05.4/1274247921:user/release-keys"/>
@@ -12781,10 +12812,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="25"/>
+    <s v="STCU_31.05.4"/>
     <s v="STCU_31.05.4.1274247921"/>
     <x v="18"/>
-    <x v="26"/>
+    <s v="choles"/>
     <x v="1"/>
     <x v="16"/>
     <s v="Moto-HK/choles/choles/choles:2.1-update1/STCU_31.05.4/1274247921:user/release-keys"/>
@@ -12803,10 +12834,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="25"/>
+    <s v="STCU_31.05.4"/>
     <s v="STCU_31.05.4.1274247921"/>
     <x v="18"/>
-    <x v="26"/>
+    <s v="choles"/>
     <x v="1"/>
     <x v="16"/>
     <s v="Moto-HK/choles/choles/choles:2.1-update1/STCU_31.05.4/1274247921:user/release-keys"/>
@@ -12825,10 +12856,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="25"/>
+    <s v="STCU_31.05.4"/>
     <s v="STCU_31.05.4.1274247921"/>
     <x v="18"/>
-    <x v="26"/>
+    <s v="choles"/>
     <x v="1"/>
     <x v="16"/>
     <s v="Moto-HK/choles/choles/choles:2.1-update1/STCU_31.05.4/1274247921:user/release-keys"/>
@@ -12847,10 +12878,10 @@
     <x v="6"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="Chinese_By_Martincz_Itfunz.com"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="Moto_RTEU/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267742362:user/rkeys"/>
@@ -12869,10 +12900,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="1"/>
     <x v="8"/>
     <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/155070:user/release-keys"/>
@@ -12891,10 +12922,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="12"/>
+    <s v="1.0.A.1.38"/>
     <s v="1.0.A.1.38"/>
     <x v="9"/>
-    <x v="11"/>
+    <s v="E10i_1238-0549"/>
     <x v="1"/>
     <x v="7"/>
     <s v="SEMC/E10i_1238-0549/SonyEricssonE10i/delta:1.6/1.0.A.1.38/0:user/release-keys"/>
@@ -12913,10 +12944,10 @@
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="7"/>
+    <s v="ERD79"/>
     <s v="ERD79"/>
     <x v="19"/>
-    <x v="27"/>
+    <s v="htc_desirec"/>
     <x v="1"/>
     <x v="17"/>
     <s v="verizon/htc_desirec/desirec/desirec:2.1/ERD79/165907:user/release-keys"/>
@@ -12935,10 +12966,10 @@
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="7"/>
+    <s v="ERD79"/>
     <s v="ERD79"/>
     <x v="19"/>
-    <x v="27"/>
+    <s v="htc_desirec"/>
     <x v="1"/>
     <x v="17"/>
     <s v="verizon/htc_desirec/desirec/desirec:2.1/ERD79/165907:user/release-keys"/>
@@ -12957,10 +12988,10 @@
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="7"/>
+    <s v="ERD79"/>
     <s v="ERD79"/>
     <x v="19"/>
-    <x v="27"/>
+    <s v="htc_desirec"/>
     <x v="1"/>
     <x v="17"/>
     <s v="verizon/htc_desirec/desirec/desirec:2.1/ERD79/165907:user/release-keys"/>
@@ -12979,10 +13010,10 @@
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="7"/>
+    <s v="ERD79"/>
     <s v="ERD79"/>
     <x v="19"/>
-    <x v="27"/>
+    <s v="htc_desirec"/>
     <x v="1"/>
     <x v="17"/>
     <s v="verizon/htc_desirec/desirec/desirec:2.1/ERD79/165907:user/release-keys"/>
@@ -13001,10 +13032,10 @@
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="7"/>
+    <s v="ERD79"/>
     <s v="ERD79"/>
     <x v="19"/>
-    <x v="27"/>
+    <s v="htc_desirec"/>
     <x v="1"/>
     <x v="17"/>
     <s v="verizon/htc_desirec/desirec/desirec:2.1/ERD79/165907:user/release-keys"/>
@@ -13023,10 +13054,10 @@
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="7"/>
+    <s v="ERD79"/>
     <s v="ERD79"/>
     <x v="19"/>
-    <x v="27"/>
+    <s v="htc_desirec"/>
     <x v="1"/>
     <x v="17"/>
     <s v="verizon/htc_desirec/desirec/desirec:2.1/ERD79/165907:user/release-keys"/>
@@ -13045,10 +13076,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13067,10 +13098,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13089,10 +13120,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13111,10 +13142,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13133,10 +13164,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13155,10 +13186,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13177,10 +13208,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -13199,10 +13230,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -13221,10 +13252,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -13243,10 +13274,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -13265,10 +13296,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -13287,10 +13318,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
     <s v="EPE54B"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="EPE54B"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -13309,10 +13340,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13331,10 +13362,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
@@ -13353,10 +13384,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="1"/>
     <x v="8"/>
     <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/153468:user/release-keys"/>
@@ -13375,10 +13406,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="1"/>
     <x v="8"/>
     <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/153468:user/release-keys"/>
@@ -13397,10 +13428,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
@@ -13419,10 +13450,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="1"/>
     <x v="8"/>
     <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/153468:user/release-keys"/>
@@ -13441,10 +13472,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
@@ -13463,10 +13494,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
@@ -13485,10 +13516,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="1"/>
     <x v="8"/>
     <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/153468:user/release-keys"/>
@@ -13507,10 +13538,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="1"/>
     <x v="8"/>
     <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/153468:user/release-keys"/>
@@ -13529,10 +13560,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
@@ -13551,10 +13582,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="1"/>
     <x v="8"/>
     <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/153468:user/release-keys"/>
@@ -13573,10 +13604,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="16"/>
+    <s v="SHOLS_U2_02.31.0"/>
     <s v="SHOLS_U2_02.31.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="1"/>
     <x v="5"/>
     <s v="MOTO_RTGB/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267817777:user/rkeys"/>
@@ -13595,10 +13626,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13617,10 +13648,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13639,10 +13670,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13661,10 +13692,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13683,10 +13714,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13705,10 +13736,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13727,10 +13758,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -13749,10 +13780,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -13771,10 +13802,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -13793,10 +13824,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -13815,10 +13846,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -13837,10 +13868,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -13859,10 +13890,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13881,10 +13912,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13903,10 +13934,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13925,10 +13956,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13947,10 +13978,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13969,10 +14000,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -13991,10 +14022,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -14013,10 +14044,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -14035,10 +14066,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -14057,10 +14088,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -14079,10 +14110,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -14101,10 +14132,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -14123,10 +14154,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -14145,10 +14176,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="Acer_LiquidE_1.100.05_EMEA_GEN1"/>
     <x v="3"/>
-    <x v="3"/>
+    <s v="a1_generic1"/>
     <x v="0"/>
     <x v="3"/>
     <s v="acer/a1_generic1/a1/salsa:2.1-update1/ECLAIR/1273494847:user/release-keys"/>
@@ -14167,10 +14198,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="1"/>
-    <x v="4"/>
+    <s v="ECLAIR"/>
     <s v="Acer_LiquidE_1.100.05_EMEA_GEN1"/>
     <x v="3"/>
-    <x v="3"/>
+    <s v="a1_generic1"/>
     <x v="0"/>
     <x v="3"/>
     <s v="acer/a1_generic1/a1/salsa:2.1-update1/ECLAIR/1273494847:user/release-keys"/>
@@ -14189,10 +14220,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -14211,10 +14242,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
+    <s v="EPE54B"/>
     <s v="EPE54B"/>
     <x v="7"/>
-    <x v="25"/>
+    <s v="opal"/>
     <x v="1"/>
     <x v="6"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -14233,10 +14264,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
+    <s v="EPE54B"/>
     <s v="EPE54B"/>
     <x v="7"/>
-    <x v="25"/>
+    <s v="opal"/>
     <x v="1"/>
     <x v="6"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -14255,10 +14286,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="17"/>
+    <s v="EPE54B"/>
     <s v="EPE54B"/>
     <x v="7"/>
-    <x v="25"/>
+    <s v="opal"/>
     <x v="1"/>
     <x v="6"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -14277,10 +14308,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="18"/>
+    <s v="DRC92"/>
     <s v="DRC92"/>
     <x v="7"/>
-    <x v="19"/>
+    <s v="vfpioneer"/>
     <x v="1"/>
     <x v="6"/>
     <s v="vodafone/vfpioneer/sapphire/sapphire:1.6/DRC92/15632:user/ota-rel-keys,release-keys"/>
@@ -14299,10 +14330,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="18"/>
+    <s v="DRC92"/>
     <s v="DRC92"/>
     <x v="7"/>
-    <x v="19"/>
+    <s v="vfpioneer"/>
     <x v="1"/>
     <x v="6"/>
     <s v="vodafone/vfpioneer/sapphire/sapphire:1.6/DRC92/15632:user/ota-rel-keys,release-keys"/>
@@ -14321,10 +14352,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="18"/>
+    <s v="DRC92"/>
     <s v="DRC92"/>
     <x v="7"/>
-    <x v="19"/>
+    <s v="vfpioneer"/>
     <x v="1"/>
     <x v="6"/>
     <s v="vodafone/vfpioneer/sapphire/sapphire:1.6/DRC92/15632:user/ota-rel-keys,release-keys"/>
@@ -14343,10 +14374,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="18"/>
+    <s v="DRC92"/>
     <s v="DRC92"/>
     <x v="7"/>
-    <x v="19"/>
+    <s v="vfpioneer"/>
     <x v="1"/>
     <x v="6"/>
     <s v="vodafone/vfpioneer/sapphire/sapphire:1.6/DRC92/15632:user/ota-rel-keys,release-keys"/>
@@ -14365,10 +14396,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="18"/>
+    <s v="DRC92"/>
     <s v="DRC92"/>
     <x v="7"/>
-    <x v="19"/>
+    <s v="vfpioneer"/>
     <x v="1"/>
     <x v="6"/>
     <s v="vodafone/vfpioneer/sapphire/sapphire:1.6/DRC92/15632:user/ota-rel-keys,release-keys"/>
@@ -14387,10 +14418,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="18"/>
+    <s v="DRC92"/>
     <s v="DRC92"/>
     <x v="7"/>
-    <x v="19"/>
+    <s v="vfpioneer"/>
     <x v="1"/>
     <x v="6"/>
     <s v="vodafone/vfpioneer/sapphire/sapphire:1.6/DRC92/15632:user/ota-rel-keys,release-keys"/>
@@ -14409,10 +14440,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="16"/>
-    <x v="20"/>
+    <s v="htc_hero"/>
     <x v="1"/>
     <x v="14"/>
     <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
@@ -14431,10 +14462,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="16"/>
-    <x v="20"/>
+    <s v="htc_hero"/>
     <x v="1"/>
     <x v="14"/>
     <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
@@ -14453,10 +14484,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="16"/>
-    <x v="20"/>
+    <s v="htc_hero"/>
     <x v="1"/>
     <x v="14"/>
     <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
@@ -14475,10 +14506,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="16"/>
-    <x v="20"/>
+    <s v="htc_hero"/>
     <x v="1"/>
     <x v="14"/>
     <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
@@ -14497,10 +14528,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="16"/>
-    <x v="20"/>
+    <s v="htc_hero"/>
     <x v="1"/>
     <x v="14"/>
     <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
@@ -14519,10 +14550,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="16"/>
-    <x v="20"/>
+    <s v="htc_hero"/>
     <x v="1"/>
     <x v="14"/>
     <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
@@ -14541,10 +14572,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -14563,10 +14594,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -14585,10 +14616,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -14607,10 +14638,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -14629,10 +14660,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -14651,10 +14682,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -14673,10 +14704,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="o2_de/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
@@ -14695,10 +14726,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="20"/>
+    <s v="FRF83"/>
     <s v="ChevyNo1 -&gt; Simply Stunning v4.3 - FRF57 Built from Source Code - 07-01-2010"/>
     <x v="5"/>
-    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -14717,10 +14748,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="20"/>
+    <s v="FRF83"/>
     <s v="ChevyNo1 -&gt; Simply Stunning v4.3 - FRF57 Built from Source Code - 07-01-2010"/>
     <x v="5"/>
-    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -14739,10 +14770,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="20"/>
+    <s v="FRF83"/>
     <s v="ChevyNo1 -&gt; Simply Stunning v4.3 - FRF57 Built from Source Code - 07-01-2010"/>
     <x v="5"/>
-    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -14761,10 +14792,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -14783,10 +14814,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="5"/>
     <s v="ESE81"/>
-    <x v="5"/>
-    <x v="5"/>
+    <s v="ESE81"/>
+    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -14805,10 +14836,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="26"/>
+    <s v="SHOLS_U2_02.36.0"/>
     <s v="SHOLS_U2_02.36.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="0"/>
     <x v="5"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -14827,10 +14858,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="26"/>
+    <s v="SHOLS_U2_02.36.0"/>
     <s v="SHOLS_U2_02.36.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="0"/>
     <x v="5"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -14849,10 +14880,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="26"/>
+    <s v="SHOLS_U2_02.36.0"/>
     <s v="SHOLS_U2_02.36.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="0"/>
     <x v="5"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -14871,10 +14902,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="26"/>
+    <s v="SHOLS_U2_02.36.0"/>
     <s v="SHOLS_U2_02.36.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="0"/>
     <x v="5"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -14893,10 +14924,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="26"/>
+    <s v="SHOLS_U2_02.36.0"/>
     <s v="SHOLS_U2_02.36.0"/>
     <x v="8"/>
-    <x v="8"/>
+    <s v="umts_sholes"/>
     <x v="0"/>
     <x v="5"/>
     <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
@@ -14915,10 +14946,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -14937,10 +14968,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -14959,10 +14990,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/175581:user/release-keys"/>
@@ -14981,10 +15012,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/175581:user/release-keys"/>
@@ -15003,10 +15034,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/175581:user/release-keys"/>
@@ -15025,10 +15056,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/175581:user/release-keys"/>
@@ -15047,10 +15078,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="tmeu/htc_bravo/bravo/bravo:2.1-update1/ERE27/175581:user/release-keys"/>
@@ -15069,10 +15100,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="27"/>
+    <s v="R2BA023"/>
     <s v="R2BA023"/>
     <x v="12"/>
-    <x v="28"/>
+    <s v="X10_1237-0692"/>
     <x v="1"/>
     <x v="10"/>
     <s v="SEMC/X10_1237-0692/SonyEricssonX10i/es209ra:1.6/R2BA023/1276006243:user/rel-keys"/>
@@ -15091,10 +15122,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="chunghwa/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
@@ -15113,10 +15144,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -15135,10 +15166,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -15157,10 +15188,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -15179,10 +15210,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -15201,10 +15232,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -15223,10 +15254,10 @@
     <x v="7"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="VillainROM"/>
     <x v="16"/>
-    <x v="20"/>
+    <s v="htc_hero"/>
     <x v="1"/>
     <x v="14"/>
     <s v="google/passion/passion/mahimahi:2.1/ERD79/22607:user/release-keys"/>
@@ -15245,10 +15276,10 @@
     <x v="7"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="VillainROM"/>
     <x v="16"/>
-    <x v="20"/>
+    <s v="htc_hero"/>
     <x v="1"/>
     <x v="14"/>
     <s v="google/passion/passion/mahimahi:2.1/ERD79/22607:user/release-keys"/>
@@ -15267,10 +15298,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="16"/>
-    <x v="20"/>
+    <s v="htc_hero"/>
     <x v="1"/>
     <x v="14"/>
     <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
@@ -15289,10 +15320,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="16"/>
-    <x v="20"/>
+    <s v="htc_hero"/>
     <x v="1"/>
     <x v="14"/>
     <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
@@ -15311,10 +15342,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="16"/>
-    <x v="20"/>
+    <s v="htc_hero"/>
     <x v="1"/>
     <x v="14"/>
     <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
@@ -15333,10 +15364,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="16"/>
-    <x v="20"/>
+    <s v="htc_hero"/>
     <x v="1"/>
     <x v="14"/>
     <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
@@ -15355,10 +15386,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="16"/>
-    <x v="20"/>
+    <s v="htc_hero"/>
     <x v="1"/>
     <x v="14"/>
     <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
@@ -15377,10 +15408,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="28"/>
+    <s v="FRF84B"/>
     <s v="Bugless Beast V0.4"/>
     <x v="5"/>
-    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -15399,10 +15430,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="28"/>
+    <s v="FRF84B"/>
     <s v="Bugless Beast V0.4"/>
     <x v="5"/>
-    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -15421,10 +15452,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="28"/>
+    <s v="FRF84B"/>
     <s v="Bugless Beast V0.4"/>
     <x v="5"/>
-    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -15443,10 +15474,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="28"/>
+    <s v="FRF84B"/>
     <s v="Bugless Beast V0.4"/>
     <x v="5"/>
-    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -15465,10 +15496,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
-    <x v="28"/>
+    <s v="FRF84B"/>
     <s v="Bugless Beast V0.4"/>
     <x v="5"/>
-    <x v="5"/>
+    <s v="voles"/>
     <x v="0"/>
     <x v="5"/>
     <s v="verizon/voles/sholes/sholes:2.1-update1/ESE81/29593:user/release-keys"/>
@@ -15487,10 +15518,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -15509,10 +15540,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -15531,10 +15562,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -15553,10 +15584,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -15575,10 +15606,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -15597,10 +15628,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -15619,10 +15650,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -15641,10 +15672,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -15663,10 +15694,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -15685,10 +15716,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -15707,10 +15738,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="ERE27"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
@@ -15729,10 +15760,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="DJ Droid v 1.0R1"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_generic/htc_bravo/bravo/bravo:2.2/FRF85B"/>
@@ -15751,10 +15782,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="DJ Droid v 1.0R1"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_generic/htc_bravo/bravo/bravo:2.2/FRF85B"/>
@@ -15773,10 +15804,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="DJ Droid v 1.0R1"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_generic/htc_bravo/bravo/bravo:2.2/FRF85B"/>
@@ -15795,10 +15826,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="DJ Droid v 1.0R1"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_generic/htc_bravo/bravo/bravo:2.2/FRF85B"/>
@@ -15817,10 +15848,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="DJ Droid v 1.0R1"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_generic/htc_bravo/bravo/bravo:2.2/FRF85B"/>
@@ -15839,10 +15870,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <s v="FRF85b"/>
     <s v="DJ Droid v 1.0R1"/>
     <x v="11"/>
-    <x v="13"/>
+    <s v="htc_bravo"/>
     <x v="0"/>
     <x v="8"/>
     <s v="htc_generic/htc_bravo/bravo/bravo:2.2/FRF85B"/>
@@ -15861,10 +15892,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -15883,10 +15914,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -15905,10 +15936,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -15927,10 +15958,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -15949,10 +15980,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
     <s v="FRF91"/>
-    <x v="0"/>
-    <x v="0"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
     <x v="0"/>
     <x v="0"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
@@ -15971,10 +16002,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="1"/>
+    <s v="DRC79"/>
     <s v="DRC79"/>
     <x v="20"/>
-    <x v="29"/>
+    <s v="a50"/>
     <x v="1"/>
     <x v="18"/>
     <s v="garmin-asus/a50/a50/A50:1.6/DRC79/A50-V4.0.6-user-20100313:user/test-keys"/>
@@ -15993,10 +16024,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="1"/>
+    <s v="DRC79"/>
     <s v="DRC79"/>
     <x v="20"/>
-    <x v="29"/>
+    <s v="a50"/>
     <x v="1"/>
     <x v="18"/>
     <s v="garmin-asus/a50/a50/A50:1.6/DRC79/A50-V4.0.6-user-20100313:user/test-keys"/>
@@ -16015,10 +16046,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="1"/>
+    <s v="DRC79"/>
     <s v="DRC79"/>
     <x v="20"/>
-    <x v="29"/>
+    <s v="a50"/>
     <x v="1"/>
     <x v="18"/>
     <s v="garmin-asus/a50/a50/A50:1.6/DRC79/A50-V4.0.6-user-20100313:user/test-keys"/>
@@ -16037,10 +16068,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="1"/>
+    <s v="DRC79"/>
     <s v="DRC79"/>
     <x v="20"/>
-    <x v="29"/>
+    <s v="a50"/>
     <x v="1"/>
     <x v="18"/>
     <s v="garmin-asus/a50/a50/A50:1.6/DRC79/A50-V4.0.6-user-20100313:user/test-keys"/>
@@ -16059,10 +16090,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="1"/>
+    <s v="DRC79"/>
     <s v="DRC79"/>
     <x v="20"/>
-    <x v="29"/>
+    <s v="a50"/>
     <x v="1"/>
     <x v="18"/>
     <s v="garmin-asus/a50/a50/A50:1.6/DRC79/A50-V4.0.6-user-20100313:user/test-keys"/>
@@ -16081,10 +16112,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="1"/>
+    <s v="DRC79"/>
     <s v="DRC79"/>
     <x v="20"/>
-    <x v="29"/>
+    <s v="a50"/>
     <x v="1"/>
     <x v="18"/>
     <s v="garmin-asus/a50/a50/A50:1.6/DRC79/A50-V4.0.6-user-20100313:user/test-keys"/>
@@ -16103,10 +16134,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -16125,10 +16156,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -16147,10 +16178,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -16169,10 +16200,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -16191,10 +16222,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -16213,10 +16244,10 @@
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="2"/>
     <s v="DMD64"/>
-    <x v="2"/>
-    <x v="2"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
     <x v="1"/>
     <x v="2"/>
     <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
@@ -16235,10 +16266,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="29"/>
+    <s v="unknown"/>
     <s v="KaosFroyo V20"/>
     <x v="7"/>
-    <x v="25"/>
+    <s v="opal"/>
     <x v="1"/>
     <x v="17"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
@@ -16257,10 +16288,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="29"/>
+    <s v="unknown"/>
     <s v="KaosFroyo V20"/>
     <x v="7"/>
-    <x v="25"/>
+    <s v="opal"/>
     <x v="1"/>
     <x v="17"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
@@ -16279,10 +16310,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="29"/>
+    <s v="unknown"/>
     <s v="KaosFroyo V20"/>
     <x v="7"/>
-    <x v="25"/>
+    <s v="opal"/>
     <x v="1"/>
     <x v="17"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
@@ -16301,10 +16332,10 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="29"/>
+    <s v="unknown"/>
     <s v="KaosFroyo V20"/>
     <x v="7"/>
-    <x v="25"/>
+    <s v="opal"/>
     <x v="1"/>
     <x v="17"/>
     <s v="google/passion/passion/mahimahi:2.2/FRF85B/42745:user/release-keys"/>
@@ -16323,10 +16354,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="1.32.651.6"/>
     <x v="17"/>
-    <x v="21"/>
+    <s v="htc_supersonic"/>
     <x v="0"/>
     <x v="15"/>
     <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/171253:user/release-keys"/>
@@ -16345,10 +16376,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="1.32.651.6"/>
     <x v="17"/>
-    <x v="21"/>
+    <s v="htc_supersonic"/>
     <x v="0"/>
     <x v="15"/>
     <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/171253:user/release-keys"/>
@@ -16367,10 +16398,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="1.32.651.6"/>
     <x v="17"/>
-    <x v="21"/>
+    <s v="htc_supersonic"/>
     <x v="0"/>
     <x v="15"/>
     <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/171253:user/release-keys"/>
@@ -16389,10 +16420,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="1.32.651.6"/>
     <x v="17"/>
-    <x v="21"/>
+    <s v="htc_supersonic"/>
     <x v="0"/>
     <x v="15"/>
     <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/171253:user/release-keys"/>
@@ -16411,10 +16442,10 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="1.32.651.6"/>
     <x v="17"/>
-    <x v="21"/>
+    <s v="htc_supersonic"/>
     <x v="0"/>
     <x v="15"/>
     <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/171253:user/release-keys"/>
@@ -16433,23 +16464,1343 @@
     <x v="2"/>
     <x v="2"/>
     <x v="0"/>
-    <x v="13"/>
+    <s v="ERE27"/>
     <s v="1.32.651.6"/>
     <x v="17"/>
-    <x v="21"/>
+    <s v="htc_supersonic"/>
     <x v="0"/>
     <x v="15"/>
     <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/171253:user/release-keys"/>
     <x v="0"/>
     <x v="0"/>
     <s v="A100000D9DE2C2"/>
+  </r>
+  <r>
+    <n v="460"/>
+    <d v="2010-07-12T11:54:56"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="16.576699999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="354957030632981"/>
+  </r>
+  <r>
+    <n v="461"/>
+    <d v="2010-07-13T01:12:29"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="16.830100000000002"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957030632981"/>
+  </r>
+  <r>
+    <n v="462"/>
+    <d v="2010-07-13T01:13:00"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="23.451899999999998"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957030632981"/>
+  </r>
+  <r>
+    <n v="463"/>
+    <d v="2010-07-13T02:09:14"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="19.305700000000002"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032594197"/>
+  </r>
+  <r>
+    <n v="464"/>
+    <d v="2010-07-13T02:09:31"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="16.290299999999998"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032594197"/>
+  </r>
+  <r>
+    <n v="465"/>
+    <d v="2010-07-13T02:09:50"/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="15.5792"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="354957032594197"/>
+  </r>
+  <r>
+    <n v="466"/>
+    <d v="2010-07-13T02:10:07"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="19.7364"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032594197"/>
+  </r>
+  <r>
+    <n v="467"/>
+    <d v="2010-07-13T02:10:34"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="25.552"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032594197"/>
+  </r>
+  <r>
+    <n v="468"/>
+    <d v="2010-07-13T02:11:00"/>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="24.5002"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032594197"/>
+  </r>
+  <r>
+    <n v="469"/>
+    <d v="2010-07-13T05:02:01"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.9656199999999999"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="ECLAIR"/>
+    <s v="LK2.05.1 / SamdroidMod 1.2.x [samdroid.net]"/>
+    <x v="14"/>
+    <s v="GT-I5700"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="Samsung/GT-I5700/GT-I5700/GT-I5700:2.1-update1/ECLAIR/XXJE1:user/ota-rel-keys,release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="358665030069379"/>
+  </r>
+  <r>
+    <n v="470"/>
+    <d v="2010-07-13T05:02:25"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.8317999999999999"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="ECLAIR"/>
+    <s v="LK2.05.1 / SamdroidMod 1.2.x [samdroid.net]"/>
+    <x v="14"/>
+    <s v="GT-I5700"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="Samsung/GT-I5700/GT-I5700/GT-I5700:2.1-update1/ECLAIR/XXJE1:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="358665030069379"/>
+  </r>
+  <r>
+    <n v="471"/>
+    <d v="2010-07-13T05:02:54"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.9648500000000002"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="ECLAIR"/>
+    <s v="LK2.05.1 / SamdroidMod 1.2.x [samdroid.net]"/>
+    <x v="14"/>
+    <s v="GT-I5700"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="Samsung/GT-I5700/GT-I5700/GT-I5700:2.1-update1/ECLAIR/XXJE1:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="358665030069379"/>
+  </r>
+  <r>
+    <n v="472"/>
+    <d v="2010-07-13T05:03:23"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.6047700000000003"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="ECLAIR"/>
+    <s v="LK2.05.1 / SamdroidMod 1.2.x [samdroid.net]"/>
+    <x v="14"/>
+    <s v="GT-I5700"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="Samsung/GT-I5700/GT-I5700/GT-I5700:2.1-update1/ECLAIR/XXJE1:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="358665030069379"/>
+  </r>
+  <r>
+    <n v="473"/>
+    <d v="2010-07-13T05:03:59"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.2493599999999998"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="ECLAIR"/>
+    <s v="LK2.05.1 / SamdroidMod 1.2.x [samdroid.net]"/>
+    <x v="14"/>
+    <s v="GT-I5700"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="Samsung/GT-I5700/GT-I5700/GT-I5700:2.1-update1/ECLAIR/XXJE1:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="358665030069379"/>
+  </r>
+  <r>
+    <n v="474"/>
+    <d v="2010-07-13T05:58:17"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="1.07376"/>
+    <x v="28"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="Donut"/>
+    <s v="sdk-eng 1.6 Donut 20842 test-keys"/>
+    <x v="21"/>
+    <s v="sdk"/>
+    <x v="1"/>
+    <x v="19"/>
+    <s v="generic/sdk/generic/:1.6/Donut/20842:eng/test-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="000000000000000"/>
+  </r>
+  <r>
+    <n v="475"/>
+    <d v="2010-07-13T05:58:18"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12.309200000000001"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="17"/>
+    <s v="htc_supersonic"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/195459:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A100000D9C1F23"/>
+  </r>
+  <r>
+    <n v="476"/>
+    <d v="2010-07-13T05:58:39"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12.1629"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="17"/>
+    <s v="htc_supersonic"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/195459:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A100000D9C1F23"/>
+  </r>
+  <r>
+    <n v="477"/>
+    <d v="2010-07-13T05:58:57"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="0.741757"/>
+    <x v="28"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="Donut"/>
+    <s v="sdk-eng 1.6 Donut 20842 test-keys"/>
+    <x v="21"/>
+    <s v="sdk"/>
+    <x v="1"/>
+    <x v="19"/>
+    <s v="generic/sdk/generic/:1.6/Donut/20842:eng/test-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="000000000000000"/>
+  </r>
+  <r>
+    <n v="478"/>
+    <d v="2010-07-13T06:00:08"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18.158100000000001"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="17"/>
+    <s v="htc_supersonic"/>
+    <x v="0"/>
+    <x v="15"/>
+    <s v="sprint/htc_supersonic/supersonic/supersonic:2.1-update1/ERE27/195459:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A100000D9C1F23"/>
+  </r>
+  <r>
+    <n v="479"/>
+    <d v="2010-07-13T06:04:59"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="1.23522"/>
+    <x v="28"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="Donut"/>
+    <s v="sdk-eng 1.6 Donut 20842 test-keys"/>
+    <x v="21"/>
+    <s v="sdk"/>
+    <x v="1"/>
+    <x v="19"/>
+    <s v="generic/sdk/generic/:1.6/Donut/20842:eng/test-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="000000000000000"/>
+  </r>
+  <r>
+    <n v="480"/>
+    <d v="2010-07-13T06:23:19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.9541500000000003"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DMD64"/>
+    <s v="DMD64"/>
+    <x v="2"/>
+    <s v="kila"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="tmobile/kila/dream/trout:1.6/DMD64/21415:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="358279010135935"/>
+  </r>
+  <r>
+    <n v="481"/>
+    <d v="2010-07-13T11:45:04"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.8718"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032508395"/>
+  </r>
+  <r>
+    <n v="482"/>
+    <d v="2010-07-13T11:45:22"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18.7102"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032508395"/>
+  </r>
+  <r>
+    <n v="483"/>
+    <d v="2010-07-13T11:45:40"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14.5168"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="354957032508395"/>
+  </r>
+  <r>
+    <n v="484"/>
+    <d v="2010-07-13T11:45:58"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.542000000000002"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032508395"/>
+  </r>
+  <r>
+    <n v="485"/>
+    <d v="2010-07-13T11:46:22"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23.548100000000002"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032508395"/>
+  </r>
+  <r>
+    <n v="486"/>
+    <d v="2010-07-13T11:46:47"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="24.094899999999999"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032508395"/>
+  </r>
+  <r>
+    <n v="487"/>
+    <d v="2010-07-13T11:47:13"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="22.335000000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032508395"/>
+  </r>
+  <r>
+    <n v="488"/>
+    <d v="2010-07-13T21:34:45"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.9232"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <s v="htc_bravo"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="o2_de/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841037491830"/>
+  </r>
+  <r>
+    <n v="489"/>
+    <d v="2010-07-13T21:35:20"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12.9665"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <s v="htc_bravo"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="o2_de/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841037491830"/>
+  </r>
+  <r>
+    <n v="490"/>
+    <d v="2010-07-13T21:36:36"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17.783300000000001"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <s v="htc_bravo"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="o2_de/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841037491830"/>
+  </r>
+  <r>
+    <n v="491"/>
+    <d v="2010-07-13T21:37:54"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="18.630500000000001"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <s v="htc_bravo"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="o2_de/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841037491830"/>
+  </r>
+  <r>
+    <n v="492"/>
+    <d v="2010-07-13T21:38:26"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11.9939"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <s v="htc_bravo"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="o2_de/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="357841037491830"/>
+  </r>
+  <r>
+    <n v="493"/>
+    <d v="2010-07-13T21:38:56"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17.805399999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <s v="htc_bravo"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="o2_de/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841037491830"/>
+  </r>
+  <r>
+    <n v="494"/>
+    <d v="2010-07-13T21:41:17"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.794499999999999"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="10"/>
+    <s v="inc"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1000013576A3A"/>
+  </r>
+  <r>
+    <n v="495"/>
+    <d v="2010-07-13T21:42:01"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.0045"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="10"/>
+    <s v="inc"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1000013576A3A"/>
+  </r>
+  <r>
+    <n v="496"/>
+    <d v="2010-07-13T21:42:23"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17.793199999999999"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="10"/>
+    <s v="inc"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1000013576A3A"/>
+  </r>
+  <r>
+    <n v="497"/>
+    <d v="2010-07-13T21:42:44"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12.3719"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="10"/>
+    <s v="inc"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="A1000013576A3A"/>
+  </r>
+  <r>
+    <n v="498"/>
+    <d v="2010-07-13T21:43:05"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.944000000000001"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="10"/>
+    <s v="inc"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1000013576A3A"/>
+  </r>
+  <r>
+    <n v="499"/>
+    <d v="2010-07-13T21:43:23"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12.912800000000001"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="10"/>
+    <s v="inc"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A1000013576A3A"/>
+  </r>
+  <r>
+    <n v="500"/>
+    <d v="2010-07-14T03:09:54"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.2483"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="10"/>
+    <s v="inc"/>
+    <x v="0"/>
+    <x v="9"/>
+    <s v="verizon/inc/inc/inc:2.1-update1/ERE27/161494:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="A100001353CB38"/>
+  </r>
+  <r>
+    <n v="501"/>
+    <d v="2010-07-14T03:58:57"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.9749"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="SHOLS_U2_02.34.0"/>
+    <s v="SHOLS_U2_02.34.0"/>
+    <x v="8"/>
+    <s v="umts_sholes"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="MOTO_DACH/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.34.0/8858700:user/rel-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635030186485"/>
+  </r>
+  <r>
+    <n v="502"/>
+    <d v="2010-07-14T03:59:17"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.579800000000001"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="SHOLS_U2_02.34.0"/>
+    <s v="SHOLS_U2_02.34.0"/>
+    <x v="8"/>
+    <s v="umts_sholes"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="MOTO_DACH/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.34.0/8858700:user/rel-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="354635030186485"/>
+  </r>
+  <r>
+    <n v="503"/>
+    <d v="2010-07-14T03:59:35"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="9.9531899999999993"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="SHOLS_U2_02.34.0"/>
+    <s v="SHOLS_U2_02.34.0"/>
+    <x v="8"/>
+    <s v="umts_sholes"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="MOTO_DACH/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.34.0/8858700:user/rel-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635030186485"/>
+  </r>
+  <r>
+    <n v="504"/>
+    <d v="2010-07-14T04:00:01"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14.7204"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="SHOLS_U2_02.34.0"/>
+    <s v="SHOLS_U2_02.34.0"/>
+    <x v="8"/>
+    <s v="umts_sholes"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="MOTO_DACH/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.34.0/8858700:user/rel-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635030186485"/>
+  </r>
+  <r>
+    <n v="505"/>
+    <d v="2010-07-14T04:00:21"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.2029899999999998"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="SHOLS_U2_02.34.0"/>
+    <s v="SHOLS_U2_02.34.0"/>
+    <x v="8"/>
+    <s v="umts_sholes"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="MOTO_DACH/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.34.0/8858700:user/rel-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635030186485"/>
+  </r>
+  <r>
+    <n v="506"/>
+    <d v="2010-07-14T04:00:52"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14.1965"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="SHOLS_U2_02.34.0"/>
+    <s v="SHOLS_U2_02.34.0"/>
+    <x v="8"/>
+    <s v="umts_sholes"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="MOTO_DACH/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.34.0/8858700:user/rel-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635030186485"/>
+  </r>
+  <r>
+    <n v="507"/>
+    <d v="2010-07-14T07:18:42"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.7440199999999999"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DRC83"/>
+    <s v="DRC83"/>
+    <x v="2"/>
+    <s v="kila"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="tmobile/kila/dream/trout:1.6/DRC83/14721:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="358280011627268"/>
+  </r>
+  <r>
+    <n v="508"/>
+    <d v="2010-07-14T07:20:45"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.2066999999999997"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DRC83"/>
+    <s v="DRC83"/>
+    <x v="2"/>
+    <s v="kila"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="tmobile/kila/dream/trout:1.6/DRC83/14721:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="358280011627268"/>
+  </r>
+  <r>
+    <n v="509"/>
+    <d v="2010-07-14T07:45:23"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.5209299999999999"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="EPE54B"/>
+    <s v="EPE54B"/>
+    <x v="2"/>
+    <s v="kila"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="352778030238120"/>
+  </r>
+  <r>
+    <n v="510"/>
+    <d v="2010-07-14T07:45:45"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6.0240200000000002"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="EPE54B"/>
+    <s v="EPE54B"/>
+    <x v="2"/>
+    <s v="kila"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="352778030238120"/>
+  </r>
+  <r>
+    <n v="511"/>
+    <d v="2010-07-14T07:46:05"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.3785699999999999"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="EPE54B"/>
+    <s v="EPE54B"/>
+    <x v="2"/>
+    <s v="kila"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="352778030238120"/>
+  </r>
+  <r>
+    <n v="512"/>
+    <d v="2010-07-14T07:46:29"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.1693800000000003"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="EPE54B"/>
+    <s v="EPE54B"/>
+    <x v="2"/>
+    <s v="kila"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="352778030238120"/>
+  </r>
+  <r>
+    <n v="513"/>
+    <d v="2010-07-14T07:46:57"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6.5634899999999998"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="EPE54B"/>
+    <s v="EPE54B"/>
+    <x v="2"/>
+    <s v="kila"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="352778030238120"/>
+  </r>
+  <r>
+    <n v="514"/>
+    <d v="2010-07-14T07:47:29"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.3888800000000003"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="EPE54B"/>
+    <s v="EPE54B"/>
+    <x v="2"/>
+    <s v="kila"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="352778030238120"/>
+  </r>
+  <r>
+    <n v="515"/>
+    <d v="2010-07-14T12:42:15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.4013"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DRC83"/>
+    <s v="dream_devphone-userdebug 1.6 DRC83 14721 test-keys"/>
+    <x v="2"/>
+    <s v="dream_devphone"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="android-devphone1/dream_devphone/dream/trout:1.6/DRC83/14721:userdebug/adp,test-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="351676030195400"/>
+  </r>
+  <r>
+    <n v="516"/>
+    <d v="2010-07-14T13:49:43"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="9.5188900000000007"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <s v="htc_bravo"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841030807610"/>
+  </r>
+  <r>
+    <n v="517"/>
+    <d v="2010-07-14T13:58:19"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2.1348099999999999"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="ECLAIR"/>
+    <s v="ECLAIR.XXJCB"/>
+    <x v="14"/>
+    <s v="GT-I5700"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="Samsung/GT-I5700/GT-I5700/GT-I5700:2.1-update1/ECLAIR/XXJCB:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="355299031261125"/>
+  </r>
+  <r>
+    <n v="518"/>
+    <d v="2010-07-14T13:59:33"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.210699999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <s v="htc_bravo"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="htc_wwe/htc_bravo/bravo/bravo:2.1-update1/ERE27/174215:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841030807610"/>
+  </r>
+  <r>
+    <n v="519"/>
+    <d v="2010-07-14T13:59:33"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.3471099999999998"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="ECLAIR"/>
+    <s v="ECLAIR.XXJCB"/>
+    <x v="14"/>
+    <s v="GT-I5700"/>
+    <x v="1"/>
+    <x v="12"/>
+    <s v="Samsung/GT-I5700/GT-I5700/GT-I5700:2.1-update1/ECLAIR/XXJCB:user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="355299031261125"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Benchmarks" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" grandTotalCaption="Average" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Device" colHeaderCaption="Bench" fieldListSortAscending="1">
-  <location ref="B6:I27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <location ref="B6:I28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -16465,11 +17816,11 @@
       </items>
     </pivotField>
     <pivotField name="Benchmark Version" axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
+      <items count="13">
         <item x="2"/>
         <item x="3"/>
+        <item m="1" x="11"/>
         <item m="1" x="10"/>
-        <item m="1" x="9"/>
         <item x="0"/>
         <item x="1"/>
         <item x="4"/>
@@ -16477,17 +17828,18 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0" countASubtotal="1"/>
     <pivotField name="Device" axis="axisRow" showAll="0">
-      <items count="32">
+      <items count="34">
         <item x="17"/>
+        <item m="1" x="32"/>
+        <item m="1" x="31"/>
         <item m="1" x="30"/>
-        <item m="1" x="29"/>
-        <item m="1" x="28"/>
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item x="2"/>
@@ -16515,6 +17867,8 @@
         <item x="25"/>
         <item x="26"/>
         <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16536,15 +17890,16 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField name="Manufacturer" axis="axisPage" showAll="0">
-      <items count="9">
+      <items count="10">
+        <item m="1" x="8"/>
+        <item x="0"/>
         <item m="1" x="7"/>
-        <item x="0"/>
-        <item m="1" x="6"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16559,7 +17914,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="22">
+      <items count="23">
         <item n="Sony Ericsson X10i" sd="0" x="8"/>
         <item sd="0" x="0"/>
         <item n="Acer Liquid" sd="0" x="2"/>
@@ -16578,10 +17933,11 @@
         <item x="13"/>
         <item n="Motorola XT720/701" sd="0" x="16"/>
         <item n="HTC Magic" sd="0" x="17"/>
-        <item n="HTC Dream (G1)" sd="0" x="18"/>
-        <item n="Motorola Milestone/Droid" sd="0" x="19"/>
-        <item n="Nuvifone A50" sd="0" x="20"/>
-        <item n="HTC Hero/Droid Eris" sd="0" x="21"/>
+        <item n="Motorola Milestone/Droid" sd="0" x="18"/>
+        <item n="Nuvifone A50" sd="0" x="19"/>
+        <item n="HTC Hero/Droid Eris" sd="0" x="20"/>
+        <item n="Emulator" sd="0" x="21"/>
+        <item n="HTC Dream (G1)" sd="0" x="22"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -16598,7 +17954,7 @@
     <field x="20"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="20">
+  <rowItems count="21">
     <i>
       <x v="9"/>
     </i>
@@ -16624,7 +17980,7 @@
       <x/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="18"/>
     </i>
     <i>
       <x v="6"/>
@@ -16633,13 +17989,13 @@
       <x v="11"/>
     </i>
     <i>
+      <x v="19"/>
+    </i>
+    <i>
       <x v="20"/>
     </i>
     <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="18"/>
+      <x v="22"/>
     </i>
     <i>
       <x v="17"/>
@@ -16655,6 +18011,9 @@
     </i>
     <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="21"/>
     </i>
     <i t="grand">
       <x/>
@@ -16695,6 +18054,42 @@
     <dataField name="FPS" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="71">
+    <format dxfId="581">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="580">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="579">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="578">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="577">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="576">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="575">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="574">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
     <format dxfId="573">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
@@ -16706,156 +18101,120 @@
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="571">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="570">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
     <format dxfId="569">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
     <format dxfId="568">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="567">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="566">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="565">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="564">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="563">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="562">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="561">
-      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="560">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="559">
+    <format dxfId="567">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="558">
+    <format dxfId="566">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="557">
+    <format dxfId="565">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="556">
+    <format dxfId="564">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="555">
+    <format dxfId="563">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="554">
+    <format dxfId="562">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="553">
+    <format dxfId="561">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="552">
+    <format dxfId="560">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="551">
+    <format dxfId="559">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="550">
+    <format dxfId="558">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="549">
+    <format dxfId="557">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="548">
+    <format dxfId="556">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="547">
+    <format dxfId="555">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="546">
+    <format dxfId="554">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="545">
+    <format dxfId="553">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="544">
+    <format dxfId="552">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="543">
+    <format dxfId="551">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="542">
+    <format dxfId="550">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="541">
+    <format dxfId="549">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="540">
+    <format dxfId="548">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="539">
+    <format dxfId="547">
       <pivotArea field="6" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="538">
+    <format dxfId="546">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="537">
+    <format dxfId="545">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -16864,7 +18223,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="536">
+    <format dxfId="544">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -16873,7 +18232,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="535">
+    <format dxfId="543">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -16882,7 +18241,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="534">
+    <format dxfId="542">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -16891,7 +18250,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="533">
+    <format dxfId="541">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -16900,7 +18259,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="532">
+    <format dxfId="540">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -16909,7 +18268,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="531">
+    <format dxfId="539">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -16918,7 +18277,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="530">
+    <format dxfId="538">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -16927,7 +18286,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="529">
+    <format dxfId="537">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -16936,7 +18295,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="528">
+    <format dxfId="536">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -16945,16 +18304,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="527">
-      <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
-        <references count="1">
-          <reference field="20" count="1">
-            <x v="18"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="526">
+    <format dxfId="535">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -16963,7 +18313,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="525">
+    <format dxfId="534">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -16972,7 +18322,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="524">
+    <format dxfId="533">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -16981,7 +18331,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="523">
+    <format dxfId="532">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -16990,11 +18340,21 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="522">
+    <format dxfId="531">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
             <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -17004,7 +18364,7 @@
         <references count="2">
           <reference field="2" count="0" selected="0"/>
           <reference field="20" count="1">
-            <x v="9"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -17014,7 +18374,7 @@
         <references count="2">
           <reference field="2" count="0" selected="0"/>
           <reference field="20" count="1">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -17024,7 +18384,7 @@
         <references count="2">
           <reference field="2" count="0" selected="0"/>
           <reference field="20" count="1">
-            <x v="2"/>
+            <x v="14"/>
           </reference>
         </references>
       </pivotArea>
@@ -17034,7 +18394,7 @@
         <references count="2">
           <reference field="2" count="0" selected="0"/>
           <reference field="20" count="1">
-            <x v="14"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -17044,7 +18404,7 @@
         <references count="2">
           <reference field="2" count="0" selected="0"/>
           <reference field="20" count="1">
-            <x v="7"/>
+            <x v="16"/>
           </reference>
         </references>
       </pivotArea>
@@ -17054,7 +18414,7 @@
         <references count="2">
           <reference field="2" count="0" selected="0"/>
           <reference field="20" count="1">
-            <x v="16"/>
+            <x v="10"/>
           </reference>
         </references>
       </pivotArea>
@@ -17064,7 +18424,7 @@
         <references count="2">
           <reference field="2" count="0" selected="0"/>
           <reference field="20" count="1">
-            <x v="10"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -17074,7 +18434,7 @@
         <references count="2">
           <reference field="2" count="0" selected="0"/>
           <reference field="20" count="1">
-            <x v="0"/>
+            <x v="18"/>
           </reference>
         </references>
       </pivotArea>
@@ -17084,7 +18444,7 @@
         <references count="2">
           <reference field="2" count="0" selected="0"/>
           <reference field="20" count="1">
-            <x v="19"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -17094,7 +18454,7 @@
         <references count="2">
           <reference field="2" count="0" selected="0"/>
           <reference field="20" count="1">
-            <x v="6"/>
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
@@ -17104,7 +18464,7 @@
         <references count="2">
           <reference field="2" count="0" selected="0"/>
           <reference field="20" count="1">
-            <x v="11"/>
+            <x v="19"/>
           </reference>
         </references>
       </pivotArea>
@@ -17119,7 +18479,67 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -17129,70 +18549,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="18"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="17"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0" selected="0"/>
-          <reference field="20" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
   </formats>
   <conditionalFormats count="2">
     <conditionalFormat priority="2">
-      <pivotAreas count="19">
+      <pivotAreas count="20">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
             <reference field="4294967294" count="1" selected="0">
@@ -17351,7 +18711,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="19"/>
+              <x v="18"/>
             </reference>
           </references>
         </pivotArea>
@@ -17405,6 +18765,24 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+            </reference>
+            <reference field="20" count="1">
               <x v="20"/>
             </reference>
           </references>
@@ -17423,25 +18801,7 @@
               <x v="5"/>
             </reference>
             <reference field="20" count="1">
-              <x v="21"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="6" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
+              <x v="22"/>
             </reference>
           </references>
         </pivotArea>
@@ -17535,10 +18895,28 @@
             </reference>
           </references>
         </pivotArea>
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="6" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="21"/>
+            </reference>
+          </references>
+        </pivotArea>
       </pivotAreas>
     </conditionalFormat>
     <conditionalFormat priority="1">
-      <pivotAreas count="19">
+      <pivotAreas count="20">
         <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
@@ -17625,7 +19003,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="19"/>
+              <x v="18"/>
             </reference>
           </references>
         </pivotArea>
@@ -17655,6 +19033,16 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
               <x v="20"/>
             </reference>
           </references>
@@ -17665,17 +19053,7 @@
               <x v="0"/>
             </reference>
             <reference field="20" count="1">
-              <x v="21"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
+              <x v="22"/>
             </reference>
           </references>
         </pivotArea>
@@ -17726,6 +19104,16 @@
             </reference>
             <reference field="20" count="1">
               <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="21"/>
             </reference>
           </references>
         </pivotArea>
@@ -18190,8 +19578,8 @@
   </sheetPr>
   <dimension ref="B2:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -18298,25 +19686,25 @@
         <v>6</v>
       </c>
       <c r="C9" s="11">
-        <v>16.153445454545459</v>
+        <v>16.174720000000004</v>
       </c>
       <c r="D9" s="12">
-        <v>14.774345263157894</v>
+        <v>14.881148181818183</v>
       </c>
       <c r="E9" s="12">
-        <v>19.138823529411763</v>
+        <v>19.12504736842105</v>
       </c>
       <c r="F9" s="12">
-        <v>18.086912000000002</v>
+        <v>18.228029090909093</v>
       </c>
       <c r="G9" s="12">
-        <v>24.953729411764709</v>
+        <v>24.870420000000003</v>
       </c>
       <c r="H9" s="21">
-        <v>23.114431578947368</v>
+        <v>23.157331818181817</v>
       </c>
       <c r="I9" s="21">
-        <v>19.180475438596492</v>
+        <v>19.253965384615384</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -18344,25 +19732,25 @@
         <v>23</v>
       </c>
       <c r="C11" s="11">
-        <v>13.2644</v>
+        <v>13.176500000000001</v>
       </c>
       <c r="D11" s="12">
-        <v>12.229766666666665</v>
+        <v>12.2653</v>
       </c>
       <c r="E11" s="12">
-        <v>15.701433333333332</v>
+        <v>15.762074999999999</v>
       </c>
       <c r="F11" s="12">
-        <v>17.591633333333334</v>
+        <v>17.642025</v>
       </c>
       <c r="G11" s="12">
-        <v>17.847966666666668</v>
+        <v>17.759340000000002</v>
       </c>
       <c r="H11" s="21">
-        <v>20.0868</v>
+        <v>19.989366666666665</v>
       </c>
       <c r="I11" s="21">
-        <v>15.887011764705884</v>
+        <v>16.006183333333329</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -18370,25 +19758,25 @@
         <v>16</v>
       </c>
       <c r="C12" s="11">
-        <v>12.297079</v>
+        <v>12.121348333333332</v>
       </c>
       <c r="D12" s="12">
-        <v>11.433886666666666</v>
+        <v>11.476964615384615</v>
       </c>
       <c r="E12" s="12">
-        <v>15.406320000000003</v>
+        <v>15.453309090909094</v>
       </c>
       <c r="F12" s="12">
-        <v>18.296055555555554</v>
+        <v>18.24699</v>
       </c>
       <c r="G12" s="12">
-        <v>17.734790909090908</v>
+        <v>17.809433333333335</v>
       </c>
       <c r="H12" s="21">
-        <v>18.814825000000003</v>
+        <v>18.555135714285715</v>
       </c>
       <c r="I12" s="21">
-        <v>15.621339531250001</v>
+        <v>15.563862777777778</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -18422,10 +19810,10 @@
         <v>28</v>
       </c>
       <c r="C14" s="11">
-        <v>12.1503</v>
+        <v>12.229749999999999</v>
       </c>
       <c r="D14" s="12">
-        <v>11.2333</v>
+        <v>11.543166666666666</v>
       </c>
       <c r="E14" s="12">
         <v>14.893899999999999</v>
@@ -18434,13 +19822,13 @@
         <v>14.666499999999999</v>
       </c>
       <c r="G14" s="12">
-        <v>17.305499999999999</v>
+        <v>17.7318</v>
       </c>
       <c r="H14" s="21">
         <v>16.0914</v>
       </c>
       <c r="I14" s="21">
-        <v>14.126066666666667</v>
+        <v>14.147066666666666</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -18472,25 +19860,25 @@
         <v>31</v>
       </c>
       <c r="C16" s="11">
-        <v>10.533140714285716</v>
+        <v>10.494477333333334</v>
       </c>
       <c r="D16" s="12">
-        <v>10.201606153846154</v>
+        <v>10.228620000000001</v>
       </c>
       <c r="E16" s="12">
-        <v>16.916487500000002</v>
+        <v>16.8611</v>
       </c>
       <c r="F16" s="12">
-        <v>7.1570916666666671</v>
+        <v>7.1606223076923081</v>
       </c>
       <c r="G16" s="12">
-        <v>15.087406666666668</v>
+        <v>15.064468750000001</v>
       </c>
       <c r="H16" s="21">
-        <v>15.067394117647057</v>
+        <v>15.01901111111111</v>
       </c>
       <c r="I16" s="21">
-        <v>12.863109770114939</v>
+        <v>12.814175591397849</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -18598,25 +19986,25 @@
         <v>29</v>
       </c>
       <c r="C21" s="11">
-        <v>4.2038283333333339</v>
+        <v>4.3109900000000003</v>
       </c>
       <c r="D21" s="12">
-        <v>4.192392857142857</v>
+        <v>4.2156649999999996</v>
       </c>
       <c r="E21" s="12">
-        <v>5.263916</v>
+        <v>5.3905999999999992</v>
       </c>
       <c r="F21" s="12">
-        <v>6.6812950000000013</v>
+        <v>6.7510214285714296</v>
       </c>
       <c r="G21" s="12">
-        <v>5.8949074999999995</v>
+        <v>5.9283671428571427</v>
       </c>
       <c r="H21" s="21">
-        <v>4.668812</v>
+        <v>4.8485199999999997</v>
       </c>
       <c r="I21" s="21">
-        <v>5.0879018181818187</v>
+        <v>5.1919116279069755</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -18666,25 +20054,25 @@
         <v>27</v>
       </c>
       <c r="C24" s="11">
-        <v>2.38863</v>
+        <v>2.2576000000000001</v>
       </c>
       <c r="D24" s="12">
-        <v>2.8887900000000002</v>
+        <v>2.9144000000000001</v>
       </c>
       <c r="E24" s="12">
         <v>4.9249700000000001</v>
       </c>
       <c r="F24" s="12">
-        <v>3.1976900000000001</v>
+        <v>3.014745</v>
       </c>
       <c r="G24" s="12">
-        <v>4.5509500000000003</v>
+        <v>4.2579000000000002</v>
       </c>
       <c r="H24" s="21">
-        <v>5.0518850000000004</v>
+        <v>5.0139125</v>
       </c>
       <c r="I24" s="21">
-        <v>3.86794875</v>
+        <v>3.6694606666666667</v>
       </c>
     </row>
     <row r="25" spans="2:9">
@@ -18713,55 +20101,73 @@
         <v>3.6049100000000003</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15.75" thickBot="1">
+    <row r="26" spans="2:9">
       <c r="B26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="11">
         <v>3.1853899999999999</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12">
         <v>3.0426899999999999</v>
       </c>
-      <c r="H26" s="25"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="21">
         <v>3.1140400000000001</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="23">
+        <v>1.15449</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0.741757</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="21">
+        <v>1.0169123333333332</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B28" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="14">
-        <v>11.20596961038961</v>
+      <c r="C28" s="14">
+        <v>10.829346593406594</v>
       </c>
-      <c r="D27" s="15">
-        <v>10.197259487179489</v>
+      <c r="D28" s="15">
+        <v>10.196061215909092</v>
       </c>
-      <c r="E27" s="15">
-        <v>14.839924305555554</v>
+      <c r="E28" s="15">
+        <v>14.876366282051281</v>
       </c>
-      <c r="F27" s="15">
-        <v>12.970884166666666</v>
+      <c r="F28" s="15">
+        <v>12.987149746835442</v>
       </c>
-      <c r="G27" s="15">
-        <v>16.588381408450704</v>
+      <c r="G28" s="15">
+        <v>16.38091168674698</v>
       </c>
-      <c r="H27" s="15">
-        <v>15.820491447368418</v>
+      <c r="H28" s="15">
+        <v>15.645711609195398</v>
       </c>
-      <c r="I27" s="19">
-        <v>13.544297174887891</v>
+      <c r="I28" s="19">
+        <v>13.418691515810274</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="31" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="53" ht="15.75" thickBot="1"/>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="C8:H8 C9:H9 C10:H10 C11:H11 C12:H12 C13:H13 C14:H14 C15:H15 C16:H16 C17:H17 C18:H18 C19:H19 C20:H20 C21:H21 C22:H22 C23:H23 C24:H24 C25:H25 C26:H26">
+  <conditionalFormatting pivot="1" sqref="C8:H8 C9:H9 C10:H10 C11:H11 C12:H12 C13:H13 C14:H14 C15:H15 C16:H16 C17:H17 C18:H18 C19:H19 C20:H20 C21:H21 C22:H22 C23:H23 C24:H24 C25:H25 C26:H26 C27:H27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -18773,7 +20179,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="I9 I8 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26">
+  <conditionalFormatting pivot="1" sqref="I9 I8 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/doc/benchmarks.xlsx
+++ b/doc/benchmarks.xlsx
@@ -165,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -293,38 +293,18 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" pivotButton="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -364,280 +344,13 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="589">
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
+  <dxfs count="149">
     <dxf>
       <alignment textRotation="70" readingOrder="0"/>
     </dxf>
@@ -1217,458 +930,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <right style="medium">
           <color indexed="64"/>
@@ -1687,2938 +948,6 @@
         <right style="medium">
           <color indexed="64"/>
         </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="70" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
       </border>
     </dxf>
     <dxf>
@@ -5286,13 +1615,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium16 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="588"/>
-      <tableStyleElement type="headerRow" dxfId="587"/>
-      <tableStyleElement type="totalRow" dxfId="586"/>
-      <tableStyleElement type="firstColumn" dxfId="585"/>
-      <tableStyleElement type="lastColumn" dxfId="584"/>
-      <tableStyleElement type="firstRowStripe" dxfId="583"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="582"/>
+      <tableStyleElement type="wholeTable" dxfId="148"/>
+      <tableStyleElement type="headerRow" dxfId="147"/>
+      <tableStyleElement type="totalRow" dxfId="146"/>
+      <tableStyleElement type="firstColumn" dxfId="145"/>
+      <tableStyleElement type="lastColumn" dxfId="144"/>
+      <tableStyleElement type="firstRowStripe" dxfId="143"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="142"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -5534,7 +1863,7 @@
                   <c:v>23.908349999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.174720000000004</c:v>
+                  <c:v>16.170292307692311</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.078799999999999</c:v>
@@ -5680,7 +2009,7 @@
                   <c:v>24.684950000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.881148181818183</c:v>
+                  <c:v>14.934685217391305</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.1652</c:v>
@@ -5823,7 +2152,7 @@
                   <c:v>33.08175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.12504736842105</c:v>
+                  <c:v>19.156039999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>15.762074999999999</c:v>
@@ -5963,7 +2292,7 @@
                   <c:v>24.061250000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.228029090909093</c:v>
+                  <c:v>18.285636521739132</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17.642025</c:v>
@@ -6100,7 +2429,7 @@
                   <c:v>33.013099999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.870420000000003</c:v>
+                  <c:v>24.916357142857144</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>24.884699999999999</c:v>
@@ -6246,7 +2575,7 @@
                   <c:v>31.0808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.157331818181817</c:v>
+                  <c:v>23.20144347826087</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19.989366666666665</c:v>
@@ -6299,25 +2628,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="62219008"/>
-        <c:axId val="62220544"/>
+        <c:axId val="82396672"/>
+        <c:axId val="82398208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62219008"/>
+        <c:axId val="82396672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62220544"/>
+        <c:crossAx val="82398208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62220544"/>
+        <c:axId val="82398208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6331,7 +2660,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="62219008"/>
+        <c:crossAx val="82396672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6344,7 +2673,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.25" r="0.25" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.25" r="0.25" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -6386,14 +2715,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nico" refreshedDate="40373.59061712963" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="506">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nico" refreshedDate="40373.755363888886" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="512">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="21">
     <cacheField name="id" numFmtId="0" sqlType="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="519"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="525"/>
     </cacheField>
     <cacheField name="timestamp" numFmtId="0" sqlType="11">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-07-02T17:05:18" maxDate="2010-07-14T13:59:33"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-07-02T17:05:18" maxDate="2010-07-14T15:13:54"/>
     </cacheField>
     <cacheField name="benchmark_id" numFmtId="0" sqlType="4">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5" count="6">
@@ -6662,7 +2991,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="506">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="512">
   <r>
     <n v="16"/>
     <d v="2010-07-02T17:08:17"/>
@@ -17794,6 +14123,138 @@
     <x v="0"/>
     <x v="0"/>
     <s v="355299031261125"/>
+  </r>
+  <r>
+    <n v="520"/>
+    <d v="2010-07-14T15:12:12"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="24.171900000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032586151"/>
+  </r>
+  <r>
+    <n v="521"/>
+    <d v="2010-07-14T15:12:41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="25.835100000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032586151"/>
+  </r>
+  <r>
+    <n v="522"/>
+    <d v="2010-07-14T15:12:59"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.553000000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032586151"/>
+  </r>
+  <r>
+    <n v="523"/>
+    <d v="2010-07-14T15:13:18"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.112500000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="354957032586151"/>
+  </r>
+  <r>
+    <n v="524"/>
+    <d v="2010-07-14T15:13:36"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16.0596"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032586151"/>
+  </r>
+  <r>
+    <n v="525"/>
+    <d v="2010-07-14T15:13:54"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="19.744900000000001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="FRF91"/>
+    <s v="FRF91"/>
+    <x v="0"/>
+    <s v="passion"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="google/passion/passion/mahimahi:2.2/FRF91/43546:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354957032586151"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -18054,167 +14515,167 @@
     <dataField name="FPS" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="71">
-    <format dxfId="581">
+    <format dxfId="141">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="580">
+    <format dxfId="140">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="579">
+    <format dxfId="139">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="578">
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="577">
+    <format dxfId="137">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="576">
+    <format dxfId="136">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="575">
+    <format dxfId="135">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="574">
+    <format dxfId="134">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="573">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="572">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="571">
+    <format dxfId="131">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="570">
+    <format dxfId="130">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="569">
+    <format dxfId="129">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="568">
+    <format dxfId="128">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="567">
+    <format dxfId="127">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="566">
+    <format dxfId="126">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="565">
+    <format dxfId="125">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="564">
+    <format dxfId="124">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="563">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="562">
+    <format dxfId="122">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="561">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="560">
+    <format dxfId="120">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="559">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="558">
+    <format dxfId="118">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="557">
+    <format dxfId="117">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="556">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="555">
+    <format dxfId="115">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="554">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="553">
+    <format dxfId="113">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="552">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="551">
+    <format dxfId="111">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="550">
+    <format dxfId="110">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="549">
+    <format dxfId="109">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="548">
+    <format dxfId="108">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="547">
+    <format dxfId="107">
       <pivotArea field="6" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="546">
+    <format dxfId="106">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="545">
+    <format dxfId="105">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -18223,7 +14684,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="544">
+    <format dxfId="104">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -18232,7 +14693,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="543">
+    <format dxfId="103">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -18241,7 +14702,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="542">
+    <format dxfId="102">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -18250,7 +14711,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="541">
+    <format dxfId="101">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -18259,7 +14720,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="540">
+    <format dxfId="100">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -18268,7 +14729,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="539">
+    <format dxfId="99">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -18277,7 +14738,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="538">
+    <format dxfId="98">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -18286,7 +14747,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="537">
+    <format dxfId="97">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -18295,7 +14756,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="536">
+    <format dxfId="96">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -18304,7 +14765,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="535">
+    <format dxfId="95">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -18313,7 +14774,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="534">
+    <format dxfId="94">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -18322,7 +14783,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="533">
+    <format dxfId="93">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -18331,7 +14792,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="532">
+    <format dxfId="92">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -18340,7 +14801,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="531">
+    <format dxfId="91">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -18349,7 +14810,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="90">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18359,7 +14820,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="89">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18369,7 +14830,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="88">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18379,7 +14840,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="87">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18389,7 +14850,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="86">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18399,7 +14860,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="85">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18409,7 +14870,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="84">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18419,7 +14880,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="83">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18429,7 +14890,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="82">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18439,7 +14900,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="81">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18449,7 +14910,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="80">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18459,7 +14920,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="79">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18469,7 +14930,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="78">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18479,7 +14940,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="77">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18489,7 +14950,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="76">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18499,7 +14960,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="75">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18509,7 +14970,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="74">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18519,7 +14980,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="73">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18529,7 +14990,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="72">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18539,7 +15000,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="71">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -18551,6 +15012,210 @@
     </format>
   </formats>
   <conditionalFormats count="2">
+    <conditionalFormat priority="1">
+      <pivotAreas count="20">
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="14"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="16"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="10"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="18"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="20"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="22"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="12"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="8"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="20" count="1">
+              <x v="21"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
     <conditionalFormat priority="2">
       <pivotAreas count="20">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -18907,210 +15572,6 @@
               <x v="3"/>
               <x v="4"/>
               <x v="5"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="21"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="1">
-      <pivotAreas count="20">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="22"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
             </reference>
             <reference field="20" count="1">
               <x v="21"/>
@@ -19579,7 +16040,7 @@
   <dimension ref="B2:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -19677,7 +16138,7 @@
       <c r="H8" s="22">
         <v>31.0808</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="23">
         <v>28.305033333333331</v>
       </c>
     </row>
@@ -19686,25 +16147,25 @@
         <v>6</v>
       </c>
       <c r="C9" s="11">
-        <v>16.174720000000004</v>
+        <v>16.170292307692311</v>
       </c>
       <c r="D9" s="12">
-        <v>14.881148181818183</v>
+        <v>14.934685217391305</v>
       </c>
       <c r="E9" s="12">
-        <v>19.12504736842105</v>
+        <v>19.156039999999997</v>
       </c>
       <c r="F9" s="12">
-        <v>18.228029090909093</v>
+        <v>18.285636521739132</v>
       </c>
       <c r="G9" s="12">
-        <v>24.870420000000003</v>
+        <v>24.916357142857144</v>
       </c>
       <c r="H9" s="21">
-        <v>23.157331818181817</v>
+        <v>23.20144347826087</v>
       </c>
-      <c r="I9" s="21">
-        <v>19.253965384615384</v>
+      <c r="I9" s="24">
+        <v>19.297738970588238</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -19723,7 +16184,7 @@
         <v>24.884699999999999</v>
       </c>
       <c r="H10" s="21"/>
-      <c r="I10" s="21">
+      <c r="I10" s="24">
         <v>16.376233333333332</v>
       </c>
     </row>
@@ -19749,7 +16210,7 @@
       <c r="H11" s="21">
         <v>19.989366666666665</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="24">
         <v>16.006183333333329</v>
       </c>
     </row>
@@ -19775,7 +16236,7 @@
       <c r="H12" s="21">
         <v>18.555135714285715</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="24">
         <v>15.563862777777778</v>
       </c>
     </row>
@@ -19801,7 +16262,7 @@
       <c r="H13" s="21">
         <v>25.3642</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="24">
         <v>15.206027142857142</v>
       </c>
     </row>
@@ -19827,7 +16288,7 @@
       <c r="H14" s="21">
         <v>16.0914</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="24">
         <v>14.147066666666666</v>
       </c>
     </row>
@@ -19851,7 +16312,7 @@
       <c r="H15" s="21">
         <v>16.570699999999999</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="24">
         <v>14.112410000000001</v>
       </c>
     </row>
@@ -19899,7 +16360,7 @@
       <c r="H17" s="21">
         <v>7.8437000000000001</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="24">
         <v>11.795909999999999</v>
       </c>
     </row>
@@ -19925,7 +16386,7 @@
       <c r="H18" s="21">
         <v>9.4552849999999999</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="24">
         <v>11.337733999999999</v>
       </c>
     </row>
@@ -20029,7 +16490,7 @@
       <c r="H22" s="21">
         <v>4.8528500000000001</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="24">
         <v>4.8211880000000003</v>
       </c>
     </row>
@@ -20045,7 +16506,7 @@
       <c r="H23" s="21">
         <v>4.2819700000000003</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="24">
         <v>4.2819700000000003</v>
       </c>
     </row>
@@ -20071,7 +16532,7 @@
       <c r="H24" s="21">
         <v>5.0139125</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="24">
         <v>3.6694606666666667</v>
       </c>
     </row>
@@ -20097,7 +16558,7 @@
       <c r="H25" s="21">
         <v>4.9798450000000001</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="24">
         <v>3.6049100000000003</v>
       </c>
     </row>
@@ -20115,7 +16576,7 @@
         <v>3.0426899999999999</v>
       </c>
       <c r="H26" s="21"/>
-      <c r="I26" s="21">
+      <c r="I26" s="24">
         <v>3.1140400000000001</v>
       </c>
     </row>
@@ -20123,16 +16584,16 @@
       <c r="B27" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="11">
         <v>1.15449</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="12">
         <v>0.741757</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="21">
         <v>1.0169123333333332</v>
       </c>
@@ -20142,25 +16603,25 @@
         <v>7</v>
       </c>
       <c r="C28" s="14">
-        <v>10.829346593406594</v>
+        <v>10.886197173913043</v>
       </c>
       <c r="D28" s="15">
-        <v>10.196061215909092</v>
+        <v>10.262538056179777</v>
       </c>
       <c r="E28" s="15">
-        <v>14.876366282051281</v>
+        <v>14.937993291139241</v>
       </c>
       <c r="F28" s="15">
-        <v>12.987149746835442</v>
+        <v>13.069222874999998</v>
       </c>
       <c r="G28" s="15">
-        <v>16.38091168674698</v>
+        <v>16.493461547619045</v>
       </c>
       <c r="H28" s="15">
-        <v>15.645711609195398</v>
+        <v>15.74260011363636</v>
       </c>
       <c r="I28" s="19">
-        <v>13.418691515810274</v>
+        <v>13.498700990234372</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.75" thickBot="1"/>

--- a/doc/benchmarks.xlsx
+++ b/doc/benchmarks.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>TickerText</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Emulator</t>
+  </si>
+  <si>
+    <t>LG GT540</t>
   </si>
 </sst>
 </file>
@@ -350,7 +353,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="149">
+  <dxfs count="456">
     <dxf>
       <alignment textRotation="70" readingOrder="0"/>
     </dxf>
@@ -941,6 +944,2535 @@
         <right style="medium">
           <color indexed="64"/>
         </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="70" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
       </border>
     </dxf>
     <dxf>
@@ -1615,13 +4147,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium16 2" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="148"/>
-      <tableStyleElement type="headerRow" dxfId="147"/>
-      <tableStyleElement type="totalRow" dxfId="146"/>
-      <tableStyleElement type="firstColumn" dxfId="145"/>
-      <tableStyleElement type="lastColumn" dxfId="144"/>
-      <tableStyleElement type="firstRowStripe" dxfId="143"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="142"/>
+      <tableStyleElement type="wholeTable" dxfId="455"/>
+      <tableStyleElement type="headerRow" dxfId="454"/>
+      <tableStyleElement type="totalRow" dxfId="453"/>
+      <tableStyleElement type="firstColumn" dxfId="452"/>
+      <tableStyleElement type="lastColumn" dxfId="451"/>
+      <tableStyleElement type="firstRowStripe" dxfId="450"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="449"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -1787,9 +4319,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$28</c:f>
+              <c:f>Benchmarks!$B$8:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -1821,33 +4353,36 @@
                   <c:v>HTC Legend</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>LG GT540</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Nuvifone A50</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>HTC Dream (G1)</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>HTC Magic</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Docomo HT-03A</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Samsung Galaxy Spica</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>HTC Wildfire</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Emulator</c:v>
                 </c:pt>
               </c:strCache>
@@ -1855,12 +4390,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$C$8:$C$28</c:f>
+              <c:f>Benchmarks!$C$8:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>23.908349999999999</c:v>
+                  <c:v>23.260333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16.170292307692311</c:v>
@@ -1872,7 +4407,7 @@
                   <c:v>13.176500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.121348333333332</c:v>
+                  <c:v>12.142059999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>12.5755</c:v>
@@ -1887,30 +4422,33 @@
                   <c:v>10.494477333333334</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>6.6895100000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>8.0224499999999992</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>7.3076100000000004</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5.057993999999999</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>4.3109900000000003</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>4.1200933333333341</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>2.2576000000000001</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>3.8895749999999998</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>3.1853899999999999</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>1.15449</c:v>
                 </c:pt>
               </c:numCache>
@@ -1933,9 +4471,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$28</c:f>
+              <c:f>Benchmarks!$B$8:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -1967,33 +4505,36 @@
                   <c:v>HTC Legend</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>LG GT540</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Nuvifone A50</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>HTC Dream (G1)</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>HTC Magic</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Docomo HT-03A</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Samsung Galaxy Spica</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>HTC Wildfire</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Emulator</c:v>
                 </c:pt>
               </c:strCache>
@@ -2001,12 +4542,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$D$8:$D$28</c:f>
+              <c:f>Benchmarks!$D$8:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>24.684950000000001</c:v>
+                  <c:v>23.668566666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14.934685217391305</c:v>
@@ -2030,30 +4571,33 @@
                   <c:v>9.7285849999999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.228620000000001</c:v>
+                  <c:v>10.252432000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>5.4803899999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>6.6300400000000002</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>5.6898900000000001</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.9686666666666666</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>4.8675899999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>4.2156649999999996</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.0599833333333333</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="15">
+                  <c:v>3.3009675000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2.9144000000000001</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>2.4960599999999999</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>0.741757</c:v>
                 </c:pt>
               </c:numCache>
@@ -2076,9 +4620,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$28</c:f>
+              <c:f>Benchmarks!$B$8:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -2110,33 +4654,36 @@
                   <c:v>HTC Legend</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>LG GT540</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Nuvifone A50</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>HTC Dream (G1)</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>HTC Magic</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Docomo HT-03A</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Samsung Galaxy Spica</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>HTC Wildfire</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Emulator</c:v>
                 </c:pt>
               </c:strCache>
@@ -2144,12 +4691,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$E$8:$E$28</c:f>
+              <c:f>Benchmarks!$E$8:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33.08175</c:v>
+                  <c:v>32.443999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19.156039999999997</c:v>
@@ -2170,30 +4717,33 @@
                   <c:v>12.228999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.8611</c:v>
+                  <c:v>16.765694444444446</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9.7283600000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>10.4442</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>10.94285</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>11.763299999999999</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>6.2735974999999993</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>5.3905999999999992</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.5903749999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="15">
+                  <c:v>5.4369666666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>4.9249700000000001</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>5.5962666666666658</c:v>
                 </c:pt>
               </c:numCache>
@@ -2216,9 +4766,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$28</c:f>
+              <c:f>Benchmarks!$B$8:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -2250,33 +4800,36 @@
                   <c:v>HTC Legend</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>LG GT540</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Nuvifone A50</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>HTC Dream (G1)</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>HTC Magic</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Docomo HT-03A</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Samsung Galaxy Spica</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>HTC Wildfire</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Emulator</c:v>
                 </c:pt>
               </c:strCache>
@@ -2284,12 +4837,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$F$8:$F$28</c:f>
+              <c:f>Benchmarks!$F$8:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>24.061250000000001</c:v>
+                  <c:v>23.864466666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18.285636521739132</c:v>
@@ -2307,30 +4860,33 @@
                   <c:v>14.666499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1606223076923081</c:v>
+                  <c:v>7.1630671428571437</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>21.8948</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>28.2043</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>19.357900000000001</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>14.8971</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>7.1158760000000001</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>6.7510214285714296</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.2247775000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="15">
+                  <c:v>6.3367260000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>3.014745</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1.5805933333333335</c:v>
                 </c:pt>
               </c:numCache>
@@ -2353,9 +4909,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$28</c:f>
+              <c:f>Benchmarks!$B$8:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -2387,33 +4943,36 @@
                   <c:v>HTC Legend</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>LG GT540</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Nuvifone A50</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>HTC Dream (G1)</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>HTC Magic</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Docomo HT-03A</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Samsung Galaxy Spica</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>HTC Wildfire</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Emulator</c:v>
                 </c:pt>
               </c:strCache>
@@ -2421,12 +4980,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$G$8:$G$28</c:f>
+              <c:f>Benchmarks!$G$8:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>33.013099999999994</c:v>
+                  <c:v>30.548099999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24.916357142857144</c:v>
@@ -2450,33 +5009,36 @@
                   <c:v>18.615500000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.064468750000001</c:v>
+                  <c:v>15.026100000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9.7563449999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>9.8918999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>9.6063899999999993</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>10.223100000000001</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.5940475000000003</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>6.5532939999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>5.9283671428571427</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.9920299999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="15">
+                  <c:v>5.5894949999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>4.2579000000000002</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>3.3733599999999999</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>3.0426899999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2499,9 +5061,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Benchmarks!$B$8:$B$28</c:f>
+              <c:f>Benchmarks!$B$8:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>Samsung Galaxy S</c:v>
                 </c:pt>
@@ -2533,33 +5095,36 @@
                   <c:v>HTC Legend</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>LG GT540</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Sony Ericsson x10i Mini</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>Nuvifone A50</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>HTC Hero/Droid Eris</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>HTC Dream (G1)</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>HTC Magic</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>Docomo HT-03A</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>Samsung Galaxy Spica</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>HTC Tattoo</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>HTC Wildfire</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Emulator</c:v>
                 </c:pt>
               </c:strCache>
@@ -2567,12 +5132,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Benchmarks!$H$8:$H$28</c:f>
+              <c:f>Benchmarks!$H$8:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>31.0808</c:v>
+                  <c:v>31.139666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>23.20144347826087</c:v>
@@ -2593,33 +5158,36 @@
                   <c:v>16.570699999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.01901111111111</c:v>
+                  <c:v>14.939500000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7.8437000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>10.0405</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>9.4552849999999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>8.0161899999999999</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5.74648</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.8485199999999997</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8528500000000001</c:v>
+                  <c:v>4.7086375</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>4.9945666666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4.2819700000000003</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>5.0139125</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>4.9798450000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -2628,25 +5196,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="82396672"/>
-        <c:axId val="82398208"/>
+        <c:axId val="76269056"/>
+        <c:axId val="76270592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82396672"/>
+        <c:axId val="76269056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82398208"/>
+        <c:crossAx val="76270592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82398208"/>
+        <c:axId val="76270592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,7 +5228,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="82396672"/>
+        <c:crossAx val="76269056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2673,7 +5241,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.25" r="0.25" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.25" r="0.25" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2715,14 +5283,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nico" refreshedDate="40373.755363888886" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="512">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="nico" refreshedDate="40374.712686342595" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="538">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="21">
     <cacheField name="id" numFmtId="0" sqlType="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="525"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="12" maxValue="552"/>
     </cacheField>
     <cacheField name="timestamp" numFmtId="0" sqlType="11">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-07-02T17:05:18" maxDate="2010-07-14T15:13:54"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2010-07-02T17:05:18" maxDate="2010-07-15T16:50:53"/>
     </cacheField>
     <cacheField name="benchmark_id" numFmtId="0" sqlType="4">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5" count="6">
@@ -2735,7 +5303,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="benchmark_versionname" numFmtId="0" sqlType="12">
-      <sharedItems count="12">
+      <sharedItems count="13">
         <s v="1.1.5"/>
         <s v="1.1.1"/>
         <s v="1.1.4"/>
@@ -2746,12 +5314,13 @@
         <s v="1.1.9"/>
         <s v="1.2.0"/>
         <s v="1.2.3"/>
+        <s v="1.2.4"/>
         <s v="" u="1"/>
         <s v="benchmark_versionname" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="benchmark_versioncode" numFmtId="0" sqlType="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="23" count="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9" maxValue="24" count="11">
         <n v="15"/>
         <n v="11"/>
         <n v="14"/>
@@ -2762,13 +5331,14 @@
         <n v="19"/>
         <n v="20"/>
         <n v="23"/>
+        <n v="24"/>
       </sharedItems>
     </cacheField>
     <cacheField name="benchmark_fps" numFmtId="0" sqlType="7">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.741757" maxValue="40.272399999999998"/>
     </cacheField>
     <cacheField name="device_model" numFmtId="0" sqlType="12">
-      <sharedItems count="33">
+      <sharedItems count="34">
         <s v="Nexus One"/>
         <s v="HTC Tattoo"/>
         <s v="T-Mobile G1"/>
@@ -2799,6 +5369,7 @@
         <s v="FroyoEris"/>
         <s v="sdk"/>
         <s v="Android Dev Phone 1"/>
+        <s v="GT540"/>
         <s v="" u="1"/>
         <s v="device_model" u="1"/>
         <s v="HTC Nexus One" u="1"/>
@@ -2828,7 +5399,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="device_manufacturer" numFmtId="0" sqlType="12">
-      <sharedItems count="9">
+      <sharedItems count="10">
         <s v="HTC"/>
         <s v="Acer"/>
         <s v="samsung"/>
@@ -2836,6 +5407,7 @@
         <s v="Sony Ericsson"/>
         <s v="garmin-asus"/>
         <s v="unknown"/>
+        <s v="LG electronics"/>
         <s v="" u="1"/>
         <s v="device_manufacturer" u="1"/>
       </sharedItems>
@@ -2847,7 +5419,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="device_device" numFmtId="0" sqlType="12">
-      <sharedItems count="22">
+      <sharedItems count="23">
         <s v="passion"/>
         <s v="bahamas"/>
         <s v="dream"/>
@@ -2870,6 +5442,7 @@
         <s v="desirec"/>
         <s v="a50"/>
         <s v="generic"/>
+        <s v="swift"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_product" numFmtId="0" sqlType="12">
@@ -2882,7 +5455,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="device_board" numFmtId="0" sqlType="12">
-      <sharedItems count="20">
+      <sharedItems count="21">
         <s v="mahimahi"/>
         <s v="bahamas"/>
         <s v="trout"/>
@@ -2903,6 +5476,7 @@
         <s v="desirec"/>
         <s v="A50"/>
         <s v="unknown"/>
+        <s v="swift"/>
       </sharedItems>
     </cacheField>
     <cacheField name="device_fingerprint" numFmtId="0" sqlType="12">
@@ -2924,7 +5498,7 @@
     </cacheField>
     <cacheField name="Device2" numFmtId="0" databaseField="0">
       <fieldGroup base="6">
-        <discretePr count="33">
+        <discretePr count="34">
           <x v="0"/>
           <x v="1"/>
           <x v="22"/>
@@ -2955,11 +5529,12 @@
           <x v="20"/>
           <x v="21"/>
           <x v="22"/>
+          <x v="23"/>
           <x v="13"/>
           <x v="14"/>
           <x v="15"/>
         </discretePr>
-        <groupItems count="23">
+        <groupItems count="24">
           <s v="Nexus One"/>
           <s v="HTC Tattoo"/>
           <s v="Liquid"/>
@@ -2983,6 +5558,7 @@
           <s v="Gruppe1"/>
           <s v="sdk"/>
           <s v="Gruppe5"/>
+          <s v="GT540"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -2991,7 +5567,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="512">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="538">
   <r>
     <n v="16"/>
     <d v="2010-07-02T17:08:17"/>
@@ -14256,12 +16832,584 @@
     <x v="0"/>
     <s v="354957032586151"/>
   </r>
+  <r>
+    <n v="527"/>
+    <d v="2010-07-14T18:36:11"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13.5083"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="SHOLS_U2_02.31.0"/>
+    <s v="SHOLS_U2_02.31.0"/>
+    <x v="8"/>
+    <s v="umts_sholes"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Moto_RTEU/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267742362:user/rkeys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635030134717"/>
+  </r>
+  <r>
+    <n v="528"/>
+    <d v="2010-07-14T18:36:39"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14.4122"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="SHOLS_U2_02.31.0"/>
+    <s v="SHOLS_U2_02.31.0"/>
+    <x v="8"/>
+    <s v="umts_sholes"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Moto_RTEU/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267742362:user/rkeys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635030134717"/>
+  </r>
+  <r>
+    <n v="529"/>
+    <d v="2010-07-14T18:36:59"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7.1948499999999997"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="SHOLS_U2_02.31.0"/>
+    <s v="SHOLS_U2_02.31.0"/>
+    <x v="8"/>
+    <s v="umts_sholes"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Moto_RTEU/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267742362:user/rkeys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635030134717"/>
+  </r>
+  <r>
+    <n v="530"/>
+    <d v="2010-07-14T18:37:29"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.585800000000001"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="SHOLS_U2_02.31.0"/>
+    <s v="SHOLS_U2_02.31.0"/>
+    <x v="8"/>
+    <s v="umts_sholes"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Moto_RTEU/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267742362:user/rkeys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="354635030134717"/>
+  </r>
+  <r>
+    <n v="531"/>
+    <d v="2010-07-14T18:37:47"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15.143800000000001"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="SHOLS_U2_02.31.0"/>
+    <s v="SHOLS_U2_02.31.0"/>
+    <x v="8"/>
+    <s v="umts_sholes"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Moto_RTEU/umts_sholes/umts_sholes/sholes:2.1-update1/SHOLS_U2_02.31.0/1267742362:user/rkeys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354635030134717"/>
+  </r>
+  <r>
+    <n v="532"/>
+    <d v="2010-07-14T23:25:30"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.72946"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="DRC83"/>
+    <s v="dream_devphone-userdebug 1.6 DRC83 14721 test-keys"/>
+    <x v="2"/>
+    <s v="dream_devphone"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="android-devphone1/dream_devphone/dream/trout:1.6/DRC83/14721:userdebug/adp,test-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="358279013719990"/>
+  </r>
+  <r>
+    <n v="533"/>
+    <d v="2010-07-15T03:22:32"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.1301500000000004"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="EPE54B"/>
+    <s v="EPE54B"/>
+    <x v="7"/>
+    <s v="opal"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354059021934557"/>
+  </r>
+  <r>
+    <n v="534"/>
+    <d v="2010-07-15T03:23:14"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.0239200000000004"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="EPE54B"/>
+    <s v="EPE54B"/>
+    <x v="7"/>
+    <s v="opal"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="354059021934557"/>
+  </r>
+  <r>
+    <n v="535"/>
+    <d v="2010-07-15T03:23:41"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6.7845199999999997"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="EPE54B"/>
+    <s v="EPE54B"/>
+    <x v="7"/>
+    <s v="opal"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354059021934557"/>
+  </r>
+  <r>
+    <n v="536"/>
+    <d v="2010-07-15T03:24:11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6.18696"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="EPE54B"/>
+    <s v="EPE54B"/>
+    <x v="7"/>
+    <s v="opal"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354059021934557"/>
+  </r>
+  <r>
+    <n v="537"/>
+    <d v="2010-07-15T03:24:45"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.2779999999999996"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="EPE54B"/>
+    <s v="EPE54B"/>
+    <x v="7"/>
+    <s v="opal"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="google/passion/passion/mahimahi:2.1-update1/ERE27/24178:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="354059021934557"/>
+  </r>
+  <r>
+    <n v="538"/>
+    <d v="2010-07-15T09:53:14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.4442"/>
+    <x v="30"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="Donut"/>
+    <s v="Donut.V10d"/>
+    <x v="22"/>
+    <s v="swift"/>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="lge/swift/swift/swift:1.6/Donut/V10d:ORGPL20100429.030007user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="352166040435789"/>
+  </r>
+  <r>
+    <n v="539"/>
+    <d v="2010-07-15T09:53:32"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6.6895100000000003"/>
+    <x v="30"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="Donut"/>
+    <s v="Donut.V10d"/>
+    <x v="22"/>
+    <s v="swift"/>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="lge/swift/swift/swift:1.6/Donut/V10d:ORGPL20100429.030007user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="352166040435789"/>
+  </r>
+  <r>
+    <n v="540"/>
+    <d v="2010-07-15T09:53:52"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="5.4803899999999999"/>
+    <x v="30"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="Donut"/>
+    <s v="Donut.V10d"/>
+    <x v="22"/>
+    <s v="swift"/>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="lge/swift/swift/swift:1.6/Donut/V10d:ORGPL20100429.030007user/ota-rel-keys,release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="352166040435789"/>
+  </r>
+  <r>
+    <n v="541"/>
+    <d v="2010-07-15T09:54:13"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="28.2043"/>
+    <x v="30"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="Donut"/>
+    <s v="Donut.V10d"/>
+    <x v="22"/>
+    <s v="swift"/>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="lge/swift/swift/swift:1.6/Donut/V10d:ORGPL20100429.030007user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="352166040435789"/>
+  </r>
+  <r>
+    <n v="542"/>
+    <d v="2010-07-15T09:54:40"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="9.8918999999999997"/>
+    <x v="30"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="Donut"/>
+    <s v="Donut.V10d"/>
+    <x v="22"/>
+    <s v="swift"/>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="lge/swift/swift/swift:1.6/Donut/V10d:ORGPL20100429.030007user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="352166040435789"/>
+  </r>
+  <r>
+    <n v="543"/>
+    <d v="2010-07-15T09:55:50"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10.0405"/>
+    <x v="30"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
+    <s v="Donut"/>
+    <s v="Donut.V10d"/>
+    <x v="22"/>
+    <s v="swift"/>
+    <x v="1"/>
+    <x v="20"/>
+    <s v="lge/swift/swift/swift:1.6/Donut/V10d:ORGPL20100429.030007user/ota-rel-keys,release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="352166040435789"/>
+  </r>
+  <r>
+    <n v="544"/>
+    <d v="2010-07-15T14:31:44"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6.3902799999999997"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="16"/>
+    <s v="htc_hero"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357988020289943"/>
+  </r>
+  <r>
+    <n v="545"/>
+    <d v="2010-07-15T14:32:08"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4.2611299999999996"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="16"/>
+    <s v="htc_hero"/>
+    <x v="1"/>
+    <x v="14"/>
+    <s v="htc_wwe/htc_hero/hero/hero:2.1-update1/ERE27/3.32.405.1_191507:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="357988020289943"/>
+  </r>
+  <r>
+    <n v="546"/>
+    <d v="2010-07-15T15:04:19"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="12.390599999999999"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="ERE27"/>
+    <s v="ERE27"/>
+    <x v="11"/>
+    <s v="htc_bravo"/>
+    <x v="0"/>
+    <x v="8"/>
+    <s v="o2_de/htc_bravo/bravo/bravo:2.1-update1/ERE27/171460:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="357841037491830"/>
+  </r>
+  <r>
+    <n v="547"/>
+    <d v="2010-07-15T16:48:03"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="31.168500000000002"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="ECLAIR"/>
+    <s v="ECLAIR"/>
+    <x v="4"/>
+    <s v="GT-I9000"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/I9000XXJF3:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="351751041222525"/>
+  </r>
+  <r>
+    <n v="548"/>
+    <d v="2010-07-15T16:48:48"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="21.964300000000001"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="ECLAIR"/>
+    <s v="ECLAIR"/>
+    <x v="4"/>
+    <s v="GT-I9000"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/I9000XXJF3:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="351751041222525"/>
+  </r>
+  <r>
+    <n v="549"/>
+    <d v="2010-07-15T16:49:05"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="21.6358"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="ECLAIR"/>
+    <s v="ECLAIR"/>
+    <x v="4"/>
+    <s v="GT-I9000"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/I9000XXJF3:user/release-keys"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="351751041222525"/>
+  </r>
+  <r>
+    <n v="550"/>
+    <d v="2010-07-15T16:49:22"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="23.4709"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="ECLAIR"/>
+    <s v="ECLAIR"/>
+    <x v="4"/>
+    <s v="GT-I9000"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/I9000XXJF3:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="351751041222525"/>
+  </r>
+  <r>
+    <n v="551"/>
+    <d v="2010-07-15T16:49:53"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="25.618099999999998"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="ECLAIR"/>
+    <s v="ECLAIR"/>
+    <x v="4"/>
+    <s v="GT-I9000"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/I9000XXJF3:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="351751041222525"/>
+  </r>
+  <r>
+    <n v="552"/>
+    <d v="2010-07-15T16:50:53"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="31.257400000000001"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="ECLAIR"/>
+    <s v="ECLAIR"/>
+    <x v="4"/>
+    <s v="GT-I9000"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Samsung/GT-I9000/GT-I9000/GT-I9000:2.1-update1/ECLAIR/I9000XXJF3:user/release-keys"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="351751041222525"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Benchmarks" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" grandTotalCaption="Average" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Device" colHeaderCaption="Bench" fieldListSortAscending="1">
-  <location ref="B6:I28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <location ref="B6:I29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -14277,11 +17425,11 @@
       </items>
     </pivotField>
     <pivotField name="Benchmark Version" axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
+      <items count="14">
         <item x="2"/>
         <item x="3"/>
+        <item m="1" x="12"/>
         <item m="1" x="11"/>
-        <item m="1" x="10"/>
         <item x="0"/>
         <item x="1"/>
         <item x="4"/>
@@ -14290,17 +17438,18 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0" countASubtotal="1"/>
     <pivotField name="Device" axis="axisRow" showAll="0">
-      <items count="34">
+      <items count="35">
         <item x="17"/>
+        <item m="1" x="33"/>
         <item m="1" x="32"/>
         <item m="1" x="31"/>
-        <item m="1" x="30"/>
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item x="2"/>
@@ -14330,6 +17479,7 @@
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
+        <item x="30"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14351,16 +17501,17 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField name="Manufacturer" axis="axisPage" showAll="0">
-      <items count="10">
+      <items count="11">
+        <item m="1" x="9"/>
+        <item x="0"/>
         <item m="1" x="8"/>
-        <item x="0"/>
-        <item m="1" x="7"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14375,7 +17526,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="23">
+      <items count="24">
         <item n="Sony Ericsson X10i" sd="0" x="8"/>
         <item sd="0" x="0"/>
         <item n="Acer Liquid" sd="0" x="2"/>
@@ -14399,6 +17550,7 @@
         <item n="HTC Hero/Droid Eris" sd="0" x="20"/>
         <item n="Emulator" sd="0" x="21"/>
         <item n="HTC Dream (G1)" sd="0" x="22"/>
+        <item n="LG GT540" sd="0" x="23"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -14415,7 +17567,7 @@
     <field x="20"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="21">
+  <rowItems count="22">
     <i>
       <x v="9"/>
     </i>
@@ -14445,6 +17597,9 @@
     </i>
     <i>
       <x v="6"/>
+    </i>
+    <i>
+      <x v="23"/>
     </i>
     <i>
       <x v="11"/>
@@ -14514,168 +17669,168 @@
   <dataFields count="1">
     <dataField name="FPS" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
-  <formats count="71">
-    <format dxfId="141">
+  <formats count="72">
+    <format dxfId="448">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="140">
+    <format dxfId="447">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="139">
+    <format dxfId="446">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="138">
+    <format dxfId="445">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="444">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="136">
+    <format dxfId="443">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="135">
+    <format dxfId="442">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="134">
+    <format dxfId="441">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="133">
+    <format dxfId="440">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="132">
+    <format dxfId="439">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="131">
+    <format dxfId="438">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="130">
+    <format dxfId="437">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="129">
+    <format dxfId="436">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="128">
+    <format dxfId="435">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="127">
+    <format dxfId="434">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="126">
+    <format dxfId="433">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="125">
+    <format dxfId="432">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="124">
+    <format dxfId="431">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="123">
+    <format dxfId="430">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="122">
+    <format dxfId="429">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="428">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="427">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="426">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="118">
+    <format dxfId="425">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="117">
+    <format dxfId="424">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="116">
+    <format dxfId="423">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="115">
+    <format dxfId="422">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="421">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="113">
+    <format dxfId="420">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="419">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="7" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="111">
+    <format dxfId="418">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="110">
+    <format dxfId="417">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="109">
+    <format dxfId="416">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="108">
+    <format dxfId="415">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="414">
       <pivotArea field="6" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="1">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="106">
+    <format dxfId="413">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="412">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -14684,7 +17839,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="104">
+    <format dxfId="411">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -14693,7 +17848,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="103">
+    <format dxfId="410">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -14702,7 +17857,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="102">
+    <format dxfId="409">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -14711,7 +17866,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="101">
+    <format dxfId="408">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -14720,7 +17875,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="100">
+    <format dxfId="407">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -14729,7 +17884,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="99">
+    <format dxfId="406">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -14738,7 +17893,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="405">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -14747,7 +17902,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="404">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -14756,7 +17911,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="403">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -14765,7 +17920,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="402">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -14774,7 +17929,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="401">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -14783,7 +17938,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="93">
+    <format dxfId="400">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -14792,7 +17947,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="399">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -14801,7 +17956,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="91">
+    <format dxfId="398">
       <pivotArea field="20" grandCol="1" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="20" count="1">
@@ -14810,7 +17965,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="184">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14820,7 +17975,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="182">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14830,7 +17985,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="180">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14840,7 +17995,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="178">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14850,7 +18005,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="176">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14860,7 +18015,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="174">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14870,7 +18025,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="172">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14880,7 +18035,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="170">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14890,7 +18045,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="168">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14900,7 +18055,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="166">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14910,7 +18065,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="164">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="0" selected="0"/>
+          <reference field="20" count="1">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="163">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14920,7 +18085,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="161">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14930,7 +18095,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="159">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14940,7 +18105,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="157">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14950,7 +18115,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="155">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14960,7 +18125,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="153">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14970,7 +18135,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="151">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14980,7 +18145,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="149">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -14990,7 +18155,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="147">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -15000,7 +18165,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="145">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -15012,212 +18177,8 @@
     </format>
   </formats>
   <conditionalFormats count="2">
-    <conditionalFormat priority="1">
-      <pivotAreas count="20">
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="2"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="14"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="16"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="10"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="18"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="19"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="20"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="22"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="12"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="20" count="1">
-              <x v="8"/>
-            </reference>
-          </references>
-        </pivotArea>
-        <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294